--- a/IoT_Parts.xlsx
+++ b/IoT_Parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IoTPa\Documents\Brian\class_slides\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEA4FE1-638A-41EF-9CCA-FB2EA2DC6248}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9F9855-436A-4FA2-986A-4364D1C1DD9A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="330" windowWidth="17490" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="180" windowWidth="18360" windowHeight="15690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
   <si>
     <t>https://www.amazon.com/Display-Module-SSD1306-Du-pont-Arduino/dp/B07VDXYDVY/ref=sr_1_3?keywords=oled+i2c&amp;qid=1584130891&amp;sr=8-3</t>
   </si>
@@ -319,6 +319,18 @@
   </si>
   <si>
     <t>I2C Encoder</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/CHENBO-Weight-Weighing-Pressure-Arduion/dp/B078KS1NBB/ref=sr_1_4?dchild=1&amp;keywords=load+cell&amp;qid=1587667953&amp;s=electronics&amp;sr=1-4</t>
+  </si>
+  <si>
+    <t>CHENBO Load Cell Weight Sensor 1kg + HX711 Weight Weighing A/d Module Pressure Sensor</t>
+  </si>
+  <si>
+    <t>Load Cell Weight Sensor</t>
+  </si>
+  <si>
+    <t>Per Student Costs</t>
   </si>
 </sst>
 </file>
@@ -396,7 +408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -411,16 +423,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -704,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -714,8 +732,9 @@
     <col min="2" max="2" width="30.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="63.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="16.28515625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1" ht="63">
@@ -734,7 +753,7 @@
       <c r="E1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -754,7 +773,7 @@
       <c r="E2" s="3">
         <v>18</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="11">
         <f>D2*E2</f>
         <v>478.26</v>
       </c>
@@ -775,7 +794,7 @@
       <c r="E3" s="3">
         <v>2</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="11">
         <f t="shared" ref="F3:F16" si="0">D3*E3</f>
         <v>39.979999999999997</v>
       </c>
@@ -796,7 +815,7 @@
       <c r="E4" s="3">
         <v>18</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="11">
         <f t="shared" si="0"/>
         <v>449.82</v>
       </c>
@@ -817,7 +836,7 @@
       <c r="E5" s="3">
         <v>4</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="11">
         <f t="shared" si="0"/>
         <v>59.96</v>
       </c>
@@ -838,7 +857,7 @@
       <c r="E6" s="3">
         <v>4</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="11">
         <f t="shared" si="0"/>
         <v>47.44</v>
       </c>
@@ -859,7 +878,7 @@
       <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="11">
         <f t="shared" si="0"/>
         <v>11.99</v>
       </c>
@@ -880,7 +899,7 @@
       <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="11">
         <f t="shared" si="0"/>
         <v>16.989999999999998</v>
       </c>
@@ -901,7 +920,7 @@
       <c r="E9" s="3">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="11">
         <f t="shared" si="0"/>
         <v>30.72</v>
       </c>
@@ -922,7 +941,7 @@
       <c r="E10" s="3">
         <v>72</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="11">
         <f t="shared" si="0"/>
         <v>252</v>
       </c>
@@ -943,7 +962,7 @@
       <c r="E11" s="3">
         <v>18</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="11">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
@@ -964,13 +983,13 @@
       <c r="E12" s="3">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="11">
         <f t="shared" si="0"/>
         <v>99.8</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -985,13 +1004,13 @@
       <c r="E13" s="3">
         <v>18</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="11">
         <f t="shared" si="0"/>
         <v>53.1</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="6"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="3" t="s">
         <v>23</v>
       </c>
@@ -1004,7 +1023,7 @@
       <c r="E14" s="3">
         <v>18</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="11">
         <f t="shared" si="0"/>
         <v>53.1</v>
       </c>
@@ -1025,7 +1044,7 @@
       <c r="E15" s="3">
         <v>18</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="11">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
@@ -1046,7 +1065,7 @@
       <c r="E16" s="3">
         <v>18</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="11">
         <f t="shared" si="0"/>
         <v>98.100000000000009</v>
       </c>
@@ -1067,8 +1086,8 @@
       <c r="E17" s="3">
         <v>5</v>
       </c>
-      <c r="F17" s="3">
-        <f t="shared" ref="F17:F24" si="1">D17*E17</f>
+      <c r="F17" s="11">
+        <f t="shared" ref="F17:F25" si="1">D17*E17</f>
         <v>99.949999999999989</v>
       </c>
     </row>
@@ -1088,7 +1107,7 @@
       <c r="E18" s="3">
         <v>18</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="11">
         <f t="shared" si="1"/>
         <v>296.82</v>
       </c>
@@ -1109,7 +1128,7 @@
       <c r="E19" s="3">
         <v>6</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="11">
         <f t="shared" si="1"/>
         <v>77.94</v>
       </c>
@@ -1130,7 +1149,7 @@
       <c r="E20" s="3">
         <v>18</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="11">
         <f t="shared" si="1"/>
         <v>630</v>
       </c>
@@ -1151,7 +1170,7 @@
       <c r="E21" s="3">
         <v>5</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="11">
         <f t="shared" si="1"/>
         <v>129.94999999999999</v>
       </c>
@@ -1172,7 +1191,7 @@
       <c r="E22" s="3">
         <v>4</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="11">
         <f t="shared" si="1"/>
         <v>55.52</v>
       </c>
@@ -1193,7 +1212,7 @@
       <c r="E23" s="3">
         <v>18</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="11">
         <f t="shared" si="1"/>
         <v>178.20000000000002</v>
       </c>
@@ -1205,58 +1224,84 @@
       <c r="B24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="4" t="s">
         <v>87</v>
       </c>
       <c r="D24" s="3">
         <v>11.5</v>
       </c>
       <c r="E24" s="3">
-        <v>8</v>
-      </c>
-      <c r="F24" s="3">
+        <v>18</v>
+      </c>
+      <c r="F24" s="11">
         <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1">
-      <c r="B25" s="9"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1">
-      <c r="B26" s="9"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="51">
+      <c r="A25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="3">
+        <v>8.49</v>
+      </c>
+      <c r="E25" s="3">
+        <v>18</v>
+      </c>
+      <c r="F25" s="11">
+        <f t="shared" si="1"/>
+        <v>152.82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="21.75">
+      <c r="B26" s="7"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1">
-      <c r="B27" s="9"/>
+    <row r="27" spans="1:6" ht="21.75">
+      <c r="B27" s="7"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1">
-      <c r="B28" s="9"/>
+    <row r="28" spans="1:6" ht="21.75">
+      <c r="B28" s="7"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1">
-      <c r="B29" s="9"/>
+    <row r="29" spans="1:6" ht="21.75">
+      <c r="B29" s="7"/>
       <c r="C29" s="1"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="3">
-        <f>SUM(F2:F24)</f>
-        <v>3521.6399999999994</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1">
-      <c r="A33" s="7" t="s">
+      <c r="F31" s="11">
+        <f>SUM(F2:F25)</f>
+        <v>3789.4599999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="11">
+        <f>F31/18</f>
+        <v>210.52555555555554</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:6" ht="30">
       <c r="A34" s="5" t="s">
@@ -1271,7 +1316,7 @@
       <c r="D34" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="6" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1291,7 +1336,7 @@
       <c r="E35" s="3">
         <v>1</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="11">
         <f t="shared" ref="F35:F36" si="2">D35*E35</f>
         <v>172.77</v>
       </c>
@@ -1312,7 +1357,7 @@
       <c r="E36" s="3">
         <v>4</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="11">
         <f t="shared" si="2"/>
         <v>71.92</v>
       </c>
@@ -1337,20 +1382,20 @@
       <c r="A42" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="11">
         <f>SUM(F35:F36)</f>
         <v>244.69</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1">
-      <c r="A44" s="7" t="s">
+    <row r="44" spans="1:6">
+      <c r="A44" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
     </row>
     <row r="45" spans="1:6" ht="15.75">
       <c r="A45" s="5" t="s">
@@ -1459,8 +1504,9 @@
     <hyperlink ref="C24" r:id="rId28" xr:uid="{6C23BDC8-39FF-4797-97CE-DE8E7157DAD7}"/>
     <hyperlink ref="C48" r:id="rId29" xr:uid="{288E445D-2A57-4366-AD14-BC7731B7DE07}"/>
     <hyperlink ref="C49" r:id="rId30" xr:uid="{880F38DF-3364-445A-838E-B36FB7C07DBE}"/>
+    <hyperlink ref="C25" r:id="rId31" xr:uid="{6614E47A-2B57-4B95-A888-8FD78134FD01}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId31"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId32"/>
 </worksheet>
 </file>
--- a/IoT_Parts.xlsx
+++ b/IoT_Parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IoTPa\Documents\Brian\class_slides\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A45AF3-64E0-4C30-A1BB-AAA584440FD9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0585A282-B96B-4E4D-8E07-8CF463421B05}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="180" windowWidth="24000" windowHeight="15315" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="-120" windowWidth="37245" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cohort 2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="232">
   <si>
     <t>https://www.amazon.com/Display-Module-SSD1306-Du-pont-Arduino/dp/B07VDXYDVY/ref=sr_1_3?keywords=oled+i2c&amp;qid=1584130891&amp;sr=8-3</t>
   </si>
@@ -677,6 +677,75 @@
   <si>
     <t>Magnets</t>
   </si>
+  <si>
+    <t>Parts Storage Case</t>
+  </si>
+  <si>
+    <t>16 Compartment Case</t>
+  </si>
+  <si>
+    <t>Lowes</t>
+  </si>
+  <si>
+    <t>https://www.lowes.com/pd/Tough-Box-16-Compartment-Plastic-Small-Parts-Organizer/1000365903?cm_mmc=shp-_-c-_-prd-_-tol-_-google-_-lia-_--_-toolstorage-_-1000365903-_-0&amp;store_code=2539&amp;placeholder=null&amp;gclid=EAIaIQobChMI2ICzhsX86QIVi4bACh0oNwjhEAQYASABEgLcgPD_BwE&amp;gclsrc=aw.ds</t>
+  </si>
+  <si>
+    <t>Student Work Tables</t>
+  </si>
+  <si>
+    <t>62 in. Adjustable Height Work Bench Table</t>
+  </si>
+  <si>
+    <t>Home Depot</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Husky-62-in-Adjustable-Height-Work-Bench-Table-HOLT62XDB12/301810799?MERCH=REC-_-pipsem-_-307723266-_-301810799-_-N</t>
+  </si>
+  <si>
+    <t>HandHeld Oscilloscope</t>
+  </si>
+  <si>
+    <t>YEAPOOK Handheld Digital Mini Oscilloscope 5012h Portable Professional Oscilloscope Kit with 100mhz Bandwidth 500MS/s Sampling Rate 2.4'' TFT LCD Display</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/YEAPOOK-Handheld-Oscilloscope-Professional-Bandwidth/dp/B07XBL4BTL/ref=redir_mobile_desktop?ie=UTF8&amp;aaxitk=CbXp6725Lhjp7K4XYAA2KQ&amp;hsa_cr_id=3384243320201&amp;ref_=sbx_be_s_sparkle_mcd_asin_0</t>
+  </si>
+  <si>
+    <t>Solder/Multimeter Kits</t>
+  </si>
+  <si>
+    <t>Soldering Iron Kit Electronics, Rarlight 60W Adjustable Temperature Welding Tool, Digital Multimeter, Soldering Iron Tips,Desoldering Pump,Screwdriver,Solder Wire,Tweezers,Stand,Wire Stripper Cutter</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Soldering-Iron-Kit-Rarlight-Multimeter/dp/B07H72Q8KT/ref=sr_1_17?dchild=1&amp;keywords=solder+kit&amp;qid=1591308924&amp;sr=8-17</t>
+  </si>
+  <si>
+    <t>Alternative Stepper Motors</t>
+  </si>
+  <si>
+    <t>GeeekPi 5 Pack Geared Stepper Motor 28BYJ-48 5V Stepper Motor + Uln2003 Motor Driver Board + Dupont Wire Jumper Wires Ribbon Cables Compatible with Arduino</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B087B5NWY4/ref=sspa_dk_detail_0?psc=1&amp;pd_rd_i=B087B5NWY4&amp;pd_rd_w=qTl74&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=oJf3C&amp;pf_rd_r=BNJEBNTQ9WJFCK2T7NJG&amp;pd_rd_r=878dff4d-97fc-4ab7-b51d-f454e436af7d&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFSMFdOVFk0RUJCSjUmZW5jcnlwdGVkSWQ9QTA5OTM1MjYzSTlCWEhXN0xTU0RQJmVuY3J5cHRlZEFkSWQ9QTAxMzk3MzYzQktQVENFTUtJNzhJJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==</t>
+  </si>
+  <si>
+    <t>Lab Notebooks</t>
+  </si>
+  <si>
+    <t>National 53110 Lab Notebook, Quadrille Rule, 10 1/8 x 7 7/8, White, 96 Sheets</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/National-53110-Notebook-Quadrille-Sheets/dp/B0016060LG/ref=sr_1_10?crid=1AJA76R1M5TNV&amp;dchild=1&amp;keywords=lab+notebooks&amp;qid=1591025031&amp;sprefix=barrel+connector+to+%2Caps%2C179&amp;sr=8-10</t>
+  </si>
+  <si>
+    <t>USB Multimeter</t>
+  </si>
+  <si>
+    <t>MakerHawk USB 3.0 Tester, USB Power Meter, 3.7-30V 0-4A Voltage Tester Multimeter, USB Current Meter Tester, IPS Color Display Voltmeter Ammeter, USB Charger Tester AT34</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/MakerHawk-3-7-30V-Voltage-Multimeter-Voltmeter/dp/B07FMQZVW2/ref=sr_1_3?dchild=1&amp;keywords=usb+current+meter&amp;qid=1590970127&amp;s=hi&amp;sr=1-3</t>
+  </si>
 </sst>
 </file>
 
@@ -685,7 +754,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,6 +803,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -788,7 +864,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -852,6 +928,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -2755,10 +2840,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2838,7 +2923,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="8">
-        <f t="shared" ref="G3:G36" si="0">E3*F3</f>
+        <f t="shared" ref="G3:G38" si="0">E3*F3</f>
         <v>135</v>
       </c>
       <c r="H3" s="8">
@@ -2849,7 +2934,7 @@
         <v>8</v>
       </c>
       <c r="J3" s="12">
-        <f t="shared" ref="J3:J36" si="1">I3*E3</f>
+        <f t="shared" ref="J3:J38" si="1">I3*E3</f>
         <v>60</v>
       </c>
     </row>
@@ -3787,7 +3872,7 @@
         <v>79.84</v>
       </c>
       <c r="H30" s="8">
-        <f t="shared" ref="H30:H36" si="3">0.75*G30</f>
+        <f t="shared" ref="H30:H38" si="3">0.75*G30</f>
         <v>59.88</v>
       </c>
       <c r="I30" s="13">
@@ -4009,930 +4094,1161 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I37" s="13"/>
-      <c r="J37" s="12"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>145</v>
+      <c r="A37" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E37" s="3">
+        <v>5.98</v>
+      </c>
+      <c r="F37" s="3">
+        <v>16</v>
+      </c>
+      <c r="G37" s="8">
+        <f t="shared" si="0"/>
+        <v>95.68</v>
+      </c>
+      <c r="H37" s="8">
+        <f t="shared" si="3"/>
+        <v>71.760000000000005</v>
+      </c>
+      <c r="I37" s="13">
+        <v>12</v>
+      </c>
+      <c r="J37" s="12">
+        <f t="shared" si="1"/>
+        <v>71.760000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="E38" s="3">
-        <v>25</v>
+        <v>12.47</v>
       </c>
       <c r="F38" s="3">
         <v>16</v>
       </c>
       <c r="G38" s="8">
-        <f t="shared" ref="G38" si="4">E38*F38</f>
-        <v>400</v>
+        <f t="shared" si="0"/>
+        <v>199.52</v>
       </c>
       <c r="H38" s="8">
-        <f t="shared" ref="H38" si="5">0.75*G38</f>
-        <v>300</v>
-      </c>
-      <c r="I38" s="10">
+        <f t="shared" si="3"/>
+        <v>149.64000000000001</v>
+      </c>
+      <c r="I38" s="13">
         <v>12</v>
       </c>
       <c r="J38" s="12">
-        <f t="shared" ref="J38" si="6">I38*E38</f>
-        <v>300</v>
+        <f t="shared" si="1"/>
+        <v>149.64000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I39" s="10"/>
+      <c r="A39" s="9"/>
+      <c r="D39" s="4"/>
+      <c r="I39" s="13"/>
       <c r="J39" s="12"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I40" s="10"/>
+      <c r="I40" s="13"/>
       <c r="J40" s="12"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>35</v>
+        <v>144</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="3">
+        <v>25</v>
+      </c>
+      <c r="F41" s="3">
+        <v>16</v>
       </c>
       <c r="G41" s="8">
-        <f>SUM(G3:G40)</f>
-        <v>5145.4000000000015</v>
+        <f t="shared" ref="G41" si="4">E41*F41</f>
+        <v>400</v>
       </c>
       <c r="H41" s="8">
-        <f>SUM(H3:H40)</f>
-        <v>4015.9075000000007</v>
-      </c>
-      <c r="I41" s="10"/>
+        <f t="shared" ref="H41" si="5">0.75*G41</f>
+        <v>300</v>
+      </c>
+      <c r="I41" s="10">
+        <v>12</v>
+      </c>
       <c r="J41" s="12">
-        <f>SUM(J3:J40)</f>
-        <v>3460.8900000000008</v>
+        <f t="shared" ref="J41" si="6">I41*E41</f>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G42" s="8">
-        <f>G41/16</f>
-        <v>321.58750000000009</v>
-      </c>
-      <c r="H42" s="8">
-        <f>0.75*G42</f>
-        <v>241.19062500000007</v>
-      </c>
       <c r="I42" s="10"/>
       <c r="J42" s="12"/>
     </row>
-    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I43" s="10"/>
+      <c r="J43" s="12"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44" s="8">
+        <f>SUM(G3:G43)</f>
+        <v>5440.6000000000022</v>
+      </c>
+      <c r="H44" s="8">
+        <f>SUM(H3:H43)</f>
+        <v>4237.3075000000008</v>
+      </c>
+      <c r="I44" s="10"/>
+      <c r="J44" s="12">
+        <f>SUM(J3:J43)</f>
+        <v>3682.2900000000009</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G45" s="8">
+        <f>G44/16</f>
+        <v>340.03750000000014</v>
+      </c>
+      <c r="H45" s="8">
+        <f>0.75*G45</f>
+        <v>255.0281250000001</v>
+      </c>
+      <c r="I45" s="10"/>
+      <c r="J45" s="12"/>
+    </row>
+    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-    </row>
-    <row r="44" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+    </row>
+    <row r="47" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B47" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F47" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="10" t="s">
+      <c r="H47" s="3"/>
+      <c r="I47" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="J44" s="12"/>
-    </row>
-    <row r="45" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="J47" s="12"/>
+    </row>
+    <row r="48" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E48" s="3">
         <v>24.95</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F48" s="3">
         <v>5</v>
       </c>
-      <c r="G45" s="8">
-        <f t="shared" ref="G45:G61" si="7">E45*F45</f>
+      <c r="G48" s="8">
+        <f t="shared" ref="G48:G68" si="7">E48*F48</f>
         <v>124.75</v>
-      </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="11">
-        <v>2</v>
-      </c>
-      <c r="J45" s="12">
-        <f t="shared" ref="J45:J61" si="8">I45*E45</f>
-        <v>49.9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46" s="3">
-        <v>172.77</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1</v>
-      </c>
-      <c r="G46" s="8">
-        <f t="shared" si="7"/>
-        <v>172.77</v>
-      </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="11">
-        <v>0</v>
-      </c>
-      <c r="J46" s="12">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47" s="3">
-        <v>17.98</v>
-      </c>
-      <c r="F47" s="3">
-        <v>4</v>
-      </c>
-      <c r="G47" s="8">
-        <f t="shared" si="7"/>
-        <v>71.92</v>
-      </c>
-      <c r="H47" s="3"/>
-      <c r="I47" s="11">
-        <v>0</v>
-      </c>
-      <c r="J47" s="12">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E48" s="3">
-        <v>15.99</v>
-      </c>
-      <c r="F48" s="3">
-        <v>3</v>
-      </c>
-      <c r="G48" s="8">
-        <f t="shared" si="7"/>
-        <v>47.97</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="11">
         <v>2</v>
       </c>
       <c r="J48" s="12">
+        <f t="shared" ref="J48:J67" si="8">I48*E48</f>
+        <v>49.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="3">
+        <v>172.77</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="8">
+        <f t="shared" si="7"/>
+        <v>172.77</v>
+      </c>
+      <c r="H49" s="3"/>
+      <c r="I49" s="11">
+        <v>0</v>
+      </c>
+      <c r="J49" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="3">
+        <v>17.98</v>
+      </c>
+      <c r="F50" s="3">
+        <v>4</v>
+      </c>
+      <c r="G50" s="8">
+        <f t="shared" si="7"/>
+        <v>71.92</v>
+      </c>
+      <c r="H50" s="3"/>
+      <c r="I50" s="11">
+        <v>0</v>
+      </c>
+      <c r="J50" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E51" s="3">
+        <v>15.99</v>
+      </c>
+      <c r="F51" s="3">
+        <v>3</v>
+      </c>
+      <c r="G51" s="8">
+        <f t="shared" si="7"/>
+        <v>47.97</v>
+      </c>
+      <c r="H51" s="3"/>
+      <c r="I51" s="11">
+        <v>2</v>
+      </c>
+      <c r="J51" s="12">
         <f t="shared" si="8"/>
         <v>31.98</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+    <row r="52" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B52" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D49" s="4" t="s">
+      <c r="C52" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E52" s="3">
         <v>11.98</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F52" s="3">
         <v>1</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G52" s="8">
         <f t="shared" si="7"/>
         <v>11.98</v>
       </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="11">
+      <c r="H52" s="3"/>
+      <c r="I52" s="11">
         <v>1</v>
       </c>
-      <c r="J49" s="12">
+      <c r="J52" s="12">
         <f t="shared" si="8"/>
         <v>11.98</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+    <row r="53" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D50" s="1" t="s">
+      <c r="C53" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E53" s="3">
         <v>94.99</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F53" s="3">
         <v>4</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G53" s="8">
         <f t="shared" si="7"/>
         <v>379.96</v>
       </c>
-      <c r="H50" s="3"/>
-      <c r="I50" s="11">
+      <c r="H53" s="3"/>
+      <c r="I53" s="11">
         <v>2</v>
       </c>
-      <c r="J50" s="12">
+      <c r="J53" s="12">
         <f t="shared" si="8"/>
         <v>189.98</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E54" s="3">
         <v>149.99</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F54" s="3">
         <v>4</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G54" s="8">
         <f t="shared" si="7"/>
         <v>599.96</v>
       </c>
-      <c r="H51" s="3"/>
-      <c r="I51" s="11">
+      <c r="H54" s="3"/>
+      <c r="I54" s="11">
         <v>1</v>
       </c>
-      <c r="J51" s="12">
+      <c r="J54" s="12">
         <f t="shared" si="8"/>
         <v>149.99</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E55" s="3">
         <v>99.99</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F55" s="3">
         <v>4</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G55" s="8">
         <f t="shared" si="7"/>
         <v>399.96</v>
       </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="11">
-        <v>0</v>
-      </c>
-      <c r="J52" s="12">
+      <c r="H55" s="3"/>
+      <c r="I55" s="11">
+        <v>0</v>
+      </c>
+      <c r="J55" s="12">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E56" s="3">
         <v>149.99</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F56" s="3">
         <v>1</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G56" s="8">
         <f t="shared" si="7"/>
         <v>149.99</v>
       </c>
-      <c r="H53" s="3"/>
-      <c r="I53" s="11">
-        <v>0</v>
-      </c>
-      <c r="J53" s="12">
+      <c r="H56" s="3"/>
+      <c r="I56" s="11">
+        <v>0</v>
+      </c>
+      <c r="J56" s="12">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E57" s="3">
         <v>149.99</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F57" s="3">
         <v>1</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G57" s="8">
         <f t="shared" si="7"/>
         <v>149.99</v>
       </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="11">
-        <v>0</v>
-      </c>
-      <c r="J54" s="12">
+      <c r="H57" s="3"/>
+      <c r="I57" s="11">
+        <v>0</v>
+      </c>
+      <c r="J57" s="12">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E58" s="3">
         <v>15.95</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F58" s="3">
         <v>18</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G58" s="8">
         <f t="shared" si="7"/>
         <v>287.09999999999997</v>
       </c>
-      <c r="H55" s="3"/>
-      <c r="I55" s="11">
-        <v>0</v>
-      </c>
-      <c r="J55" s="12">
+      <c r="H58" s="3"/>
+      <c r="I58" s="11">
+        <v>0</v>
+      </c>
+      <c r="J58" s="12">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+    <row r="59" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E59" s="3">
         <v>110.9</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F59" s="3">
         <v>5</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G59" s="8">
         <f t="shared" si="7"/>
         <v>554.5</v>
       </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="11">
-        <v>0</v>
-      </c>
-      <c r="J56" s="12">
+      <c r="H59" s="3"/>
+      <c r="I59" s="11">
+        <v>0</v>
+      </c>
+      <c r="J59" s="12">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+    <row r="60" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E60" s="3">
         <v>52.95</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F60" s="3">
         <v>5</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G60" s="8">
         <f t="shared" si="7"/>
         <v>264.75</v>
       </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="11">
+      <c r="H60" s="3"/>
+      <c r="I60" s="11">
         <v>2</v>
       </c>
-      <c r="J57" s="12">
+      <c r="J60" s="12">
         <f t="shared" si="8"/>
         <v>105.9</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="51" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+    <row r="61" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E61" s="3">
         <v>27.95</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F61" s="3">
         <v>5</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G61" s="8">
         <f t="shared" si="7"/>
         <v>139.75</v>
       </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="11">
+      <c r="H61" s="3"/>
+      <c r="I61" s="11">
         <v>1</v>
       </c>
-      <c r="J58" s="12">
+      <c r="J61" s="12">
         <f t="shared" si="8"/>
         <v>27.95</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+    <row r="62" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E62" s="3">
         <v>42.95</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F62" s="3">
         <v>5</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G62" s="8">
         <f t="shared" si="7"/>
         <v>214.75</v>
       </c>
-      <c r="H59" s="3"/>
-      <c r="I59" s="11">
-        <v>0</v>
-      </c>
-      <c r="J59" s="12">
+      <c r="H62" s="3"/>
+      <c r="I62" s="11">
+        <v>0</v>
+      </c>
+      <c r="J62" s="12">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+    <row r="63" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D63" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E63" s="3">
         <v>29.9</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F63" s="3">
         <v>5</v>
       </c>
-      <c r="G60" s="8">
+      <c r="G63" s="8">
         <f t="shared" si="7"/>
         <v>149.5</v>
       </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="11">
+      <c r="H63" s="3"/>
+      <c r="I63" s="11">
         <v>4</v>
       </c>
-      <c r="J60" s="12">
+      <c r="J63" s="12">
         <f t="shared" si="8"/>
         <v>119.6</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+    <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B64" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D61" s="1" t="s">
+      <c r="C64" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E64" s="3">
         <v>57.8</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F64" s="3">
         <v>5</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G64" s="8">
         <f t="shared" si="7"/>
         <v>289</v>
       </c>
-      <c r="H61" s="3"/>
-      <c r="I61" s="11">
-        <v>0</v>
-      </c>
-      <c r="J61" s="12">
+      <c r="H64" s="3"/>
+      <c r="I64" s="11">
+        <v>0</v>
+      </c>
+      <c r="J64" s="12">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="1"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="12"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D63" s="1"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="12"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D64" s="1"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="12"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E65" s="3">
+        <v>259</v>
+      </c>
+      <c r="F65" s="3">
+        <v>8</v>
+      </c>
+      <c r="G65" s="8">
+        <f t="shared" si="7"/>
+        <v>2072</v>
+      </c>
       <c r="H65" s="3"/>
-      <c r="I65" s="13" t="s">
+      <c r="I65" s="11">
+        <v>2</v>
+      </c>
+      <c r="J65" s="12">
+        <f t="shared" si="8"/>
+        <v>518</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E66" s="3">
+        <v>89.99</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2</v>
+      </c>
+      <c r="G66" s="8">
+        <f t="shared" si="7"/>
+        <v>179.98</v>
+      </c>
+      <c r="H66" s="3"/>
+      <c r="I66" s="11">
+        <v>2</v>
+      </c>
+      <c r="J66" s="12">
+        <f t="shared" si="8"/>
+        <v>179.98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="126" x14ac:dyDescent="0.25">
+      <c r="A67" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E67" s="3">
+        <v>21.98</v>
+      </c>
+      <c r="F67" s="3">
+        <v>16</v>
+      </c>
+      <c r="G67" s="8">
+        <f t="shared" si="7"/>
+        <v>351.68</v>
+      </c>
+      <c r="H67" s="3"/>
+      <c r="I67" s="11">
+        <v>12</v>
+      </c>
+      <c r="J67" s="12">
+        <f t="shared" si="8"/>
+        <v>263.76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E68" s="23">
+        <v>12.99</v>
+      </c>
+      <c r="F68" s="3">
+        <v>5</v>
+      </c>
+      <c r="G68" s="8">
+        <f t="shared" si="7"/>
+        <v>64.95</v>
+      </c>
+      <c r="H68" s="3"/>
+      <c r="I68" s="11">
+        <v>5</v>
+      </c>
+      <c r="J68" s="12">
+        <f t="shared" ref="J68" si="9">I68*E68</f>
+        <v>64.95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="23"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="25"/>
+    </row>
+    <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="23"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="25"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H71" s="3"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="25"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H72" s="3"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="25"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H73" s="3"/>
+      <c r="I73" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J65" s="14">
-        <f>SUM(J45:J64)</f>
-        <v>687.28000000000009</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="15" t="s">
+      <c r="J73" s="14">
+        <f>SUM(J48:J72)</f>
+        <v>1713.9700000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-    </row>
-    <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+    </row>
+    <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B76" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5" t="s">
+      <c r="C76" s="5"/>
+      <c r="D76" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E76" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H68" s="3"/>
-      <c r="I68" s="10" t="s">
+      <c r="H76" s="3"/>
+      <c r="I76" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="J68" s="12"/>
-    </row>
-    <row r="69" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="J76" s="12"/>
+    </row>
+    <row r="77" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D69" s="4" t="s">
+      <c r="C77" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E77" s="3">
         <v>23.95</v>
       </c>
-      <c r="G69" s="8">
-        <f>E69*F69</f>
-        <v>0</v>
-      </c>
-      <c r="H69" s="3"/>
-      <c r="I69" s="11">
-        <v>0</v>
-      </c>
-      <c r="J69" s="12">
-        <f>I69*E69</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="G77" s="8">
+        <f>E77*F77</f>
+        <v>0</v>
+      </c>
+      <c r="H77" s="3"/>
+      <c r="I77" s="11">
+        <v>0</v>
+      </c>
+      <c r="J77" s="12">
+        <f>I77*E77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B78" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D70" s="4" t="s">
+      <c r="C78" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E78" s="3">
         <v>15.99</v>
       </c>
-      <c r="G70" s="8">
-        <f t="shared" ref="G70:G74" si="9">E70*F70</f>
-        <v>0</v>
-      </c>
-      <c r="H70" s="3"/>
-      <c r="I70" s="11">
-        <v>0</v>
-      </c>
-      <c r="J70" s="12">
-        <f t="shared" ref="J70:J74" si="10">I70*E70</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="G78" s="8">
+        <f t="shared" ref="G78:G82" si="10">E78*F78</f>
+        <v>0</v>
+      </c>
+      <c r="H78" s="3"/>
+      <c r="I78" s="11">
+        <v>0</v>
+      </c>
+      <c r="J78" s="12">
+        <f t="shared" ref="J78:J82" si="11">I78*E78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B79" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E79" s="3">
         <v>19.95</v>
       </c>
-      <c r="G71" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H71" s="3"/>
-      <c r="I71" s="11">
-        <v>0</v>
-      </c>
-      <c r="J71" s="12">
+      <c r="G79" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="H79" s="3"/>
+      <c r="I79" s="11">
+        <v>0</v>
+      </c>
+      <c r="J79" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B80" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D72" s="1" t="s">
+      <c r="C80" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E80" s="3">
         <v>10.98</v>
       </c>
-      <c r="G72" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H72" s="3"/>
-      <c r="I72" s="11">
+      <c r="G80" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H80" s="3"/>
+      <c r="I80" s="11">
         <v>8</v>
       </c>
-      <c r="J72" s="12">
+      <c r="J80" s="12">
+        <f t="shared" si="11"/>
+        <v>87.84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E81" s="3">
+        <v>11.99</v>
+      </c>
+      <c r="G81" s="8">
         <f t="shared" si="10"/>
-        <v>87.84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E73" s="3">
-        <v>11.99</v>
-      </c>
-      <c r="G73" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H73" s="3"/>
-      <c r="I73" s="11">
-        <v>0</v>
-      </c>
-      <c r="J73" s="12">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3"/>
+      <c r="I81" s="11">
+        <v>0</v>
+      </c>
+      <c r="J81" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E82" s="3">
+        <v>32.880000000000003</v>
+      </c>
+      <c r="G82" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E74" s="3">
-        <v>32.880000000000003</v>
-      </c>
-      <c r="G74" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H74" s="3"/>
-      <c r="I74" s="11">
+      <c r="H82" s="3"/>
+      <c r="I82" s="11">
         <v>2</v>
       </c>
-      <c r="J74" s="12">
-        <f t="shared" si="10"/>
+      <c r="J82" s="12">
+        <f t="shared" si="11"/>
         <v>65.760000000000005</v>
       </c>
     </row>
+    <row r="83" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="B83" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="C83" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E83" s="23">
+        <v>12.99</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A45:J62">
-    <sortCondition ref="C45:C62"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A48:J65">
+    <sortCondition ref="C48:C65"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D24" r:id="rId1" display="https://www.amazon.com/dp/B00LPK0E5A/ref=sspa_dk_detail_1?psc=1&amp;pd_rd_i=B00LPK0E5A&amp;pd_rd_w=0M9NZ&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=aD93W&amp;pf_rd_r=YPJBQXW796NSXR2VMXXF&amp;pd_rd_r=27b44396-0b27-4df5-a333-c9ae450119d1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzRjAzSlpTNDhOSDROJmVuY3J5cHRlZElkPUExMDI0NTg3UkZNOVI5WEJEMTBKJmVuY3J5cHRlZEFkSWQ9QTAwMTM0OTMxR1ZVVzZSMDhHUEYwJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{2D8AC8C2-02D5-49F0-AFEA-736B2A2AA023}"/>
-    <hyperlink ref="D54" r:id="rId2" xr:uid="{C67F2072-A7FD-426C-AD5E-C8015CABE201}"/>
-    <hyperlink ref="D53" r:id="rId3" xr:uid="{4C7047DE-235B-4D63-98DF-F5E597589B9D}"/>
-    <hyperlink ref="D50" r:id="rId4" xr:uid="{458AF24E-0192-4431-8E2D-3935AAE6DF93}"/>
+    <hyperlink ref="D57" r:id="rId2" xr:uid="{C67F2072-A7FD-426C-AD5E-C8015CABE201}"/>
+    <hyperlink ref="D56" r:id="rId3" xr:uid="{4C7047DE-235B-4D63-98DF-F5E597589B9D}"/>
+    <hyperlink ref="D53" r:id="rId4" xr:uid="{458AF24E-0192-4431-8E2D-3935AAE6DF93}"/>
     <hyperlink ref="D22" r:id="rId5" xr:uid="{F9D9349D-6BCC-4167-9EAB-5D6DEDAC7F66}"/>
     <hyperlink ref="D21" r:id="rId6" xr:uid="{A3070620-1669-4B9B-942A-28D42C2DC31E}"/>
     <hyperlink ref="D20" r:id="rId7" xr:uid="{11F2EBDF-CAF6-47E1-83BF-AB1C8A54B64F}"/>
     <hyperlink ref="D19" r:id="rId8" display="https://www.amazon.com/LSR-Transistor-Assortment-Electronics-Electronic/dp/B07TV9FFFQ/ref=sr_1_1_sspa?dchild=1&amp;keywords=transistor+kit&amp;qid=1589997273&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyNjRQNjZTRkNTMDBEJmVuY3J5cHRlZElkPUEwMjA2MDgzMTJBUTZXT1pMR1VFSyZlbmNyeXB0ZWRBZElkPUEwMzg4NDY4MzgxSDlaRERQMUxMQSZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=" xr:uid="{F368069C-E1EB-44CA-AD12-04D204E6E633}"/>
-    <hyperlink ref="D60" r:id="rId9" xr:uid="{6D63182A-EF64-4B70-99FF-41CB7B3F367F}"/>
-    <hyperlink ref="D52" r:id="rId10" xr:uid="{F4DD8738-A531-4D93-97A7-D33ACF3FF537}"/>
-    <hyperlink ref="D51" r:id="rId11" xr:uid="{78DE4882-1408-4612-8805-7EFCBDB46317}"/>
+    <hyperlink ref="D63" r:id="rId9" xr:uid="{6D63182A-EF64-4B70-99FF-41CB7B3F367F}"/>
+    <hyperlink ref="D55" r:id="rId10" xr:uid="{F4DD8738-A531-4D93-97A7-D33ACF3FF537}"/>
+    <hyperlink ref="D54" r:id="rId11" xr:uid="{78DE4882-1408-4612-8805-7EFCBDB46317}"/>
     <hyperlink ref="D25" r:id="rId12" xr:uid="{8D098D7B-B44E-4F95-9115-06C091E5EC6B}"/>
     <hyperlink ref="D29" r:id="rId13" xr:uid="{105FE02A-8D5B-45B7-8D4B-EFB64AC9D6A3}"/>
     <hyperlink ref="D28" r:id="rId14" xr:uid="{4E684CA3-40CA-4374-86A2-E7043CAE5F81}"/>
     <hyperlink ref="D18" r:id="rId15" xr:uid="{6614E47A-2B57-4B95-A888-8FD78134FD01}"/>
-    <hyperlink ref="D71" r:id="rId16" xr:uid="{880F38DF-3364-445A-838E-B36FB7C07DBE}"/>
+    <hyperlink ref="D79" r:id="rId16" xr:uid="{880F38DF-3364-445A-838E-B36FB7C07DBE}"/>
     <hyperlink ref="D33" r:id="rId17" xr:uid="{6C23BDC8-39FF-4797-97CE-DE8E7157DAD7}"/>
     <hyperlink ref="D32" r:id="rId18" xr:uid="{06BBA2CA-7B6A-4868-967C-06382F2A003C}"/>
     <hyperlink ref="D17" r:id="rId19" xr:uid="{E63AB400-E949-45E6-B6B3-EB04D68230DD}"/>
     <hyperlink ref="D16" r:id="rId20" xr:uid="{A8C287BD-7CA6-4940-AC21-A6E65C4A2CA3}"/>
     <hyperlink ref="D15" r:id="rId21" xr:uid="{43500409-CD17-4B6F-8676-1D8DE4D09E04}"/>
-    <hyperlink ref="D70" r:id="rId22" xr:uid="{3A734971-A2D4-4B27-8169-50801AD546AC}"/>
-    <hyperlink ref="D69" r:id="rId23" xr:uid="{A4D44B28-90CE-4144-A98B-70280B8F592B}"/>
-    <hyperlink ref="D47" r:id="rId24" display="https://www.amazon.com/Smart-Enabled-Google-Assistant-HomeKit/dp/B01NBI0A6R/ref=sxin_3_ac_d_rm?ac_md=0-0-d2Vtbw%3D%3D-ac_d_rm&amp;cv_ct_cx=wemo&amp;keywords=wemo&amp;pd_rd_i=B01NBI0A6R&amp;pd_rd_r=bbd5c2e2-6eb9-40fe-9456-a7336162120f&amp;pd_rd_w=Ts0oB&amp;pd_rd_wg=K1Zyb&amp;pf_rd_p=de19e82a-2d83-4ae8-9f5c-212586b8b9a0&amp;pf_rd_r=8DGZDACCDVJ418KR7CNJ&amp;qid=1584141937&amp;th=1" xr:uid="{4ADA6815-41C1-4A83-BA7E-E89A39FA0148}"/>
-    <hyperlink ref="D46" r:id="rId25" xr:uid="{55244BD9-34FF-4259-B350-67DFFA18163C}"/>
+    <hyperlink ref="D78" r:id="rId22" xr:uid="{3A734971-A2D4-4B27-8169-50801AD546AC}"/>
+    <hyperlink ref="D77" r:id="rId23" xr:uid="{A4D44B28-90CE-4144-A98B-70280B8F592B}"/>
+    <hyperlink ref="D50" r:id="rId24" display="https://www.amazon.com/Smart-Enabled-Google-Assistant-HomeKit/dp/B01NBI0A6R/ref=sxin_3_ac_d_rm?ac_md=0-0-d2Vtbw%3D%3D-ac_d_rm&amp;cv_ct_cx=wemo&amp;keywords=wemo&amp;pd_rd_i=B01NBI0A6R&amp;pd_rd_r=bbd5c2e2-6eb9-40fe-9456-a7336162120f&amp;pd_rd_w=Ts0oB&amp;pd_rd_wg=K1Zyb&amp;pf_rd_p=de19e82a-2d83-4ae8-9f5c-212586b8b9a0&amp;pf_rd_r=8DGZDACCDVJ418KR7CNJ&amp;qid=1584141937&amp;th=1" xr:uid="{4ADA6815-41C1-4A83-BA7E-E89A39FA0148}"/>
+    <hyperlink ref="D49" r:id="rId25" xr:uid="{55244BD9-34FF-4259-B350-67DFFA18163C}"/>
     <hyperlink ref="D7" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="D14" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="D27" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
@@ -4942,9 +5258,9 @@
     <hyperlink ref="D9" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="D8" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="D11" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B45" r:id="rId35" display="https://www.adafruit.com/product/1461" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B48" r:id="rId35" display="https://www.adafruit.com/product/1461" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="D34" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D45" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D48" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="D3" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="D36" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="D35" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
@@ -4955,20 +5271,27 @@
     <hyperlink ref="D26" r:id="rId45" display="https://www.amazon.com/dp/B07GD2BWPY/ref=sspa_dk_detail_2?psc=1&amp;pd_rd_i=B07GD2BWPY&amp;pd_rd_w=TqeWX&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=sNJWA&amp;pf_rd_r=ZXS16ECPMKD9XBVAS65W&amp;pd_rd_r=b5442918-7fb9-4962-af3b-9820970385cf&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyWTlUTDAyTTJDVElLJmVuY3J5cHRlZElkPUEwMjM2MDg0M0g1U1ZRS1hPNk0zMSZlbmNyeXB0ZWRBZElkPUEwNTczODQxM0JQVzgzUkcwMUVBNiZ3aWRnZXROYW1lPXNwX2RldGFpbCZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=" xr:uid="{CAE09639-8F59-477E-97C1-637543114E6B}"/>
     <hyperlink ref="D23" r:id="rId46" display="https://www.amazon.com/Qunqi-Sensor-Module-Arduino-Raspberry/dp/B07QBPGYBF/ref=pd_vtp_328_2/133-9447900-8990828?_encoding=UTF8&amp;pd_rd_i=B07QBPGYBF&amp;pd_rd_r=e7d105ef-e581-4e23-9137-ef46e7f59ac1&amp;pd_rd_w=4kywy&amp;pd_rd_wg=hamvp&amp;pf_rd_p=5946f538-3793-4aed-94d1-6882674b98f9&amp;pf_rd_r=V04NHSEY2AS5NV572E1P&amp;psc=1&amp;refRID=V04NHSEY2AS5NV572E1P" xr:uid="{89A7CEEA-0729-4E7B-A573-07D943EC421F}"/>
     <hyperlink ref="D30" r:id="rId47" xr:uid="{38A4990E-9C35-4EB4-AD06-A434B6167EAD}"/>
-    <hyperlink ref="D49" r:id="rId48" xr:uid="{97D0FD87-5DE9-423C-867C-672F15C486F8}"/>
-    <hyperlink ref="D48" r:id="rId49" xr:uid="{A436B341-130A-498C-B9A6-8A3741C71D8E}"/>
-    <hyperlink ref="D72" r:id="rId50" display="https://www.amazon.com/Adafruit-NeoPixel-Ring-Integrated-Drivers/dp/B00KAE3R1U/ref=sxin_7_ac_d_rm?ac_md=1-1-bmVvcGl4ZWw%3D-ac_d_rm&amp;cv_ct_cx=neopixel+ring&amp;dchild=1&amp;keywords=neopixel+ring&amp;pd_rd_i=B00KAE3R1U&amp;pd_rd_r=f532ea9d-0030-44f0-832a-ce614c837962&amp;pd_rd_w=9bJ5n&amp;pd_rd_wg=0eBjE&amp;pf_rd_p=a0516f22-66df-4efd-8b9a-279a864d1512&amp;pf_rd_r=AYP2P98ZJBNCG2YYCT97&amp;psc=1&amp;qid=1590415826&amp;sr=1-2-12d4272d-8adb-4121-8624-135149aa9081" xr:uid="{C3AF0635-E814-4614-BC80-A231684C02A6}"/>
-    <hyperlink ref="D73" r:id="rId51" xr:uid="{26843E6F-6752-4799-87DA-7C422DFECD5A}"/>
-    <hyperlink ref="D74" r:id="rId52" display="https://www.amazon.com/dp/B01CDTEKAG/ref=sspa_dk_detail_5?psc=1&amp;pd_rd_i=B01CDTEKAG&amp;pd_rd_w=xH4vG&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=OWknK&amp;pf_rd_r=4MWDRWVKFJB1AYRB3KT5&amp;pd_rd_r=1dfe850a-4ea2-46f2-b93c-46b84486f9d4&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzUThIV0Y2UjRSUjImZW5jcnlwdGVkSWQ9QTAzMjQ0ODUxSDdUU0E3UTlMWFlEJmVuY3J5cHRlZEFkSWQ9QTA5Nzg1MTUxVTM3VzVKSE44S1RCJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{0AE59B80-E23E-4969-A961-03F8A662204E}"/>
-    <hyperlink ref="D61" r:id="rId53" display="https://www.amazon.com/DFROBOT-Gravity-Analog-Sensor-Arduino/dp/B00R5CCH7U/ref=sr_1_2_sspa?dchild=1&amp;keywords=dfrobot&amp;qid=1590416675&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExRVhTUks4U1dYNjhSJmVuY3J5cHRlZElkPUEwNTY0MzYzUldBQ1A2SDlRVkRCJmVuY3J5cHRlZEFkSWQ9QTEwNDU4OTYzVjNDWEhNV0RPS1IzJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{E2894E68-2A48-49BC-A9B4-D1AAC0BDEB24}"/>
-    <hyperlink ref="D58" r:id="rId54" xr:uid="{B1309D72-7987-4168-B0DB-C51863711F78}"/>
-    <hyperlink ref="D59" r:id="rId55" xr:uid="{6F0D63D6-0BA7-430B-BEDF-E510DF6F234C}"/>
-    <hyperlink ref="D57" r:id="rId56" xr:uid="{FC07E6FC-1DD2-4D6D-B30C-AA122823B731}"/>
-    <hyperlink ref="D56" r:id="rId57" xr:uid="{50962EC0-703E-4490-8CCD-321B5D0DF0E1}"/>
-    <hyperlink ref="D55" r:id="rId58" xr:uid="{5387EBA9-6D4F-466B-BF7D-AE1FDD8F137D}"/>
-    <hyperlink ref="B55" r:id="rId59" display="https://store.ncd.io/product/feather-battery-i2c-shield-for-particle-and-feather-modules/" xr:uid="{2EA2E4EA-A06D-4D3C-829B-6BFFED34C96C}"/>
+    <hyperlink ref="D52" r:id="rId48" xr:uid="{97D0FD87-5DE9-423C-867C-672F15C486F8}"/>
+    <hyperlink ref="D51" r:id="rId49" xr:uid="{A436B341-130A-498C-B9A6-8A3741C71D8E}"/>
+    <hyperlink ref="D80" r:id="rId50" display="https://www.amazon.com/Adafruit-NeoPixel-Ring-Integrated-Drivers/dp/B00KAE3R1U/ref=sxin_7_ac_d_rm?ac_md=1-1-bmVvcGl4ZWw%3D-ac_d_rm&amp;cv_ct_cx=neopixel+ring&amp;dchild=1&amp;keywords=neopixel+ring&amp;pd_rd_i=B00KAE3R1U&amp;pd_rd_r=f532ea9d-0030-44f0-832a-ce614c837962&amp;pd_rd_w=9bJ5n&amp;pd_rd_wg=0eBjE&amp;pf_rd_p=a0516f22-66df-4efd-8b9a-279a864d1512&amp;pf_rd_r=AYP2P98ZJBNCG2YYCT97&amp;psc=1&amp;qid=1590415826&amp;sr=1-2-12d4272d-8adb-4121-8624-135149aa9081" xr:uid="{C3AF0635-E814-4614-BC80-A231684C02A6}"/>
+    <hyperlink ref="D81" r:id="rId51" xr:uid="{26843E6F-6752-4799-87DA-7C422DFECD5A}"/>
+    <hyperlink ref="D82" r:id="rId52" display="https://www.amazon.com/dp/B01CDTEKAG/ref=sspa_dk_detail_5?psc=1&amp;pd_rd_i=B01CDTEKAG&amp;pd_rd_w=xH4vG&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=OWknK&amp;pf_rd_r=4MWDRWVKFJB1AYRB3KT5&amp;pd_rd_r=1dfe850a-4ea2-46f2-b93c-46b84486f9d4&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzUThIV0Y2UjRSUjImZW5jcnlwdGVkSWQ9QTAzMjQ0ODUxSDdUU0E3UTlMWFlEJmVuY3J5cHRlZEFkSWQ9QTA5Nzg1MTUxVTM3VzVKSE44S1RCJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{0AE59B80-E23E-4969-A961-03F8A662204E}"/>
+    <hyperlink ref="D64" r:id="rId53" display="https://www.amazon.com/DFROBOT-Gravity-Analog-Sensor-Arduino/dp/B00R5CCH7U/ref=sr_1_2_sspa?dchild=1&amp;keywords=dfrobot&amp;qid=1590416675&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExRVhTUks4U1dYNjhSJmVuY3J5cHRlZElkPUEwNTY0MzYzUldBQ1A2SDlRVkRCJmVuY3J5cHRlZEFkSWQ9QTEwNDU4OTYzVjNDWEhNV0RPS1IzJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{E2894E68-2A48-49BC-A9B4-D1AAC0BDEB24}"/>
+    <hyperlink ref="D61" r:id="rId54" xr:uid="{B1309D72-7987-4168-B0DB-C51863711F78}"/>
+    <hyperlink ref="D62" r:id="rId55" xr:uid="{6F0D63D6-0BA7-430B-BEDF-E510DF6F234C}"/>
+    <hyperlink ref="D60" r:id="rId56" xr:uid="{FC07E6FC-1DD2-4D6D-B30C-AA122823B731}"/>
+    <hyperlink ref="D59" r:id="rId57" xr:uid="{50962EC0-703E-4490-8CCD-321B5D0DF0E1}"/>
+    <hyperlink ref="D58" r:id="rId58" xr:uid="{5387EBA9-6D4F-466B-BF7D-AE1FDD8F137D}"/>
+    <hyperlink ref="B58" r:id="rId59" display="https://store.ncd.io/product/feather-battery-i2c-shield-for-particle-and-feather-modules/" xr:uid="{2EA2E4EA-A06D-4D3C-829B-6BFFED34C96C}"/>
+    <hyperlink ref="D37" r:id="rId60" display="https://www.lowes.com/pd/Tough-Box-16-Compartment-Plastic-Small-Parts-Organizer/1000365903?cm_mmc=shp-_-c-_-prd-_-tol-_-google-_-lia-_--_-toolstorage-_-1000365903-_-0&amp;store_code=2539&amp;placeholder=null&amp;gclid=EAIaIQobChMI2ICzhsX86QIVi4bACh0oNwjhEAQYASABEgLcgPD_BwE&amp;gclsrc=aw.ds" xr:uid="{0502F905-D142-4848-9897-FB5C57CB1F2B}"/>
+    <hyperlink ref="D65" r:id="rId61" xr:uid="{9B2A72E6-8A10-49FB-BECB-6C01DA1A94D6}"/>
+    <hyperlink ref="D66" r:id="rId62" xr:uid="{1C7EAAAC-693F-4C71-93AD-785D57AD335A}"/>
+    <hyperlink ref="D67" r:id="rId63" xr:uid="{45B60A23-E8C5-4B2F-AEF1-8003036307C1}"/>
+    <hyperlink ref="D83" r:id="rId64" display="https://www.amazon.com/dp/B087B5NWY4/ref=sspa_dk_detail_0?psc=1&amp;pd_rd_i=B087B5NWY4&amp;pd_rd_w=qTl74&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=oJf3C&amp;pf_rd_r=BNJEBNTQ9WJFCK2T7NJG&amp;pd_rd_r=878dff4d-97fc-4ab7-b51d-f454e436af7d&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFSMFdOVFk0RUJCSjUmZW5jcnlwdGVkSWQ9QTA5OTM1MjYzSTlCWEhXN0xTU0RQJmVuY3J5cHRlZEFkSWQ9QTAxMzk3MzYzQktQVENFTUtJNzhJJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{19F22790-E10B-4974-81A9-B82241B8E0FF}"/>
+    <hyperlink ref="D38" r:id="rId65" xr:uid="{73FEB118-5B86-4FD6-8BA2-571B8B661FEB}"/>
+    <hyperlink ref="D68" r:id="rId66" xr:uid="{83D5AF0C-7F3B-40E2-9831-47390EA060E1}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" fitToHeight="0" orientation="landscape" r:id="rId60"/>
+  <pageSetup scale="60" fitToHeight="0" orientation="landscape" r:id="rId67"/>
 </worksheet>
 </file>
--- a/IoT_Parts.xlsx
+++ b/IoT_Parts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IoTPa\Documents\Brian\class_slides\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IoTPa\Documents\IoTBootCamp\Cohort2\class_slides\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0585A282-B96B-4E4D-8E07-8CF463421B05}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E3C096-760A-4622-A224-DCF99758078D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="-120" windowWidth="37245" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2175" yWindow="930" windowWidth="21360" windowHeight="14535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cohort 2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="252">
   <si>
     <t>https://www.amazon.com/Display-Module-SSD1306-Du-pont-Arduino/dp/B07VDXYDVY/ref=sr_1_3?keywords=oled+i2c&amp;qid=1584130891&amp;sr=8-3</t>
   </si>
@@ -745,6 +745,66 @@
   </si>
   <si>
     <t>https://www.amazon.com/MakerHawk-3-7-30V-Voltage-Multimeter-Voltmeter/dp/B07FMQZVW2/ref=sr_1_3?dchild=1&amp;keywords=usb+current+meter&amp;qid=1590970127&amp;s=hi&amp;sr=1-3</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Gizmo-Dorks-Filament-Printers-2-85mm/dp/B07QBF3KFJ/ref=sr_1_16?dchild=1&amp;keywords=Gizmo+Dorks&amp;qid=1594226549&amp;sr=8-16</t>
+  </si>
+  <si>
+    <t>Gizmo Dorks Silk PLA Filament for 3D Printers 2.85mm 200g, 4 Color Pack - Blue, Green, Red, White</t>
+  </si>
+  <si>
+    <t>PLA Filament</t>
+  </si>
+  <si>
+    <t>Ultimaker 3 NFC PLA Filament</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Ultimaker-NFC-PLA-Filament-White/dp/B06XC7L88G/ref=sr_1_3?crid=3LXDQ5C9UWXYI&amp;dchild=1&amp;keywords=ultimaker+filament&amp;qid=1594226747&amp;sprefix=ulitmaker%2Caps%2C183&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>): https://www.amazon.com/dp/B07QKDSCSM/ref=sspa_dk_detail_0?spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFCNUFXNjBMUkhRNjgmZW5jcnlwdGVkSWQ9QTAzODUwNTVOR1NCNFFLMjRWR0ImZW5jcnlwdGVkQWRJZD1BMDM1MDc1NjNWSVJZSlg1Q0pDTUkmd2lkZ2V0TmFtZT1zcF9kZXRhaWwyJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ&amp;th=1</t>
+  </si>
+  <si>
+    <t>Resistor Packs</t>
+  </si>
+  <si>
+    <t>EDGELEC 100pcs (various ohms) Resistor 1/4w (0.25 Watt) ±1% Tolerance Metal Film Fixed Resistor, Multiple Values of Resistance Optional</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Powseed-Universal-Adapter-Household-Electronics/dp/B01MT5WVCG</t>
+  </si>
+  <si>
+    <t>POWSEED 45W Universal AC Power Adapter DC 5V 6V 7.5V 9V 12V 13.5V 15V Charger for Household Electronics Routers CCTV IP Cameras Speaker USB Hub Tablet LED Strips, Multi Voltage Supply Cord 1a 2a 3a</t>
+  </si>
+  <si>
+    <t>Variable Power Supplies</t>
+  </si>
+  <si>
+    <t>HASSR TPS5430 6-Channel Power Module. 3.3V 5V 9V12V -12V Adj.Very Little Ripple, efficient</t>
+  </si>
+  <si>
+    <t>Voltage Module</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/HASSR-TPS5430-6-Channel-Adj-Very-efficient/dp/B07KSZDCJ2/ref=sr_1_1?dchild=1&amp;keywords=TPS5430&amp;qid=1594005295&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>NOYITO Three-Terminal Regulator Power Supply Module LM7805 5V LM7812 12V Regulator Module 3A Rectifier Filter Power Converter (Pack of 2) (DC 05V)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/NOYITO-Three-Terminal-Regulator-Rectifier-Converter/dp/B07TTZ37LY/ref=sr_1_2?dchild=1&amp;keywords=7805%2Bregulator&amp;qid=1593642183&amp;s=automotive&amp;sr=1-2&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Converters-5V12V15V-Positive-Regulator-Switching/dp/B081WWN3VJ</t>
+  </si>
+  <si>
+    <t>Converters Module, TPS5430 5V12V15V Positive Negative Dual Output Module Regulator Power Supply Module with Switching 12V Output</t>
+  </si>
+  <si>
+    <t>Power Converter (Part 1)</t>
+  </si>
+  <si>
+    <t>Power Converter (Part 2)</t>
   </si>
 </sst>
 </file>
@@ -1225,7 +1285,7 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2840,10 +2900,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4302,7 +4362,7 @@
         <v>5</v>
       </c>
       <c r="G48" s="8">
-        <f t="shared" ref="G48:G68" si="7">E48*F48</f>
+        <f t="shared" ref="G48:G72" si="7">E48*F48</f>
         <v>124.75</v>
       </c>
       <c r="H48" s="3"/>
@@ -4954,269 +5014,424 @@
         <v>64.95</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="23"/>
+    <row r="69" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A69" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E69" s="23">
+        <v>22.95</v>
+      </c>
+      <c r="F69" s="3">
+        <v>4</v>
+      </c>
+      <c r="G69" s="8">
+        <f t="shared" si="7"/>
+        <v>91.8</v>
+      </c>
       <c r="H69" s="3"/>
       <c r="I69" s="24"/>
       <c r="J69" s="25"/>
     </row>
-    <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="23"/>
+    <row r="70" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E70" s="23">
+        <v>49.95</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+      <c r="G70" s="8">
+        <f t="shared" si="7"/>
+        <v>49.95</v>
+      </c>
       <c r="H70" s="3"/>
       <c r="I70" s="24"/>
       <c r="J70" s="25"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E71" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="F71" s="3">
+        <v>6</v>
+      </c>
+      <c r="G71" s="8">
+        <f t="shared" si="7"/>
+        <v>99</v>
+      </c>
       <c r="H71" s="3"/>
       <c r="I71" s="24"/>
       <c r="J71" s="25"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E72" s="3">
+        <v>12</v>
+      </c>
+      <c r="F72" s="3">
+        <v>6</v>
+      </c>
+      <c r="G72" s="8">
+        <f t="shared" si="7"/>
+        <v>72</v>
+      </c>
       <c r="H72" s="3"/>
       <c r="I72" s="24"/>
       <c r="J72" s="25"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B73" s="23"/>
+      <c r="D73" s="4"/>
       <c r="H73" s="3"/>
-      <c r="I73" s="13" t="s">
+      <c r="I73" s="24"/>
+      <c r="J73" s="25"/>
+    </row>
+    <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B74" s="23"/>
+      <c r="D74" s="4"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="25"/>
+    </row>
+    <row r="75" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B75" s="23"/>
+      <c r="D75" s="4"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="25"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H76" s="3"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="25"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H77" s="3"/>
+      <c r="I77" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J73" s="14">
-        <f>SUM(J48:J72)</f>
+      <c r="J77" s="14">
+        <f>SUM(J48:J76)</f>
         <v>1713.9700000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="15" t="s">
+    <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-    </row>
-    <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+    </row>
+    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B80" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5" t="s">
+      <c r="C80" s="5"/>
+      <c r="D80" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E80" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H76" s="3"/>
-      <c r="I76" s="10" t="s">
+      <c r="H80" s="3"/>
+      <c r="I80" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="J76" s="12"/>
-    </row>
-    <row r="77" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="J80" s="12"/>
+    </row>
+    <row r="81" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D77" s="4" t="s">
+      <c r="C81" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E81" s="3">
         <v>23.95</v>
       </c>
-      <c r="G77" s="8">
-        <f>E77*F77</f>
-        <v>0</v>
-      </c>
-      <c r="H77" s="3"/>
-      <c r="I77" s="11">
-        <v>0</v>
-      </c>
-      <c r="J77" s="12">
-        <f>I77*E77</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+      <c r="G81" s="8">
+        <f>E81*F81</f>
+        <v>0</v>
+      </c>
+      <c r="H81" s="3"/>
+      <c r="I81" s="11">
+        <v>0</v>
+      </c>
+      <c r="J81" s="12">
+        <f>I81*E81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B82" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D78" s="4" t="s">
+      <c r="C82" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E82" s="3">
         <v>15.99</v>
       </c>
-      <c r="G78" s="8">
-        <f t="shared" ref="G78:G82" si="10">E78*F78</f>
-        <v>0</v>
-      </c>
-      <c r="H78" s="3"/>
-      <c r="I78" s="11">
-        <v>0</v>
-      </c>
-      <c r="J78" s="12">
-        <f t="shared" ref="J78:J82" si="11">I78*E78</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="G82" s="8">
+        <f t="shared" ref="G82:G86" si="10">E82*F82</f>
+        <v>0</v>
+      </c>
+      <c r="H82" s="3"/>
+      <c r="I82" s="11">
+        <v>0</v>
+      </c>
+      <c r="J82" s="12">
+        <f t="shared" ref="J82:J86" si="11">I82*E82</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B83" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E83" s="3">
         <v>19.95</v>
       </c>
-      <c r="G79" s="8">
+      <c r="G83" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H79" s="3"/>
-      <c r="I79" s="11">
-        <v>0</v>
-      </c>
-      <c r="J79" s="12">
+      <c r="H83" s="3"/>
+      <c r="I83" s="11">
+        <v>0</v>
+      </c>
+      <c r="J83" s="12">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+    <row r="84" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B84" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D80" s="1" t="s">
+      <c r="C84" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E84" s="3">
         <v>10.98</v>
       </c>
-      <c r="G80" s="8">
+      <c r="G84" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H80" s="3"/>
-      <c r="I80" s="11">
+      <c r="H84" s="3"/>
+      <c r="I84" s="11">
         <v>8</v>
       </c>
-      <c r="J80" s="12">
+      <c r="J84" s="12">
         <f t="shared" si="11"/>
         <v>87.84</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B85" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E85" s="3">
         <v>11.99</v>
       </c>
-      <c r="G81" s="8">
+      <c r="G85" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H81" s="3"/>
-      <c r="I81" s="11">
-        <v>0</v>
-      </c>
-      <c r="J81" s="12">
+      <c r="H85" s="3"/>
+      <c r="I85" s="11">
+        <v>0</v>
+      </c>
+      <c r="J85" s="12">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
+    <row r="86" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B86" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D82" s="1" t="s">
+      <c r="C86" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E86" s="3">
         <v>32.880000000000003</v>
       </c>
-      <c r="G82" s="8">
+      <c r="G86" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H82" s="3"/>
-      <c r="I82" s="11">
+      <c r="H86" s="3"/>
+      <c r="I86" s="11">
         <v>2</v>
       </c>
-      <c r="J82" s="12">
+      <c r="J86" s="12">
         <f t="shared" si="11"/>
         <v>65.760000000000005</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="23" t="s">
+    <row r="87" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A87" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="B83" s="23" t="s">
+      <c r="B87" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="C83" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="D83" s="1" t="s">
+      <c r="C87" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E83" s="23">
+      <c r="E87" s="23">
         <v>12.99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B88" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E88" s="3">
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E89" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E90" s="3">
+        <v>8.99</v>
       </c>
     </row>
   </sheetData>
@@ -5239,14 +5454,14 @@
     <hyperlink ref="D29" r:id="rId13" xr:uid="{105FE02A-8D5B-45B7-8D4B-EFB64AC9D6A3}"/>
     <hyperlink ref="D28" r:id="rId14" xr:uid="{4E684CA3-40CA-4374-86A2-E7043CAE5F81}"/>
     <hyperlink ref="D18" r:id="rId15" xr:uid="{6614E47A-2B57-4B95-A888-8FD78134FD01}"/>
-    <hyperlink ref="D79" r:id="rId16" xr:uid="{880F38DF-3364-445A-838E-B36FB7C07DBE}"/>
+    <hyperlink ref="D83" r:id="rId16" xr:uid="{880F38DF-3364-445A-838E-B36FB7C07DBE}"/>
     <hyperlink ref="D33" r:id="rId17" xr:uid="{6C23BDC8-39FF-4797-97CE-DE8E7157DAD7}"/>
     <hyperlink ref="D32" r:id="rId18" xr:uid="{06BBA2CA-7B6A-4868-967C-06382F2A003C}"/>
     <hyperlink ref="D17" r:id="rId19" xr:uid="{E63AB400-E949-45E6-B6B3-EB04D68230DD}"/>
     <hyperlink ref="D16" r:id="rId20" xr:uid="{A8C287BD-7CA6-4940-AC21-A6E65C4A2CA3}"/>
     <hyperlink ref="D15" r:id="rId21" xr:uid="{43500409-CD17-4B6F-8676-1D8DE4D09E04}"/>
-    <hyperlink ref="D78" r:id="rId22" xr:uid="{3A734971-A2D4-4B27-8169-50801AD546AC}"/>
-    <hyperlink ref="D77" r:id="rId23" xr:uid="{A4D44B28-90CE-4144-A98B-70280B8F592B}"/>
+    <hyperlink ref="D82" r:id="rId22" xr:uid="{3A734971-A2D4-4B27-8169-50801AD546AC}"/>
+    <hyperlink ref="D81" r:id="rId23" xr:uid="{A4D44B28-90CE-4144-A98B-70280B8F592B}"/>
     <hyperlink ref="D50" r:id="rId24" display="https://www.amazon.com/Smart-Enabled-Google-Assistant-HomeKit/dp/B01NBI0A6R/ref=sxin_3_ac_d_rm?ac_md=0-0-d2Vtbw%3D%3D-ac_d_rm&amp;cv_ct_cx=wemo&amp;keywords=wemo&amp;pd_rd_i=B01NBI0A6R&amp;pd_rd_r=bbd5c2e2-6eb9-40fe-9456-a7336162120f&amp;pd_rd_w=Ts0oB&amp;pd_rd_wg=K1Zyb&amp;pf_rd_p=de19e82a-2d83-4ae8-9f5c-212586b8b9a0&amp;pf_rd_r=8DGZDACCDVJ418KR7CNJ&amp;qid=1584141937&amp;th=1" xr:uid="{4ADA6815-41C1-4A83-BA7E-E89A39FA0148}"/>
     <hyperlink ref="D49" r:id="rId25" xr:uid="{55244BD9-34FF-4259-B350-67DFFA18163C}"/>
     <hyperlink ref="D7" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
@@ -5273,9 +5488,9 @@
     <hyperlink ref="D30" r:id="rId47" xr:uid="{38A4990E-9C35-4EB4-AD06-A434B6167EAD}"/>
     <hyperlink ref="D52" r:id="rId48" xr:uid="{97D0FD87-5DE9-423C-867C-672F15C486F8}"/>
     <hyperlink ref="D51" r:id="rId49" xr:uid="{A436B341-130A-498C-B9A6-8A3741C71D8E}"/>
-    <hyperlink ref="D80" r:id="rId50" display="https://www.amazon.com/Adafruit-NeoPixel-Ring-Integrated-Drivers/dp/B00KAE3R1U/ref=sxin_7_ac_d_rm?ac_md=1-1-bmVvcGl4ZWw%3D-ac_d_rm&amp;cv_ct_cx=neopixel+ring&amp;dchild=1&amp;keywords=neopixel+ring&amp;pd_rd_i=B00KAE3R1U&amp;pd_rd_r=f532ea9d-0030-44f0-832a-ce614c837962&amp;pd_rd_w=9bJ5n&amp;pd_rd_wg=0eBjE&amp;pf_rd_p=a0516f22-66df-4efd-8b9a-279a864d1512&amp;pf_rd_r=AYP2P98ZJBNCG2YYCT97&amp;psc=1&amp;qid=1590415826&amp;sr=1-2-12d4272d-8adb-4121-8624-135149aa9081" xr:uid="{C3AF0635-E814-4614-BC80-A231684C02A6}"/>
-    <hyperlink ref="D81" r:id="rId51" xr:uid="{26843E6F-6752-4799-87DA-7C422DFECD5A}"/>
-    <hyperlink ref="D82" r:id="rId52" display="https://www.amazon.com/dp/B01CDTEKAG/ref=sspa_dk_detail_5?psc=1&amp;pd_rd_i=B01CDTEKAG&amp;pd_rd_w=xH4vG&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=OWknK&amp;pf_rd_r=4MWDRWVKFJB1AYRB3KT5&amp;pd_rd_r=1dfe850a-4ea2-46f2-b93c-46b84486f9d4&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzUThIV0Y2UjRSUjImZW5jcnlwdGVkSWQ9QTAzMjQ0ODUxSDdUU0E3UTlMWFlEJmVuY3J5cHRlZEFkSWQ9QTA5Nzg1MTUxVTM3VzVKSE44S1RCJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{0AE59B80-E23E-4969-A961-03F8A662204E}"/>
+    <hyperlink ref="D84" r:id="rId50" display="https://www.amazon.com/Adafruit-NeoPixel-Ring-Integrated-Drivers/dp/B00KAE3R1U/ref=sxin_7_ac_d_rm?ac_md=1-1-bmVvcGl4ZWw%3D-ac_d_rm&amp;cv_ct_cx=neopixel+ring&amp;dchild=1&amp;keywords=neopixel+ring&amp;pd_rd_i=B00KAE3R1U&amp;pd_rd_r=f532ea9d-0030-44f0-832a-ce614c837962&amp;pd_rd_w=9bJ5n&amp;pd_rd_wg=0eBjE&amp;pf_rd_p=a0516f22-66df-4efd-8b9a-279a864d1512&amp;pf_rd_r=AYP2P98ZJBNCG2YYCT97&amp;psc=1&amp;qid=1590415826&amp;sr=1-2-12d4272d-8adb-4121-8624-135149aa9081" xr:uid="{C3AF0635-E814-4614-BC80-A231684C02A6}"/>
+    <hyperlink ref="D85" r:id="rId51" xr:uid="{26843E6F-6752-4799-87DA-7C422DFECD5A}"/>
+    <hyperlink ref="D86" r:id="rId52" display="https://www.amazon.com/dp/B01CDTEKAG/ref=sspa_dk_detail_5?psc=1&amp;pd_rd_i=B01CDTEKAG&amp;pd_rd_w=xH4vG&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=OWknK&amp;pf_rd_r=4MWDRWVKFJB1AYRB3KT5&amp;pd_rd_r=1dfe850a-4ea2-46f2-b93c-46b84486f9d4&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzUThIV0Y2UjRSUjImZW5jcnlwdGVkSWQ9QTAzMjQ0ODUxSDdUU0E3UTlMWFlEJmVuY3J5cHRlZEFkSWQ9QTA5Nzg1MTUxVTM3VzVKSE44S1RCJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{0AE59B80-E23E-4969-A961-03F8A662204E}"/>
     <hyperlink ref="D64" r:id="rId53" display="https://www.amazon.com/DFROBOT-Gravity-Analog-Sensor-Arduino/dp/B00R5CCH7U/ref=sr_1_2_sspa?dchild=1&amp;keywords=dfrobot&amp;qid=1590416675&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExRVhTUks4U1dYNjhSJmVuY3J5cHRlZElkPUEwNTY0MzYzUldBQ1A2SDlRVkRCJmVuY3J5cHRlZEFkSWQ9QTEwNDU4OTYzVjNDWEhNV0RPS1IzJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{E2894E68-2A48-49BC-A9B4-D1AAC0BDEB24}"/>
     <hyperlink ref="D61" r:id="rId54" xr:uid="{B1309D72-7987-4168-B0DB-C51863711F78}"/>
     <hyperlink ref="D62" r:id="rId55" xr:uid="{6F0D63D6-0BA7-430B-BEDF-E510DF6F234C}"/>
@@ -5287,11 +5502,18 @@
     <hyperlink ref="D65" r:id="rId61" xr:uid="{9B2A72E6-8A10-49FB-BECB-6C01DA1A94D6}"/>
     <hyperlink ref="D66" r:id="rId62" xr:uid="{1C7EAAAC-693F-4C71-93AD-785D57AD335A}"/>
     <hyperlink ref="D67" r:id="rId63" xr:uid="{45B60A23-E8C5-4B2F-AEF1-8003036307C1}"/>
-    <hyperlink ref="D83" r:id="rId64" display="https://www.amazon.com/dp/B087B5NWY4/ref=sspa_dk_detail_0?psc=1&amp;pd_rd_i=B087B5NWY4&amp;pd_rd_w=qTl74&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=oJf3C&amp;pf_rd_r=BNJEBNTQ9WJFCK2T7NJG&amp;pd_rd_r=878dff4d-97fc-4ab7-b51d-f454e436af7d&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFSMFdOVFk0RUJCSjUmZW5jcnlwdGVkSWQ9QTA5OTM1MjYzSTlCWEhXN0xTU0RQJmVuY3J5cHRlZEFkSWQ9QTAxMzk3MzYzQktQVENFTUtJNzhJJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{19F22790-E10B-4974-81A9-B82241B8E0FF}"/>
+    <hyperlink ref="D87" r:id="rId64" display="https://www.amazon.com/dp/B087B5NWY4/ref=sspa_dk_detail_0?psc=1&amp;pd_rd_i=B087B5NWY4&amp;pd_rd_w=qTl74&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=oJf3C&amp;pf_rd_r=BNJEBNTQ9WJFCK2T7NJG&amp;pd_rd_r=878dff4d-97fc-4ab7-b51d-f454e436af7d&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFSMFdOVFk0RUJCSjUmZW5jcnlwdGVkSWQ9QTA5OTM1MjYzSTlCWEhXN0xTU0RQJmVuY3J5cHRlZEFkSWQ9QTAxMzk3MzYzQktQVENFTUtJNzhJJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{19F22790-E10B-4974-81A9-B82241B8E0FF}"/>
     <hyperlink ref="D38" r:id="rId65" xr:uid="{73FEB118-5B86-4FD6-8BA2-571B8B661FEB}"/>
     <hyperlink ref="D68" r:id="rId66" xr:uid="{83D5AF0C-7F3B-40E2-9831-47390EA060E1}"/>
+    <hyperlink ref="D69" r:id="rId67" xr:uid="{A0B1D561-7137-4F16-A497-5B8F830DA262}"/>
+    <hyperlink ref="D70" r:id="rId68" xr:uid="{82A88257-3340-43F1-9446-53A908B36D53}"/>
+    <hyperlink ref="D88" r:id="rId69" display="https://www.amazon.com/dp/B07QKDSCSM/ref=sspa_dk_detail_0?spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFCNUFXNjBMUkhRNjgmZW5jcnlwdGVkSWQ9QTAzODUwNTVOR1NCNFFLMjRWR0ImZW5jcnlwdGVkQWRJZD1BMDM1MDc1NjNWSVJZSlg1Q0pDTUkmd2lkZ2V0TmFtZT1zcF9kZXRhaWwyJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ&amp;th=1" xr:uid="{E6FE37B2-9943-4039-AA53-FF9EB8B71D1F}"/>
+    <hyperlink ref="D71" r:id="rId70" xr:uid="{20642A8D-B5B4-4DCF-A4D9-60A0F5964E86}"/>
+    <hyperlink ref="D72" r:id="rId71" xr:uid="{6D8F4C25-84DC-42D3-84BC-E5072EEC8CB6}"/>
+    <hyperlink ref="D90" r:id="rId72" xr:uid="{705EA5C3-1E23-49CB-86B0-53564F0BEFF4}"/>
+    <hyperlink ref="D89" r:id="rId73" xr:uid="{0F609282-C336-40A8-A7BE-E5F9FA17B7BD}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" fitToHeight="0" orientation="landscape" r:id="rId67"/>
+  <pageSetup scale="60" fitToHeight="0" orientation="landscape" r:id="rId74"/>
 </worksheet>
 </file>
--- a/IoT_Parts.xlsx
+++ b/IoT_Parts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IoTPa\Documents\IoT\class_slides\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D7841A1-FFAC-4059-99A8-0B20766300BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F39F537-A849-4536-9547-32FDF6D8A660}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="465" windowWidth="20475" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="-120" windowWidth="37245" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="289">
   <si>
     <t>Part</t>
   </si>
@@ -911,6 +911,12 @@
   </si>
   <si>
     <t>https://www.adafruit.com/product/1312</t>
+  </si>
+  <si>
+    <t>Post Cohort 3 Inventory</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1015,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1045,13 +1051,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1140,14 +1172,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1434,10 +1493,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:M145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M72" sqref="M72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,10 +1512,11 @@
     <col min="9" max="10" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="35.140625" style="24" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="3" hidden="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="3"/>
+    <col min="13" max="13" width="24.85546875" style="37" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>172</v>
       </c>
@@ -1471,8 +1531,9 @@
       <c r="J1" s="16"/>
       <c r="K1" s="23"/>
       <c r="L1" s="14"/>
-    </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="M1" s="35"/>
+    </row>
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -1504,11 +1565,14 @@
       <c r="K2" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="34" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="M2" s="36" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1544,7 +1608,7 @@
       </c>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1580,7 +1644,7 @@
       </c>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -1616,7 +1680,7 @@
       </c>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1652,7 +1716,7 @@
       </c>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1688,7 +1752,7 @@
       </c>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -1724,7 +1788,7 @@
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -1760,7 +1824,7 @@
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -1796,7 +1860,7 @@
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
@@ -1832,7 +1896,7 @@
       </c>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>285</v>
       </c>
@@ -1868,7 +1932,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
@@ -1904,7 +1968,7 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>43</v>
       </c>
@@ -1940,7 +2004,7 @@
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>46</v>
       </c>
@@ -1974,11 +2038,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K15" s="33" t="s">
+      <c r="K15" s="32" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="102" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="102" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2014,7 +2078,7 @@
       </c>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
@@ -2050,7 +2114,7 @@
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>55</v>
       </c>
@@ -2086,7 +2150,7 @@
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>58</v>
       </c>
@@ -2122,7 +2186,7 @@
       </c>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>271</v>
       </c>
@@ -2158,7 +2222,7 @@
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>61</v>
       </c>
@@ -2194,7 +2258,7 @@
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>64</v>
       </c>
@@ -2230,7 +2294,7 @@
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>67</v>
       </c>
@@ -2265,8 +2329,11 @@
         <v>0</v>
       </c>
       <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="M23" s="42" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>70</v>
       </c>
@@ -2301,8 +2368,9 @@
         <v>0</v>
       </c>
       <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="M24" s="38"/>
+    </row>
+    <row r="25" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>73</v>
       </c>
@@ -2337,8 +2405,11 @@
         <v>118.9</v>
       </c>
       <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="1:11" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="M25" s="42">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>74</v>
       </c>
@@ -2373,8 +2444,9 @@
         <v>11.58</v>
       </c>
       <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M26" s="40"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>106</v>
       </c>
@@ -2410,7 +2482,7 @@
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>110</v>
       </c>
@@ -2445,8 +2517,11 @@
         <v>0</v>
       </c>
       <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="M28" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>114</v>
       </c>
@@ -2481,8 +2556,11 @@
         <v>149.99</v>
       </c>
       <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="M29" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>124</v>
       </c>
@@ -2518,7 +2596,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>151</v>
       </c>
@@ -2554,7 +2632,7 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>155</v>
       </c>
@@ -2590,7 +2668,7 @@
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>228</v>
       </c>
@@ -2626,7 +2704,7 @@
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>162</v>
       </c>
@@ -2662,7 +2740,7 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>162</v>
       </c>
@@ -2698,7 +2776,7 @@
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>273</v>
       </c>
@@ -2729,7 +2807,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>280</v>
       </c>
@@ -2757,7 +2835,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>178</v>
       </c>
@@ -2793,7 +2871,7 @@
       </c>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>182</v>
       </c>
@@ -2829,7 +2907,7 @@
       </c>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" ht="126" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="126" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>262</v>
       </c>
@@ -2865,12 +2943,13 @@
       </c>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I41" s="12"/>
       <c r="J41" s="11"/>
       <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="M41" s="39"/>
+    </row>
+    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>185</v>
       </c>
@@ -2899,18 +2978,21 @@
         <v>0</v>
       </c>
       <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M42" s="39"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
       <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M43" s="39"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
       <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M44" s="39"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>171</v>
       </c>
@@ -2928,8 +3010,9 @@
         <v>3098.7799999999993</v>
       </c>
       <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M45" s="39"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>187</v>
       </c>
@@ -2944,8 +3027,9 @@
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
       <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M46" s="39"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>188</v>
       </c>
@@ -2959,8 +3043,9 @@
       <c r="I47" s="16"/>
       <c r="J47" s="16"/>
       <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="M47" s="16"/>
+    </row>
+    <row r="48" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>0</v>
       </c>
@@ -2985,8 +3070,9 @@
       </c>
       <c r="J48" s="11"/>
       <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="M48" s="42"/>
+    </row>
+    <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>13</v>
       </c>
@@ -3018,8 +3104,11 @@
         <v>24.95</v>
       </c>
       <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="M49" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>77</v>
       </c>
@@ -3051,8 +3140,11 @@
         <v>0</v>
       </c>
       <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="M50" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>80</v>
       </c>
@@ -3084,8 +3176,11 @@
         <v>0</v>
       </c>
       <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="M51" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>83</v>
       </c>
@@ -3118,7 +3213,7 @@
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>86</v>
       </c>
@@ -3150,8 +3245,11 @@
         <v>0</v>
       </c>
       <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="M53" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>89</v>
       </c>
@@ -3183,8 +3281,11 @@
         <v>0</v>
       </c>
       <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="M54" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>117</v>
       </c>
@@ -3216,8 +3317,11 @@
         <v>0</v>
       </c>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="M55" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>119</v>
       </c>
@@ -3249,8 +3353,11 @@
         <v>0</v>
       </c>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="M56" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
         <v>121</v>
       </c>
@@ -3282,8 +3389,11 @@
         <v>149.99</v>
       </c>
       <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="M57" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>128</v>
       </c>
@@ -3315,8 +3425,11 @@
         <v>0</v>
       </c>
       <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="M58" s="42">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>132</v>
       </c>
@@ -3348,8 +3461,11 @@
         <v>0</v>
       </c>
       <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="M59" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>190</v>
       </c>
@@ -3381,8 +3497,11 @@
         <v>0</v>
       </c>
       <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+      <c r="M60" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>135</v>
       </c>
@@ -3414,8 +3533,11 @@
         <v>0</v>
       </c>
       <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="M61" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>141</v>
       </c>
@@ -3447,8 +3569,11 @@
         <v>85.9</v>
       </c>
       <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="M62" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>193</v>
       </c>
@@ -3480,8 +3605,11 @@
         <v>0</v>
       </c>
       <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="M63" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>196</v>
       </c>
@@ -3513,8 +3641,11 @@
         <v>0</v>
       </c>
       <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+      <c r="M64" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>138</v>
       </c>
@@ -3546,8 +3677,11 @@
         <v>0</v>
       </c>
       <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="M65" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>141</v>
       </c>
@@ -3579,8 +3713,11 @@
         <v>0</v>
       </c>
       <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="M66" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>147</v>
       </c>
@@ -3612,8 +3749,11 @@
         <v>59.8</v>
       </c>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="M67" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>92</v>
       </c>
@@ -3645,8 +3785,11 @@
         <v>57.8</v>
       </c>
       <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="M68" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>199</v>
       </c>
@@ -3678,8 +3821,11 @@
         <v>0</v>
       </c>
       <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="M69" s="42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
         <v>203</v>
       </c>
@@ -3711,8 +3857,11 @@
         <v>0</v>
       </c>
       <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="1:11" ht="126" x14ac:dyDescent="0.25">
+      <c r="M70" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="126" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
         <v>206</v>
       </c>
@@ -3745,7 +3894,7 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="1:11" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
         <v>209</v>
       </c>
@@ -3777,8 +3926,11 @@
         <v>0</v>
       </c>
       <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="M72" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="63" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
         <v>212</v>
       </c>
@@ -3810,8 +3962,11 @@
         <v>0</v>
       </c>
       <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="M73" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
         <v>212</v>
       </c>
@@ -3843,8 +3998,11 @@
         <v>0</v>
       </c>
       <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="M74" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
         <v>247</v>
       </c>
@@ -3876,8 +4034,11 @@
         <v>49.95</v>
       </c>
       <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="M75" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
         <v>247</v>
       </c>
@@ -3909,8 +4070,11 @@
         <v>49.95</v>
       </c>
       <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="M76" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
         <v>247</v>
       </c>
@@ -3942,8 +4106,11 @@
         <v>49.95</v>
       </c>
       <c r="K77" s="3"/>
-    </row>
-    <row r="78" spans="1:11" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="M77" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>217</v>
       </c>
@@ -3976,7 +4143,7 @@
       </c>
       <c r="K78" s="3"/>
     </row>
-    <row r="79" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="63" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>220</v>
       </c>
@@ -4009,7 +4176,7 @@
       </c>
       <c r="K79" s="3"/>
     </row>
-    <row r="80" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>223</v>
       </c>
@@ -4041,8 +4208,11 @@
         <v>0</v>
       </c>
       <c r="K80" s="3"/>
-    </row>
-    <row r="81" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="M80" s="42">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>257</v>
       </c>
@@ -4074,8 +4244,11 @@
         <v>18.989999999999998</v>
       </c>
       <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="M81" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>283</v>
       </c>
@@ -4102,8 +4275,11 @@
       <c r="I82" s="18"/>
       <c r="J82" s="19"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="M82" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>260</v>
       </c>
@@ -4135,8 +4311,11 @@
         <v>9.99</v>
       </c>
       <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="M83" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="63" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>276</v>
       </c>
@@ -4163,30 +4342,36 @@
       <c r="I84" s="18"/>
       <c r="J84" s="19"/>
       <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M84" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B85" s="17"/>
       <c r="D85" s="4"/>
       <c r="H85" s="3"/>
       <c r="I85" s="18"/>
       <c r="J85" s="19"/>
       <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M85" s="39"/>
+    </row>
+    <row r="86" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B86" s="17"/>
       <c r="D86" s="4"/>
       <c r="H86" s="3"/>
       <c r="I86" s="18"/>
       <c r="J86" s="19"/>
       <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M86" s="39"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H87" s="3"/>
       <c r="I87" s="18"/>
       <c r="J87" s="19"/>
       <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M87" s="39"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H88" s="3"/>
       <c r="I88" s="12" t="s">
         <v>171</v>
@@ -4196,11 +4381,13 @@
         <v>557.2700000000001</v>
       </c>
       <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M88" s="39"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="M89" s="39"/>
+    </row>
+    <row r="90" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
         <v>227</v>
       </c>
@@ -4214,8 +4401,9 @@
       <c r="I90" s="14"/>
       <c r="J90" s="14"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="M90" s="41"/>
+    </row>
+    <row r="91" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>0</v>
       </c>
@@ -4235,8 +4423,9 @@
       </c>
       <c r="J91" s="11"/>
       <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="M91" s="39"/>
+    </row>
+    <row r="92" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>95</v>
       </c>
@@ -4265,8 +4454,9 @@
         <v>0</v>
       </c>
       <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="M92" s="39"/>
+    </row>
+    <row r="93" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>98</v>
       </c>
@@ -4295,8 +4485,9 @@
         <v>0</v>
       </c>
       <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="M93" s="39"/>
+    </row>
+    <row r="94" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>167</v>
       </c>
@@ -4325,8 +4516,9 @@
         <v>199.5</v>
       </c>
       <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="M94" s="39"/>
+    </row>
+    <row r="95" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>20</v>
       </c>
@@ -4351,8 +4543,9 @@
         <v>24.75</v>
       </c>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="M95" s="39"/>
+    </row>
+    <row r="96" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>101</v>
       </c>
@@ -4381,8 +4574,9 @@
         <v>0</v>
       </c>
       <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="M96" s="39"/>
+    </row>
+    <row r="97" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>228</v>
       </c>
@@ -4411,8 +4605,9 @@
         <v>127.2</v>
       </c>
       <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="M97" s="39"/>
+    </row>
+    <row r="98" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>158</v>
       </c>
@@ -4436,8 +4631,9 @@
         <v>0</v>
       </c>
       <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="M98" s="39"/>
+    </row>
+    <row r="99" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>144</v>
       </c>
@@ -4466,8 +4662,9 @@
         <v>0</v>
       </c>
       <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="M99" s="39"/>
+    </row>
+    <row r="100" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>103</v>
       </c>
@@ -4496,8 +4693,9 @@
         <v>0</v>
       </c>
       <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="1:11" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="M100" s="39"/>
+    </row>
+    <row r="101" spans="1:13" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A101" s="17" t="s">
         <v>232</v>
       </c>
@@ -4521,8 +4719,9 @@
         <v>0</v>
       </c>
       <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="M101" s="39"/>
+    </row>
+    <row r="102" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>235</v>
       </c>
@@ -4545,11 +4744,12 @@
         <f t="shared" si="12"/>
         <v>5.69</v>
       </c>
-      <c r="K102" s="34" t="s">
+      <c r="K102" s="33" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="M102" s="39"/>
+    </row>
+    <row r="103" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>238</v>
       </c>
@@ -4573,8 +4773,9 @@
         <v>0</v>
       </c>
       <c r="K103" s="3"/>
-    </row>
-    <row r="104" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="M103" s="39"/>
+    </row>
+    <row r="104" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>241</v>
       </c>
@@ -4598,8 +4799,9 @@
         <v>0</v>
       </c>
       <c r="K104" s="3"/>
-    </row>
-    <row r="105" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="M104" s="39"/>
+    </row>
+    <row r="105" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>267</v>
       </c>
@@ -4623,6 +4825,127 @@
         <v>19.989999999999998</v>
       </c>
       <c r="K105" s="3"/>
+      <c r="M105" s="39"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M106" s="39"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M107" s="39"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M108" s="39"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M109" s="39"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M110" s="39"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M111" s="39"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M112" s="39"/>
+    </row>
+    <row r="113" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M113" s="39"/>
+    </row>
+    <row r="114" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M114" s="39"/>
+    </row>
+    <row r="115" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M115" s="39"/>
+    </row>
+    <row r="116" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M116" s="39"/>
+    </row>
+    <row r="117" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M117" s="39"/>
+    </row>
+    <row r="118" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M118" s="39"/>
+    </row>
+    <row r="119" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M119" s="39"/>
+    </row>
+    <row r="120" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M120" s="39"/>
+    </row>
+    <row r="121" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M121" s="39"/>
+    </row>
+    <row r="122" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M122" s="39"/>
+    </row>
+    <row r="123" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M123" s="39"/>
+    </row>
+    <row r="124" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M124" s="39"/>
+    </row>
+    <row r="125" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M125" s="39"/>
+    </row>
+    <row r="126" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M126" s="39"/>
+    </row>
+    <row r="127" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M127" s="39"/>
+    </row>
+    <row r="128" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M128" s="39"/>
+    </row>
+    <row r="129" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M129" s="39"/>
+    </row>
+    <row r="130" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M130" s="39"/>
+    </row>
+    <row r="131" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M131" s="39"/>
+    </row>
+    <row r="132" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M132" s="39"/>
+    </row>
+    <row r="133" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M133" s="39"/>
+    </row>
+    <row r="134" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M134" s="39"/>
+    </row>
+    <row r="135" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M135" s="39"/>
+    </row>
+    <row r="136" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M136" s="39"/>
+    </row>
+    <row r="137" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M137" s="39"/>
+    </row>
+    <row r="138" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M138" s="39"/>
+    </row>
+    <row r="139" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M139" s="39"/>
+    </row>
+    <row r="140" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M140" s="39"/>
+    </row>
+    <row r="141" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M141" s="39"/>
+    </row>
+    <row r="142" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M142" s="39"/>
+    </row>
+    <row r="143" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M143" s="39"/>
+    </row>
+    <row r="144" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M144" s="39"/>
+    </row>
+    <row r="145" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M145" s="39"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:J105" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
@@ -4723,9 +5046,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4946,19 +5272,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{623B2E16-5227-4FB6-A3C3-1FFAD3C257CB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58CD0F9C-796C-40DA-891C-7A92FF34C67A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4983,9 +5305,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58CD0F9C-796C-40DA-891C-7A92FF34C67A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{623B2E16-5227-4FB6-A3C3-1FFAD3C257CB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/IoT_Parts.xlsx
+++ b/IoT_Parts.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IoTPa\Documents\IoT\class_slides\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limegreen/Documents/CNM/IoT/git/class_slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F39F537-A849-4536-9547-32FDF6D8A660}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FCE263-F667-CA47-BF63-798654EFE97B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="-120" windowWidth="37245" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37340" yWindow="-740" windowWidth="33600" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$2:$J$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$2:$J$108</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="307">
   <si>
     <t>Part</t>
   </si>
@@ -913,10 +913,64 @@
     <t>https://www.adafruit.com/product/1312</t>
   </si>
   <si>
-    <t>Post Cohort 3 Inventory</t>
-  </si>
-  <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Plenty</t>
+  </si>
+  <si>
+    <t>6 kits - 30 of each color</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>forgot to count. Lots of pumps and tubing. Only found 2 or 3 moisture sensors</t>
+  </si>
+  <si>
+    <t>3904-12; 3906-10; lots of others</t>
+  </si>
+  <si>
+    <t>plenty - all kinds; male to male, male to female, female to female.</t>
+  </si>
+  <si>
+    <t>36 board (+ 9 for the other encoder)</t>
+  </si>
+  <si>
+    <t>plenty - harvested from all the kits. In the center table drawer.</t>
+  </si>
+  <si>
+    <t>12 various kinds; white particle cords, black, and one long braided cord.</t>
+  </si>
+  <si>
+    <t>9 complete. There are some extra soldering irons and multimeters.</t>
+  </si>
+  <si>
+    <t>Same as line 78?</t>
+  </si>
+  <si>
+    <t>Same as line 52? 6 5V power supplies. 3 plugs. Not sure where the rest of the plugs went. One is on the solder table.</t>
+  </si>
+  <si>
+    <t>?? Not sure what this is.</t>
+  </si>
+  <si>
+    <t>36 knob - smooth action (9 of the yucky click action)</t>
+  </si>
+  <si>
+    <t>Post Cohort 3 Inventory (taken 12/16/2020)</t>
+  </si>
+  <si>
+    <t>4 (+ 2 with backing removed. Not sure if these are usable)</t>
+  </si>
+  <si>
+    <t>Hall Effect Sensors</t>
+  </si>
+  <si>
+    <t>Servo motors</t>
+  </si>
+  <si>
+    <t>I2C Encoders</t>
   </si>
 </sst>
 </file>
@@ -984,7 +1038,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1014,8 +1068,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1038,52 +1098,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1098,14 +1119,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1128,7 +1143,6 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1138,30 +1152,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1172,17 +1164,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1190,13 +1173,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1205,8 +1182,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1493,3490 +1533,3639 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M145"/>
+  <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M72" sqref="M72"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="63.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="1" max="1" width="17.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="63.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="3"/>
     <col min="6" max="6" width="14" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28" style="7" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28" style="6" customWidth="1"/>
     <col min="9" max="10" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="35.140625" style="24" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="35.1640625" style="17" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="3" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="24.85546875" style="37" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="3"/>
+    <col min="13" max="13" width="24.83203125" style="24" customWidth="1"/>
+    <col min="14" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="35"/>
-    </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="29" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="31" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="M2" s="36" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="M2" s="22" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="32">
         <v>7.5</v>
       </c>
-      <c r="F3" s="3">
-        <v>18</v>
-      </c>
-      <c r="G3" s="7">
+      <c r="F3" s="32">
+        <v>18</v>
+      </c>
+      <c r="G3" s="34">
         <f t="shared" ref="G3:H40" si="0">E3*F3</f>
         <v>135</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="34">
         <f>0.75*G3</f>
         <v>101.25</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="10">
         <v>15</v>
       </c>
-      <c r="J3" s="28">
+      <c r="J3" s="9">
         <f t="shared" ref="J3:J40" si="1">I3*E3</f>
         <v>112.5</v>
       </c>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="32">
         <v>7.5</v>
       </c>
-      <c r="F4" s="3">
-        <v>18</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="F4" s="32">
+        <v>18</v>
+      </c>
+      <c r="G4" s="34">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="34">
         <f>0.75*G4</f>
         <v>101.25</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="10">
         <v>14</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="9">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="128" x14ac:dyDescent="0.2">
+      <c r="A5" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="32">
         <v>26.57</v>
       </c>
-      <c r="F5" s="3">
-        <v>18</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="F5" s="32">
+        <v>18</v>
+      </c>
+      <c r="G5" s="34">
         <f t="shared" si="0"/>
         <v>478.26</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="34">
         <f>0.75*G5</f>
         <v>358.69499999999999</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="10">
         <v>16</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="9">
         <f t="shared" si="1"/>
         <v>425.12</v>
       </c>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="32">
         <v>19.989999999999998</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="32">
         <v>2</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="34">
         <f t="shared" si="0"/>
         <v>39.979999999999997</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="34">
         <f>G6</f>
         <v>39.979999999999997</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="10">
         <v>1</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="9">
         <f t="shared" si="1"/>
         <v>19.989999999999998</v>
       </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="23" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="32">
         <v>14.99</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="32">
         <v>8</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="34">
         <f t="shared" si="0"/>
         <v>119.92</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="34">
         <f>0.75*G7</f>
         <v>89.94</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="10">
         <v>8</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="9">
         <f t="shared" si="1"/>
         <v>119.92</v>
       </c>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="32">
         <v>11.86</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="32">
         <v>4</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="34">
         <f t="shared" si="0"/>
         <v>47.44</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="34">
         <f>0.75*G8</f>
         <v>35.58</v>
       </c>
-      <c r="I8" s="12">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11">
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="23" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="32">
         <v>11.99</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="32">
         <v>1</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="34">
         <f t="shared" si="0"/>
         <v>11.99</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="34">
         <f>G9</f>
         <v>11.99</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="10">
         <v>1</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="9">
         <f t="shared" si="1"/>
         <v>11.99</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="23" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+      <c r="A10" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="32">
         <v>16.989999999999998</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="32">
         <v>1</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="34">
         <f t="shared" si="0"/>
         <v>16.989999999999998</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="34">
         <f>G10</f>
         <v>16.989999999999998</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="10">
         <v>1</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="9">
         <f t="shared" si="1"/>
         <v>16.989999999999998</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="23" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="32">
         <v>7.68</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="32">
         <v>8</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="34">
         <f t="shared" si="0"/>
         <v>61.44</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="34">
         <f t="shared" ref="H11:H18" si="2">0.75*G11</f>
         <v>46.08</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="10">
         <v>2</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="9">
         <f t="shared" si="1"/>
         <v>15.36</v>
       </c>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="128" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="32">
         <v>5.45</v>
       </c>
-      <c r="F12" s="3">
-        <v>18</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="F12" s="32">
+        <v>18</v>
+      </c>
+      <c r="G12" s="34">
         <f t="shared" si="0"/>
         <v>98.100000000000009</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="34">
         <f t="shared" si="2"/>
         <v>73.575000000000003</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="10">
         <v>14</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="9">
         <f t="shared" si="1"/>
         <v>76.3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="32">
         <v>19.989999999999998</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="32">
         <v>9</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="34">
         <f t="shared" si="0"/>
         <v>179.91</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="34">
         <f t="shared" si="2"/>
         <v>134.9325</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="10">
         <v>6</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="9">
         <f t="shared" si="1"/>
         <v>119.94</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+      <c r="A14" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="21" t="s">
+      <c r="C14" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="37">
         <v>12.99</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="37">
         <v>11</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="40">
         <f t="shared" si="0"/>
         <v>142.89000000000001</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="40">
         <f t="shared" si="2"/>
         <v>107.16750000000002</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="10">
         <v>10</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="9">
         <f t="shared" si="1"/>
         <v>129.9</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="23">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="32">
         <v>35</v>
       </c>
-      <c r="F15" s="3">
-        <v>18</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="F15" s="32">
+        <v>18</v>
+      </c>
+      <c r="G15" s="34">
         <f t="shared" si="0"/>
         <v>630</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="34">
         <f t="shared" si="2"/>
         <v>472.5</v>
       </c>
-      <c r="I15" s="12">
-        <v>0</v>
-      </c>
-      <c r="J15" s="15">
+      <c r="I15" s="10">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K15" s="32" t="s">
+      <c r="K15" s="41" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="102" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="L15" s="32"/>
+      <c r="M15" s="23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="98" x14ac:dyDescent="0.2">
+      <c r="A16" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="32">
         <v>25.99</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="32">
         <v>5</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="34">
         <f t="shared" si="0"/>
         <v>129.94999999999999</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="34">
         <f t="shared" si="2"/>
         <v>97.462499999999991</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="10">
         <v>2</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="9">
         <f t="shared" si="1"/>
         <v>51.98</v>
       </c>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="23" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+      <c r="A17" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="32">
         <v>13.88</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="32">
         <v>4</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="34">
         <f t="shared" si="0"/>
         <v>55.52</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="34">
         <f t="shared" si="2"/>
         <v>41.64</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="10">
         <v>3</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="9">
         <f t="shared" si="1"/>
         <v>41.64</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A18" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="32">
         <v>8.49</v>
       </c>
-      <c r="F18" s="3">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7">
+      <c r="F18" s="32">
+        <v>18</v>
+      </c>
+      <c r="G18" s="34">
         <f t="shared" si="0"/>
         <v>152.82</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="34">
         <f t="shared" si="2"/>
         <v>114.61499999999999</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="10">
         <v>14</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="9">
         <f t="shared" si="1"/>
         <v>118.86</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+      <c r="A19" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="C19" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="32">
         <v>17.95</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="32">
         <v>1</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="34">
         <f t="shared" si="0"/>
         <v>17.95</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="34">
         <f>G19</f>
         <v>17.95</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="10">
         <v>1</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="9">
         <f t="shared" si="1"/>
         <v>17.95</v>
       </c>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+      <c r="A20" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="35" t="s">
         <v>272</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="32">
         <v>8.99</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="32">
         <v>1</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="34">
         <f t="shared" si="0"/>
         <v>8.99</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="34">
         <f>G20</f>
         <v>8.99</v>
       </c>
-      <c r="I20" s="12">
-        <v>0</v>
-      </c>
-      <c r="J20" s="11">
+      <c r="I20" s="10">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="23">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+      <c r="A21" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="32">
         <v>11.99</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="32">
         <v>4</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="34">
         <f t="shared" si="0"/>
         <v>47.96</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="34">
         <f>0.75*G21</f>
         <v>35.97</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="10">
         <v>3</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="9">
         <f t="shared" si="1"/>
         <v>35.97</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+      <c r="A22" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="C22" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="32">
         <v>8.49</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="32">
         <v>4</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="34">
         <f t="shared" si="0"/>
         <v>33.96</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="34">
         <f>0.75*G22</f>
         <v>25.47</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="10">
         <v>3</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="9">
         <f t="shared" si="1"/>
         <v>25.47</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+      <c r="A23" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="C23" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="32">
         <v>12.99</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="32">
         <v>4</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="34">
         <f t="shared" si="0"/>
         <v>51.96</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="34">
         <f>0.75*G23</f>
         <v>38.97</v>
       </c>
-      <c r="I23" s="12">
-        <v>0</v>
-      </c>
-      <c r="J23" s="11">
+      <c r="I23" s="10">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="M23" s="42" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="26" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="128" x14ac:dyDescent="0.2">
+      <c r="A24" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="C24" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="32">
         <v>11.99</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="32">
         <v>4</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="34">
         <f t="shared" si="0"/>
         <v>47.96</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="34">
         <f>0.75*G24</f>
         <v>35.97</v>
       </c>
-      <c r="I24" s="12">
-        <v>0</v>
-      </c>
-      <c r="J24" s="11">
+      <c r="I24" s="10">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K24" s="3"/>
-      <c r="M24" s="38"/>
-    </row>
-    <row r="25" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="144" x14ac:dyDescent="0.2">
+      <c r="A25" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="C25" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="21" t="s">
+      <c r="C25" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="37">
         <v>118.9</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="37">
         <v>1</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="34">
         <f t="shared" si="0"/>
         <v>118.9</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="34">
         <f t="shared" si="0"/>
         <v>118.9</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="10">
         <v>1</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="9">
         <f t="shared" si="1"/>
         <v>118.9</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="M25" s="42">
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="26">
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+    <row r="26" spans="1:13" ht="98" x14ac:dyDescent="0.2">
+      <c r="A26" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="26" t="s">
+      <c r="C26" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="37">
         <v>5.79</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="37">
         <v>2</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="40">
         <f t="shared" si="0"/>
         <v>11.58</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="40">
         <f>G26</f>
         <v>11.58</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="10">
         <v>2</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J26" s="9">
         <f t="shared" si="1"/>
         <v>11.58</v>
       </c>
-      <c r="K26" s="3"/>
-      <c r="M26" s="40"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="32">
         <v>16.489999999999998</v>
       </c>
-      <c r="F27" s="3">
-        <v>18</v>
-      </c>
-      <c r="G27" s="7">
+      <c r="F27" s="32">
+        <v>18</v>
+      </c>
+      <c r="G27" s="34">
         <f t="shared" si="0"/>
         <v>296.82</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="34">
         <f>0.75*G27</f>
         <v>222.61500000000001</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="10">
         <v>16</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J27" s="9">
         <f t="shared" si="1"/>
         <v>263.83999999999997</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="32">
         <v>149.99</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="32">
         <v>1</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="34">
         <f t="shared" si="0"/>
         <v>149.99</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="34">
         <f>G28</f>
         <v>149.99</v>
       </c>
-      <c r="I28" s="12">
-        <v>0</v>
-      </c>
-      <c r="J28" s="11">
+      <c r="I28" s="10">
+        <v>0</v>
+      </c>
+      <c r="J28" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-      <c r="M28" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="37">
         <v>149.99</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="37">
         <v>2</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="40">
         <f t="shared" si="0"/>
         <v>299.98</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H29" s="40">
         <f>G29</f>
         <v>299.98</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="10">
         <v>1</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J29" s="9">
         <f t="shared" si="1"/>
         <v>149.99</v>
       </c>
-      <c r="K29" s="3"/>
-      <c r="M29" s="42">
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="32">
         <v>24.99</v>
       </c>
-      <c r="F30" s="3">
-        <v>18</v>
-      </c>
-      <c r="G30" s="7">
+      <c r="F30" s="32">
+        <v>18</v>
+      </c>
+      <c r="G30" s="34">
         <f t="shared" si="0"/>
         <v>449.82</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="34">
         <f t="shared" ref="H30:H40" si="3">0.75*G30</f>
         <v>337.36500000000001</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="10">
         <v>16</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30" s="9">
         <f t="shared" si="1"/>
         <v>399.84</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="32">
         <v>9.9</v>
       </c>
-      <c r="F31" s="3">
-        <v>18</v>
-      </c>
-      <c r="G31" s="7">
+      <c r="F31" s="32">
+        <v>18</v>
+      </c>
+      <c r="G31" s="34">
         <f t="shared" si="0"/>
         <v>178.20000000000002</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="34">
         <f t="shared" si="3"/>
         <v>133.65</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="10">
         <v>10</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J31" s="9">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+      <c r="A32" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="32">
         <v>11.5</v>
       </c>
-      <c r="F32" s="3">
-        <v>18</v>
-      </c>
-      <c r="G32" s="7">
+      <c r="F32" s="32">
+        <v>18</v>
+      </c>
+      <c r="G32" s="34">
         <f t="shared" si="0"/>
         <v>207</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="34">
         <f t="shared" si="3"/>
         <v>155.25</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="10">
         <v>10</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J32" s="9">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A33" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="36" t="s">
         <v>286</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="32">
         <v>7.95</v>
       </c>
-      <c r="F33" s="3">
-        <v>18</v>
-      </c>
-      <c r="G33" s="7">
+      <c r="F33" s="32">
+        <v>18</v>
+      </c>
+      <c r="G33" s="34">
         <f t="shared" si="0"/>
         <v>143.1</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="32">
         <f t="shared" si="3"/>
         <v>107.32499999999999</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="8">
         <v>16</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J33" s="9">
         <f t="shared" si="1"/>
         <v>127.2</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A34" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="32">
         <v>2.95</v>
       </c>
-      <c r="F34" s="3">
-        <v>18</v>
-      </c>
-      <c r="G34" s="7">
+      <c r="F34" s="32">
+        <v>18</v>
+      </c>
+      <c r="G34" s="34">
         <f t="shared" si="0"/>
         <v>53.1</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="34">
         <f t="shared" si="3"/>
         <v>39.825000000000003</v>
       </c>
-      <c r="I34" s="12">
-        <v>18</v>
-      </c>
-      <c r="J34" s="11">
+      <c r="I34" s="10">
+        <v>18</v>
+      </c>
+      <c r="J34" s="9">
         <f t="shared" si="1"/>
         <v>53.1</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="23" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A35" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="32">
         <v>2.95</v>
       </c>
-      <c r="F35" s="3">
-        <v>18</v>
-      </c>
-      <c r="G35" s="7">
+      <c r="F35" s="32">
+        <v>18</v>
+      </c>
+      <c r="G35" s="34">
         <f t="shared" si="0"/>
         <v>53.1</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="34">
         <f t="shared" si="3"/>
         <v>39.825000000000003</v>
       </c>
-      <c r="I35" s="12">
-        <v>18</v>
-      </c>
-      <c r="J35" s="11">
+      <c r="I35" s="10">
+        <v>18</v>
+      </c>
+      <c r="J35" s="9">
         <f t="shared" si="1"/>
         <v>53.1</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="23" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A36" s="43" t="s">
         <v>273</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="4" t="s">
+      <c r="C36" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="32">
         <v>7.99</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="32">
         <v>3</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="34">
         <f t="shared" si="0"/>
         <v>23.97</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="34">
         <f>2*E36</f>
         <v>15.98</v>
       </c>
-      <c r="I36" s="12"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="3"/>
-    </row>
-    <row r="37" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="I36" s="10"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+      <c r="A37" s="43" t="s">
         <v>280</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="C37" s="32"/>
+      <c r="D37" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="32">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="32">
         <v>2</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="34">
         <f t="shared" si="0"/>
         <v>19.600000000000001</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="34">
         <f>2*E37</f>
         <v>19.600000000000001</v>
       </c>
-      <c r="I37" s="12"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="3"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="I37" s="10"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="23" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="32">
         <v>5.98</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="32">
         <v>16</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="34">
         <f t="shared" si="0"/>
         <v>95.68</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="34">
         <f t="shared" si="3"/>
         <v>71.760000000000005</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="10">
         <v>16</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J38" s="9">
         <f t="shared" si="1"/>
         <v>95.68</v>
       </c>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A39" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="C39" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="4" t="s">
+      <c r="C39" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="32">
         <v>12.47</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="32">
         <v>16</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="34">
         <f t="shared" si="0"/>
         <v>199.52</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="34">
         <f t="shared" si="3"/>
         <v>149.64000000000001</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I39" s="10">
         <v>10</v>
       </c>
-      <c r="J39" s="11">
+      <c r="J39" s="9">
         <f t="shared" si="1"/>
         <v>124.7</v>
       </c>
-      <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="1:13" ht="126" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="A40" s="43" t="s">
         <v>262</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="4" t="s">
+      <c r="C40" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="32">
         <v>13.99</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="32">
         <v>4</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="34">
         <f t="shared" si="0"/>
         <v>55.96</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="34">
         <f t="shared" si="3"/>
         <v>41.97</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="10">
         <v>3</v>
       </c>
-      <c r="J40" s="11">
+      <c r="J40" s="9">
         <f t="shared" si="1"/>
         <v>41.97</v>
       </c>
-      <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I41" s="12"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="3"/>
-      <c r="M41" s="39"/>
-    </row>
-    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="46" t="s">
+        <v>304</v>
+      </c>
+      <c r="B41" s="47"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="46" t="s">
+        <v>305</v>
+      </c>
+      <c r="B42" s="47"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="B43" s="47"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="26"/>
+    </row>
+    <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B45" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="E42" s="3">
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32">
         <v>25</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F45" s="32">
         <v>16</v>
       </c>
-      <c r="G42" s="7">
-        <f t="shared" ref="G42" si="4">E42*F42</f>
+      <c r="G45" s="34">
+        <f t="shared" ref="G45" si="4">E45*F45</f>
         <v>400</v>
       </c>
-      <c r="H42" s="7">
-        <f t="shared" ref="H42" si="5">0.75*G42</f>
+      <c r="H45" s="34">
+        <f t="shared" ref="H45" si="5">0.75*G45</f>
         <v>300</v>
       </c>
-      <c r="I42" s="9">
-        <v>0</v>
-      </c>
-      <c r="J42" s="11">
-        <f t="shared" ref="J42" si="6">I42*E42</f>
-        <v>0</v>
-      </c>
-      <c r="K42" s="3"/>
-      <c r="M42" s="39"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I43" s="9"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="3"/>
-      <c r="M43" s="39"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I44" s="9"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="3"/>
-      <c r="M44" s="39"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="I45" s="7">
+        <v>0</v>
+      </c>
+      <c r="J45" s="9">
+        <f t="shared" ref="J45" si="6">I45*E45</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="26"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="26"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="26"/>
+    </row>
+    <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="G45" s="7">
-        <f>SUM(G3:G44)</f>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="34">
+        <f>SUM(G3:G47)</f>
         <v>5400.3100000000022</v>
       </c>
-      <c r="H45" s="7">
-        <f>SUM(H3:H44)</f>
+      <c r="H48" s="34">
+        <f>SUM(H3:H47)</f>
         <v>4222.2224999999999</v>
       </c>
-      <c r="I45" s="9"/>
-      <c r="J45" s="11">
-        <f>SUM(J3:J44)</f>
+      <c r="I48" s="7"/>
+      <c r="J48" s="9">
+        <f>SUM(J3:J47)</f>
         <v>3098.7799999999993</v>
       </c>
-      <c r="K45" s="3"/>
-      <c r="M45" s="39"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="26"/>
+    </row>
+    <row r="49" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="G46" s="7">
-        <f>G45/16</f>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="34">
+        <f>G48/16</f>
         <v>337.51937500000014</v>
       </c>
-      <c r="H46" s="7">
-        <f>0.75*G46</f>
+      <c r="H49" s="34">
+        <f>0.75*G49</f>
         <v>253.13953125000012</v>
       </c>
-      <c r="I46" s="9"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="3"/>
-      <c r="M46" s="39"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
+      <c r="I49" s="7"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="26"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="3"/>
-      <c r="M47" s="16"/>
-    </row>
-    <row r="48" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="5" t="s">
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="27"/>
+    </row>
+    <row r="51" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C51" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D51" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E51" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F51" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="9" t="s">
+      <c r="G51" s="34"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="11"/>
-      <c r="K48" s="3"/>
-      <c r="M48" s="42"/>
-    </row>
-    <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
+      <c r="J51" s="9"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="26"/>
+    </row>
+    <row r="52" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A52" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B52" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C52" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D52" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E52" s="37">
         <v>24.95</v>
       </c>
-      <c r="F49" s="20">
+      <c r="F52" s="37">
         <v>5</v>
       </c>
-      <c r="G49" s="22">
-        <f t="shared" ref="G49:G84" si="7">E49*F49</f>
+      <c r="G52" s="40">
+        <f t="shared" ref="G52:G87" si="7">E52*F52</f>
         <v>124.75</v>
       </c>
-      <c r="H49" s="20"/>
-      <c r="I49" s="10">
+      <c r="H52" s="37"/>
+      <c r="I52" s="8">
         <v>1</v>
       </c>
-      <c r="J49" s="11">
-        <f t="shared" ref="J49:J71" si="8">I49*E49</f>
+      <c r="J52" s="9">
+        <f t="shared" ref="J52:J74" si="8">I52*E52</f>
         <v>24.95</v>
       </c>
-      <c r="K49" s="3"/>
-      <c r="M49" s="42">
+      <c r="K52" s="32"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="26">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+    <row r="53" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+      <c r="A53" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B53" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" s="1" t="s">
+      <c r="C53" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E53" s="32">
         <v>172.77</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F53" s="32">
         <v>1</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G53" s="34">
         <f t="shared" si="7"/>
         <v>172.77</v>
       </c>
-      <c r="H50" s="3"/>
-      <c r="I50" s="10">
-        <v>0</v>
-      </c>
-      <c r="J50" s="11">
+      <c r="H53" s="32"/>
+      <c r="I53" s="8">
+        <v>0</v>
+      </c>
+      <c r="J53" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-      <c r="M50" s="42">
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+    <row r="54" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B54" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="C54" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E54" s="32">
         <v>17.98</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F54" s="32">
         <v>4</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G54" s="34">
         <f t="shared" si="7"/>
         <v>71.92</v>
       </c>
-      <c r="H51" s="3"/>
-      <c r="I51" s="10">
-        <v>0</v>
-      </c>
-      <c r="J51" s="11">
+      <c r="H54" s="32"/>
+      <c r="I54" s="8">
+        <v>0</v>
+      </c>
+      <c r="J54" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-      <c r="M51" s="42">
+      <c r="K54" s="32"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="26">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+    <row r="55" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+      <c r="A55" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B55" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="C55" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E55" s="32">
         <v>15.99</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F55" s="32">
         <v>3</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G55" s="34">
         <f t="shared" si="7"/>
         <v>47.97</v>
       </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="10">
-        <v>0</v>
-      </c>
-      <c r="J52" s="11">
+      <c r="H55" s="32"/>
+      <c r="I55" s="8">
+        <v>0</v>
+      </c>
+      <c r="J55" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="K55" s="32"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+      <c r="A56" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B56" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="4" t="s">
+      <c r="C56" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E56" s="32">
         <v>11.98</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F56" s="32">
         <v>1</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G56" s="34">
         <f t="shared" si="7"/>
         <v>11.98</v>
       </c>
-      <c r="H53" s="3"/>
-      <c r="I53" s="10">
-        <v>0</v>
-      </c>
-      <c r="J53" s="11">
+      <c r="H56" s="32"/>
+      <c r="I56" s="8">
+        <v>0</v>
+      </c>
+      <c r="J56" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-      <c r="M53" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="K56" s="32"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A57" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B57" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="C57" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E57" s="32">
         <v>94.99</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F57" s="32">
         <v>4</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G57" s="34">
         <f t="shared" si="7"/>
         <v>379.96</v>
       </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="10">
-        <v>0</v>
-      </c>
-      <c r="J54" s="11">
+      <c r="H57" s="32"/>
+      <c r="I57" s="8">
+        <v>0</v>
+      </c>
+      <c r="J57" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K54" s="3"/>
-      <c r="M54" s="42">
+      <c r="K57" s="32"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="26">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+    <row r="58" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A58" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B58" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C58" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D58" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E58" s="32">
         <v>149.99</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F58" s="32">
         <v>4</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G58" s="34">
         <f t="shared" si="7"/>
         <v>599.96</v>
       </c>
-      <c r="H55" s="3"/>
-      <c r="I55" s="10">
-        <v>0</v>
-      </c>
-      <c r="J55" s="11">
+      <c r="H58" s="32"/>
+      <c r="I58" s="8">
+        <v>0</v>
+      </c>
+      <c r="J58" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K55" s="3"/>
-      <c r="M55" s="42">
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="26">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+    <row r="59" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A59" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B59" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C59" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D59" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E59" s="32">
         <v>99.99</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F59" s="32">
         <v>4</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G59" s="34">
         <f t="shared" si="7"/>
         <v>399.96</v>
       </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="10">
-        <v>0</v>
-      </c>
-      <c r="J56" s="11">
+      <c r="H59" s="32"/>
+      <c r="I59" s="8">
+        <v>0</v>
+      </c>
+      <c r="J59" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K56" s="3"/>
-      <c r="M56" s="42">
+      <c r="K59" s="32"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="26">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
+    <row r="60" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="B57" s="25" t="s">
+      <c r="B60" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C60" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="D57" s="26" t="s">
+      <c r="D60" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="E57" s="20">
+      <c r="E60" s="37">
         <v>149.99</v>
       </c>
-      <c r="F57" s="20">
+      <c r="F60" s="37">
         <v>1</v>
       </c>
-      <c r="G57" s="22">
+      <c r="G60" s="40">
         <f t="shared" si="7"/>
         <v>149.99</v>
       </c>
-      <c r="H57" s="22"/>
-      <c r="I57" s="10">
+      <c r="H60" s="40"/>
+      <c r="I60" s="8">
         <v>1</v>
       </c>
-      <c r="J57" s="11">
+      <c r="J60" s="9">
         <f t="shared" si="8"/>
         <v>149.99</v>
       </c>
-      <c r="K57" s="3"/>
-      <c r="M57" s="42">
+      <c r="K60" s="32"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+    <row r="61" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+      <c r="A61" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B61" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C61" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D61" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E61" s="32">
         <v>15.95</v>
       </c>
-      <c r="F58" s="3">
-        <v>18</v>
-      </c>
-      <c r="G58" s="7">
+      <c r="F61" s="32">
+        <v>18</v>
+      </c>
+      <c r="G61" s="34">
         <f t="shared" si="7"/>
         <v>287.09999999999997</v>
       </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="10">
-        <v>0</v>
-      </c>
-      <c r="J58" s="11">
+      <c r="H61" s="32"/>
+      <c r="I61" s="8">
+        <v>0</v>
+      </c>
+      <c r="J61" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K58" s="3"/>
-      <c r="M58" s="42">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="K61" s="32"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+      <c r="A62" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B62" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C62" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D62" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E62" s="32">
         <v>110.9</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F62" s="32">
         <v>5</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G62" s="34">
         <f t="shared" si="7"/>
         <v>554.5</v>
       </c>
-      <c r="H59" s="3"/>
-      <c r="I59" s="10">
-        <v>0</v>
-      </c>
-      <c r="J59" s="11">
+      <c r="H62" s="32"/>
+      <c r="I62" s="8">
+        <v>0</v>
+      </c>
+      <c r="J62" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K59" s="3"/>
-      <c r="M59" s="42">
+      <c r="K62" s="32"/>
+      <c r="L62" s="32"/>
+      <c r="M62" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+    <row r="63" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+      <c r="A63" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B63" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C63" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D63" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E63" s="32">
         <v>57.95</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F63" s="32">
         <v>5</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G63" s="34">
         <f t="shared" si="7"/>
         <v>289.75</v>
       </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="10">
-        <v>0</v>
-      </c>
-      <c r="J60" s="11">
+      <c r="H63" s="32"/>
+      <c r="I63" s="8">
+        <v>0</v>
+      </c>
+      <c r="J63" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K60" s="3"/>
-      <c r="M60" s="42">
+      <c r="K63" s="32"/>
+      <c r="L63" s="32"/>
+      <c r="M63" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+    <row r="64" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+      <c r="A64" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B64" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C64" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D64" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E64" s="32">
         <v>52.95</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F64" s="32">
         <v>5</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G64" s="34">
         <f t="shared" si="7"/>
         <v>264.75</v>
       </c>
-      <c r="H61" s="3"/>
-      <c r="I61" s="10">
-        <v>0</v>
-      </c>
-      <c r="J61" s="11">
+      <c r="H64" s="32"/>
+      <c r="I64" s="8">
+        <v>0</v>
+      </c>
+      <c r="J64" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-      <c r="M61" s="42">
+      <c r="K64" s="32"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+    <row r="65" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+      <c r="A65" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B65" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C65" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D65" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E65" s="32">
         <v>42.95</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F65" s="32">
         <v>5</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G65" s="34">
         <f t="shared" si="7"/>
         <v>214.75</v>
       </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="10">
+      <c r="H65" s="32"/>
+      <c r="I65" s="8">
         <v>2</v>
       </c>
-      <c r="J62" s="11">
+      <c r="J65" s="9">
         <f t="shared" si="8"/>
         <v>85.9</v>
       </c>
-      <c r="K62" s="3"/>
-      <c r="M62" s="42">
+      <c r="K65" s="32"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+    <row r="66" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+      <c r="A66" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B66" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C66" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D66" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E66" s="32">
         <v>25.95</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F66" s="32">
         <v>5</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G66" s="34">
         <f t="shared" si="7"/>
         <v>129.75</v>
       </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="10">
-        <v>0</v>
-      </c>
-      <c r="J63" s="11">
+      <c r="H66" s="32"/>
+      <c r="I66" s="8">
+        <v>0</v>
+      </c>
+      <c r="J66" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-      <c r="M63" s="42">
+      <c r="K66" s="32"/>
+      <c r="L66" s="32"/>
+      <c r="M66" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+    <row r="67" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A67" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B67" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C67" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D67" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E67" s="32">
         <v>22.95</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F67" s="32">
         <v>5</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G67" s="34">
         <f t="shared" si="7"/>
         <v>114.75</v>
       </c>
-      <c r="H64" s="3"/>
-      <c r="I64" s="10">
-        <v>0</v>
-      </c>
-      <c r="J64" s="11">
+      <c r="H67" s="32"/>
+      <c r="I67" s="8">
+        <v>0</v>
+      </c>
+      <c r="J67" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-      <c r="M64" s="42">
+      <c r="K67" s="32"/>
+      <c r="L67" s="32"/>
+      <c r="M67" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+    <row r="68" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+      <c r="A68" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B68" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C68" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D68" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E68" s="32">
         <v>27.95</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F68" s="32">
         <v>5</v>
       </c>
-      <c r="G65" s="7">
+      <c r="G68" s="34">
         <f t="shared" si="7"/>
         <v>139.75</v>
       </c>
-      <c r="H65" s="3"/>
-      <c r="I65" s="10">
-        <v>0</v>
-      </c>
-      <c r="J65" s="11">
+      <c r="H68" s="32"/>
+      <c r="I68" s="8">
+        <v>0</v>
+      </c>
+      <c r="J68" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-      <c r="M65" s="42">
+      <c r="K68" s="32"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+    <row r="69" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+      <c r="A69" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B69" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C69" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D69" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E69" s="32">
         <v>42.95</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F69" s="32">
         <v>5</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G69" s="34">
         <f t="shared" si="7"/>
         <v>214.75</v>
       </c>
-      <c r="H66" s="3"/>
-      <c r="I66" s="10">
-        <v>0</v>
-      </c>
-      <c r="J66" s="11">
+      <c r="H69" s="32"/>
+      <c r="I69" s="8">
+        <v>0</v>
+      </c>
+      <c r="J69" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K66" s="3"/>
-      <c r="M66" s="42">
+      <c r="K69" s="32"/>
+      <c r="L69" s="32"/>
+      <c r="M69" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+    <row r="70" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A70" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B70" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C70" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D70" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E70" s="32">
         <v>29.9</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F70" s="32">
         <v>5</v>
       </c>
-      <c r="G67" s="7">
+      <c r="G70" s="34">
         <f t="shared" si="7"/>
         <v>149.5</v>
       </c>
-      <c r="H67" s="3"/>
-      <c r="I67" s="10">
+      <c r="H70" s="32"/>
+      <c r="I70" s="8">
         <v>2</v>
       </c>
-      <c r="J67" s="11">
+      <c r="J70" s="9">
         <f t="shared" si="8"/>
         <v>59.8</v>
       </c>
-      <c r="K67" s="3"/>
-      <c r="M67" s="42">
+      <c r="K70" s="32"/>
+      <c r="L70" s="32"/>
+      <c r="M70" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+    <row r="71" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A71" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B71" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" s="1" t="s">
+      <c r="C71" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E71" s="32">
         <v>57.8</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F71" s="32">
         <v>5</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G71" s="34">
         <f t="shared" si="7"/>
         <v>289</v>
       </c>
-      <c r="H68" s="3"/>
-      <c r="I68" s="10">
+      <c r="H71" s="32"/>
+      <c r="I71" s="8">
         <v>1</v>
       </c>
-      <c r="J68" s="11">
+      <c r="J71" s="9">
         <f t="shared" si="8"/>
         <v>57.8</v>
       </c>
-      <c r="K68" s="3"/>
-      <c r="M68" s="42">
+      <c r="K71" s="32"/>
+      <c r="L71" s="32"/>
+      <c r="M71" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+    <row r="72" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A72" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="B72" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C72" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D72" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E72" s="32">
         <v>259</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F72" s="32">
         <v>8</v>
       </c>
-      <c r="G69" s="7">
+      <c r="G72" s="34">
         <f t="shared" si="7"/>
         <v>2072</v>
       </c>
-      <c r="H69" s="3"/>
-      <c r="I69" s="10">
-        <v>0</v>
-      </c>
-      <c r="J69" s="11">
+      <c r="H72" s="32"/>
+      <c r="I72" s="8">
+        <v>0</v>
+      </c>
+      <c r="J72" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-      <c r="M69" s="42">
+      <c r="K72" s="32"/>
+      <c r="L72" s="32"/>
+      <c r="M72" s="26">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="17" t="s">
+    <row r="73" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="A73" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="B73" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="C70" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70" s="4" t="s">
+      <c r="C73" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E73" s="32">
         <v>89.99</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F73" s="32">
         <v>2</v>
       </c>
-      <c r="G70" s="7">
+      <c r="G73" s="34">
         <f t="shared" si="7"/>
         <v>179.98</v>
       </c>
-      <c r="H70" s="3"/>
-      <c r="I70" s="10">
-        <v>0</v>
-      </c>
-      <c r="J70" s="11">
+      <c r="H73" s="32"/>
+      <c r="I73" s="8">
+        <v>0</v>
+      </c>
+      <c r="J73" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-      <c r="M70" s="42">
+      <c r="K73" s="32"/>
+      <c r="L73" s="32"/>
+      <c r="M73" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="126" x14ac:dyDescent="0.25">
-      <c r="A71" s="17" t="s">
+    <row r="74" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+      <c r="A74" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B74" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="C71" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" s="4" t="s">
+      <c r="C74" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E74" s="32">
         <v>21.98</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F74" s="32">
         <v>16</v>
       </c>
-      <c r="G71" s="7">
+      <c r="G74" s="34">
         <f t="shared" si="7"/>
         <v>351.68</v>
       </c>
-      <c r="H71" s="3"/>
-      <c r="I71" s="10">
-        <v>0</v>
-      </c>
-      <c r="J71" s="11">
+      <c r="H74" s="32"/>
+      <c r="I74" s="8">
+        <v>0</v>
+      </c>
+      <c r="J74" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="1:13" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="17" t="s">
+      <c r="K74" s="32"/>
+      <c r="L74" s="32"/>
+      <c r="M74" s="23" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="A75" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="B75" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="C72" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" s="4" t="s">
+      <c r="C75" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="E72" s="17">
+      <c r="E75" s="44">
         <v>12.99</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F75" s="32">
         <v>5</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G75" s="34">
         <f t="shared" si="7"/>
         <v>64.95</v>
       </c>
-      <c r="H72" s="3"/>
-      <c r="I72" s="10">
-        <v>0</v>
-      </c>
-      <c r="J72" s="11">
-        <f t="shared" ref="J72:J79" si="9">I72*E72</f>
-        <v>0</v>
-      </c>
-      <c r="K72" s="3"/>
-      <c r="M72" s="42">
+      <c r="H75" s="32"/>
+      <c r="I75" s="8">
+        <v>0</v>
+      </c>
+      <c r="J75" s="9">
+        <f t="shared" ref="J75:J82" si="9">I75*E75</f>
+        <v>0</v>
+      </c>
+      <c r="K75" s="32"/>
+      <c r="L75" s="32"/>
+      <c r="M75" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="63" x14ac:dyDescent="0.25">
-      <c r="A73" s="17" t="s">
+    <row r="76" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A76" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="B73" s="17" t="s">
+      <c r="B76" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="C73" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73" s="4" t="s">
+      <c r="C76" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E76" s="44">
         <v>22.95</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F76" s="32">
         <v>4</v>
       </c>
-      <c r="G73" s="7">
+      <c r="G76" s="34">
         <f t="shared" si="7"/>
         <v>91.8</v>
       </c>
-      <c r="H73" s="3"/>
-      <c r="I73" s="10">
-        <v>0</v>
-      </c>
-      <c r="J73" s="11">
+      <c r="H76" s="32"/>
+      <c r="I76" s="8">
+        <v>0</v>
+      </c>
+      <c r="J76" s="9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-      <c r="M73" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="17" t="s">
+      <c r="K76" s="32"/>
+      <c r="L76" s="32"/>
+      <c r="M76" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A77" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B77" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="C74" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D74" s="4" t="s">
+      <c r="C77" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E77" s="44">
         <v>49.95</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F77" s="32">
         <v>1</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G77" s="34">
         <f t="shared" si="7"/>
         <v>49.95</v>
       </c>
-      <c r="H74" s="3"/>
-      <c r="I74" s="18">
-        <v>0</v>
-      </c>
-      <c r="J74" s="11">
+      <c r="H77" s="32"/>
+      <c r="I77" s="10">
+        <v>0</v>
+      </c>
+      <c r="J77" s="9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-      <c r="M74" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="17" t="s">
+      <c r="K77" s="32"/>
+      <c r="L77" s="32"/>
+      <c r="M77" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A78" s="44" t="s">
         <v>247</v>
       </c>
-      <c r="B75" s="17" t="s">
+      <c r="B78" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C78" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D78" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E78" s="44">
         <v>49.95</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F78" s="32">
         <v>1</v>
       </c>
-      <c r="G75" s="7">
+      <c r="G78" s="34">
         <f t="shared" si="7"/>
         <v>49.95</v>
       </c>
-      <c r="H75" s="3"/>
-      <c r="I75" s="18">
+      <c r="H78" s="32"/>
+      <c r="I78" s="10">
         <v>1</v>
       </c>
-      <c r="J75" s="11">
+      <c r="J78" s="9">
         <f t="shared" si="9"/>
         <v>49.95</v>
       </c>
-      <c r="K75" s="3"/>
-      <c r="M75" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="17" t="s">
+      <c r="K78" s="32"/>
+      <c r="L78" s="32"/>
+      <c r="M78" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A79" s="44" t="s">
         <v>247</v>
       </c>
-      <c r="B76" s="17" t="s">
+      <c r="B79" s="44" t="s">
         <v>250</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C79" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D79" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E79" s="44">
         <v>49.95</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F79" s="32">
         <v>1</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G79" s="34">
         <f t="shared" si="7"/>
         <v>49.95</v>
       </c>
-      <c r="H76" s="3"/>
-      <c r="I76" s="18">
+      <c r="H79" s="32"/>
+      <c r="I79" s="10">
         <v>1</v>
       </c>
-      <c r="J76" s="11">
+      <c r="J79" s="9">
         <f t="shared" si="9"/>
         <v>49.95</v>
       </c>
-      <c r="K76" s="3"/>
-      <c r="M76" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="17" t="s">
+      <c r="K79" s="32"/>
+      <c r="L79" s="32"/>
+      <c r="M79" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A80" s="44" t="s">
         <v>247</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="B80" s="44" t="s">
         <v>254</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C80" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D80" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E80" s="44">
         <v>49.95</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F80" s="32">
         <v>1</v>
       </c>
-      <c r="G77" s="7">
+      <c r="G80" s="34">
         <f t="shared" si="7"/>
         <v>49.95</v>
       </c>
-      <c r="H77" s="3"/>
-      <c r="I77" s="18">
+      <c r="H80" s="32"/>
+      <c r="I80" s="10">
         <v>1</v>
       </c>
-      <c r="J77" s="11">
+      <c r="J80" s="9">
         <f t="shared" si="9"/>
         <v>49.95</v>
       </c>
-      <c r="K77" s="3"/>
-      <c r="M77" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+      <c r="K80" s="32"/>
+      <c r="L80" s="32"/>
+      <c r="M80" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="A81" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="B78" s="17" t="s">
+      <c r="B81" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D78" s="4" t="s">
+      <c r="C81" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E81" s="32">
         <v>16.5</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F81" s="32">
         <v>6</v>
       </c>
-      <c r="G78" s="7">
+      <c r="G81" s="34">
         <f t="shared" si="7"/>
         <v>99</v>
       </c>
-      <c r="H78" s="3"/>
-      <c r="I78" s="18">
-        <v>0</v>
-      </c>
-      <c r="J78" s="11">
+      <c r="H81" s="32"/>
+      <c r="I81" s="10">
+        <v>0</v>
+      </c>
+      <c r="J81" s="9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K78" s="3"/>
-    </row>
-    <row r="79" spans="1:13" ht="63" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="K81" s="32"/>
+      <c r="L81" s="32"/>
+      <c r="M81" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A82" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="B79" s="17" t="s">
+      <c r="B82" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D79" s="1" t="s">
+      <c r="C82" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E82" s="32">
         <v>12</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F82" s="32">
         <v>6</v>
       </c>
-      <c r="G79" s="7">
+      <c r="G82" s="34">
         <f t="shared" si="7"/>
         <v>72</v>
       </c>
-      <c r="H79" s="3"/>
-      <c r="I79" s="18">
-        <v>0</v>
-      </c>
-      <c r="J79" s="11">
+      <c r="H82" s="32"/>
+      <c r="I82" s="10">
+        <v>0</v>
+      </c>
+      <c r="J82" s="9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K79" s="3"/>
-    </row>
-    <row r="80" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+      <c r="K82" s="32"/>
+      <c r="L82" s="32"/>
+      <c r="M82" s="23" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+      <c r="A83" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="B80" s="17" t="s">
+      <c r="B83" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C83" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D83" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E83" s="32">
         <v>0.16</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F83" s="32">
         <v>100</v>
       </c>
-      <c r="G80" s="7">
+      <c r="G83" s="34">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="H80" s="3"/>
-      <c r="I80" s="18">
-        <v>0</v>
-      </c>
-      <c r="J80" s="11">
-        <f t="shared" ref="J80:J83" si="10">I80*E80</f>
-        <v>0</v>
-      </c>
-      <c r="K80" s="3"/>
-      <c r="M80" s="42">
+      <c r="H83" s="32"/>
+      <c r="I83" s="10">
+        <v>0</v>
+      </c>
+      <c r="J83" s="9">
+        <f t="shared" ref="J83:J86" si="10">I83*E83</f>
+        <v>0</v>
+      </c>
+      <c r="K83" s="32"/>
+      <c r="L83" s="32"/>
+      <c r="M83" s="26">
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+    <row r="84" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A84" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="B81" s="17" t="s">
+      <c r="B84" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D81" s="4" t="s">
+      <c r="C84" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E84" s="32">
         <v>18.989999999999998</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F84" s="32">
         <v>1</v>
       </c>
-      <c r="G81" s="7">
+      <c r="G84" s="34">
         <f t="shared" si="7"/>
         <v>18.989999999999998</v>
       </c>
-      <c r="H81" s="3"/>
-      <c r="I81" s="18">
+      <c r="H84" s="32"/>
+      <c r="I84" s="10">
         <v>1</v>
       </c>
-      <c r="J81" s="19">
+      <c r="J84" s="11">
         <f t="shared" si="10"/>
         <v>18.989999999999998</v>
       </c>
-      <c r="K81" s="3"/>
-      <c r="M81" s="42">
+      <c r="K84" s="32"/>
+      <c r="L84" s="32"/>
+      <c r="M84" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
+    <row r="85" spans="1:13" ht="128" x14ac:dyDescent="0.2">
+      <c r="A85" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="B82" s="17" t="s">
+      <c r="B85" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D82" s="4" t="s">
+      <c r="C85" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E85" s="32">
         <v>12.99</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F85" s="32">
         <v>4</v>
       </c>
-      <c r="G82" s="7">
+      <c r="G85" s="34">
         <f t="shared" si="7"/>
         <v>51.96</v>
       </c>
-      <c r="H82" s="3"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="19"/>
-      <c r="K82" s="3"/>
-      <c r="M82" s="42">
+      <c r="H85" s="32"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="32"/>
+      <c r="L85" s="32"/>
+      <c r="M85" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+    <row r="86" spans="1:13" ht="128" x14ac:dyDescent="0.2">
+      <c r="A86" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="B83" s="17" t="s">
+      <c r="B86" s="44" t="s">
         <v>259</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D83" s="4" t="s">
+      <c r="C86" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E86" s="32">
         <v>9.99</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F86" s="32">
         <v>1</v>
       </c>
-      <c r="G83" s="7">
+      <c r="G86" s="34">
         <f t="shared" si="7"/>
         <v>9.99</v>
       </c>
-      <c r="H83" s="3"/>
-      <c r="I83" s="18">
+      <c r="H86" s="32"/>
+      <c r="I86" s="10">
         <v>1</v>
       </c>
-      <c r="J83" s="19">
+      <c r="J86" s="11">
         <f t="shared" si="10"/>
         <v>9.99</v>
       </c>
-      <c r="K83" s="3"/>
-      <c r="M83" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="63" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
+      <c r="K86" s="32"/>
+      <c r="L86" s="32"/>
+      <c r="M86" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A87" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="B84" s="17" t="s">
+      <c r="B87" s="44" t="s">
         <v>278</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D84" s="4" t="s">
+      <c r="C87" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E87" s="32">
         <v>8.59</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F87" s="32">
         <v>2</v>
       </c>
-      <c r="G84" s="7">
+      <c r="G87" s="34">
         <f t="shared" si="7"/>
         <v>17.18</v>
       </c>
-      <c r="H84" s="3"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="19"/>
-      <c r="K84" s="3"/>
-      <c r="M84" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B85" s="17"/>
-      <c r="D85" s="4"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="19"/>
-      <c r="K85" s="3"/>
-      <c r="M85" s="39"/>
-    </row>
-    <row r="86" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B86" s="17"/>
-      <c r="D86" s="4"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="18"/>
-      <c r="J86" s="19"/>
-      <c r="K86" s="3"/>
-      <c r="M86" s="39"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H87" s="3"/>
-      <c r="I87" s="18"/>
-      <c r="J87" s="19"/>
-      <c r="K87" s="3"/>
-      <c r="M87" s="39"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H87" s="32"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="32"/>
+      <c r="L87" s="32"/>
+      <c r="M87" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="B88" s="14"/>
+      <c r="D88" s="4"/>
       <c r="H88" s="3"/>
-      <c r="I88" s="12" t="s">
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="3"/>
+    </row>
+    <row r="89" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="B89" s="14"/>
+      <c r="D89" s="4"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="3"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H90" s="3"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="3"/>
+    </row>
+    <row r="91" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="H91" s="3"/>
+      <c r="I91" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="J88" s="13">
-        <f>SUM(J49:J87)</f>
+      <c r="J91" s="11">
+        <f>SUM(J52:J90)</f>
         <v>557.2700000000001</v>
       </c>
-      <c r="K88" s="3"/>
-      <c r="M88" s="39"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K89" s="3"/>
-      <c r="M89" s="39"/>
-    </row>
-    <row r="90" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="14" t="s">
+      <c r="K91" s="3"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K92" s="3"/>
+    </row>
+    <row r="93" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A93" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="14"/>
-      <c r="K90" s="3"/>
-      <c r="M90" s="41"/>
-    </row>
-    <row r="91" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" s="5" t="s">
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="3"/>
+      <c r="M93" s="25"/>
+    </row>
+    <row r="94" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5" t="s">
+      <c r="C94" s="5"/>
+      <c r="D94" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="E94" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3"/>
-      <c r="I91" s="9" t="s">
+      <c r="H94" s="3"/>
+      <c r="I94" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J91" s="11"/>
-      <c r="K91" s="3"/>
-      <c r="M91" s="39"/>
-    </row>
-    <row r="92" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+      <c r="J94" s="9"/>
+      <c r="K94" s="3"/>
+    </row>
+    <row r="95" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B95" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D92" s="4" t="s">
+      <c r="C95" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E95" s="3">
         <v>23.95</v>
       </c>
-      <c r="G92" s="7">
-        <f>E92*F92</f>
-        <v>0</v>
-      </c>
-      <c r="H92" s="3"/>
-      <c r="I92" s="10">
-        <v>0</v>
-      </c>
-      <c r="J92" s="11">
-        <f>I92*E92</f>
-        <v>0</v>
-      </c>
-      <c r="K92" s="3"/>
-      <c r="M92" s="39"/>
-    </row>
-    <row r="93" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+      <c r="G95" s="6">
+        <f>E95*F95</f>
+        <v>0</v>
+      </c>
+      <c r="H95" s="3"/>
+      <c r="I95" s="8">
+        <v>0</v>
+      </c>
+      <c r="J95" s="9">
+        <f>I95*E95</f>
+        <v>0</v>
+      </c>
+      <c r="K95" s="3"/>
+    </row>
+    <row r="96" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B96" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D93" s="4" t="s">
+      <c r="C96" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E96" s="3">
         <v>15.99</v>
       </c>
-      <c r="G93" s="7">
-        <f t="shared" ref="G93:G100" si="11">E93*F93</f>
-        <v>0</v>
-      </c>
-      <c r="H93" s="3"/>
-      <c r="I93" s="10">
-        <v>0</v>
-      </c>
-      <c r="J93" s="11">
-        <f t="shared" ref="J93:J105" si="12">I93*E93</f>
-        <v>0</v>
-      </c>
-      <c r="K93" s="3"/>
-      <c r="M93" s="39"/>
-    </row>
-    <row r="94" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
+      <c r="G96" s="6">
+        <f t="shared" ref="G96:G103" si="11">E96*F96</f>
+        <v>0</v>
+      </c>
+      <c r="H96" s="3"/>
+      <c r="I96" s="8">
+        <v>0</v>
+      </c>
+      <c r="J96" s="9">
+        <f t="shared" ref="J96:J108" si="12">I96*E96</f>
+        <v>0</v>
+      </c>
+      <c r="K96" s="3"/>
+    </row>
+    <row r="97" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B97" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C97" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D97" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E97" s="3">
         <v>19.95</v>
       </c>
-      <c r="G94" s="7">
+      <c r="G97" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H94" s="3"/>
-      <c r="I94" s="10">
+      <c r="H97" s="3"/>
+      <c r="I97" s="8">
         <v>10</v>
       </c>
-      <c r="J94" s="11">
+      <c r="J97" s="9">
         <f t="shared" si="12"/>
         <v>199.5</v>
       </c>
-      <c r="K94" s="3"/>
-      <c r="M94" s="39"/>
-    </row>
-    <row r="95" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
+      <c r="K97" s="3"/>
+    </row>
+    <row r="98" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B98" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C98" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E98" s="3">
         <v>4.95</v>
       </c>
-      <c r="H95" s="3"/>
-      <c r="I95" s="10">
+      <c r="H98" s="3"/>
+      <c r="I98" s="8">
         <v>5</v>
       </c>
-      <c r="J95" s="11">
+      <c r="J98" s="9">
         <f t="shared" si="12"/>
         <v>24.75</v>
       </c>
-      <c r="K95" s="3"/>
-      <c r="M95" s="39"/>
-    </row>
-    <row r="96" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
+      <c r="K98" s="3"/>
+    </row>
+    <row r="99" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B99" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D96" s="1" t="s">
+      <c r="C99" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E99" s="3">
         <v>10.98</v>
       </c>
-      <c r="G96" s="7">
+      <c r="G99" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H96" s="3"/>
-      <c r="I96" s="10">
-        <v>0</v>
-      </c>
-      <c r="J96" s="11">
+      <c r="H99" s="3"/>
+      <c r="I99" s="8">
+        <v>0</v>
+      </c>
+      <c r="J99" s="9">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-      <c r="M96" s="39"/>
-    </row>
-    <row r="97" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+      <c r="K99" s="3"/>
+    </row>
+    <row r="100" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B100" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E100" s="3">
         <v>7.95</v>
       </c>
-      <c r="G97" s="7">
+      <c r="G100" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H97" s="3"/>
-      <c r="I97" s="10">
+      <c r="H100" s="3"/>
+      <c r="I100" s="8">
         <v>16</v>
       </c>
-      <c r="J97" s="11">
+      <c r="J100" s="9">
         <f t="shared" si="12"/>
         <v>127.2</v>
       </c>
-      <c r="K97" s="3"/>
-      <c r="M97" s="39"/>
-    </row>
-    <row r="98" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
+      <c r="K100" s="3"/>
+    </row>
+    <row r="101" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B101" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C101" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D101" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E101" s="3">
         <v>3.5</v>
       </c>
-      <c r="I98" s="12">
-        <v>0</v>
-      </c>
-      <c r="J98" s="11">
-        <f>I98*E98</f>
-        <v>0</v>
-      </c>
-      <c r="K98" s="3"/>
-      <c r="M98" s="39"/>
-    </row>
-    <row r="99" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+      <c r="I101" s="10">
+        <v>0</v>
+      </c>
+      <c r="J101" s="9">
+        <f>I101*E101</f>
+        <v>0</v>
+      </c>
+      <c r="K101" s="3"/>
+    </row>
+    <row r="102" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C102" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E102" s="3">
         <v>11.99</v>
       </c>
-      <c r="G99" s="7">
+      <c r="G102" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H99" s="3"/>
-      <c r="I99" s="10">
-        <v>0</v>
-      </c>
-      <c r="J99" s="11">
+      <c r="H102" s="3"/>
+      <c r="I102" s="8">
+        <v>0</v>
+      </c>
+      <c r="J102" s="9">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-      <c r="M99" s="39"/>
-    </row>
-    <row r="100" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
+      <c r="K102" s="3"/>
+    </row>
+    <row r="103" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B103" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D100" s="1" t="s">
+      <c r="C103" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E103" s="3">
         <v>32.880000000000003</v>
       </c>
-      <c r="G100" s="7">
+      <c r="G103" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H100" s="3"/>
-      <c r="I100" s="10">
-        <v>0</v>
-      </c>
-      <c r="J100" s="11">
+      <c r="H103" s="3"/>
+      <c r="I103" s="8">
+        <v>0</v>
+      </c>
+      <c r="J103" s="9">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K100" s="3"/>
-      <c r="M100" s="39"/>
-    </row>
-    <row r="101" spans="1:13" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A101" s="17" t="s">
+      <c r="K103" s="3"/>
+    </row>
+    <row r="104" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A104" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="B101" s="17" t="s">
+      <c r="B104" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C101" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D101" s="1" t="s">
+      <c r="C104" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E101" s="17">
+      <c r="E104" s="14">
         <v>12.99</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="11">
+      <c r="I104" s="3">
+        <v>0</v>
+      </c>
+      <c r="J104" s="9">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K101" s="3"/>
-      <c r="M101" s="39"/>
-    </row>
-    <row r="102" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
+      <c r="K104" s="3"/>
+    </row>
+    <row r="105" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B102" s="17" t="s">
+      <c r="B105" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D102" s="4" t="s">
+      <c r="C105" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E105" s="3">
         <v>5.69</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I105" s="3">
         <v>1</v>
       </c>
-      <c r="J102" s="11">
+      <c r="J105" s="9">
         <f t="shared" si="12"/>
         <v>5.69</v>
       </c>
-      <c r="K102" s="33" t="s">
+      <c r="K105" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="M102" s="39"/>
-    </row>
-    <row r="103" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
+    </row>
+    <row r="106" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B106" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D103" s="4" t="s">
+      <c r="C106" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E106" s="3">
         <v>12</v>
       </c>
-      <c r="I103" s="3">
-        <v>0</v>
-      </c>
-      <c r="J103" s="11">
+      <c r="I106" s="3">
+        <v>0</v>
+      </c>
+      <c r="J106" s="9">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K103" s="3"/>
-      <c r="M103" s="39"/>
-    </row>
-    <row r="104" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
+      <c r="K106" s="3"/>
+    </row>
+    <row r="107" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B104" s="17" t="s">
+      <c r="B107" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D104" s="4" t="s">
+      <c r="C107" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D107" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E107" s="3">
         <v>8.99</v>
       </c>
-      <c r="I104" s="3">
-        <v>0</v>
-      </c>
-      <c r="J104" s="11">
+      <c r="I107" s="3">
+        <v>0</v>
+      </c>
+      <c r="J107" s="9">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K104" s="3"/>
-      <c r="M104" s="39"/>
-    </row>
-    <row r="105" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+      <c r="K107" s="3"/>
+    </row>
+    <row r="108" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B105" s="17" t="s">
+      <c r="B108" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D105" s="4" t="s">
+      <c r="C108" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E108" s="3">
         <v>19.989999999999998</v>
       </c>
-      <c r="I105" s="3">
+      <c r="I108" s="3">
         <v>1</v>
       </c>
-      <c r="J105" s="11">
+      <c r="J108" s="9">
         <f t="shared" si="12"/>
         <v>19.989999999999998</v>
       </c>
-      <c r="K105" s="3"/>
-      <c r="M105" s="39"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M106" s="39"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M107" s="39"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M108" s="39"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M109" s="39"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M110" s="39"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M111" s="39"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M112" s="39"/>
-    </row>
-    <row r="113" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M113" s="39"/>
-    </row>
-    <row r="114" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M114" s="39"/>
-    </row>
-    <row r="115" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M115" s="39"/>
-    </row>
-    <row r="116" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M116" s="39"/>
-    </row>
-    <row r="117" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M117" s="39"/>
-    </row>
-    <row r="118" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M118" s="39"/>
-    </row>
-    <row r="119" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M119" s="39"/>
-    </row>
-    <row r="120" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M120" s="39"/>
-    </row>
-    <row r="121" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M121" s="39"/>
-    </row>
-    <row r="122" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M122" s="39"/>
-    </row>
-    <row r="123" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M123" s="39"/>
-    </row>
-    <row r="124" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M124" s="39"/>
-    </row>
-    <row r="125" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M125" s="39"/>
-    </row>
-    <row r="126" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M126" s="39"/>
-    </row>
-    <row r="127" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M127" s="39"/>
-    </row>
-    <row r="128" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M128" s="39"/>
-    </row>
-    <row r="129" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M129" s="39"/>
-    </row>
-    <row r="130" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M130" s="39"/>
-    </row>
-    <row r="131" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M131" s="39"/>
-    </row>
-    <row r="132" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M132" s="39"/>
-    </row>
-    <row r="133" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M133" s="39"/>
-    </row>
-    <row r="134" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M134" s="39"/>
-    </row>
-    <row r="135" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M135" s="39"/>
-    </row>
-    <row r="136" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M136" s="39"/>
-    </row>
-    <row r="137" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M137" s="39"/>
-    </row>
-    <row r="138" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M138" s="39"/>
-    </row>
-    <row r="139" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M139" s="39"/>
-    </row>
-    <row r="140" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M140" s="39"/>
-    </row>
-    <row r="141" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M141" s="39"/>
-    </row>
-    <row r="142" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M142" s="39"/>
-    </row>
-    <row r="143" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M143" s="39"/>
-    </row>
-    <row r="144" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M144" s="39"/>
-    </row>
-    <row r="145" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M145" s="39"/>
+      <c r="K108" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J105" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A49:J69">
-    <sortCondition ref="C49:C69"/>
+  <autoFilter ref="A2:J108" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A52:J72">
+    <sortCondition ref="C52:C72"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D24" r:id="rId1" display="https://www.amazon.com/dp/B00LPK0E5A/ref=sspa_dk_detail_1?psc=1&amp;pd_rd_i=B00LPK0E5A&amp;pd_rd_w=0M9NZ&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=aD93W&amp;pf_rd_r=YPJBQXW796NSXR2VMXXF&amp;pd_rd_r=27b44396-0b27-4df5-a333-c9ae450119d1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzRjAzSlpTNDhOSDROJmVuY3J5cHRlZElkPUExMDI0NTg3UkZNOVI5WEJEMTBKJmVuY3J5cHRlZEFkSWQ9QTAwMTM0OTMxR1ZVVzZSMDhHUEYwJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D57" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="D54" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D60" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D57" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
     <hyperlink ref="D22" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
     <hyperlink ref="D21" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
     <hyperlink ref="D20" r:id="rId6" display="https://www.amazon.com/BOJACK-UA741General-Purpose-Operational-Amplifier/dp/B07WSB1VNH/ref=asc_df_B07WSB1VNH/?tag=hyprod-20&amp;linkCode=df0&amp;hvadid=416713541504&amp;hvpos=&amp;hvnetw=g&amp;hvrand=10187485487199424423&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9030447&amp;hvtargid=pla-870040127419&amp;psc=1&amp;tag=&amp;ref=&amp;adgrpid=93604203773&amp;hvpone=&amp;hvptwo=&amp;hvadid=416713541504&amp;hvpos=&amp;hvnetw=g&amp;hvrand=10187485487199424423&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9030447&amp;hvtargid=pla-870040127419" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
     <hyperlink ref="D19" r:id="rId7" display="https://www.amazon.com/LSR-Transistor-Assortment-Electronics-Electronic/dp/B07TV9FFFQ/ref=sr_1_1_sspa?dchild=1&amp;keywords=transistor+kit&amp;qid=1589997273&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyNjRQNjZTRkNTMDBEJmVuY3J5cHRlZElkPUEwMjA2MDgzMTJBUTZXT1pMR1VFSyZlbmNyeXB0ZWRBZElkPUEwMzg4NDY4MzgxSDlaRERQMUxMQSZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="D67" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="D56" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="D55" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="D70" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D59" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="D58" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
     <hyperlink ref="D25" r:id="rId11" display="https://www.amazon.com/Isopropyl-Alcohol-Grade-99-Anhydrous/dp/B01KK014F4/ref=asc_df_B01KK014F4/?tag=hyprod-20&amp;linkCode=df0&amp;hvadid=312416780110&amp;hvpos=&amp;hvnetw=g&amp;hvrand=17295135421118886149&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9030447&amp;hvtargid=pla-569571734125&amp;psc=1&amp;tag=&amp;ref=&amp;adgrpid=61555869549&amp;hvpone=&amp;hvptwo=&amp;hvadid=312416780110&amp;hvpos=&amp;hvnetw=g&amp;hvrand=17295135421118886149&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9030447&amp;hvtargid=pla-569571734125" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
     <hyperlink ref="D29" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
     <hyperlink ref="D28" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
     <hyperlink ref="D18" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="D94" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="D97" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
     <hyperlink ref="D32" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
     <hyperlink ref="D31" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
     <hyperlink ref="D17" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
     <hyperlink ref="D16" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
     <hyperlink ref="D15" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="D93" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="D92" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="D51" r:id="rId23" display="https://www.amazon.com/Smart-Enabled-Google-Assistant-HomeKit/dp/B01NBI0A6R/ref=sxin_3_ac_d_rm?ac_md=0-0-d2Vtbw%3D%3D-ac_d_rm&amp;cv_ct_cx=wemo&amp;keywords=wemo&amp;pd_rd_i=B01NBI0A6R&amp;pd_rd_r=bbd5c2e2-6eb9-40fe-9456-a7336162120f&amp;pd_rd_w=Ts0oB&amp;pd_rd_wg=K1Zyb&amp;pf_rd_p=de19e82a-2d83-4ae8-9f5c-212586b8b9a0&amp;pf_rd_r=8DGZDACCDVJ418KR7CNJ&amp;qid=1584141937&amp;th=1" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="D50" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="D96" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="D95" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="D54" r:id="rId23" display="https://www.amazon.com/Smart-Enabled-Google-Assistant-HomeKit/dp/B01NBI0A6R/ref=sxin_3_ac_d_rm?ac_md=0-0-d2Vtbw%3D%3D-ac_d_rm&amp;cv_ct_cx=wemo&amp;keywords=wemo&amp;pd_rd_i=B01NBI0A6R&amp;pd_rd_r=bbd5c2e2-6eb9-40fe-9456-a7336162120f&amp;pd_rd_w=Ts0oB&amp;pd_rd_wg=K1Zyb&amp;pf_rd_p=de19e82a-2d83-4ae8-9f5c-212586b8b9a0&amp;pf_rd_r=8DGZDACCDVJ418KR7CNJ&amp;qid=1584141937&amp;th=1" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="D53" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
     <hyperlink ref="D7" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
     <hyperlink ref="D14" r:id="rId26" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
     <hyperlink ref="D27" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
@@ -4986,9 +5175,9 @@
     <hyperlink ref="D9" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
     <hyperlink ref="D8" r:id="rId32" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
     <hyperlink ref="D11" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="B49" r:id="rId34" display="https://www.adafruit.com/product/1461" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="D98" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="D49" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="B52" r:id="rId34" display="https://www.adafruit.com/product/1461" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="D101" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="D52" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
     <hyperlink ref="D3" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
     <hyperlink ref="D35" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
     <hyperlink ref="D34" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
@@ -4998,50 +5187,55 @@
     <hyperlink ref="D13" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
     <hyperlink ref="D26" r:id="rId44" display="https://www.amazon.com/dp/B07GD2BWPY/ref=sspa_dk_detail_2?psc=1&amp;pd_rd_i=B07GD2BWPY&amp;pd_rd_w=TqeWX&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=sNJWA&amp;pf_rd_r=ZXS16ECPMKD9XBVAS65W&amp;pd_rd_r=b5442918-7fb9-4962-af3b-9820970385cf&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyWTlUTDAyTTJDVElLJmVuY3J5cHRlZElkPUEwMjM2MDg0M0g1U1ZRS1hPNk0zMSZlbmNyeXB0ZWRBZElkPUEwNTczODQxM0JQVzgzUkcwMUVBNiZ3aWRnZXROYW1lPXNwX2RldGFpbCZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
     <hyperlink ref="D23" r:id="rId45" display="https://www.amazon.com/Qunqi-Sensor-Module-Arduino-Raspberry/dp/B07QBPGYBF/ref=pd_vtp_328_2/133-9447900-8990828?_encoding=UTF8&amp;pd_rd_i=B07QBPGYBF&amp;pd_rd_r=e7d105ef-e581-4e23-9137-ef46e7f59ac1&amp;pd_rd_w=4kywy&amp;pd_rd_wg=hamvp&amp;pf_rd_p=5946f538-3793-4aed-94d1-6882674b98f9&amp;pf_rd_r=V04NHSEY2AS5NV572E1P&amp;psc=1&amp;refRID=V04NHSEY2AS5NV572E1P" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="D53" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="D52" r:id="rId47" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="D96" r:id="rId48" display="https://www.amazon.com/Adafruit-NeoPixel-Ring-Integrated-Drivers/dp/B00KAE3R1U/ref=sxin_7_ac_d_rm?ac_md=1-1-bmVvcGl4ZWw%3D-ac_d_rm&amp;cv_ct_cx=neopixel+ring&amp;dchild=1&amp;keywords=neopixel+ring&amp;pd_rd_i=B00KAE3R1U&amp;pd_rd_r=f532ea9d-0030-44f0-832a-ce614c837962&amp;pd_rd_w=9bJ5n&amp;pd_rd_wg=0eBjE&amp;pf_rd_p=a0516f22-66df-4efd-8b9a-279a864d1512&amp;pf_rd_r=AYP2P98ZJBNCG2YYCT97&amp;psc=1&amp;qid=1590415826&amp;sr=1-2-12d4272d-8adb-4121-8624-135149aa9081" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="D99" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="D100" r:id="rId50" display="https://www.amazon.com/dp/B01CDTEKAG/ref=sspa_dk_detail_5?psc=1&amp;pd_rd_i=B01CDTEKAG&amp;pd_rd_w=xH4vG&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=OWknK&amp;pf_rd_r=4MWDRWVKFJB1AYRB3KT5&amp;pd_rd_r=1dfe850a-4ea2-46f2-b93c-46b84486f9d4&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzUThIV0Y2UjRSUjImZW5jcnlwdGVkSWQ9QTAzMjQ0ODUxSDdUU0E3UTlMWFlEJmVuY3J5cHRlZEFkSWQ9QTA5Nzg1MTUxVTM3VzVKSE44S1RCJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="D68" r:id="rId51" display="https://www.amazon.com/DFROBOT-Gravity-Analog-Sensor-Arduino/dp/B00R5CCH7U/ref=sr_1_2_sspa?dchild=1&amp;keywords=dfrobot&amp;qid=1590416675&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExRVhTUks4U1dYNjhSJmVuY3J5cHRlZElkPUEwNTY0MzYzUldBQ1A2SDlRVkRCJmVuY3J5cHRlZEFkSWQ9QTEwNDU4OTYzVjNDWEhNV0RPS1IzJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="D65" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="D66" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="D61" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="D59" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="D56" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="D55" r:id="rId47" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="D99" r:id="rId48" display="https://www.amazon.com/Adafruit-NeoPixel-Ring-Integrated-Drivers/dp/B00KAE3R1U/ref=sxin_7_ac_d_rm?ac_md=1-1-bmVvcGl4ZWw%3D-ac_d_rm&amp;cv_ct_cx=neopixel+ring&amp;dchild=1&amp;keywords=neopixel+ring&amp;pd_rd_i=B00KAE3R1U&amp;pd_rd_r=f532ea9d-0030-44f0-832a-ce614c837962&amp;pd_rd_w=9bJ5n&amp;pd_rd_wg=0eBjE&amp;pf_rd_p=a0516f22-66df-4efd-8b9a-279a864d1512&amp;pf_rd_r=AYP2P98ZJBNCG2YYCT97&amp;psc=1&amp;qid=1590415826&amp;sr=1-2-12d4272d-8adb-4121-8624-135149aa9081" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="D102" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="D103" r:id="rId50" display="https://www.amazon.com/dp/B01CDTEKAG/ref=sspa_dk_detail_5?psc=1&amp;pd_rd_i=B01CDTEKAG&amp;pd_rd_w=xH4vG&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=OWknK&amp;pf_rd_r=4MWDRWVKFJB1AYRB3KT5&amp;pd_rd_r=1dfe850a-4ea2-46f2-b93c-46b84486f9d4&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzUThIV0Y2UjRSUjImZW5jcnlwdGVkSWQ9QTAzMjQ0ODUxSDdUU0E3UTlMWFlEJmVuY3J5cHRlZEFkSWQ9QTA5Nzg1MTUxVTM3VzVKSE44S1RCJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="D71" r:id="rId51" display="https://www.amazon.com/DFROBOT-Gravity-Analog-Sensor-Arduino/dp/B00R5CCH7U/ref=sr_1_2_sspa?dchild=1&amp;keywords=dfrobot&amp;qid=1590416675&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExRVhTUks4U1dYNjhSJmVuY3J5cHRlZElkPUEwNTY0MzYzUldBQ1A2SDlRVkRCJmVuY3J5cHRlZEFkSWQ9QTEwNDU4OTYzVjNDWEhNV0RPS1IzJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="D68" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="D69" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="D64" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="D62" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
     <hyperlink ref="D38" r:id="rId56" display="https://www.lowes.com/pd/Tough-Box-16-Compartment-Plastic-Small-Parts-Organizer/1000365903?cm_mmc=shp-_-c-_-prd-_-tol-_-google-_-lia-_--_-toolstorage-_-1000365903-_-0&amp;store_code=2539&amp;placeholder=null&amp;gclid=EAIaIQobChMI2ICzhsX86QIVi4bACh0oNwjhEAQYASABEgLcgPD_BwE&amp;gclsrc=aw.ds" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="D69" r:id="rId57" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="D70" r:id="rId58" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="D71" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="D101" r:id="rId60" display="https://www.amazon.com/dp/B087B5NWY4/ref=sspa_dk_detail_0?psc=1&amp;pd_rd_i=B087B5NWY4&amp;pd_rd_w=qTl74&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=oJf3C&amp;pf_rd_r=BNJEBNTQ9WJFCK2T7NJG&amp;pd_rd_r=878dff4d-97fc-4ab7-b51d-f454e436af7d&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFSMFdOVFk0RUJCSjUmZW5jcnlwdGVkSWQ9QTA5OTM1MjYzSTlCWEhXN0xTU0RQJmVuY3J5cHRlZEFkSWQ9QTAxMzk3MzYzQktQVENFTUtJNzhJJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="D72" r:id="rId57" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="D73" r:id="rId58" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="D74" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="D104" r:id="rId60" display="https://www.amazon.com/dp/B087B5NWY4/ref=sspa_dk_detail_0?psc=1&amp;pd_rd_i=B087B5NWY4&amp;pd_rd_w=qTl74&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=oJf3C&amp;pf_rd_r=BNJEBNTQ9WJFCK2T7NJG&amp;pd_rd_r=878dff4d-97fc-4ab7-b51d-f454e436af7d&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFSMFdOVFk0RUJCSjUmZW5jcnlwdGVkSWQ9QTA5OTM1MjYzSTlCWEhXN0xTU0RQJmVuY3J5cHRlZEFkSWQ9QTAxMzk3MzYzQktQVENFTUtJNzhJJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
     <hyperlink ref="D39" r:id="rId61" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="D72" r:id="rId62" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="D73" r:id="rId63" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="D74" r:id="rId64" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="D102" r:id="rId65" display="https://www.amazon.com/dp/B07QKDSCSM/ref=sspa_dk_detail_0?spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFCNUFXNjBMUkhRNjgmZW5jcnlwdGVkSWQ9QTAzODUwNTVOR1NCNFFLMjRWR0ImZW5jcnlwdGVkQWRJZD1BMDM1MDc1NjNWSVJZSlg1Q0pDTUkmd2lkZ2V0TmFtZT1zcF9kZXRhaWwyJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ&amp;th=1" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="D78" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
-    <hyperlink ref="D79" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
-    <hyperlink ref="D104" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
-    <hyperlink ref="D103" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
-    <hyperlink ref="D80" r:id="rId70" display="https://www.digikey.com/product-detail/en/citizen-finedevice-co-ltd/CFS-20632768DZFB/300-1002-ND/283736?utm_adgroup=Crystals%20Oscillators&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search&amp;utm_term=&amp;utm_content=Crystals%20Oscillators&amp;gclid=EAIaIQobChMIrI-y8dvf6gIVgobACh05Cwq-EAAYASAAEgJ-LvD_BwE" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
-    <hyperlink ref="D60" r:id="rId71" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
-    <hyperlink ref="D62" r:id="rId72" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
-    <hyperlink ref="D63" r:id="rId73" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
-    <hyperlink ref="D64" r:id="rId74" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
-    <hyperlink ref="B58" r:id="rId75" display="https://store.ncd.io/product/feather-battery-i2c-shield-for-particle-and-feather-modules/" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="D58" r:id="rId76" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="D75" r:id="rId77" xr:uid="{CB9AA7F3-57D3-4035-9B10-D6E06BA90642}"/>
-    <hyperlink ref="D76" r:id="rId78" xr:uid="{CD5B5197-64EF-49EF-91BD-2559DCFA1A39}"/>
-    <hyperlink ref="D77" r:id="rId79" xr:uid="{6673B4F9-7D5C-42C3-A449-534270670C62}"/>
-    <hyperlink ref="D81" r:id="rId80" xr:uid="{7BEE6173-67BD-462D-93F3-8868348A9E43}"/>
-    <hyperlink ref="D83" r:id="rId81" display="https://www.amazon.com/Screwdriver-Flathead-Phillips-Pentalobe-Different/dp/B0872XMTKS/ref=sr_1_2_sspa?crid=33O94WILFA3IZ&amp;dchild=1&amp;keywords=mini+screwdriver+set&amp;qid=1598205307&amp;sprefix=mini+screw%2Caps%2C201&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExMEY2S0QwRE9XR01UJmVuY3J5cHRlZElkPUEwNzIwODY1MjVGV1BCNDNFNkowRyZlbmNyeXB0ZWRBZElkPUExMDAyMjM5NFpSMkVPTlBSN0ZDJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{19DAF842-E937-4DB9-89CA-2282F04D2AEA}"/>
+    <hyperlink ref="D75" r:id="rId62" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="D76" r:id="rId63" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="D77" r:id="rId64" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="D105" r:id="rId65" display="https://www.amazon.com/dp/B07QKDSCSM/ref=sspa_dk_detail_0?spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFCNUFXNjBMUkhRNjgmZW5jcnlwdGVkSWQ9QTAzODUwNTVOR1NCNFFLMjRWR0ImZW5jcnlwdGVkQWRJZD1BMDM1MDc1NjNWSVJZSlg1Q0pDTUkmd2lkZ2V0TmFtZT1zcF9kZXRhaWwyJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ&amp;th=1" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="D81" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="D82" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="D107" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="D106" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="D83" r:id="rId70" display="https://www.digikey.com/product-detail/en/citizen-finedevice-co-ltd/CFS-20632768DZFB/300-1002-ND/283736?utm_adgroup=Crystals%20Oscillators&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search&amp;utm_term=&amp;utm_content=Crystals%20Oscillators&amp;gclid=EAIaIQobChMIrI-y8dvf6gIVgobACh05Cwq-EAAYASAAEgJ-LvD_BwE" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="D63" r:id="rId71" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="D65" r:id="rId72" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="D66" r:id="rId73" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="D67" r:id="rId74" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="B61" r:id="rId75" display="https://store.ncd.io/product/feather-battery-i2c-shield-for-particle-and-feather-modules/" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="D61" r:id="rId76" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="D78" r:id="rId77" xr:uid="{CB9AA7F3-57D3-4035-9B10-D6E06BA90642}"/>
+    <hyperlink ref="D79" r:id="rId78" xr:uid="{CD5B5197-64EF-49EF-91BD-2559DCFA1A39}"/>
+    <hyperlink ref="D80" r:id="rId79" xr:uid="{6673B4F9-7D5C-42C3-A449-534270670C62}"/>
+    <hyperlink ref="D84" r:id="rId80" xr:uid="{7BEE6173-67BD-462D-93F3-8868348A9E43}"/>
+    <hyperlink ref="D86" r:id="rId81" display="https://www.amazon.com/Screwdriver-Flathead-Phillips-Pentalobe-Different/dp/B0872XMTKS/ref=sr_1_2_sspa?crid=33O94WILFA3IZ&amp;dchild=1&amp;keywords=mini+screwdriver+set&amp;qid=1598205307&amp;sprefix=mini+screw%2Caps%2C201&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExMEY2S0QwRE9XR01UJmVuY3J5cHRlZElkPUEwNzIwODY1MjVGV1BCNDNFNkowRyZlbmNyeXB0ZWRBZElkPUExMDAyMjM5NFpSMkVPTlBSN0ZDJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{19DAF842-E937-4DB9-89CA-2282F04D2AEA}"/>
     <hyperlink ref="D40" r:id="rId82" xr:uid="{B485A6B6-7307-4EAA-A186-31CAA890A0BC}"/>
-    <hyperlink ref="D95" r:id="rId83" xr:uid="{70F21853-AE4C-4BEC-9F14-C2DC1DDCC3B4}"/>
-    <hyperlink ref="D105" r:id="rId84" xr:uid="{23C2A1DE-EDE1-4FE6-90BB-24BA9B7A433E}"/>
+    <hyperlink ref="D98" r:id="rId83" xr:uid="{70F21853-AE4C-4BEC-9F14-C2DC1DDCC3B4}"/>
+    <hyperlink ref="D108" r:id="rId84" xr:uid="{23C2A1DE-EDE1-4FE6-90BB-24BA9B7A433E}"/>
     <hyperlink ref="D33" r:id="rId85" xr:uid="{AA5B840A-EAA7-438B-AC90-9BD9F369A790}"/>
-    <hyperlink ref="D97" r:id="rId86" xr:uid="{BFF0F66D-BAE5-409E-9D4D-2406089A97E9}"/>
+    <hyperlink ref="D100" r:id="rId86" xr:uid="{BFF0F66D-BAE5-409E-9D4D-2406089A97E9}"/>
   </hyperlinks>
+  <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" fitToHeight="0" orientation="landscape" r:id="rId87"/>
+  <pageSetup scale="83" fitToHeight="0" orientation="landscape" r:id="rId87"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;K000000IoT Parts Inventory</oddHeader>
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -5055,6 +5249,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002E75A16FF431314587A6EFE715708639" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3845378365f05132d6f717dccfddac90">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c68989fb-d827-4f0c-be61-ce0fb4a2ca35" xmlns:ns3="ceb5a5b3-a521-4149-a5a6-8f2ebd45356c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b457bb54ec30cf46f3fea67e83ae68c" ns2:_="" ns3:_="">
     <xsd:import namespace="c68989fb-d827-4f0c-be61-ce0fb4a2ca35"/>
@@ -5271,12 +5471,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58CD0F9C-796C-40DA-891C-7A92FF34C67A}">
   <ds:schemaRefs>
@@ -5286,6 +5480,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{623B2E16-5227-4FB6-A3C3-1FFAD3C257CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA096413-5493-4E6F-BFCB-1B6A0AC20663}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5302,13 +5505,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{623B2E16-5227-4FB6-A3C3-1FFAD3C257CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/IoT_Parts.xlsx
+++ b/IoT_Parts.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limegreen/Documents/CNM/IoT/git/class_slides/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IoTPa\Documents\IoT\class_slides\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FCE263-F667-CA47-BF63-798654EFE97B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E04BED-88ED-4C0E-BB8E-E014278AA3F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37340" yWindow="-740" windowWidth="33600" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="450" windowWidth="20475" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$2:$J$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$2:$J$117</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="322">
   <si>
     <t>Part</t>
   </si>
@@ -971,6 +971,51 @@
   </si>
   <si>
     <t>I2C Encoders</t>
+  </si>
+  <si>
+    <t>Shrink Tubing</t>
+  </si>
+  <si>
+    <t>High Heat Shrink Tubing Tube - 2:1 Heat Shrink Ratio Flame Retardant 9 Color 6 Size 162 PCS in Transparent Plastic Box (2019 New Packing Design)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/High-Heat-Shrink-Tubing-Tube/dp/B0722HN8SW/ref=pd_bxgy_2/146-7449367-3375402?_encoding=UTF8&amp;pd_rd_i=B0722HN8SW&amp;pd_rd_r=2a2a1353-8f44-4a94-8420-37eeb10f2217&amp;pd_rd_w=MAAJA&amp;pd_rd_wg=goYnQ&amp;pf_rd_p=f325d01c-4658-4593-be83-3e12ca663f0e&amp;pf_rd_r=S89DP6YKYBRSBXAB6A30&amp;psc=1&amp;refRID=S89DP6YKYBRSBXAB6A30</t>
+  </si>
+  <si>
+    <t>Calipers</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Digital-Caliper-Sangabery-inches-Vernier/dp/B07VSVMWTJ/ref=sr_1_10?dchild=1&amp;keywords=calipers&amp;qid=1608163342&amp;s=hi&amp;sr=1-10</t>
+  </si>
+  <si>
+    <t>Digital Caliper, Sangabery 0-6 inches Caliper with Large LCD Screen, Auto - Off Feature, Inch and Millimeter Conversion Measuring Tool, Perfect for Household/DIY Measurment, etc</t>
+  </si>
+  <si>
+    <t>Clorox Wipes</t>
+  </si>
+  <si>
+    <t>Zip Lock Bags</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Clorox-Disinfecting-Wipes-Bleach-Cleaning/dp/B00B55WMXW/ref=sr_1_25?crid=30BXZH5H29B9G&amp;dchild=1&amp;keywords=clorox+wipes&amp;qid=1608163505&amp;sprefix=clor%2Caps%2C237&amp;sr=8-25</t>
+  </si>
+  <si>
+    <t>Clorox Disinfecting Wipes Value Pack, 75 Count Each, Pack of 3 (Package May Vary) (Package May Vary)</t>
+  </si>
+  <si>
+    <t>Glad FLEXN Seal Food Storage Plastic Bags - Quart - 38 Count, Pack of 4 (152 Total Bags) (Package May Vary)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Glad-FlexN-Seal-Storage-Quart/dp/B0842YTBP8/ref=sr_1_1_sspa?crid=2LDHB62N96H14&amp;dchild=1&amp;keywords=ziplock+bags+quart&amp;qid=1608163574&amp;sprefix=zip+lock+%2Caps%2C233&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExWkhMVU9LMEY1V0MzJmVuY3J5cHRlZElkPUEwOTA1OTkwMUhUQThFQzAwSEVBJmVuY3J5cHRlZEFkSWQ9QTA0MzU3MjYxQlFJWk9LVzRCUFhRJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==</t>
+  </si>
+  <si>
+    <t>VELCRO Brand 15ft x 3/4in I Black Tape Roll with Adhesive I Cut Strips to Length I Stick on Hook and Loop Fasteners to Organize Home Office or Classroom (90081)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/VELCRO-Brand-Sticky-Fasteners-Perfect/dp/B00006RSWT/ref=sr_1_10?dchild=1&amp;keywords=velcro&amp;qid=1608163682&amp;sr=8-10</t>
+  </si>
+  <si>
+    <t>Velcro</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1083,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1074,6 +1119,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1104,7 +1155,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1246,6 +1297,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1533,30 +1591,30 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="63.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="3"/>
+    <col min="1" max="1" width="17.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3"/>
     <col min="6" max="6" width="14" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28" style="6" customWidth="1"/>
     <col min="9" max="10" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="35.1640625" style="17" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="35.140625" style="17" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="3" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="24.83203125" style="24" customWidth="1"/>
-    <col min="14" max="16384" width="9.1640625" style="3"/>
+    <col min="13" max="13" width="24.85546875" style="24" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>172</v>
       </c>
@@ -1573,7 +1631,7 @@
       <c r="L1" s="29"/>
       <c r="M1" s="30"/>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -1612,7 +1670,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>6</v>
       </c>
@@ -1652,7 +1710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>10</v>
       </c>
@@ -1692,7 +1750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="128" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>16</v>
       </c>
@@ -1732,7 +1790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>20</v>
       </c>
@@ -1772,7 +1830,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>23</v>
       </c>
@@ -1812,7 +1870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>26</v>
       </c>
@@ -1852,7 +1910,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>29</v>
       </c>
@@ -1892,7 +1950,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>32</v>
       </c>
@@ -1932,7 +1990,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>35</v>
       </c>
@@ -1972,7 +2030,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="128" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>285</v>
       </c>
@@ -2012,7 +2070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>40</v>
       </c>
@@ -2052,7 +2110,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>43</v>
       </c>
@@ -2092,7 +2150,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>46</v>
       </c>
@@ -2134,7 +2192,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="98" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="102" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>49</v>
       </c>
@@ -2174,7 +2232,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>52</v>
       </c>
@@ -2214,7 +2272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>55</v>
       </c>
@@ -2254,7 +2312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>58</v>
       </c>
@@ -2294,7 +2352,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
         <v>271</v>
       </c>
@@ -2334,7 +2392,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>61</v>
       </c>
@@ -2374,7 +2432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>64</v>
       </c>
@@ -2414,7 +2472,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>67</v>
       </c>
@@ -2454,7 +2512,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="128" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>70</v>
       </c>
@@ -2494,7 +2552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="144" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
         <v>73</v>
       </c>
@@ -2534,7 +2592,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="98" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
         <v>74</v>
       </c>
@@ -2574,7 +2632,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>106</v>
       </c>
@@ -2614,7 +2672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>110</v>
       </c>
@@ -2654,7 +2712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>114</v>
       </c>
@@ -2694,7 +2752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
         <v>124</v>
       </c>
@@ -2734,7 +2792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
         <v>151</v>
       </c>
@@ -2774,7 +2832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>155</v>
       </c>
@@ -2814,7 +2872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
         <v>228</v>
       </c>
@@ -2854,7 +2912,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="43" t="s">
         <v>162</v>
       </c>
@@ -2894,7 +2952,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
         <v>162</v>
       </c>
@@ -2934,7 +2992,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="43" t="s">
         <v>273</v>
       </c>
@@ -2969,7 +3027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A37" s="43" t="s">
         <v>280</v>
       </c>
@@ -3002,7 +3060,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
         <v>178</v>
       </c>
@@ -3042,7 +3100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
         <v>182</v>
       </c>
@@ -3082,7 +3140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="126" x14ac:dyDescent="0.25">
       <c r="A40" s="43" t="s">
         <v>262</v>
       </c>
@@ -3122,7 +3180,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="46" t="s">
         <v>304</v>
       </c>
@@ -3141,7 +3199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="46" t="s">
         <v>305</v>
       </c>
@@ -3160,7 +3218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="46" t="s">
         <v>306</v>
       </c>
@@ -3179,913 +3237,812 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
+    <row r="44" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+      <c r="A44" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="B44" s="44" t="s">
+        <v>308</v>
+      </c>
+      <c r="C44" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="E44" s="48">
+        <v>9.99</v>
+      </c>
+      <c r="F44" s="48">
+        <v>2</v>
+      </c>
+      <c r="G44" s="34">
+        <f t="shared" ref="G44:G45" si="4">E44*F44</f>
+        <v>19.98</v>
+      </c>
+      <c r="H44" s="50">
+        <f>G44</f>
+        <v>19.98</v>
+      </c>
       <c r="I44" s="10"/>
       <c r="J44" s="9"/>
       <c r="K44" s="32"/>
       <c r="L44" s="32"/>
-      <c r="M44" s="26"/>
-    </row>
-    <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="B45" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32">
-        <v>25</v>
-      </c>
-      <c r="F45" s="32">
-        <v>16</v>
+      <c r="M44" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A45" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="B45" s="44" t="s">
+        <v>316</v>
+      </c>
+      <c r="C45" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="49" t="s">
+        <v>315</v>
+      </c>
+      <c r="E45" s="48">
+        <v>36.99</v>
+      </c>
+      <c r="F45" s="48">
+        <v>1</v>
       </c>
       <c r="G45" s="34">
-        <f t="shared" ref="G45" si="4">E45*F45</f>
-        <v>400</v>
-      </c>
-      <c r="H45" s="34">
-        <f t="shared" ref="H45" si="5">0.75*G45</f>
-        <v>300</v>
-      </c>
-      <c r="I45" s="7">
-        <v>0</v>
-      </c>
-      <c r="J45" s="9">
-        <f t="shared" ref="J45" si="6">I45*E45</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>36.99</v>
+      </c>
+      <c r="H45" s="50">
+        <f>G45</f>
+        <v>36.99</v>
+      </c>
+      <c r="I45" s="10"/>
+      <c r="J45" s="9"/>
       <c r="K45" s="32"/>
       <c r="L45" s="32"/>
-      <c r="M45" s="26"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="32"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="7"/>
+      <c r="M45" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="270" x14ac:dyDescent="0.25">
+      <c r="A46" s="46" t="s">
+        <v>314</v>
+      </c>
+      <c r="B46" s="44" t="s">
+        <v>317</v>
+      </c>
+      <c r="C46" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="E46" s="48">
+        <v>15.96</v>
+      </c>
+      <c r="F46" s="48">
+        <v>1</v>
+      </c>
+      <c r="G46" s="34">
+        <f t="shared" ref="G46" si="5">E46*F46</f>
+        <v>15.96</v>
+      </c>
+      <c r="H46" s="50">
+        <f>G46</f>
+        <v>15.96</v>
+      </c>
+      <c r="I46" s="10"/>
       <c r="J46" s="9"/>
       <c r="K46" s="32"/>
       <c r="L46" s="32"/>
-      <c r="M46" s="26"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="7"/>
+      <c r="M46" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="46" t="s">
+        <v>321</v>
+      </c>
+      <c r="B47" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="C47" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="49" t="s">
+        <v>320</v>
+      </c>
+      <c r="E47" s="48">
+        <v>15.25</v>
+      </c>
+      <c r="F47" s="48">
+        <v>1</v>
+      </c>
+      <c r="G47" s="34">
+        <f t="shared" ref="G47" si="6">E47*F47</f>
+        <v>15.25</v>
+      </c>
+      <c r="H47" s="50">
+        <f>G47</f>
+        <v>15.25</v>
+      </c>
+      <c r="I47" s="10"/>
       <c r="J47" s="9"/>
       <c r="K47" s="32"/>
       <c r="L47" s="32"/>
-      <c r="M47" s="26"/>
-    </row>
-    <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="34">
-        <f>SUM(G3:G47)</f>
-        <v>5400.3100000000022</v>
-      </c>
-      <c r="H48" s="34">
-        <f>SUM(H3:H47)</f>
-        <v>4222.2224999999999</v>
-      </c>
-      <c r="I48" s="7"/>
-      <c r="J48" s="9">
-        <f>SUM(J3:J47)</f>
-        <v>3098.7799999999993</v>
-      </c>
+      <c r="M47" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="46"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="9"/>
       <c r="K48" s="32"/>
       <c r="L48" s="32"/>
-      <c r="M48" s="26"/>
-    </row>
-    <row r="49" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="34">
-        <f>G48/16</f>
-        <v>337.51937500000014</v>
-      </c>
-      <c r="H49" s="34">
-        <f>0.75*G49</f>
-        <v>253.13953125000012</v>
-      </c>
-      <c r="I49" s="7"/>
+      <c r="M48" s="23"/>
+    </row>
+    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="46"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="10"/>
       <c r="J49" s="9"/>
       <c r="K49" s="32"/>
       <c r="L49" s="32"/>
-      <c r="M49" s="26"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
+      <c r="M49" s="23"/>
+    </row>
+    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="46"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="9"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
-      <c r="M50" s="27"/>
-    </row>
-    <row r="51" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="F51" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="G51" s="34"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="M50" s="23"/>
+    </row>
+    <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="46"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="10"/>
       <c r="J51" s="9"/>
       <c r="K51" s="32"/>
       <c r="L51" s="32"/>
-      <c r="M51" s="26"/>
-    </row>
-    <row r="52" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A52" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="37">
-        <v>24.95</v>
-      </c>
-      <c r="F52" s="37">
-        <v>5</v>
-      </c>
-      <c r="G52" s="40">
-        <f t="shared" ref="G52:G87" si="7">E52*F52</f>
-        <v>124.75</v>
-      </c>
-      <c r="H52" s="37"/>
-      <c r="I52" s="8">
-        <v>1</v>
-      </c>
-      <c r="J52" s="9">
-        <f t="shared" ref="J52:J74" si="8">I52*E52</f>
-        <v>24.95</v>
-      </c>
+      <c r="M51" s="23"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="9"/>
       <c r="K52" s="32"/>
       <c r="L52" s="32"/>
-      <c r="M52" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+      <c r="M52" s="26"/>
+    </row>
+    <row r="53" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="B53" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="36" t="s">
-        <v>79</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="B53" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
       <c r="E53" s="32">
-        <v>172.77</v>
+        <v>25</v>
       </c>
       <c r="F53" s="32">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G53" s="34">
-        <f t="shared" si="7"/>
-        <v>172.77</v>
-      </c>
-      <c r="H53" s="32"/>
-      <c r="I53" s="8">
+        <f t="shared" ref="G53" si="7">E53*F53</f>
+        <v>400</v>
+      </c>
+      <c r="H53" s="34">
+        <f t="shared" ref="H53" si="8">0.75*G53</f>
+        <v>300</v>
+      </c>
+      <c r="I53" s="7">
         <v>0</v>
       </c>
       <c r="J53" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="J53" si="9">I53*E53</f>
         <v>0</v>
       </c>
       <c r="K53" s="32"/>
       <c r="L53" s="32"/>
-      <c r="M53" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="B54" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="E54" s="32">
-        <v>17.98</v>
-      </c>
-      <c r="F54" s="32">
-        <v>4</v>
-      </c>
-      <c r="G54" s="34">
-        <f t="shared" si="7"/>
-        <v>71.92</v>
-      </c>
-      <c r="H54" s="32"/>
-      <c r="I54" s="8">
-        <v>0</v>
-      </c>
-      <c r="J54" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="M53" s="26"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="9"/>
       <c r="K54" s="32"/>
       <c r="L54" s="32"/>
-      <c r="M54" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="112" x14ac:dyDescent="0.2">
-      <c r="A55" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="B55" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="E55" s="32">
-        <v>15.99</v>
-      </c>
-      <c r="F55" s="32">
-        <v>3</v>
-      </c>
-      <c r="G55" s="34">
-        <f t="shared" si="7"/>
-        <v>47.97</v>
-      </c>
-      <c r="H55" s="32"/>
-      <c r="I55" s="8">
-        <v>0</v>
-      </c>
-      <c r="J55" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="M54" s="26"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="32"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="9"/>
       <c r="K55" s="32"/>
       <c r="L55" s="32"/>
-      <c r="M55" s="23" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+      <c r="M55" s="26"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="B56" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="E56" s="32">
-        <v>11.98</v>
-      </c>
-      <c r="F56" s="32">
-        <v>1</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
       <c r="G56" s="34">
-        <f t="shared" si="7"/>
-        <v>11.98</v>
-      </c>
-      <c r="H56" s="32"/>
-      <c r="I56" s="8">
-        <v>0</v>
-      </c>
+        <f>SUM(G3:G55)</f>
+        <v>5488.4900000000016</v>
+      </c>
+      <c r="H56" s="34">
+        <f>SUM(H3:H55)</f>
+        <v>4310.4025000000001</v>
+      </c>
+      <c r="I56" s="7"/>
       <c r="J56" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>SUM(J3:J55)</f>
+        <v>3098.7799999999993</v>
       </c>
       <c r="K56" s="32"/>
       <c r="L56" s="32"/>
-      <c r="M56" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="M56" s="26"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="B57" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="E57" s="32">
-        <v>94.99</v>
-      </c>
-      <c r="F57" s="32">
-        <v>4</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
       <c r="G57" s="34">
-        <f t="shared" si="7"/>
-        <v>379.96</v>
-      </c>
-      <c r="H57" s="32"/>
-      <c r="I57" s="8">
-        <v>0</v>
-      </c>
-      <c r="J57" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+        <f>G56/16</f>
+        <v>343.0306250000001</v>
+      </c>
+      <c r="H57" s="34">
+        <f>0.75*G57</f>
+        <v>257.27296875000008</v>
+      </c>
+      <c r="I57" s="7"/>
+      <c r="J57" s="9"/>
       <c r="K57" s="32"/>
       <c r="L57" s="32"/>
-      <c r="M57" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A58" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="B58" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C58" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="D58" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="E58" s="32">
-        <v>149.99</v>
-      </c>
-      <c r="F58" s="32">
-        <v>4</v>
-      </c>
-      <c r="G58" s="34">
-        <f t="shared" si="7"/>
-        <v>599.96</v>
-      </c>
-      <c r="H58" s="32"/>
-      <c r="I58" s="8">
-        <v>0</v>
-      </c>
-      <c r="J58" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="M57" s="26"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
       <c r="K58" s="32"/>
       <c r="L58" s="32"/>
-      <c r="M58" s="26">
+      <c r="M58" s="27"/>
+    </row>
+    <row r="59" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="31" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A59" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="B59" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C59" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="D59" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="E59" s="32">
-        <v>99.99</v>
-      </c>
-      <c r="F59" s="32">
-        <v>4</v>
-      </c>
-      <c r="G59" s="34">
-        <f t="shared" si="7"/>
-        <v>399.96</v>
-      </c>
+      <c r="F59" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="G59" s="34"/>
       <c r="H59" s="32"/>
-      <c r="I59" s="8">
-        <v>0</v>
-      </c>
-      <c r="J59" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="I59" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="9"/>
       <c r="K59" s="32"/>
       <c r="L59" s="32"/>
-      <c r="M59" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="M59" s="26"/>
+    </row>
+    <row r="60" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="B60" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="C60" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="D60" s="42" t="s">
-        <v>123</v>
+        <v>13</v>
+      </c>
+      <c r="B60" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="39" t="s">
+        <v>15</v>
       </c>
       <c r="E60" s="37">
-        <v>149.99</v>
+        <v>24.95</v>
       </c>
       <c r="F60" s="37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G60" s="40">
-        <f t="shared" si="7"/>
-        <v>149.99</v>
-      </c>
-      <c r="H60" s="40"/>
+        <f t="shared" ref="G60:G96" si="10">E60*F60</f>
+        <v>124.75</v>
+      </c>
+      <c r="H60" s="37"/>
       <c r="I60" s="8">
         <v>1</v>
       </c>
       <c r="J60" s="9">
-        <f t="shared" si="8"/>
-        <v>149.99</v>
+        <f t="shared" ref="J60:J83" si="11">I60*E60</f>
+        <v>24.95</v>
       </c>
       <c r="K60" s="32"/>
       <c r="L60" s="32"/>
       <c r="M60" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="D61" s="36" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="E61" s="32">
-        <v>15.95</v>
+        <v>172.77</v>
       </c>
       <c r="F61" s="32">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G61" s="34">
-        <f t="shared" si="7"/>
-        <v>287.09999999999997</v>
+        <f t="shared" si="10"/>
+        <v>172.77</v>
       </c>
       <c r="H61" s="32"/>
       <c r="I61" s="8">
         <v>0</v>
       </c>
       <c r="J61" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K61" s="32"/>
       <c r="L61" s="32"/>
       <c r="M61" s="26">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="B62" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D62" s="33" t="s">
-        <v>134</v>
+        <v>80</v>
+      </c>
+      <c r="B62" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="36" t="s">
+        <v>82</v>
       </c>
       <c r="E62" s="32">
-        <v>110.9</v>
+        <v>17.98</v>
       </c>
       <c r="F62" s="32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G62" s="34">
-        <f t="shared" si="7"/>
-        <v>554.5</v>
+        <f t="shared" si="10"/>
+        <v>71.92</v>
       </c>
       <c r="H62" s="32"/>
       <c r="I62" s="8">
         <v>0</v>
       </c>
       <c r="J62" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K62" s="32"/>
       <c r="L62" s="32"/>
       <c r="M62" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A63" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="B63" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="C63" s="35" t="s">
-        <v>130</v>
+        <v>83</v>
+      </c>
+      <c r="B63" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>18</v>
       </c>
       <c r="D63" s="36" t="s">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="E63" s="32">
-        <v>57.95</v>
+        <v>15.99</v>
       </c>
       <c r="F63" s="32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G63" s="34">
-        <f t="shared" si="7"/>
-        <v>289.75</v>
+        <f t="shared" si="10"/>
+        <v>47.97</v>
       </c>
       <c r="H63" s="32"/>
       <c r="I63" s="8">
         <v>0</v>
       </c>
       <c r="J63" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K63" s="32"/>
       <c r="L63" s="32"/>
-      <c r="M63" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="56" x14ac:dyDescent="0.2">
-      <c r="A64" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="B64" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="C64" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D64" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E64" s="32">
-        <v>52.95</v>
-      </c>
-      <c r="F64" s="32">
-        <v>5</v>
-      </c>
-      <c r="G64" s="34">
-        <f t="shared" si="7"/>
-        <v>264.75</v>
-      </c>
-      <c r="H64" s="32"/>
-      <c r="I64" s="8">
-        <v>0</v>
-      </c>
-      <c r="J64" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="M63" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A64" s="51" t="s">
+        <v>310</v>
+      </c>
+      <c r="B64" s="51" t="s">
+        <v>312</v>
+      </c>
+      <c r="C64" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="52" t="s">
+        <v>311</v>
+      </c>
+      <c r="E64" s="51">
+        <v>7.19</v>
+      </c>
+      <c r="F64" s="51">
+        <v>4</v>
+      </c>
+      <c r="G64" s="53">
+        <f t="shared" si="10"/>
+        <v>28.76</v>
+      </c>
+      <c r="H64" s="51"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="9"/>
       <c r="K64" s="32"/>
       <c r="L64" s="32"/>
-      <c r="M64" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+      <c r="M64" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A65" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="B65" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="C65" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D65" s="36" t="s">
-        <v>143</v>
+        <v>86</v>
+      </c>
+      <c r="B65" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="33" t="s">
+        <v>88</v>
       </c>
       <c r="E65" s="32">
-        <v>42.95</v>
+        <v>11.98</v>
       </c>
       <c r="F65" s="32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G65" s="34">
-        <f t="shared" si="7"/>
-        <v>214.75</v>
+        <f t="shared" si="10"/>
+        <v>11.98</v>
       </c>
       <c r="H65" s="32"/>
       <c r="I65" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65" s="9">
-        <f t="shared" si="8"/>
-        <v>85.9</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="K65" s="32"/>
       <c r="L65" s="32"/>
       <c r="M65" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="B66" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="C66" s="35" t="s">
-        <v>130</v>
+        <v>89</v>
+      </c>
+      <c r="B66" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>18</v>
       </c>
       <c r="D66" s="36" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="E66" s="32">
-        <v>25.95</v>
+        <v>94.99</v>
       </c>
       <c r="F66" s="32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G66" s="34">
-        <f t="shared" si="7"/>
-        <v>129.75</v>
+        <f t="shared" si="10"/>
+        <v>379.96</v>
       </c>
       <c r="H66" s="32"/>
       <c r="I66" s="8">
         <v>0</v>
       </c>
       <c r="J66" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K66" s="32"/>
       <c r="L66" s="32"/>
       <c r="M66" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="32" t="s">
-        <v>196</v>
+        <v>117</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D67" s="33" t="s">
-        <v>198</v>
+        <v>112</v>
+      </c>
+      <c r="D67" s="36" t="s">
+        <v>118</v>
       </c>
       <c r="E67" s="32">
-        <v>22.95</v>
+        <v>149.99</v>
       </c>
       <c r="F67" s="32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G67" s="34">
-        <f t="shared" si="7"/>
-        <v>114.75</v>
+        <f t="shared" si="10"/>
+        <v>599.96</v>
       </c>
       <c r="H67" s="32"/>
       <c r="I67" s="8">
         <v>0</v>
       </c>
       <c r="J67" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K67" s="32"/>
       <c r="L67" s="32"/>
       <c r="M67" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="B68" s="35" t="s">
-        <v>139</v>
+        <v>119</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>119</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D68" s="33" t="s">
-        <v>140</v>
+        <v>112</v>
+      </c>
+      <c r="D68" s="36" t="s">
+        <v>120</v>
       </c>
       <c r="E68" s="32">
-        <v>27.95</v>
+        <v>99.99</v>
       </c>
       <c r="F68" s="32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G68" s="34">
-        <f t="shared" si="7"/>
-        <v>139.75</v>
+        <f t="shared" si="10"/>
+        <v>399.96</v>
       </c>
       <c r="H68" s="32"/>
       <c r="I68" s="8">
         <v>0</v>
       </c>
       <c r="J68" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K68" s="32"/>
       <c r="L68" s="32"/>
       <c r="M68" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="42" x14ac:dyDescent="0.2">
-      <c r="A69" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="B69" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="C69" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D69" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="E69" s="32">
-        <v>42.95</v>
-      </c>
-      <c r="F69" s="32">
-        <v>5</v>
-      </c>
-      <c r="G69" s="34">
-        <f t="shared" si="7"/>
-        <v>214.75</v>
-      </c>
-      <c r="H69" s="32"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D69" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E69" s="37">
+        <v>149.99</v>
+      </c>
+      <c r="F69" s="37">
+        <v>1</v>
+      </c>
+      <c r="G69" s="40">
+        <f t="shared" si="10"/>
+        <v>149.99</v>
+      </c>
+      <c r="H69" s="40"/>
       <c r="I69" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>149.99</v>
       </c>
       <c r="K69" s="32"/>
       <c r="L69" s="32"/>
       <c r="M69" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="B70" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="C70" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="D70" s="33" t="s">
-        <v>150</v>
+        <v>128</v>
+      </c>
+      <c r="B70" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D70" s="36" t="s">
+        <v>131</v>
       </c>
       <c r="E70" s="32">
-        <v>29.9</v>
+        <v>15.95</v>
       </c>
       <c r="F70" s="32">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G70" s="34">
-        <f t="shared" si="7"/>
-        <v>149.5</v>
+        <f t="shared" si="10"/>
+        <v>287.09999999999997</v>
       </c>
       <c r="H70" s="32"/>
       <c r="I70" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" s="9">
-        <f t="shared" si="8"/>
-        <v>59.8</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="K70" s="32"/>
       <c r="L70" s="32"/>
       <c r="M70" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="32" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="B71" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="C71" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" s="36" t="s">
-        <v>94</v>
+        <v>133</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D71" s="33" t="s">
+        <v>134</v>
       </c>
       <c r="E71" s="32">
-        <v>57.8</v>
+        <v>110.9</v>
       </c>
       <c r="F71" s="32">
         <v>5</v>
       </c>
       <c r="G71" s="34">
-        <f t="shared" si="7"/>
-        <v>289</v>
+        <f t="shared" si="10"/>
+        <v>554.5</v>
       </c>
       <c r="H71" s="32"/>
       <c r="I71" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" s="9">
-        <f t="shared" si="8"/>
-        <v>57.8</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="K71" s="32"/>
       <c r="L71" s="32"/>
@@ -4093,146 +4050,146 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A72" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="B72" s="44" t="s">
-        <v>200</v>
+        <v>190</v>
+      </c>
+      <c r="B72" s="35" t="s">
+        <v>191</v>
       </c>
       <c r="C72" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="D72" s="33" t="s">
-        <v>202</v>
+        <v>130</v>
+      </c>
+      <c r="D72" s="36" t="s">
+        <v>192</v>
       </c>
       <c r="E72" s="32">
-        <v>259</v>
+        <v>57.95</v>
       </c>
       <c r="F72" s="32">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G72" s="34">
-        <f t="shared" si="7"/>
-        <v>2072</v>
+        <f t="shared" si="10"/>
+        <v>289.75</v>
       </c>
       <c r="H72" s="32"/>
       <c r="I72" s="8">
         <v>0</v>
       </c>
       <c r="J72" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K72" s="32"/>
       <c r="L72" s="32"/>
       <c r="M72" s="26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="102" x14ac:dyDescent="0.2">
-      <c r="A73" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="B73" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="C73" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73" s="33" t="s">
-        <v>205</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+      <c r="A73" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D73" s="36" t="s">
+        <v>137</v>
       </c>
       <c r="E73" s="32">
-        <v>89.99</v>
+        <v>52.95</v>
       </c>
       <c r="F73" s="32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G73" s="34">
-        <f t="shared" si="7"/>
-        <v>179.98</v>
+        <f t="shared" si="10"/>
+        <v>264.75</v>
       </c>
       <c r="H73" s="32"/>
       <c r="I73" s="8">
         <v>0</v>
       </c>
       <c r="J73" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K73" s="32"/>
       <c r="L73" s="32"/>
       <c r="M73" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="136" x14ac:dyDescent="0.2">
-      <c r="A74" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="B74" s="44" t="s">
-        <v>207</v>
-      </c>
-      <c r="C74" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="D74" s="33" t="s">
-        <v>208</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A74" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D74" s="36" t="s">
+        <v>143</v>
       </c>
       <c r="E74" s="32">
-        <v>21.98</v>
+        <v>42.95</v>
       </c>
       <c r="F74" s="32">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G74" s="34">
-        <f t="shared" si="7"/>
-        <v>351.68</v>
+        <f t="shared" si="10"/>
+        <v>214.75</v>
       </c>
       <c r="H74" s="32"/>
       <c r="I74" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J74" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>85.9</v>
       </c>
       <c r="K74" s="32"/>
       <c r="L74" s="32"/>
-      <c r="M74" s="23" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="102" x14ac:dyDescent="0.2">
-      <c r="A75" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="B75" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="C75" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="D75" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="E75" s="44">
-        <v>12.99</v>
+      <c r="M74" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A75" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="B75" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="C75" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D75" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="E75" s="32">
+        <v>25.95</v>
       </c>
       <c r="F75" s="32">
         <v>5</v>
       </c>
       <c r="G75" s="34">
-        <f t="shared" si="7"/>
-        <v>64.95</v>
+        <f t="shared" si="10"/>
+        <v>129.75</v>
       </c>
       <c r="H75" s="32"/>
       <c r="I75" s="8">
         <v>0</v>
       </c>
       <c r="J75" s="9">
-        <f t="shared" ref="J75:J82" si="9">I75*E75</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K75" s="32"/>
@@ -4241,401 +4198,406 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A76" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="B76" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="C76" s="44" t="s">
-        <v>18</v>
+    <row r="76" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="B76" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>130</v>
       </c>
       <c r="D76" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="E76" s="44">
+        <v>198</v>
+      </c>
+      <c r="E76" s="32">
         <v>22.95</v>
       </c>
       <c r="F76" s="32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G76" s="34">
-        <f t="shared" si="7"/>
-        <v>91.8</v>
+        <f t="shared" si="10"/>
+        <v>114.75</v>
       </c>
       <c r="H76" s="32"/>
       <c r="I76" s="8">
         <v>0</v>
       </c>
       <c r="J76" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K76" s="32"/>
       <c r="L76" s="32"/>
       <c r="M76" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A77" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="B77" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="C77" s="44" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+      <c r="A77" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B77" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C77" s="32" t="s">
+        <v>130</v>
       </c>
       <c r="D77" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="E77" s="44">
-        <v>49.95</v>
+        <v>140</v>
+      </c>
+      <c r="E77" s="32">
+        <v>27.95</v>
       </c>
       <c r="F77" s="32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G77" s="34">
-        <f t="shared" si="7"/>
-        <v>49.95</v>
+        <f t="shared" si="10"/>
+        <v>139.75</v>
       </c>
       <c r="H77" s="32"/>
-      <c r="I77" s="10">
+      <c r="I77" s="8">
         <v>0</v>
       </c>
       <c r="J77" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K77" s="32"/>
       <c r="L77" s="32"/>
       <c r="M77" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A78" s="44" t="s">
-        <v>247</v>
-      </c>
-      <c r="B78" s="44" t="s">
-        <v>249</v>
-      </c>
-      <c r="C78" s="44" t="s">
-        <v>248</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B78" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C78" s="32" t="s">
+        <v>130</v>
       </c>
       <c r="D78" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="E78" s="44">
-        <v>49.95</v>
+        <v>143</v>
+      </c>
+      <c r="E78" s="32">
+        <v>42.95</v>
       </c>
       <c r="F78" s="32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G78" s="34">
-        <f t="shared" si="7"/>
-        <v>49.95</v>
+        <f t="shared" si="10"/>
+        <v>214.75</v>
       </c>
       <c r="H78" s="32"/>
-      <c r="I78" s="10">
-        <v>1</v>
+      <c r="I78" s="8">
+        <v>0</v>
       </c>
       <c r="J78" s="9">
-        <f t="shared" si="9"/>
-        <v>49.95</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="K78" s="32"/>
       <c r="L78" s="32"/>
       <c r="M78" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A79" s="44" t="s">
-        <v>247</v>
-      </c>
-      <c r="B79" s="44" t="s">
-        <v>250</v>
-      </c>
-      <c r="C79" s="44" t="s">
-        <v>248</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="B79" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>149</v>
       </c>
       <c r="D79" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="E79" s="44">
-        <v>49.95</v>
+        <v>150</v>
+      </c>
+      <c r="E79" s="32">
+        <v>29.9</v>
       </c>
       <c r="F79" s="32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G79" s="34">
-        <f t="shared" si="7"/>
-        <v>49.95</v>
+        <f t="shared" si="10"/>
+        <v>149.5</v>
       </c>
       <c r="H79" s="32"/>
-      <c r="I79" s="10">
-        <v>1</v>
+      <c r="I79" s="8">
+        <v>2</v>
       </c>
       <c r="J79" s="9">
-        <f t="shared" si="9"/>
-        <v>49.95</v>
+        <f t="shared" si="11"/>
+        <v>59.8</v>
       </c>
       <c r="K79" s="32"/>
       <c r="L79" s="32"/>
       <c r="M79" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A80" s="44" t="s">
-        <v>247</v>
-      </c>
-      <c r="B80" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="C80" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="D80" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E80" s="44">
-        <v>49.95</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E80" s="32">
+        <v>57.8</v>
       </c>
       <c r="F80" s="32">
+        <v>5</v>
+      </c>
+      <c r="G80" s="34">
+        <f t="shared" si="10"/>
+        <v>289</v>
+      </c>
+      <c r="H80" s="32"/>
+      <c r="I80" s="8">
         <v>1</v>
       </c>
-      <c r="G80" s="34">
-        <f t="shared" si="7"/>
-        <v>49.95</v>
-      </c>
-      <c r="H80" s="32"/>
-      <c r="I80" s="10">
-        <v>1</v>
-      </c>
       <c r="J80" s="9">
-        <f t="shared" si="9"/>
-        <v>49.95</v>
+        <f t="shared" si="11"/>
+        <v>57.8</v>
       </c>
       <c r="K80" s="32"/>
       <c r="L80" s="32"/>
       <c r="M80" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="32" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="B81" s="44" t="s">
-        <v>218</v>
-      </c>
-      <c r="C81" s="32" t="s">
-        <v>18</v>
+        <v>200</v>
+      </c>
+      <c r="C81" s="35" t="s">
+        <v>201</v>
       </c>
       <c r="D81" s="33" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="E81" s="32">
-        <v>16.5</v>
+        <v>259</v>
       </c>
       <c r="F81" s="32">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G81" s="34">
-        <f t="shared" si="7"/>
-        <v>99</v>
+        <f t="shared" si="10"/>
+        <v>2072</v>
       </c>
       <c r="H81" s="32"/>
-      <c r="I81" s="10">
+      <c r="I81" s="8">
         <v>0</v>
       </c>
       <c r="J81" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K81" s="32"/>
       <c r="L81" s="32"/>
-      <c r="M81" s="23" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A82" s="32" t="s">
-        <v>220</v>
+      <c r="M81" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="44" t="s">
+        <v>203</v>
       </c>
       <c r="B82" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="C82" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D82" s="36" t="s">
-        <v>222</v>
+        <v>204</v>
+      </c>
+      <c r="C82" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="33" t="s">
+        <v>205</v>
       </c>
       <c r="E82" s="32">
-        <v>12</v>
+        <v>89.99</v>
       </c>
       <c r="F82" s="32">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G82" s="34">
-        <f t="shared" si="7"/>
-        <v>72</v>
+        <f t="shared" si="10"/>
+        <v>179.98</v>
       </c>
       <c r="H82" s="32"/>
-      <c r="I82" s="10">
+      <c r="I82" s="8">
         <v>0</v>
       </c>
       <c r="J82" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K82" s="32"/>
       <c r="L82" s="32"/>
-      <c r="M82" s="23" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="96" x14ac:dyDescent="0.2">
-      <c r="A83" s="32" t="s">
-        <v>223</v>
+      <c r="M82" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="126" x14ac:dyDescent="0.25">
+      <c r="A83" s="44" t="s">
+        <v>206</v>
       </c>
       <c r="B83" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="C83" s="32" t="s">
-        <v>225</v>
+        <v>207</v>
+      </c>
+      <c r="C83" s="44" t="s">
+        <v>18</v>
       </c>
       <c r="D83" s="33" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="E83" s="32">
-        <v>0.16</v>
+        <v>21.98</v>
       </c>
       <c r="F83" s="32">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="G83" s="34">
-        <f t="shared" si="7"/>
-        <v>16</v>
+        <f t="shared" si="10"/>
+        <v>351.68</v>
       </c>
       <c r="H83" s="32"/>
-      <c r="I83" s="10">
+      <c r="I83" s="8">
         <v>0</v>
       </c>
       <c r="J83" s="9">
-        <f t="shared" ref="J83:J86" si="10">I83*E83</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K83" s="32"/>
       <c r="L83" s="32"/>
-      <c r="M83" s="26">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A84" s="32" t="s">
-        <v>257</v>
+      <c r="M83" s="23" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A84" s="44" t="s">
+        <v>209</v>
       </c>
       <c r="B84" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="C84" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="C84" s="44" t="s">
         <v>18</v>
       </c>
       <c r="D84" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="E84" s="32">
-        <v>18.989999999999998</v>
+        <v>211</v>
+      </c>
+      <c r="E84" s="44">
+        <v>12.99</v>
       </c>
       <c r="F84" s="32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G84" s="34">
-        <f t="shared" si="7"/>
-        <v>18.989999999999998</v>
+        <f t="shared" si="10"/>
+        <v>64.95</v>
       </c>
       <c r="H84" s="32"/>
-      <c r="I84" s="10">
-        <v>1</v>
-      </c>
-      <c r="J84" s="11">
-        <f t="shared" si="10"/>
-        <v>18.989999999999998</v>
+      <c r="I84" s="8">
+        <v>0</v>
+      </c>
+      <c r="J84" s="9">
+        <f t="shared" ref="J84:J91" si="12">I84*E84</f>
+        <v>0</v>
       </c>
       <c r="K84" s="32"/>
       <c r="L84" s="32"/>
       <c r="M84" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="128" x14ac:dyDescent="0.2">
-      <c r="A85" s="32" t="s">
-        <v>283</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+      <c r="A85" s="44" t="s">
+        <v>212</v>
       </c>
       <c r="B85" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="C85" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="C85" s="44" t="s">
         <v>18</v>
       </c>
       <c r="D85" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="E85" s="32">
-        <v>12.99</v>
+        <v>214</v>
+      </c>
+      <c r="E85" s="44">
+        <v>22.95</v>
       </c>
       <c r="F85" s="32">
         <v>4</v>
       </c>
       <c r="G85" s="34">
-        <f t="shared" si="7"/>
-        <v>51.96</v>
+        <f t="shared" si="10"/>
+        <v>91.8</v>
       </c>
       <c r="H85" s="32"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="11"/>
+      <c r="I85" s="8">
+        <v>0</v>
+      </c>
+      <c r="J85" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K85" s="32"/>
       <c r="L85" s="32"/>
       <c r="M85" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="128" x14ac:dyDescent="0.2">
-      <c r="A86" s="32" t="s">
-        <v>260</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="44" t="s">
+        <v>212</v>
       </c>
       <c r="B86" s="44" t="s">
-        <v>259</v>
-      </c>
-      <c r="C86" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="C86" s="44" t="s">
         <v>18</v>
       </c>
       <c r="D86" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="E86" s="32">
-        <v>9.99</v>
+        <v>216</v>
+      </c>
+      <c r="E86" s="44">
+        <v>49.95</v>
       </c>
       <c r="F86" s="32">
         <v>1</v>
       </c>
       <c r="G86" s="34">
-        <f t="shared" si="7"/>
-        <v>9.99</v>
+        <f t="shared" si="10"/>
+        <v>49.95</v>
       </c>
       <c r="H86" s="32"/>
       <c r="I86" s="10">
-        <v>1</v>
-      </c>
-      <c r="J86" s="11">
-        <f t="shared" si="10"/>
-        <v>9.99</v>
+        <v>0</v>
+      </c>
+      <c r="J86" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K86" s="32"/>
       <c r="L86" s="32"/>
@@ -4643,529 +4605,857 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="68" x14ac:dyDescent="0.2">
-      <c r="A87" s="32" t="s">
-        <v>276</v>
+    <row r="87" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="44" t="s">
+        <v>247</v>
       </c>
       <c r="B87" s="44" t="s">
-        <v>278</v>
-      </c>
-      <c r="C87" s="32" t="s">
-        <v>18</v>
+        <v>249</v>
+      </c>
+      <c r="C87" s="44" t="s">
+        <v>248</v>
       </c>
       <c r="D87" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="E87" s="32">
-        <v>8.59</v>
+        <v>252</v>
+      </c>
+      <c r="E87" s="44">
+        <v>49.95</v>
       </c>
       <c r="F87" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G87" s="34">
-        <f t="shared" si="7"/>
-        <v>17.18</v>
+        <f t="shared" si="10"/>
+        <v>49.95</v>
       </c>
       <c r="H87" s="32"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="11"/>
+      <c r="I87" s="10">
+        <v>1</v>
+      </c>
+      <c r="J87" s="9">
+        <f t="shared" si="12"/>
+        <v>49.95</v>
+      </c>
       <c r="K87" s="32"/>
       <c r="L87" s="32"/>
       <c r="M87" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="B88" s="14"/>
-      <c r="D88" s="4"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="B89" s="14"/>
-      <c r="D89" s="4"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H90" s="3"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="H91" s="3"/>
-      <c r="I91" s="10" t="s">
+    <row r="88" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="B88" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="C88" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="D88" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="E88" s="44">
+        <v>49.95</v>
+      </c>
+      <c r="F88" s="32">
+        <v>1</v>
+      </c>
+      <c r="G88" s="34">
+        <f t="shared" si="10"/>
+        <v>49.95</v>
+      </c>
+      <c r="H88" s="32"/>
+      <c r="I88" s="10">
+        <v>1</v>
+      </c>
+      <c r="J88" s="9">
+        <f t="shared" si="12"/>
+        <v>49.95</v>
+      </c>
+      <c r="K88" s="32"/>
+      <c r="L88" s="32"/>
+      <c r="M88" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="B89" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="C89" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="D89" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="E89" s="44">
+        <v>49.95</v>
+      </c>
+      <c r="F89" s="32">
+        <v>1</v>
+      </c>
+      <c r="G89" s="34">
+        <f t="shared" si="10"/>
+        <v>49.95</v>
+      </c>
+      <c r="H89" s="32"/>
+      <c r="I89" s="10">
+        <v>1</v>
+      </c>
+      <c r="J89" s="9">
+        <f t="shared" si="12"/>
+        <v>49.95</v>
+      </c>
+      <c r="K89" s="32"/>
+      <c r="L89" s="32"/>
+      <c r="M89" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A90" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="B90" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="C90" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="E90" s="32">
+        <v>16.5</v>
+      </c>
+      <c r="F90" s="32">
+        <v>6</v>
+      </c>
+      <c r="G90" s="34">
+        <f t="shared" si="10"/>
+        <v>99</v>
+      </c>
+      <c r="H90" s="32"/>
+      <c r="I90" s="10">
+        <v>0</v>
+      </c>
+      <c r="J90" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K90" s="32"/>
+      <c r="L90" s="32"/>
+      <c r="M90" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+      <c r="A91" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="B91" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="C91" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="E91" s="32">
+        <v>12</v>
+      </c>
+      <c r="F91" s="32">
+        <v>6</v>
+      </c>
+      <c r="G91" s="34">
+        <f t="shared" si="10"/>
+        <v>72</v>
+      </c>
+      <c r="H91" s="32"/>
+      <c r="I91" s="10">
+        <v>0</v>
+      </c>
+      <c r="J91" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K91" s="32"/>
+      <c r="L91" s="32"/>
+      <c r="M91" s="23" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A92" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="B92" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="C92" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D92" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="E92" s="32">
+        <v>0.16</v>
+      </c>
+      <c r="F92" s="32">
+        <v>100</v>
+      </c>
+      <c r="G92" s="34">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="H92" s="32"/>
+      <c r="I92" s="10">
+        <v>0</v>
+      </c>
+      <c r="J92" s="9">
+        <f t="shared" ref="J92:J95" si="13">I92*E92</f>
+        <v>0</v>
+      </c>
+      <c r="K92" s="32"/>
+      <c r="L92" s="32"/>
+      <c r="M92" s="26">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A93" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="B93" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="C93" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="E93" s="32">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="F93" s="32">
+        <v>1</v>
+      </c>
+      <c r="G93" s="34">
+        <f t="shared" si="10"/>
+        <v>18.989999999999998</v>
+      </c>
+      <c r="H93" s="32"/>
+      <c r="I93" s="10">
+        <v>1</v>
+      </c>
+      <c r="J93" s="11">
+        <f t="shared" si="13"/>
+        <v>18.989999999999998</v>
+      </c>
+      <c r="K93" s="32"/>
+      <c r="L93" s="32"/>
+      <c r="M93" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A94" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="B94" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="C94" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="E94" s="32">
+        <v>12.99</v>
+      </c>
+      <c r="F94" s="32">
+        <v>4</v>
+      </c>
+      <c r="G94" s="34">
+        <f t="shared" si="10"/>
+        <v>51.96</v>
+      </c>
+      <c r="H94" s="32"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="32"/>
+      <c r="L94" s="32"/>
+      <c r="M94" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A95" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="B95" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="C95" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="E95" s="32">
+        <v>9.99</v>
+      </c>
+      <c r="F95" s="32">
+        <v>1</v>
+      </c>
+      <c r="G95" s="34">
+        <f t="shared" si="10"/>
+        <v>9.99</v>
+      </c>
+      <c r="H95" s="32"/>
+      <c r="I95" s="10">
+        <v>1</v>
+      </c>
+      <c r="J95" s="11">
+        <f t="shared" si="13"/>
+        <v>9.99</v>
+      </c>
+      <c r="K95" s="32"/>
+      <c r="L95" s="32"/>
+      <c r="M95" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+      <c r="A96" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="B96" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="C96" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="E96" s="32">
+        <v>8.59</v>
+      </c>
+      <c r="F96" s="32">
+        <v>2</v>
+      </c>
+      <c r="G96" s="34">
+        <f t="shared" si="10"/>
+        <v>17.18</v>
+      </c>
+      <c r="H96" s="32"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="32"/>
+      <c r="L96" s="32"/>
+      <c r="M96" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B97" s="14"/>
+      <c r="D97" s="4"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="3"/>
+    </row>
+    <row r="98" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B98" s="14"/>
+      <c r="D98" s="4"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="3"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H99" s="3"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="3"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H100" s="3"/>
+      <c r="I100" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="J91" s="11">
-        <f>SUM(J52:J90)</f>
+      <c r="J100" s="11">
+        <f>SUM(J60:J99)</f>
         <v>557.2700000000001</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A93" s="12" t="s">
+      <c r="K100" s="3"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K101" s="3"/>
+    </row>
+    <row r="102" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="3"/>
-      <c r="M93" s="25"/>
-    </row>
-    <row r="94" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A94" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94" s="5" t="s">
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="3"/>
+      <c r="M102" s="25"/>
+    </row>
+    <row r="103" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5" t="s">
+      <c r="C103" s="5"/>
+      <c r="D103" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E103" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="3"/>
-      <c r="I94" s="7" t="s">
+      <c r="H103" s="3"/>
+      <c r="I103" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J94" s="9"/>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
+      <c r="J103" s="9"/>
+      <c r="K103" s="3"/>
+    </row>
+    <row r="104" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B104" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D95" s="4" t="s">
+      <c r="C104" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E104" s="3">
         <v>23.95</v>
       </c>
-      <c r="G95" s="6">
-        <f>E95*F95</f>
-        <v>0</v>
-      </c>
-      <c r="H95" s="3"/>
-      <c r="I95" s="8">
-        <v>0</v>
-      </c>
-      <c r="J95" s="9">
-        <f>I95*E95</f>
-        <v>0</v>
-      </c>
-      <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
+      <c r="G104" s="6">
+        <f>E104*F104</f>
+        <v>0</v>
+      </c>
+      <c r="H104" s="3"/>
+      <c r="I104" s="8">
+        <v>0</v>
+      </c>
+      <c r="J104" s="9">
+        <f>I104*E104</f>
+        <v>0</v>
+      </c>
+      <c r="K104" s="3"/>
+    </row>
+    <row r="105" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B105" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D96" s="4" t="s">
+      <c r="C105" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E105" s="3">
         <v>15.99</v>
       </c>
-      <c r="G96" s="6">
-        <f t="shared" ref="G96:G103" si="11">E96*F96</f>
-        <v>0</v>
-      </c>
-      <c r="H96" s="3"/>
-      <c r="I96" s="8">
-        <v>0</v>
-      </c>
-      <c r="J96" s="9">
-        <f t="shared" ref="J96:J108" si="12">I96*E96</f>
-        <v>0</v>
-      </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
+      <c r="G105" s="6">
+        <f t="shared" ref="G105:G112" si="14">E105*F105</f>
+        <v>0</v>
+      </c>
+      <c r="H105" s="3"/>
+      <c r="I105" s="8">
+        <v>0</v>
+      </c>
+      <c r="J105" s="9">
+        <f t="shared" ref="J105:J117" si="15">I105*E105</f>
+        <v>0</v>
+      </c>
+      <c r="K105" s="3"/>
+    </row>
+    <row r="106" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B106" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C106" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D106" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E106" s="3">
         <v>19.95</v>
       </c>
-      <c r="G97" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H97" s="3"/>
-      <c r="I97" s="8">
+      <c r="G106" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H106" s="3"/>
+      <c r="I106" s="8">
         <v>10</v>
       </c>
-      <c r="J97" s="9">
-        <f t="shared" si="12"/>
+      <c r="J106" s="9">
+        <f t="shared" si="15"/>
         <v>199.5</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
+      <c r="K106" s="3"/>
+    </row>
+    <row r="107" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B107" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C107" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E107" s="3">
         <v>4.95</v>
       </c>
-      <c r="H98" s="3"/>
-      <c r="I98" s="8">
+      <c r="H107" s="3"/>
+      <c r="I107" s="8">
         <v>5</v>
       </c>
-      <c r="J98" s="9">
-        <f t="shared" si="12"/>
+      <c r="J107" s="9">
+        <f t="shared" si="15"/>
         <v>24.75</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="1:11" ht="48" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
+      <c r="K107" s="3"/>
+    </row>
+    <row r="108" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B108" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C99" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D99" s="1" t="s">
+      <c r="C108" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E108" s="3">
         <v>10.98</v>
       </c>
-      <c r="G99" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H99" s="3"/>
-      <c r="I99" s="8">
-        <v>0</v>
-      </c>
-      <c r="J99" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
+      <c r="G108" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H108" s="3"/>
+      <c r="I108" s="8">
+        <v>0</v>
+      </c>
+      <c r="J108" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K108" s="3"/>
+    </row>
+    <row r="109" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B109" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E109" s="3">
         <v>7.95</v>
       </c>
-      <c r="G100" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H100" s="3"/>
-      <c r="I100" s="8">
+      <c r="G109" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H109" s="3"/>
+      <c r="I109" s="8">
         <v>16</v>
       </c>
-      <c r="J100" s="9">
-        <f t="shared" si="12"/>
+      <c r="J109" s="9">
+        <f t="shared" si="15"/>
         <v>127.2</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
+      <c r="K109" s="3"/>
+    </row>
+    <row r="110" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B110" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D110" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E110" s="3">
         <v>3.5</v>
       </c>
-      <c r="I101" s="10">
-        <v>0</v>
-      </c>
-      <c r="J101" s="9">
-        <f>I101*E101</f>
-        <v>0</v>
-      </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
+      <c r="I110" s="10">
+        <v>0</v>
+      </c>
+      <c r="J110" s="9">
+        <f>I110*E110</f>
+        <v>0</v>
+      </c>
+      <c r="K110" s="3"/>
+    </row>
+    <row r="111" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B111" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C111" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E111" s="3">
         <v>11.99</v>
       </c>
-      <c r="G102" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H102" s="3"/>
-      <c r="I102" s="8">
-        <v>0</v>
-      </c>
-      <c r="J102" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K102" s="3"/>
-    </row>
-    <row r="103" spans="1:11" ht="112" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
+      <c r="G111" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H111" s="3"/>
+      <c r="I111" s="8">
+        <v>0</v>
+      </c>
+      <c r="J111" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K111" s="3"/>
+    </row>
+    <row r="112" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B112" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D103" s="1" t="s">
+      <c r="C112" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E112" s="3">
         <v>32.880000000000003</v>
       </c>
-      <c r="G103" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H103" s="3"/>
-      <c r="I103" s="8">
-        <v>0</v>
-      </c>
-      <c r="J103" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K103" s="3"/>
-    </row>
-    <row r="104" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A104" s="14" t="s">
+      <c r="G112" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H112" s="3"/>
+      <c r="I112" s="8">
+        <v>0</v>
+      </c>
+      <c r="J112" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K112" s="3"/>
+    </row>
+    <row r="113" spans="1:11" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A113" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="B104" s="14" t="s">
+      <c r="B113" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C104" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D104" s="1" t="s">
+      <c r="C113" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E104" s="14">
+      <c r="E113" s="14">
         <v>12.99</v>
       </c>
-      <c r="I104" s="3">
-        <v>0</v>
-      </c>
-      <c r="J104" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K104" s="3"/>
-    </row>
-    <row r="105" spans="1:11" ht="96" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
+      <c r="I113" s="3">
+        <v>0</v>
+      </c>
+      <c r="J113" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K113" s="3"/>
+    </row>
+    <row r="114" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B114" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D105" s="4" t="s">
+      <c r="C114" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E114" s="3">
         <v>5.69</v>
       </c>
-      <c r="I105" s="3">
+      <c r="I114" s="3">
         <v>1</v>
       </c>
-      <c r="J105" s="9">
-        <f t="shared" si="12"/>
+      <c r="J114" s="9">
+        <f t="shared" si="15"/>
         <v>5.69</v>
       </c>
-      <c r="K105" s="21" t="s">
+      <c r="K114" s="21" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="80" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
+    <row r="115" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B115" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D106" s="4" t="s">
+      <c r="C115" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E106" s="3">
+      <c r="E115" s="3">
         <v>12</v>
       </c>
-      <c r="I106" s="3">
-        <v>0</v>
-      </c>
-      <c r="J106" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K106" s="3"/>
-    </row>
-    <row r="107" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
+      <c r="I115" s="3">
+        <v>0</v>
+      </c>
+      <c r="J115" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K115" s="3"/>
+    </row>
+    <row r="116" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="B116" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D107" s="4" t="s">
+      <c r="C116" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="E107" s="3">
+      <c r="E116" s="3">
         <v>8.99</v>
       </c>
-      <c r="I107" s="3">
-        <v>0</v>
-      </c>
-      <c r="J107" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K107" s="3"/>
-    </row>
-    <row r="108" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
+      <c r="I116" s="3">
+        <v>0</v>
+      </c>
+      <c r="J116" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K116" s="3"/>
+    </row>
+    <row r="117" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B108" s="14" t="s">
+      <c r="B117" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C108" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D108" s="4" t="s">
+      <c r="C117" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="E108" s="3">
+      <c r="E117" s="3">
         <v>19.989999999999998</v>
       </c>
-      <c r="I108" s="3">
+      <c r="I117" s="3">
         <v>1</v>
       </c>
-      <c r="J108" s="9">
-        <f t="shared" si="12"/>
+      <c r="J117" s="9">
+        <f t="shared" si="15"/>
         <v>19.989999999999998</v>
       </c>
-      <c r="K108" s="3"/>
+      <c r="K117" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J108" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A52:J72">
-    <sortCondition ref="C52:C72"/>
+  <autoFilter ref="A2:J117" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A60:J81">
+    <sortCondition ref="C60:C81"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D24" r:id="rId1" display="https://www.amazon.com/dp/B00LPK0E5A/ref=sspa_dk_detail_1?psc=1&amp;pd_rd_i=B00LPK0E5A&amp;pd_rd_w=0M9NZ&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=aD93W&amp;pf_rd_r=YPJBQXW796NSXR2VMXXF&amp;pd_rd_r=27b44396-0b27-4df5-a333-c9ae450119d1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzRjAzSlpTNDhOSDROJmVuY3J5cHRlZElkPUExMDI0NTg3UkZNOVI5WEJEMTBKJmVuY3J5cHRlZEFkSWQ9QTAwMTM0OTMxR1ZVVzZSMDhHUEYwJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D60" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="D57" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D69" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D66" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
     <hyperlink ref="D22" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
     <hyperlink ref="D21" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
     <hyperlink ref="D20" r:id="rId6" display="https://www.amazon.com/BOJACK-UA741General-Purpose-Operational-Amplifier/dp/B07WSB1VNH/ref=asc_df_B07WSB1VNH/?tag=hyprod-20&amp;linkCode=df0&amp;hvadid=416713541504&amp;hvpos=&amp;hvnetw=g&amp;hvrand=10187485487199424423&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9030447&amp;hvtargid=pla-870040127419&amp;psc=1&amp;tag=&amp;ref=&amp;adgrpid=93604203773&amp;hvpone=&amp;hvptwo=&amp;hvadid=416713541504&amp;hvpos=&amp;hvnetw=g&amp;hvrand=10187485487199424423&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9030447&amp;hvtargid=pla-870040127419" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
     <hyperlink ref="D19" r:id="rId7" display="https://www.amazon.com/LSR-Transistor-Assortment-Electronics-Electronic/dp/B07TV9FFFQ/ref=sr_1_1_sspa?dchild=1&amp;keywords=transistor+kit&amp;qid=1589997273&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyNjRQNjZTRkNTMDBEJmVuY3J5cHRlZElkPUEwMjA2MDgzMTJBUTZXT1pMR1VFSyZlbmNyeXB0ZWRBZElkPUEwMzg4NDY4MzgxSDlaRERQMUxMQSZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="D70" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="D59" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="D58" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="D79" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D68" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="D67" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
     <hyperlink ref="D25" r:id="rId11" display="https://www.amazon.com/Isopropyl-Alcohol-Grade-99-Anhydrous/dp/B01KK014F4/ref=asc_df_B01KK014F4/?tag=hyprod-20&amp;linkCode=df0&amp;hvadid=312416780110&amp;hvpos=&amp;hvnetw=g&amp;hvrand=17295135421118886149&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9030447&amp;hvtargid=pla-569571734125&amp;psc=1&amp;tag=&amp;ref=&amp;adgrpid=61555869549&amp;hvpone=&amp;hvptwo=&amp;hvadid=312416780110&amp;hvpos=&amp;hvnetw=g&amp;hvrand=17295135421118886149&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9030447&amp;hvtargid=pla-569571734125" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
     <hyperlink ref="D29" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
     <hyperlink ref="D28" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
     <hyperlink ref="D18" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="D97" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="D106" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
     <hyperlink ref="D32" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
     <hyperlink ref="D31" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
     <hyperlink ref="D17" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
     <hyperlink ref="D16" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
     <hyperlink ref="D15" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="D96" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="D95" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="D54" r:id="rId23" display="https://www.amazon.com/Smart-Enabled-Google-Assistant-HomeKit/dp/B01NBI0A6R/ref=sxin_3_ac_d_rm?ac_md=0-0-d2Vtbw%3D%3D-ac_d_rm&amp;cv_ct_cx=wemo&amp;keywords=wemo&amp;pd_rd_i=B01NBI0A6R&amp;pd_rd_r=bbd5c2e2-6eb9-40fe-9456-a7336162120f&amp;pd_rd_w=Ts0oB&amp;pd_rd_wg=K1Zyb&amp;pf_rd_p=de19e82a-2d83-4ae8-9f5c-212586b8b9a0&amp;pf_rd_r=8DGZDACCDVJ418KR7CNJ&amp;qid=1584141937&amp;th=1" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="D53" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="D105" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="D104" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="D62" r:id="rId23" display="https://www.amazon.com/Smart-Enabled-Google-Assistant-HomeKit/dp/B01NBI0A6R/ref=sxin_3_ac_d_rm?ac_md=0-0-d2Vtbw%3D%3D-ac_d_rm&amp;cv_ct_cx=wemo&amp;keywords=wemo&amp;pd_rd_i=B01NBI0A6R&amp;pd_rd_r=bbd5c2e2-6eb9-40fe-9456-a7336162120f&amp;pd_rd_w=Ts0oB&amp;pd_rd_wg=K1Zyb&amp;pf_rd_p=de19e82a-2d83-4ae8-9f5c-212586b8b9a0&amp;pf_rd_r=8DGZDACCDVJ418KR7CNJ&amp;qid=1584141937&amp;th=1" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="D61" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
     <hyperlink ref="D7" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
     <hyperlink ref="D14" r:id="rId26" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
     <hyperlink ref="D27" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
@@ -5175,9 +5465,9 @@
     <hyperlink ref="D9" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
     <hyperlink ref="D8" r:id="rId32" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
     <hyperlink ref="D11" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="B52" r:id="rId34" display="https://www.adafruit.com/product/1461" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="D101" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="D52" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="B60" r:id="rId34" display="https://www.adafruit.com/product/1461" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="D110" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="D60" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
     <hyperlink ref="D3" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
     <hyperlink ref="D35" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
     <hyperlink ref="D34" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
@@ -5187,51 +5477,52 @@
     <hyperlink ref="D13" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
     <hyperlink ref="D26" r:id="rId44" display="https://www.amazon.com/dp/B07GD2BWPY/ref=sspa_dk_detail_2?psc=1&amp;pd_rd_i=B07GD2BWPY&amp;pd_rd_w=TqeWX&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=sNJWA&amp;pf_rd_r=ZXS16ECPMKD9XBVAS65W&amp;pd_rd_r=b5442918-7fb9-4962-af3b-9820970385cf&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyWTlUTDAyTTJDVElLJmVuY3J5cHRlZElkPUEwMjM2MDg0M0g1U1ZRS1hPNk0zMSZlbmNyeXB0ZWRBZElkPUEwNTczODQxM0JQVzgzUkcwMUVBNiZ3aWRnZXROYW1lPXNwX2RldGFpbCZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
     <hyperlink ref="D23" r:id="rId45" display="https://www.amazon.com/Qunqi-Sensor-Module-Arduino-Raspberry/dp/B07QBPGYBF/ref=pd_vtp_328_2/133-9447900-8990828?_encoding=UTF8&amp;pd_rd_i=B07QBPGYBF&amp;pd_rd_r=e7d105ef-e581-4e23-9137-ef46e7f59ac1&amp;pd_rd_w=4kywy&amp;pd_rd_wg=hamvp&amp;pf_rd_p=5946f538-3793-4aed-94d1-6882674b98f9&amp;pf_rd_r=V04NHSEY2AS5NV572E1P&amp;psc=1&amp;refRID=V04NHSEY2AS5NV572E1P" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="D56" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="D55" r:id="rId47" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="D99" r:id="rId48" display="https://www.amazon.com/Adafruit-NeoPixel-Ring-Integrated-Drivers/dp/B00KAE3R1U/ref=sxin_7_ac_d_rm?ac_md=1-1-bmVvcGl4ZWw%3D-ac_d_rm&amp;cv_ct_cx=neopixel+ring&amp;dchild=1&amp;keywords=neopixel+ring&amp;pd_rd_i=B00KAE3R1U&amp;pd_rd_r=f532ea9d-0030-44f0-832a-ce614c837962&amp;pd_rd_w=9bJ5n&amp;pd_rd_wg=0eBjE&amp;pf_rd_p=a0516f22-66df-4efd-8b9a-279a864d1512&amp;pf_rd_r=AYP2P98ZJBNCG2YYCT97&amp;psc=1&amp;qid=1590415826&amp;sr=1-2-12d4272d-8adb-4121-8624-135149aa9081" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="D102" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="D103" r:id="rId50" display="https://www.amazon.com/dp/B01CDTEKAG/ref=sspa_dk_detail_5?psc=1&amp;pd_rd_i=B01CDTEKAG&amp;pd_rd_w=xH4vG&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=OWknK&amp;pf_rd_r=4MWDRWVKFJB1AYRB3KT5&amp;pd_rd_r=1dfe850a-4ea2-46f2-b93c-46b84486f9d4&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzUThIV0Y2UjRSUjImZW5jcnlwdGVkSWQ9QTAzMjQ0ODUxSDdUU0E3UTlMWFlEJmVuY3J5cHRlZEFkSWQ9QTA5Nzg1MTUxVTM3VzVKSE44S1RCJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="D71" r:id="rId51" display="https://www.amazon.com/DFROBOT-Gravity-Analog-Sensor-Arduino/dp/B00R5CCH7U/ref=sr_1_2_sspa?dchild=1&amp;keywords=dfrobot&amp;qid=1590416675&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExRVhTUks4U1dYNjhSJmVuY3J5cHRlZElkPUEwNTY0MzYzUldBQ1A2SDlRVkRCJmVuY3J5cHRlZEFkSWQ9QTEwNDU4OTYzVjNDWEhNV0RPS1IzJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="D68" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="D69" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="D64" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="D62" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="D65" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="D63" r:id="rId47" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="D108" r:id="rId48" display="https://www.amazon.com/Adafruit-NeoPixel-Ring-Integrated-Drivers/dp/B00KAE3R1U/ref=sxin_7_ac_d_rm?ac_md=1-1-bmVvcGl4ZWw%3D-ac_d_rm&amp;cv_ct_cx=neopixel+ring&amp;dchild=1&amp;keywords=neopixel+ring&amp;pd_rd_i=B00KAE3R1U&amp;pd_rd_r=f532ea9d-0030-44f0-832a-ce614c837962&amp;pd_rd_w=9bJ5n&amp;pd_rd_wg=0eBjE&amp;pf_rd_p=a0516f22-66df-4efd-8b9a-279a864d1512&amp;pf_rd_r=AYP2P98ZJBNCG2YYCT97&amp;psc=1&amp;qid=1590415826&amp;sr=1-2-12d4272d-8adb-4121-8624-135149aa9081" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="D111" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="D112" r:id="rId50" display="https://www.amazon.com/dp/B01CDTEKAG/ref=sspa_dk_detail_5?psc=1&amp;pd_rd_i=B01CDTEKAG&amp;pd_rd_w=xH4vG&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=OWknK&amp;pf_rd_r=4MWDRWVKFJB1AYRB3KT5&amp;pd_rd_r=1dfe850a-4ea2-46f2-b93c-46b84486f9d4&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzUThIV0Y2UjRSUjImZW5jcnlwdGVkSWQ9QTAzMjQ0ODUxSDdUU0E3UTlMWFlEJmVuY3J5cHRlZEFkSWQ9QTA5Nzg1MTUxVTM3VzVKSE44S1RCJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="D80" r:id="rId51" display="https://www.amazon.com/DFROBOT-Gravity-Analog-Sensor-Arduino/dp/B00R5CCH7U/ref=sr_1_2_sspa?dchild=1&amp;keywords=dfrobot&amp;qid=1590416675&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExRVhTUks4U1dYNjhSJmVuY3J5cHRlZElkPUEwNTY0MzYzUldBQ1A2SDlRVkRCJmVuY3J5cHRlZEFkSWQ9QTEwNDU4OTYzVjNDWEhNV0RPS1IzJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="D77" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="D78" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="D73" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="D71" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
     <hyperlink ref="D38" r:id="rId56" display="https://www.lowes.com/pd/Tough-Box-16-Compartment-Plastic-Small-Parts-Organizer/1000365903?cm_mmc=shp-_-c-_-prd-_-tol-_-google-_-lia-_--_-toolstorage-_-1000365903-_-0&amp;store_code=2539&amp;placeholder=null&amp;gclid=EAIaIQobChMI2ICzhsX86QIVi4bACh0oNwjhEAQYASABEgLcgPD_BwE&amp;gclsrc=aw.ds" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="D72" r:id="rId57" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="D73" r:id="rId58" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="D74" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="D104" r:id="rId60" display="https://www.amazon.com/dp/B087B5NWY4/ref=sspa_dk_detail_0?psc=1&amp;pd_rd_i=B087B5NWY4&amp;pd_rd_w=qTl74&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=oJf3C&amp;pf_rd_r=BNJEBNTQ9WJFCK2T7NJG&amp;pd_rd_r=878dff4d-97fc-4ab7-b51d-f454e436af7d&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFSMFdOVFk0RUJCSjUmZW5jcnlwdGVkSWQ9QTA5OTM1MjYzSTlCWEhXN0xTU0RQJmVuY3J5cHRlZEFkSWQ9QTAxMzk3MzYzQktQVENFTUtJNzhJJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="D81" r:id="rId57" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="D82" r:id="rId58" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="D83" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="D113" r:id="rId60" display="https://www.amazon.com/dp/B087B5NWY4/ref=sspa_dk_detail_0?psc=1&amp;pd_rd_i=B087B5NWY4&amp;pd_rd_w=qTl74&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=oJf3C&amp;pf_rd_r=BNJEBNTQ9WJFCK2T7NJG&amp;pd_rd_r=878dff4d-97fc-4ab7-b51d-f454e436af7d&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFSMFdOVFk0RUJCSjUmZW5jcnlwdGVkSWQ9QTA5OTM1MjYzSTlCWEhXN0xTU0RQJmVuY3J5cHRlZEFkSWQ9QTAxMzk3MzYzQktQVENFTUtJNzhJJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
     <hyperlink ref="D39" r:id="rId61" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="D75" r:id="rId62" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="D76" r:id="rId63" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="D77" r:id="rId64" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="D105" r:id="rId65" display="https://www.amazon.com/dp/B07QKDSCSM/ref=sspa_dk_detail_0?spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFCNUFXNjBMUkhRNjgmZW5jcnlwdGVkSWQ9QTAzODUwNTVOR1NCNFFLMjRWR0ImZW5jcnlwdGVkQWRJZD1BMDM1MDc1NjNWSVJZSlg1Q0pDTUkmd2lkZ2V0TmFtZT1zcF9kZXRhaWwyJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ&amp;th=1" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="D81" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
-    <hyperlink ref="D82" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
-    <hyperlink ref="D107" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
-    <hyperlink ref="D106" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
-    <hyperlink ref="D83" r:id="rId70" display="https://www.digikey.com/product-detail/en/citizen-finedevice-co-ltd/CFS-20632768DZFB/300-1002-ND/283736?utm_adgroup=Crystals%20Oscillators&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search&amp;utm_term=&amp;utm_content=Crystals%20Oscillators&amp;gclid=EAIaIQobChMIrI-y8dvf6gIVgobACh05Cwq-EAAYASAAEgJ-LvD_BwE" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
-    <hyperlink ref="D63" r:id="rId71" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
-    <hyperlink ref="D65" r:id="rId72" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
-    <hyperlink ref="D66" r:id="rId73" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
-    <hyperlink ref="D67" r:id="rId74" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
-    <hyperlink ref="B61" r:id="rId75" display="https://store.ncd.io/product/feather-battery-i2c-shield-for-particle-and-feather-modules/" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="D61" r:id="rId76" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="D78" r:id="rId77" xr:uid="{CB9AA7F3-57D3-4035-9B10-D6E06BA90642}"/>
-    <hyperlink ref="D79" r:id="rId78" xr:uid="{CD5B5197-64EF-49EF-91BD-2559DCFA1A39}"/>
-    <hyperlink ref="D80" r:id="rId79" xr:uid="{6673B4F9-7D5C-42C3-A449-534270670C62}"/>
-    <hyperlink ref="D84" r:id="rId80" xr:uid="{7BEE6173-67BD-462D-93F3-8868348A9E43}"/>
-    <hyperlink ref="D86" r:id="rId81" display="https://www.amazon.com/Screwdriver-Flathead-Phillips-Pentalobe-Different/dp/B0872XMTKS/ref=sr_1_2_sspa?crid=33O94WILFA3IZ&amp;dchild=1&amp;keywords=mini+screwdriver+set&amp;qid=1598205307&amp;sprefix=mini+screw%2Caps%2C201&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExMEY2S0QwRE9XR01UJmVuY3J5cHRlZElkPUEwNzIwODY1MjVGV1BCNDNFNkowRyZlbmNyeXB0ZWRBZElkPUExMDAyMjM5NFpSMkVPTlBSN0ZDJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{19DAF842-E937-4DB9-89CA-2282F04D2AEA}"/>
+    <hyperlink ref="D84" r:id="rId62" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="D85" r:id="rId63" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="D86" r:id="rId64" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="D114" r:id="rId65" display="https://www.amazon.com/dp/B07QKDSCSM/ref=sspa_dk_detail_0?spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFCNUFXNjBMUkhRNjgmZW5jcnlwdGVkSWQ9QTAzODUwNTVOR1NCNFFLMjRWR0ImZW5jcnlwdGVkQWRJZD1BMDM1MDc1NjNWSVJZSlg1Q0pDTUkmd2lkZ2V0TmFtZT1zcF9kZXRhaWwyJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ&amp;th=1" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="D90" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="D91" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="D116" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="D115" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="D92" r:id="rId70" display="https://www.digikey.com/product-detail/en/citizen-finedevice-co-ltd/CFS-20632768DZFB/300-1002-ND/283736?utm_adgroup=Crystals%20Oscillators&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search&amp;utm_term=&amp;utm_content=Crystals%20Oscillators&amp;gclid=EAIaIQobChMIrI-y8dvf6gIVgobACh05Cwq-EAAYASAAEgJ-LvD_BwE" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="D72" r:id="rId71" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="D74" r:id="rId72" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="D75" r:id="rId73" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="D76" r:id="rId74" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="B70" r:id="rId75" display="https://store.ncd.io/product/feather-battery-i2c-shield-for-particle-and-feather-modules/" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="D70" r:id="rId76" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="D87" r:id="rId77" xr:uid="{CB9AA7F3-57D3-4035-9B10-D6E06BA90642}"/>
+    <hyperlink ref="D88" r:id="rId78" xr:uid="{CD5B5197-64EF-49EF-91BD-2559DCFA1A39}"/>
+    <hyperlink ref="D89" r:id="rId79" xr:uid="{6673B4F9-7D5C-42C3-A449-534270670C62}"/>
+    <hyperlink ref="D93" r:id="rId80" xr:uid="{7BEE6173-67BD-462D-93F3-8868348A9E43}"/>
+    <hyperlink ref="D95" r:id="rId81" display="https://www.amazon.com/Screwdriver-Flathead-Phillips-Pentalobe-Different/dp/B0872XMTKS/ref=sr_1_2_sspa?crid=33O94WILFA3IZ&amp;dchild=1&amp;keywords=mini+screwdriver+set&amp;qid=1598205307&amp;sprefix=mini+screw%2Caps%2C201&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExMEY2S0QwRE9XR01UJmVuY3J5cHRlZElkPUEwNzIwODY1MjVGV1BCNDNFNkowRyZlbmNyeXB0ZWRBZElkPUExMDAyMjM5NFpSMkVPTlBSN0ZDJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{19DAF842-E937-4DB9-89CA-2282F04D2AEA}"/>
     <hyperlink ref="D40" r:id="rId82" xr:uid="{B485A6B6-7307-4EAA-A186-31CAA890A0BC}"/>
-    <hyperlink ref="D98" r:id="rId83" xr:uid="{70F21853-AE4C-4BEC-9F14-C2DC1DDCC3B4}"/>
-    <hyperlink ref="D108" r:id="rId84" xr:uid="{23C2A1DE-EDE1-4FE6-90BB-24BA9B7A433E}"/>
+    <hyperlink ref="D107" r:id="rId83" xr:uid="{70F21853-AE4C-4BEC-9F14-C2DC1DDCC3B4}"/>
+    <hyperlink ref="D117" r:id="rId84" xr:uid="{23C2A1DE-EDE1-4FE6-90BB-24BA9B7A433E}"/>
     <hyperlink ref="D33" r:id="rId85" xr:uid="{AA5B840A-EAA7-438B-AC90-9BD9F369A790}"/>
-    <hyperlink ref="D100" r:id="rId86" xr:uid="{BFF0F66D-BAE5-409E-9D4D-2406089A97E9}"/>
+    <hyperlink ref="D109" r:id="rId86" xr:uid="{BFF0F66D-BAE5-409E-9D4D-2406089A97E9}"/>
+    <hyperlink ref="D45" r:id="rId87" xr:uid="{E22E05A0-7702-4DD5-A4C2-BD50049E3BED}"/>
   </hyperlinks>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="83" fitToHeight="0" orientation="landscape" r:id="rId87"/>
+  <pageSetup scale="83" fitToHeight="0" orientation="landscape" r:id="rId88"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;K000000IoT Parts Inventory</oddHeader>
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
@@ -5240,21 +5531,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002E75A16FF431314587A6EFE715708639" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3845378365f05132d6f717dccfddac90">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c68989fb-d827-4f0c-be61-ce0fb4a2ca35" xmlns:ns3="ceb5a5b3-a521-4149-a5a6-8f2ebd45356c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b457bb54ec30cf46f3fea67e83ae68c" ns2:_="" ns3:_="">
     <xsd:import namespace="c68989fb-d827-4f0c-be61-ce0fb4a2ca35"/>
@@ -5471,24 +5747,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58CD0F9C-796C-40DA-891C-7A92FF34C67A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{623B2E16-5227-4FB6-A3C3-1FFAD3C257CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA096413-5493-4E6F-BFCB-1B6A0AC20663}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5505,4 +5779,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{623B2E16-5227-4FB6-A3C3-1FFAD3C257CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58CD0F9C-796C-40DA-891C-7A92FF34C67A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/IoT_Parts.xlsx
+++ b/IoT_Parts.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IoTPa\Documents\IoT\class_slides\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limegreen/Documents/CNM/IoT/git/class_slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E04BED-88ED-4C0E-BB8E-E014278AA3F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900461C0-ACEE-F247-8AA4-AF4DEA688BBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="450" windowWidth="20475" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-71860" yWindow="-1100" windowWidth="24180" windowHeight="15320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$2:$J$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$A$2:$J$118</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="323">
   <si>
     <t>Part</t>
   </si>
@@ -1016,6 +1016,9 @@
   </si>
   <si>
     <t>Velcro</t>
+  </si>
+  <si>
+    <t>16 key 4x4 keypad</t>
   </si>
 </sst>
 </file>
@@ -1591,30 +1594,30 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M117"/>
+  <dimension ref="A1:M118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="1" max="1" width="17.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="3"/>
     <col min="6" max="6" width="14" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28" style="6" customWidth="1"/>
     <col min="9" max="10" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="35.140625" style="17" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="35.1640625" style="17" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="3" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="24.85546875" style="24" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="3"/>
+    <col min="13" max="13" width="24.83203125" style="24" customWidth="1"/>
+    <col min="14" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
         <v>172</v>
       </c>
@@ -1631,7 +1634,7 @@
       <c r="L1" s="29"/>
       <c r="M1" s="30"/>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -1670,7 +1673,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>6</v>
       </c>
@@ -1710,7 +1713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
         <v>10</v>
       </c>
@@ -1750,7 +1753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="208" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>16</v>
       </c>
@@ -1790,7 +1793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
         <v>20</v>
       </c>
@@ -1830,7 +1833,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
         <v>23</v>
       </c>
@@ -1870,7 +1873,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="96" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>26</v>
       </c>
@@ -1910,7 +1913,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
         <v>29</v>
       </c>
@@ -1950,7 +1953,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="256" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
         <v>32</v>
       </c>
@@ -1990,7 +1993,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
         <v>35</v>
       </c>
@@ -2030,7 +2033,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="208" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
         <v>285</v>
       </c>
@@ -2070,7 +2073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
         <v>40</v>
       </c>
@@ -2110,7 +2113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>43</v>
       </c>
@@ -2150,7 +2153,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
         <v>46</v>
       </c>
@@ -2192,7 +2195,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="102" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="98" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
         <v>49</v>
       </c>
@@ -2232,7 +2235,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="96" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
         <v>52</v>
       </c>
@@ -2272,7 +2275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A18" s="32" t="s">
         <v>55</v>
       </c>
@@ -2312,7 +2315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="84" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
         <v>58</v>
       </c>
@@ -2352,7 +2355,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="56" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
         <v>271</v>
       </c>
@@ -2392,7 +2395,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="84" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="s">
         <v>61</v>
       </c>
@@ -2432,7 +2435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="56" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
         <v>64</v>
       </c>
@@ -2472,7 +2475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="56" x14ac:dyDescent="0.2">
       <c r="A23" s="32" t="s">
         <v>67</v>
       </c>
@@ -2512,7 +2515,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="288" x14ac:dyDescent="0.2">
       <c r="A24" s="32" t="s">
         <v>70</v>
       </c>
@@ -2552,7 +2555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="288" x14ac:dyDescent="0.2">
       <c r="A25" s="37" t="s">
         <v>73</v>
       </c>
@@ -2592,7 +2595,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="98" x14ac:dyDescent="0.2">
       <c r="A26" s="37" t="s">
         <v>74</v>
       </c>
@@ -2632,7 +2635,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="32" t="s">
         <v>106</v>
       </c>
@@ -2672,7 +2675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="32" t="s">
         <v>110</v>
       </c>
@@ -2712,7 +2715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="37" t="s">
         <v>114</v>
       </c>
@@ -2752,7 +2755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A30" s="32" t="s">
         <v>124</v>
       </c>
@@ -2792,7 +2795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" s="32" t="s">
         <v>151</v>
       </c>
@@ -2832,7 +2835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="32" t="s">
         <v>155</v>
       </c>
@@ -2872,7 +2875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="32" t="s">
         <v>228</v>
       </c>
@@ -2912,7 +2915,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="43" t="s">
         <v>162</v>
       </c>
@@ -2952,7 +2955,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="43" t="s">
         <v>162</v>
       </c>
@@ -2992,7 +2995,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="96" x14ac:dyDescent="0.2">
       <c r="A36" s="43" t="s">
         <v>273</v>
       </c>
@@ -3027,7 +3030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="240" x14ac:dyDescent="0.2">
       <c r="A37" s="43" t="s">
         <v>280</v>
       </c>
@@ -3060,7 +3063,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="43" t="s">
         <v>178</v>
       </c>
@@ -3100,7 +3103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="112" x14ac:dyDescent="0.2">
       <c r="A39" s="44" t="s">
         <v>182</v>
       </c>
@@ -3140,7 +3143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="126" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="119" x14ac:dyDescent="0.2">
       <c r="A40" s="43" t="s">
         <v>262</v>
       </c>
@@ -3180,7 +3183,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="46" t="s">
         <v>304</v>
       </c>
@@ -3199,7 +3202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="46" t="s">
         <v>305</v>
       </c>
@@ -3218,7 +3221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="46" t="s">
         <v>306</v>
       </c>
@@ -3237,67 +3240,49 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="46" t="s">
-        <v>307</v>
-      </c>
-      <c r="B44" s="44" t="s">
-        <v>308</v>
-      </c>
-      <c r="C44" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="49" t="s">
-        <v>309</v>
-      </c>
-      <c r="E44" s="48">
-        <v>9.99</v>
-      </c>
-      <c r="F44" s="48">
-        <v>2</v>
-      </c>
-      <c r="G44" s="34">
-        <f t="shared" ref="G44:G45" si="4">E44*F44</f>
-        <v>19.98</v>
-      </c>
-      <c r="H44" s="50">
-        <f>G44</f>
-        <v>19.98</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="B44" s="47"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
       <c r="I44" s="10"/>
       <c r="J44" s="9"/>
       <c r="K44" s="32"/>
       <c r="L44" s="32"/>
-      <c r="M44" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="M44" s="23"/>
+    </row>
+    <row r="45" spans="1:13" ht="208" x14ac:dyDescent="0.2">
       <c r="A45" s="46" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B45" s="44" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C45" s="48" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="49" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E45" s="48">
-        <v>36.99</v>
+        <v>9.99</v>
       </c>
       <c r="F45" s="48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" s="34">
-        <f t="shared" si="4"/>
-        <v>36.99</v>
+        <f t="shared" ref="G45:G46" si="4">E45*F45</f>
+        <v>19.98</v>
       </c>
       <c r="H45" s="50">
         <f>G45</f>
-        <v>36.99</v>
+        <v>19.98</v>
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="9"/>
@@ -3307,32 +3292,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="270" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="112" x14ac:dyDescent="0.2">
       <c r="A46" s="46" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B46" s="44" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C46" s="48" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="49" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E46" s="48">
-        <v>15.96</v>
+        <v>36.99</v>
       </c>
       <c r="F46" s="48">
         <v>1</v>
       </c>
       <c r="G46" s="34">
-        <f t="shared" ref="G46" si="5">E46*F46</f>
-        <v>15.96</v>
+        <f t="shared" si="4"/>
+        <v>36.99</v>
       </c>
       <c r="H46" s="50">
         <f>G46</f>
-        <v>15.96</v>
+        <v>36.99</v>
       </c>
       <c r="I46" s="10"/>
       <c r="J46" s="9"/>
@@ -3342,32 +3327,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="256" x14ac:dyDescent="0.2">
       <c r="A47" s="46" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B47" s="44" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C47" s="48" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="49" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E47" s="48">
-        <v>15.25</v>
+        <v>15.96</v>
       </c>
       <c r="F47" s="48">
         <v>1</v>
       </c>
       <c r="G47" s="34">
-        <f t="shared" ref="G47" si="6">E47*F47</f>
-        <v>15.25</v>
+        <f t="shared" ref="G47" si="5">E47*F47</f>
+        <v>15.96</v>
       </c>
       <c r="H47" s="50">
         <f>G47</f>
-        <v>15.25</v>
+        <v>15.96</v>
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="9"/>
@@ -3377,22 +3362,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="46"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
+    <row r="48" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="A48" s="46" t="s">
+        <v>321</v>
+      </c>
+      <c r="B48" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="C48" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="49" t="s">
+        <v>320</v>
+      </c>
+      <c r="E48" s="48">
+        <v>15.25</v>
+      </c>
+      <c r="F48" s="48">
+        <v>1</v>
+      </c>
+      <c r="G48" s="34">
+        <f t="shared" ref="G48" si="6">E48*F48</f>
+        <v>15.25</v>
+      </c>
+      <c r="H48" s="50">
+        <f>G48</f>
+        <v>15.25</v>
+      </c>
       <c r="I48" s="10"/>
       <c r="J48" s="9"/>
       <c r="K48" s="32"/>
       <c r="L48" s="32"/>
-      <c r="M48" s="23"/>
-    </row>
-    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M48" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="46"/>
       <c r="B49" s="47"/>
       <c r="C49" s="48"/>
@@ -3407,7 +3412,7 @@
       <c r="L49" s="32"/>
       <c r="M49" s="23"/>
     </row>
-    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="46"/>
       <c r="B50" s="47"/>
       <c r="C50" s="48"/>
@@ -3422,7 +3427,7 @@
       <c r="L50" s="32"/>
       <c r="M50" s="23"/>
     </row>
-    <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="46"/>
       <c r="B51" s="47"/>
       <c r="C51" s="48"/>
@@ -3437,71 +3442,71 @@
       <c r="L51" s="32"/>
       <c r="M51" s="23"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="32"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
+    <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="46"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
       <c r="I52" s="10"/>
       <c r="J52" s="9"/>
       <c r="K52" s="32"/>
       <c r="L52" s="32"/>
-      <c r="M52" s="26"/>
-    </row>
-    <row r="53" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="B53" s="32" t="s">
-        <v>186</v>
-      </c>
+      <c r="M52" s="23"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="32"/>
+      <c r="B53" s="32"/>
       <c r="C53" s="32"/>
       <c r="D53" s="32"/>
-      <c r="E53" s="32">
-        <v>25</v>
-      </c>
-      <c r="F53" s="32">
-        <v>16</v>
-      </c>
-      <c r="G53" s="34">
-        <f t="shared" ref="G53" si="7">E53*F53</f>
-        <v>400</v>
-      </c>
-      <c r="H53" s="34">
-        <f t="shared" ref="H53" si="8">0.75*G53</f>
-        <v>300</v>
-      </c>
-      <c r="I53" s="7">
-        <v>0</v>
-      </c>
-      <c r="J53" s="9">
-        <f t="shared" ref="J53" si="9">I53*E53</f>
-        <v>0</v>
-      </c>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="9"/>
       <c r="K53" s="32"/>
       <c r="L53" s="32"/>
       <c r="M53" s="26"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="32"/>
-      <c r="B54" s="32"/>
+    <row r="54" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="B54" s="32" t="s">
+        <v>186</v>
+      </c>
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="9"/>
+      <c r="E54" s="32">
+        <v>25</v>
+      </c>
+      <c r="F54" s="32">
+        <v>16</v>
+      </c>
+      <c r="G54" s="34">
+        <f t="shared" ref="G54" si="7">E54*F54</f>
+        <v>400</v>
+      </c>
+      <c r="H54" s="34">
+        <f t="shared" ref="H54" si="8">0.75*G54</f>
+        <v>300</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0</v>
+      </c>
+      <c r="J54" s="9">
+        <f t="shared" ref="J54" si="9">I54*E54</f>
+        <v>0</v>
+      </c>
       <c r="K54" s="32"/>
       <c r="L54" s="32"/>
       <c r="M54" s="26"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="32"/>
       <c r="B55" s="32"/>
       <c r="C55" s="32"/>
@@ -3516,35 +3521,24 @@
       <c r="L55" s="32"/>
       <c r="M55" s="26"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="32" t="s">
-        <v>171</v>
-      </c>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="32"/>
       <c r="B56" s="32"/>
       <c r="C56" s="32"/>
       <c r="D56" s="32"/>
       <c r="E56" s="32"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="34">
-        <f>SUM(G3:G55)</f>
-        <v>5488.4900000000016</v>
-      </c>
-      <c r="H56" s="34">
-        <f>SUM(H3:H55)</f>
-        <v>4310.4025000000001</v>
-      </c>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
       <c r="I56" s="7"/>
-      <c r="J56" s="9">
-        <f>SUM(J3:J55)</f>
-        <v>3098.7799999999993</v>
-      </c>
+      <c r="J56" s="9"/>
       <c r="K56" s="32"/>
       <c r="L56" s="32"/>
       <c r="M56" s="26"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="32" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="B57" s="32"/>
       <c r="C57" s="32"/>
@@ -3552,161 +3546,150 @@
       <c r="E57" s="32"/>
       <c r="F57" s="32"/>
       <c r="G57" s="34">
-        <f>G56/16</f>
-        <v>343.0306250000001</v>
+        <f>SUM(G3:G56)</f>
+        <v>5488.4900000000016</v>
       </c>
       <c r="H57" s="34">
-        <f>0.75*G57</f>
-        <v>257.27296875000008</v>
+        <f>SUM(H3:H56)</f>
+        <v>4310.4025000000001</v>
       </c>
       <c r="I57" s="7"/>
-      <c r="J57" s="9"/>
+      <c r="J57" s="9">
+        <f>SUM(J3:J56)</f>
+        <v>3098.7799999999993</v>
+      </c>
       <c r="K57" s="32"/>
       <c r="L57" s="32"/>
       <c r="M57" s="26"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
+    <row r="58" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="34">
+        <f>G57/16</f>
+        <v>343.0306250000001</v>
+      </c>
+      <c r="H58" s="34">
+        <f>0.75*G58</f>
+        <v>257.27296875000008</v>
+      </c>
+      <c r="I58" s="7"/>
+      <c r="J58" s="9"/>
       <c r="K58" s="32"/>
       <c r="L58" s="32"/>
-      <c r="M58" s="27"/>
-    </row>
-    <row r="59" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="G59" s="34"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="9"/>
+      <c r="M58" s="26"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
       <c r="K59" s="32"/>
       <c r="L59" s="32"/>
-      <c r="M59" s="26"/>
-    </row>
-    <row r="60" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E60" s="37">
-        <v>24.95</v>
-      </c>
-      <c r="F60" s="37">
+      <c r="M59" s="27"/>
+    </row>
+    <row r="60" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A60" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="G60" s="34"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G60" s="40">
-        <f t="shared" ref="G60:G96" si="10">E60*F60</f>
-        <v>124.75</v>
-      </c>
-      <c r="H60" s="37"/>
-      <c r="I60" s="8">
-        <v>1</v>
-      </c>
-      <c r="J60" s="9">
-        <f t="shared" ref="J60:J83" si="11">I60*E60</f>
-        <v>24.95</v>
-      </c>
+      <c r="J60" s="9"/>
       <c r="K60" s="32"/>
       <c r="L60" s="32"/>
-      <c r="M60" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="B61" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="E61" s="32">
-        <v>172.77</v>
-      </c>
-      <c r="F61" s="32">
+      <c r="M60" s="26"/>
+    </row>
+    <row r="61" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A61" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="37">
+        <v>24.95</v>
+      </c>
+      <c r="F61" s="37">
+        <v>5</v>
+      </c>
+      <c r="G61" s="40">
+        <f t="shared" ref="G61:G97" si="10">E61*F61</f>
+        <v>124.75</v>
+      </c>
+      <c r="H61" s="37"/>
+      <c r="I61" s="8">
         <v>1</v>
       </c>
-      <c r="G61" s="34">
-        <f t="shared" si="10"/>
-        <v>172.77</v>
-      </c>
-      <c r="H61" s="32"/>
-      <c r="I61" s="8">
-        <v>0</v>
-      </c>
       <c r="J61" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" ref="J61:J84" si="11">I61*E61</f>
+        <v>24.95</v>
       </c>
       <c r="K61" s="32"/>
       <c r="L61" s="32"/>
       <c r="M61" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+      <c r="A62" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E62" s="32">
+        <v>172.77</v>
+      </c>
+      <c r="F62" s="32">
         <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="B62" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C62" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="E62" s="32">
-        <v>17.98</v>
-      </c>
-      <c r="F62" s="32">
-        <v>4</v>
       </c>
       <c r="G62" s="34">
         <f t="shared" si="10"/>
-        <v>71.92</v>
+        <v>172.77</v>
       </c>
       <c r="H62" s="32"/>
       <c r="I62" s="8">
@@ -3719,31 +3702,31 @@
       <c r="K62" s="32"/>
       <c r="L62" s="32"/>
       <c r="M62" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E63" s="32">
+        <v>17.98</v>
+      </c>
+      <c r="F63" s="32">
         <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A63" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="B63" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="E63" s="32">
-        <v>15.99</v>
-      </c>
-      <c r="F63" s="32">
-        <v>3</v>
       </c>
       <c r="G63" s="34">
         <f t="shared" si="10"/>
-        <v>47.97</v>
+        <v>71.92</v>
       </c>
       <c r="H63" s="32"/>
       <c r="I63" s="8">
@@ -3755,101 +3738,101 @@
       </c>
       <c r="K63" s="32"/>
       <c r="L63" s="32"/>
-      <c r="M63" s="23" t="s">
+      <c r="M63" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+      <c r="A64" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64" s="32">
+        <v>15.99</v>
+      </c>
+      <c r="F64" s="32">
+        <v>3</v>
+      </c>
+      <c r="G64" s="34">
+        <f t="shared" si="10"/>
+        <v>47.97</v>
+      </c>
+      <c r="H64" s="32"/>
+      <c r="I64" s="8">
+        <v>0</v>
+      </c>
+      <c r="J64" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="32"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="23" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A64" s="51" t="s">
+    <row r="65" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+      <c r="A65" s="51" t="s">
         <v>310</v>
       </c>
-      <c r="B64" s="51" t="s">
+      <c r="B65" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="C64" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" s="52" t="s">
+      <c r="C65" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="52" t="s">
         <v>311</v>
       </c>
-      <c r="E64" s="51">
+      <c r="E65" s="51">
         <v>7.19</v>
       </c>
-      <c r="F64" s="51">
+      <c r="F65" s="51">
         <v>4</v>
       </c>
-      <c r="G64" s="53">
+      <c r="G65" s="53">
         <f t="shared" si="10"/>
         <v>28.76</v>
       </c>
-      <c r="H64" s="51"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="32"/>
-      <c r="M64" s="23">
+      <c r="H65" s="51"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A65" s="32" t="s">
+    <row r="66" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+      <c r="A66" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="32" t="s">
+      <c r="B66" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="C65" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" s="33" t="s">
+      <c r="C66" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="E65" s="32">
+      <c r="E66" s="32">
         <v>11.98</v>
       </c>
-      <c r="F65" s="32">
+      <c r="F66" s="32">
         <v>1</v>
       </c>
-      <c r="G65" s="34">
+      <c r="G66" s="34">
         <f t="shared" si="10"/>
         <v>11.98</v>
-      </c>
-      <c r="H65" s="32"/>
-      <c r="I65" s="8">
-        <v>0</v>
-      </c>
-      <c r="J65" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K65" s="32"/>
-      <c r="L65" s="32"/>
-      <c r="M65" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="B66" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C66" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D66" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="E66" s="32">
-        <v>94.99</v>
-      </c>
-      <c r="F66" s="32">
-        <v>4</v>
-      </c>
-      <c r="G66" s="34">
-        <f t="shared" si="10"/>
-        <v>379.96</v>
       </c>
       <c r="H66" s="32"/>
       <c r="I66" s="8">
@@ -3862,31 +3845,31 @@
       <c r="K66" s="32"/>
       <c r="L66" s="32"/>
       <c r="M66" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" s="32" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="D67" s="36" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="E67" s="32">
-        <v>149.99</v>
+        <v>94.99</v>
       </c>
       <c r="F67" s="32">
         <v>4</v>
       </c>
       <c r="G67" s="34">
         <f t="shared" si="10"/>
-        <v>599.96</v>
+        <v>379.96</v>
       </c>
       <c r="H67" s="32"/>
       <c r="I67" s="8">
@@ -3902,28 +3885,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C68" s="32" t="s">
         <v>112</v>
       </c>
       <c r="D68" s="36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E68" s="32">
-        <v>99.99</v>
+        <v>149.99</v>
       </c>
       <c r="F68" s="32">
         <v>4</v>
       </c>
       <c r="G68" s="34">
         <f t="shared" si="10"/>
-        <v>399.96</v>
+        <v>599.96</v>
       </c>
       <c r="H68" s="32"/>
       <c r="I68" s="8">
@@ -3939,102 +3922,102 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="B69" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="C69" s="38" t="s">
+    <row r="69" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A69" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="D69" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="E69" s="37">
-        <v>149.99</v>
-      </c>
-      <c r="F69" s="37">
-        <v>1</v>
-      </c>
-      <c r="G69" s="40">
+      <c r="D69" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E69" s="32">
+        <v>99.99</v>
+      </c>
+      <c r="F69" s="32">
+        <v>4</v>
+      </c>
+      <c r="G69" s="34">
         <f t="shared" si="10"/>
-        <v>149.99</v>
-      </c>
-      <c r="H69" s="40"/>
+        <v>399.96</v>
+      </c>
+      <c r="H69" s="32"/>
       <c r="I69" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" s="9">
         <f t="shared" si="11"/>
-        <v>149.99</v>
+        <v>0</v>
       </c>
       <c r="K69" s="32"/>
       <c r="L69" s="32"/>
       <c r="M69" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="B70" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="C70" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D70" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="E70" s="32">
-        <v>15.95</v>
-      </c>
-      <c r="F70" s="32">
-        <v>18</v>
-      </c>
-      <c r="G70" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D70" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E70" s="37">
+        <v>149.99</v>
+      </c>
+      <c r="F70" s="37">
+        <v>1</v>
+      </c>
+      <c r="G70" s="40">
         <f t="shared" si="10"/>
-        <v>287.09999999999997</v>
-      </c>
-      <c r="H70" s="32"/>
+        <v>149.99</v>
+      </c>
+      <c r="H70" s="40"/>
       <c r="I70" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>149.99</v>
       </c>
       <c r="K70" s="32"/>
       <c r="L70" s="32"/>
       <c r="M70" s="26">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A71" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="B71" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="C71" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C71" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="D71" s="33" t="s">
-        <v>134</v>
+      <c r="D71" s="36" t="s">
+        <v>131</v>
       </c>
       <c r="E71" s="32">
-        <v>110.9</v>
+        <v>15.95</v>
       </c>
       <c r="F71" s="32">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G71" s="34">
         <f t="shared" si="10"/>
-        <v>554.5</v>
+        <v>287.09999999999997</v>
       </c>
       <c r="H71" s="32"/>
       <c r="I71" s="8">
@@ -4047,31 +4030,31 @@
       <c r="K71" s="32"/>
       <c r="L71" s="32"/>
       <c r="M71" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A72" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="B72" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="C72" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B72" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="D72" s="36" t="s">
-        <v>192</v>
+      <c r="D72" s="33" t="s">
+        <v>134</v>
       </c>
       <c r="E72" s="32">
-        <v>57.95</v>
+        <v>110.9</v>
       </c>
       <c r="F72" s="32">
         <v>5</v>
       </c>
       <c r="G72" s="34">
         <f t="shared" si="10"/>
-        <v>289.75</v>
+        <v>554.5</v>
       </c>
       <c r="H72" s="32"/>
       <c r="I72" s="8">
@@ -4087,28 +4070,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="42" x14ac:dyDescent="0.2">
       <c r="A73" s="32" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="C73" s="35" t="s">
         <v>130</v>
       </c>
       <c r="D73" s="36" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="E73" s="32">
-        <v>52.95</v>
+        <v>57.95</v>
       </c>
       <c r="F73" s="32">
         <v>5</v>
       </c>
       <c r="G73" s="34">
         <f t="shared" si="10"/>
-        <v>264.75</v>
+        <v>289.75</v>
       </c>
       <c r="H73" s="32"/>
       <c r="I73" s="8">
@@ -4124,36 +4107,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="56" x14ac:dyDescent="0.2">
       <c r="A74" s="32" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C74" s="35" t="s">
         <v>130</v>
       </c>
       <c r="D74" s="36" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E74" s="32">
-        <v>42.95</v>
+        <v>52.95</v>
       </c>
       <c r="F74" s="32">
         <v>5</v>
       </c>
       <c r="G74" s="34">
         <f t="shared" si="10"/>
-        <v>214.75</v>
+        <v>264.75</v>
       </c>
       <c r="H74" s="32"/>
       <c r="I74" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J74" s="9">
         <f t="shared" si="11"/>
-        <v>85.9</v>
+        <v>0</v>
       </c>
       <c r="K74" s="32"/>
       <c r="L74" s="32"/>
@@ -4161,36 +4144,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="42" x14ac:dyDescent="0.2">
       <c r="A75" s="32" t="s">
-        <v>193</v>
+        <v>141</v>
       </c>
       <c r="B75" s="35" t="s">
-        <v>194</v>
+        <v>142</v>
       </c>
       <c r="C75" s="35" t="s">
         <v>130</v>
       </c>
       <c r="D75" s="36" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
       <c r="E75" s="32">
-        <v>25.95</v>
+        <v>42.95</v>
       </c>
       <c r="F75" s="32">
         <v>5</v>
       </c>
       <c r="G75" s="34">
         <f t="shared" si="10"/>
-        <v>129.75</v>
+        <v>214.75</v>
       </c>
       <c r="H75" s="32"/>
       <c r="I75" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>85.9</v>
       </c>
       <c r="K75" s="32"/>
       <c r="L75" s="32"/>
@@ -4198,28 +4181,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="42" x14ac:dyDescent="0.2">
       <c r="A76" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="B76" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="C76" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="B76" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="C76" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="D76" s="33" t="s">
-        <v>198</v>
+      <c r="D76" s="36" t="s">
+        <v>195</v>
       </c>
       <c r="E76" s="32">
-        <v>22.95</v>
+        <v>25.95</v>
       </c>
       <c r="F76" s="32">
         <v>5</v>
       </c>
       <c r="G76" s="34">
         <f t="shared" si="10"/>
-        <v>114.75</v>
+        <v>129.75</v>
       </c>
       <c r="H76" s="32"/>
       <c r="I76" s="8">
@@ -4235,28 +4218,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A77" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="B77" s="35" t="s">
-        <v>139</v>
+        <v>196</v>
+      </c>
+      <c r="B77" s="32" t="s">
+        <v>197</v>
       </c>
       <c r="C77" s="32" t="s">
         <v>130</v>
       </c>
       <c r="D77" s="33" t="s">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="E77" s="32">
-        <v>27.95</v>
+        <v>22.95</v>
       </c>
       <c r="F77" s="32">
         <v>5</v>
       </c>
       <c r="G77" s="34">
         <f t="shared" si="10"/>
-        <v>139.75</v>
+        <v>114.75</v>
       </c>
       <c r="H77" s="32"/>
       <c r="I77" s="8">
@@ -4272,28 +4255,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A78" s="32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C78" s="32" t="s">
         <v>130</v>
       </c>
       <c r="D78" s="33" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E78" s="32">
-        <v>42.95</v>
+        <v>27.95</v>
       </c>
       <c r="F78" s="32">
         <v>5</v>
       </c>
       <c r="G78" s="34">
         <f t="shared" si="10"/>
-        <v>214.75</v>
+        <v>139.75</v>
       </c>
       <c r="H78" s="32"/>
       <c r="I78" s="8">
@@ -4309,36 +4292,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A79" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="B79" s="32" t="s">
-        <v>148</v>
+        <v>141</v>
+      </c>
+      <c r="B79" s="35" t="s">
+        <v>142</v>
       </c>
       <c r="C79" s="32" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="D79" s="33" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E79" s="32">
-        <v>29.9</v>
+        <v>42.95</v>
       </c>
       <c r="F79" s="32">
         <v>5</v>
       </c>
       <c r="G79" s="34">
         <f t="shared" si="10"/>
-        <v>149.5</v>
+        <v>214.75</v>
       </c>
       <c r="H79" s="32"/>
       <c r="I79" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79" s="9">
         <f t="shared" si="11"/>
-        <v>59.8</v>
+        <v>0</v>
       </c>
       <c r="K79" s="32"/>
       <c r="L79" s="32"/>
@@ -4346,36 +4329,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="32" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="B80" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="C80" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D80" s="36" t="s">
-        <v>94</v>
+        <v>148</v>
+      </c>
+      <c r="C80" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D80" s="33" t="s">
+        <v>150</v>
       </c>
       <c r="E80" s="32">
-        <v>57.8</v>
+        <v>29.9</v>
       </c>
       <c r="F80" s="32">
         <v>5</v>
       </c>
       <c r="G80" s="34">
         <f t="shared" si="10"/>
-        <v>289</v>
+        <v>149.5</v>
       </c>
       <c r="H80" s="32"/>
       <c r="I80" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" s="9">
         <f t="shared" si="11"/>
-        <v>57.8</v>
+        <v>59.8</v>
       </c>
       <c r="K80" s="32"/>
       <c r="L80" s="32"/>
@@ -4383,65 +4366,65 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="B81" s="44" t="s">
-        <v>200</v>
+        <v>92</v>
+      </c>
+      <c r="B81" s="32" t="s">
+        <v>93</v>
       </c>
       <c r="C81" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="D81" s="33" t="s">
-        <v>202</v>
+        <v>18</v>
+      </c>
+      <c r="D81" s="36" t="s">
+        <v>94</v>
       </c>
       <c r="E81" s="32">
-        <v>259</v>
+        <v>57.8</v>
       </c>
       <c r="F81" s="32">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G81" s="34">
         <f t="shared" si="10"/>
-        <v>2072</v>
+        <v>289</v>
       </c>
       <c r="H81" s="32"/>
       <c r="I81" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>57.8</v>
       </c>
       <c r="K81" s="32"/>
       <c r="L81" s="32"/>
       <c r="M81" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+      <c r="A82" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="B82" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="C82" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="D82" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="E82" s="32">
+        <v>259</v>
+      </c>
+      <c r="F82" s="32">
         <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="B82" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="C82" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="D82" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="E82" s="32">
-        <v>89.99</v>
-      </c>
-      <c r="F82" s="32">
-        <v>2</v>
       </c>
       <c r="G82" s="34">
         <f t="shared" si="10"/>
-        <v>179.98</v>
+        <v>2072</v>
       </c>
       <c r="H82" s="32"/>
       <c r="I82" s="8">
@@ -4454,31 +4437,31 @@
       <c r="K82" s="32"/>
       <c r="L82" s="32"/>
       <c r="M82" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="126" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="112" x14ac:dyDescent="0.2">
       <c r="A83" s="44" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B83" s="44" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C83" s="44" t="s">
         <v>18</v>
       </c>
       <c r="D83" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E83" s="32">
-        <v>21.98</v>
+        <v>89.99</v>
       </c>
       <c r="F83" s="32">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G83" s="34">
         <f t="shared" si="10"/>
-        <v>351.68</v>
+        <v>179.98</v>
       </c>
       <c r="H83" s="32"/>
       <c r="I83" s="8">
@@ -4490,109 +4473,109 @@
       </c>
       <c r="K83" s="32"/>
       <c r="L83" s="32"/>
-      <c r="M83" s="23" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="M83" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="136" x14ac:dyDescent="0.2">
       <c r="A84" s="44" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B84" s="44" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C84" s="44" t="s">
         <v>18</v>
       </c>
       <c r="D84" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="E84" s="44">
-        <v>12.99</v>
+        <v>208</v>
+      </c>
+      <c r="E84" s="32">
+        <v>21.98</v>
       </c>
       <c r="F84" s="32">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G84" s="34">
         <f t="shared" si="10"/>
-        <v>64.95</v>
+        <v>351.68</v>
       </c>
       <c r="H84" s="32"/>
       <c r="I84" s="8">
         <v>0</v>
       </c>
       <c r="J84" s="9">
-        <f t="shared" ref="J84:J91" si="12">I84*E84</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K84" s="32"/>
       <c r="L84" s="32"/>
-      <c r="M84" s="26">
+      <c r="M84" s="23" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="A85" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="B85" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="C85" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="E85" s="44">
+        <v>12.99</v>
+      </c>
+      <c r="F85" s="32">
         <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="63" x14ac:dyDescent="0.25">
-      <c r="A85" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="B85" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="C85" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="D85" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="E85" s="44">
-        <v>22.95</v>
-      </c>
-      <c r="F85" s="32">
-        <v>4</v>
       </c>
       <c r="G85" s="34">
         <f t="shared" si="10"/>
-        <v>91.8</v>
+        <v>64.95</v>
       </c>
       <c r="H85" s="32"/>
       <c r="I85" s="8">
         <v>0</v>
       </c>
       <c r="J85" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="J85:J92" si="12">I85*E85</f>
         <v>0</v>
       </c>
       <c r="K85" s="32"/>
       <c r="L85" s="32"/>
       <c r="M85" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A86" s="44" t="s">
         <v>212</v>
       </c>
       <c r="B86" s="44" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C86" s="44" t="s">
         <v>18</v>
       </c>
       <c r="D86" s="33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E86" s="44">
-        <v>49.95</v>
+        <v>22.95</v>
       </c>
       <c r="F86" s="32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G86" s="34">
         <f t="shared" si="10"/>
-        <v>49.95</v>
+        <v>91.8</v>
       </c>
       <c r="H86" s="32"/>
-      <c r="I86" s="10">
+      <c r="I86" s="8">
         <v>0</v>
       </c>
       <c r="J86" s="9">
@@ -4605,18 +4588,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" ht="112" x14ac:dyDescent="0.2">
       <c r="A87" s="44" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="B87" s="44" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="C87" s="44" t="s">
-        <v>248</v>
+        <v>18</v>
       </c>
       <c r="D87" s="33" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="E87" s="44">
         <v>49.95</v>
@@ -4630,11 +4613,11 @@
       </c>
       <c r="H87" s="32"/>
       <c r="I87" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" s="9">
         <f t="shared" si="12"/>
-        <v>49.95</v>
+        <v>0</v>
       </c>
       <c r="K87" s="32"/>
       <c r="L87" s="32"/>
@@ -4642,18 +4625,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A88" s="44" t="s">
         <v>247</v>
       </c>
       <c r="B88" s="44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C88" s="44" t="s">
         <v>248</v>
       </c>
       <c r="D88" s="33" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E88" s="44">
         <v>49.95</v>
@@ -4679,18 +4662,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A89" s="44" t="s">
         <v>247</v>
       </c>
       <c r="B89" s="44" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C89" s="44" t="s">
         <v>248</v>
       </c>
       <c r="D89" s="33" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E89" s="44">
         <v>49.95</v>
@@ -4716,65 +4699,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A90" s="32" t="s">
-        <v>217</v>
+    <row r="90" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A90" s="44" t="s">
+        <v>247</v>
       </c>
       <c r="B90" s="44" t="s">
-        <v>218</v>
-      </c>
-      <c r="C90" s="32" t="s">
-        <v>18</v>
+        <v>254</v>
+      </c>
+      <c r="C90" s="44" t="s">
+        <v>248</v>
       </c>
       <c r="D90" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="E90" s="32">
-        <v>16.5</v>
+        <v>253</v>
+      </c>
+      <c r="E90" s="44">
+        <v>49.95</v>
       </c>
       <c r="F90" s="32">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G90" s="34">
         <f t="shared" si="10"/>
-        <v>99</v>
+        <v>49.95</v>
       </c>
       <c r="H90" s="32"/>
       <c r="I90" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" s="9">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>49.95</v>
       </c>
       <c r="K90" s="32"/>
       <c r="L90" s="32"/>
-      <c r="M90" s="23" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+      <c r="M90" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="119" x14ac:dyDescent="0.2">
       <c r="A91" s="32" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B91" s="44" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C91" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D91" s="36" t="s">
-        <v>222</v>
+      <c r="D91" s="33" t="s">
+        <v>219</v>
       </c>
       <c r="E91" s="32">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="F91" s="32">
         <v>6</v>
       </c>
       <c r="G91" s="34">
         <f t="shared" si="10"/>
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="H91" s="32"/>
       <c r="I91" s="10">
@@ -4787,193 +4770,222 @@
       <c r="K91" s="32"/>
       <c r="L91" s="32"/>
       <c r="M91" s="23" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="32" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B92" s="44" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="D92" s="33" t="s">
-        <v>226</v>
+        <v>18</v>
+      </c>
+      <c r="D92" s="36" t="s">
+        <v>222</v>
       </c>
       <c r="E92" s="32">
-        <v>0.16</v>
+        <v>12</v>
       </c>
       <c r="F92" s="32">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="G92" s="34">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="H92" s="32"/>
       <c r="I92" s="10">
         <v>0</v>
       </c>
       <c r="J92" s="9">
-        <f t="shared" ref="J92:J95" si="13">I92*E92</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K92" s="32"/>
       <c r="L92" s="32"/>
-      <c r="M92" s="26">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="M92" s="23" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="176" x14ac:dyDescent="0.2">
       <c r="A93" s="32" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="B93" s="44" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="C93" s="32" t="s">
-        <v>18</v>
+        <v>225</v>
       </c>
       <c r="D93" s="33" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="E93" s="32">
-        <v>18.989999999999998</v>
+        <v>0.16</v>
       </c>
       <c r="F93" s="32">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G93" s="34">
         <f t="shared" si="10"/>
-        <v>18.989999999999998</v>
+        <v>16</v>
       </c>
       <c r="H93" s="32"/>
       <c r="I93" s="10">
-        <v>1</v>
-      </c>
-      <c r="J93" s="11">
-        <f t="shared" si="13"/>
-        <v>18.989999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="J93" s="9">
+        <f t="shared" ref="J93:J96" si="13">I93*E93</f>
+        <v>0</v>
       </c>
       <c r="K93" s="32"/>
       <c r="L93" s="32"/>
       <c r="M93" s="26">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+      <c r="A94" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="B94" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="C94" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="E94" s="32">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="F94" s="32">
         <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A94" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="B94" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="C94" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D94" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="E94" s="32">
-        <v>12.99</v>
-      </c>
-      <c r="F94" s="32">
-        <v>4</v>
       </c>
       <c r="G94" s="34">
         <f t="shared" si="10"/>
-        <v>51.96</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="H94" s="32"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="11"/>
+      <c r="I94" s="10">
+        <v>1</v>
+      </c>
+      <c r="J94" s="11">
+        <f t="shared" si="13"/>
+        <v>18.989999999999998</v>
+      </c>
       <c r="K94" s="32"/>
       <c r="L94" s="32"/>
       <c r="M94" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" ht="272" x14ac:dyDescent="0.2">
       <c r="A95" s="32" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="B95" s="44" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="C95" s="32" t="s">
         <v>18</v>
       </c>
       <c r="D95" s="33" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="E95" s="32">
-        <v>9.99</v>
+        <v>12.99</v>
       </c>
       <c r="F95" s="32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G95" s="34">
         <f t="shared" si="10"/>
-        <v>9.99</v>
+        <v>51.96</v>
       </c>
       <c r="H95" s="32"/>
-      <c r="I95" s="10">
-        <v>1</v>
-      </c>
-      <c r="J95" s="11">
-        <f t="shared" si="13"/>
-        <v>9.99</v>
-      </c>
+      <c r="I95" s="10"/>
+      <c r="J95" s="11"/>
       <c r="K95" s="32"/>
       <c r="L95" s="32"/>
       <c r="M95" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="256" x14ac:dyDescent="0.2">
       <c r="A96" s="32" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="B96" s="44" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C96" s="32" t="s">
         <v>18</v>
       </c>
       <c r="D96" s="33" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="E96" s="32">
-        <v>8.59</v>
+        <v>9.99</v>
       </c>
       <c r="F96" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G96" s="34">
         <f t="shared" si="10"/>
-        <v>17.18</v>
+        <v>9.99</v>
       </c>
       <c r="H96" s="32"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="11"/>
+      <c r="I96" s="10">
+        <v>1</v>
+      </c>
+      <c r="J96" s="11">
+        <f t="shared" si="13"/>
+        <v>9.99</v>
+      </c>
       <c r="K96" s="32"/>
       <c r="L96" s="32"/>
       <c r="M96" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B97" s="14"/>
-      <c r="D97" s="4"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+      <c r="A97" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="B97" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="C97" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="E97" s="32">
+        <v>8.59</v>
+      </c>
+      <c r="F97" s="32">
+        <v>2</v>
+      </c>
+      <c r="G97" s="34">
+        <f t="shared" si="10"/>
+        <v>17.18</v>
+      </c>
+      <c r="H97" s="32"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="32"/>
+      <c r="L97" s="32"/>
+      <c r="M97" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="B98" s="14"/>
       <c r="D98" s="4"/>
       <c r="H98" s="3"/>
@@ -4981,111 +4993,89 @@
       <c r="J98" s="16"/>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="B99" s="14"/>
+      <c r="D99" s="4"/>
       <c r="H99" s="3"/>
       <c r="I99" s="15"/>
       <c r="J99" s="16"/>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H100" s="3"/>
-      <c r="I100" s="10" t="s">
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="3"/>
+    </row>
+    <row r="101" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="H101" s="3"/>
+      <c r="I101" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="J100" s="11">
-        <f>SUM(J60:J99)</f>
+      <c r="J101" s="11">
+        <f>SUM(J61:J100)</f>
         <v>557.2700000000001</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="12" t="s">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K102" s="3"/>
+    </row>
+    <row r="103" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A103" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="B102" s="12"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="3"/>
-      <c r="M102" s="25"/>
-    </row>
-    <row r="103" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="3"/>
+      <c r="M103" s="25"/>
+    </row>
+    <row r="104" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A104" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5" t="s">
+      <c r="C104" s="5"/>
+      <c r="D104" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="E104" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H103" s="3"/>
-      <c r="I103" s="7" t="s">
+      <c r="H104" s="3"/>
+      <c r="I104" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J103" s="9"/>
-      <c r="K103" s="3"/>
-    </row>
-    <row r="104" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
+      <c r="J104" s="9"/>
+      <c r="K104" s="3"/>
+    </row>
+    <row r="105" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B105" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D104" s="4" t="s">
+      <c r="C105" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E105" s="3">
         <v>23.95</v>
       </c>
-      <c r="G104" s="6">
-        <f>E104*F104</f>
-        <v>0</v>
-      </c>
-      <c r="H104" s="3"/>
-      <c r="I104" s="8">
-        <v>0</v>
-      </c>
-      <c r="J104" s="9">
-        <f>I104*E104</f>
-        <v>0</v>
-      </c>
-      <c r="K104" s="3"/>
-    </row>
-    <row r="105" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E105" s="3">
-        <v>15.99</v>
-      </c>
       <c r="G105" s="6">
-        <f t="shared" ref="G105:G112" si="14">E105*F105</f>
+        <f>E105*F105</f>
         <v>0</v>
       </c>
       <c r="H105" s="3"/>
@@ -5093,112 +5083,112 @@
         <v>0</v>
       </c>
       <c r="J105" s="9">
-        <f t="shared" ref="J105:J117" si="15">I105*E105</f>
+        <f>I105*E105</f>
         <v>0</v>
       </c>
       <c r="K105" s="3"/>
     </row>
-    <row r="106" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="E106" s="3">
-        <v>19.95</v>
+        <v>15.99</v>
       </c>
       <c r="G106" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="G106:G113" si="14">E106*F106</f>
         <v>0</v>
       </c>
       <c r="H106" s="3"/>
       <c r="I106" s="8">
+        <v>0</v>
+      </c>
+      <c r="J106" s="9">
+        <f t="shared" ref="J106:J118" si="15">I106*E106</f>
+        <v>0</v>
+      </c>
+      <c r="K106" s="3"/>
+    </row>
+    <row r="107" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E107" s="3">
+        <v>19.95</v>
+      </c>
+      <c r="G107" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H107" s="3"/>
+      <c r="I107" s="8">
         <v>10</v>
       </c>
-      <c r="J106" s="9">
+      <c r="J107" s="9">
         <f t="shared" si="15"/>
         <v>199.5</v>
       </c>
-      <c r="K106" s="3"/>
-    </row>
-    <row r="107" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+      <c r="K107" s="3"/>
+    </row>
+    <row r="108" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B108" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C108" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E107" s="3">
+      <c r="E108" s="3">
         <v>4.95</v>
       </c>
-      <c r="H107" s="3"/>
-      <c r="I107" s="8">
+      <c r="H108" s="3"/>
+      <c r="I108" s="8">
         <v>5</v>
       </c>
-      <c r="J107" s="9">
+      <c r="J108" s="9">
         <f t="shared" si="15"/>
         <v>24.75</v>
       </c>
-      <c r="K107" s="3"/>
-    </row>
-    <row r="108" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
+      <c r="K108" s="3"/>
+    </row>
+    <row r="109" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B109" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C108" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D108" s="1" t="s">
+      <c r="C109" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E108" s="3">
+      <c r="E109" s="3">
         <v>10.98</v>
-      </c>
-      <c r="G108" s="6">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H108" s="3"/>
-      <c r="I108" s="8">
-        <v>0</v>
-      </c>
-      <c r="J108" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K108" s="3"/>
-    </row>
-    <row r="109" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E109" s="3">
-        <v>7.95</v>
       </c>
       <c r="G109" s="6">
         <f t="shared" si="14"/>
@@ -5206,84 +5196,84 @@
       </c>
       <c r="H109" s="3"/>
       <c r="I109" s="8">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J109" s="9">
         <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K109" s="3"/>
+    </row>
+    <row r="110" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E110" s="3">
+        <v>7.95</v>
+      </c>
+      <c r="G110" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H110" s="3"/>
+      <c r="I110" s="8">
+        <v>16</v>
+      </c>
+      <c r="J110" s="9">
+        <f t="shared" si="15"/>
         <v>127.2</v>
       </c>
-      <c r="K109" s="3"/>
-    </row>
-    <row r="110" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
+      <c r="K110" s="3"/>
+    </row>
+    <row r="111" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B111" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C111" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="D111" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E110" s="3">
+      <c r="E111" s="3">
         <v>3.5</v>
       </c>
-      <c r="I110" s="10">
-        <v>0</v>
-      </c>
-      <c r="J110" s="9">
-        <f>I110*E110</f>
-        <v>0</v>
-      </c>
-      <c r="K110" s="3"/>
-    </row>
-    <row r="111" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
+      <c r="I111" s="10">
+        <v>0</v>
+      </c>
+      <c r="J111" s="9">
+        <f>I111*E111</f>
+        <v>0</v>
+      </c>
+      <c r="K111" s="3"/>
+    </row>
+    <row r="112" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B112" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C112" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E112" s="3">
         <v>11.99</v>
-      </c>
-      <c r="G111" s="6">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H111" s="3"/>
-      <c r="I111" s="8">
-        <v>0</v>
-      </c>
-      <c r="J111" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K111" s="3"/>
-    </row>
-    <row r="112" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E112" s="3">
-        <v>32.880000000000003</v>
       </c>
       <c r="G112" s="6">
         <f t="shared" si="14"/>
@@ -5299,23 +5289,28 @@
       </c>
       <c r="K112" s="3"/>
     </row>
-    <row r="113" spans="1:11" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A113" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="B113" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="C113" s="14" t="s">
+    <row r="113" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E113" s="14">
-        <v>12.99</v>
-      </c>
-      <c r="I113" s="3">
+        <v>105</v>
+      </c>
+      <c r="E113" s="3">
+        <v>32.880000000000003</v>
+      </c>
+      <c r="G113" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H113" s="3"/>
+      <c r="I113" s="8">
         <v>0</v>
       </c>
       <c r="J113" s="9">
@@ -5324,73 +5319,73 @@
       </c>
       <c r="K113" s="3"/>
     </row>
-    <row r="114" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>235</v>
+    <row r="114" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A114" s="14" t="s">
+        <v>232</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E114" s="3">
-        <v>5.69</v>
+        <v>233</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E114" s="14">
+        <v>12.99</v>
       </c>
       <c r="I114" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" s="9">
         <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K114" s="3"/>
+    </row>
+    <row r="115" spans="1:11" ht="176" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E115" s="3">
         <v>5.69</v>
       </c>
-      <c r="K114" s="21" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E115" s="3">
-        <v>12</v>
-      </c>
       <c r="I115" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" s="9">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K115" s="3"/>
-    </row>
-    <row r="116" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
+        <v>5.69</v>
+      </c>
+      <c r="K115" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B116" s="14" t="s">
-        <v>242</v>
+        <v>238</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E116" s="3">
-        <v>8.99</v>
+        <v>12</v>
       </c>
       <c r="I116" s="3">
         <v>0</v>
@@ -5401,61 +5396,86 @@
       </c>
       <c r="K116" s="3"/>
     </row>
-    <row r="117" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="E117" s="3">
-        <v>19.989999999999998</v>
+        <v>8.99</v>
       </c>
       <c r="I117" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" s="9">
         <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K117" s="3"/>
+    </row>
+    <row r="118" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E118" s="3">
         <v>19.989999999999998</v>
       </c>
-      <c r="K117" s="3"/>
+      <c r="I118" s="3">
+        <v>1</v>
+      </c>
+      <c r="J118" s="9">
+        <f t="shared" si="15"/>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="K118" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J117" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A60:J81">
-    <sortCondition ref="C60:C81"/>
+  <autoFilter ref="A2:J118" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A61:J82">
+    <sortCondition ref="C61:C82"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D24" r:id="rId1" display="https://www.amazon.com/dp/B00LPK0E5A/ref=sspa_dk_detail_1?psc=1&amp;pd_rd_i=B00LPK0E5A&amp;pd_rd_w=0M9NZ&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=aD93W&amp;pf_rd_r=YPJBQXW796NSXR2VMXXF&amp;pd_rd_r=27b44396-0b27-4df5-a333-c9ae450119d1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzRjAzSlpTNDhOSDROJmVuY3J5cHRlZElkPUExMDI0NTg3UkZNOVI5WEJEMTBKJmVuY3J5cHRlZEFkSWQ9QTAwMTM0OTMxR1ZVVzZSMDhHUEYwJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D69" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="D66" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D70" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D67" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
     <hyperlink ref="D22" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
     <hyperlink ref="D21" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
     <hyperlink ref="D20" r:id="rId6" display="https://www.amazon.com/BOJACK-UA741General-Purpose-Operational-Amplifier/dp/B07WSB1VNH/ref=asc_df_B07WSB1VNH/?tag=hyprod-20&amp;linkCode=df0&amp;hvadid=416713541504&amp;hvpos=&amp;hvnetw=g&amp;hvrand=10187485487199424423&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9030447&amp;hvtargid=pla-870040127419&amp;psc=1&amp;tag=&amp;ref=&amp;adgrpid=93604203773&amp;hvpone=&amp;hvptwo=&amp;hvadid=416713541504&amp;hvpos=&amp;hvnetw=g&amp;hvrand=10187485487199424423&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9030447&amp;hvtargid=pla-870040127419" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
     <hyperlink ref="D19" r:id="rId7" display="https://www.amazon.com/LSR-Transistor-Assortment-Electronics-Electronic/dp/B07TV9FFFQ/ref=sr_1_1_sspa?dchild=1&amp;keywords=transistor+kit&amp;qid=1589997273&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyNjRQNjZTRkNTMDBEJmVuY3J5cHRlZElkPUEwMjA2MDgzMTJBUTZXT1pMR1VFSyZlbmNyeXB0ZWRBZElkPUEwMzg4NDY4MzgxSDlaRERQMUxMQSZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="D79" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="D68" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="D67" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="D80" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D69" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="D68" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
     <hyperlink ref="D25" r:id="rId11" display="https://www.amazon.com/Isopropyl-Alcohol-Grade-99-Anhydrous/dp/B01KK014F4/ref=asc_df_B01KK014F4/?tag=hyprod-20&amp;linkCode=df0&amp;hvadid=312416780110&amp;hvpos=&amp;hvnetw=g&amp;hvrand=17295135421118886149&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9030447&amp;hvtargid=pla-569571734125&amp;psc=1&amp;tag=&amp;ref=&amp;adgrpid=61555869549&amp;hvpone=&amp;hvptwo=&amp;hvadid=312416780110&amp;hvpos=&amp;hvnetw=g&amp;hvrand=17295135421118886149&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9030447&amp;hvtargid=pla-569571734125" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
     <hyperlink ref="D29" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
     <hyperlink ref="D28" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
     <hyperlink ref="D18" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="D106" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="D107" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
     <hyperlink ref="D32" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
     <hyperlink ref="D31" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
     <hyperlink ref="D17" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
     <hyperlink ref="D16" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
     <hyperlink ref="D15" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="D105" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="D104" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="D62" r:id="rId23" display="https://www.amazon.com/Smart-Enabled-Google-Assistant-HomeKit/dp/B01NBI0A6R/ref=sxin_3_ac_d_rm?ac_md=0-0-d2Vtbw%3D%3D-ac_d_rm&amp;cv_ct_cx=wemo&amp;keywords=wemo&amp;pd_rd_i=B01NBI0A6R&amp;pd_rd_r=bbd5c2e2-6eb9-40fe-9456-a7336162120f&amp;pd_rd_w=Ts0oB&amp;pd_rd_wg=K1Zyb&amp;pf_rd_p=de19e82a-2d83-4ae8-9f5c-212586b8b9a0&amp;pf_rd_r=8DGZDACCDVJ418KR7CNJ&amp;qid=1584141937&amp;th=1" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="D61" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="D106" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="D105" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="D63" r:id="rId23" display="https://www.amazon.com/Smart-Enabled-Google-Assistant-HomeKit/dp/B01NBI0A6R/ref=sxin_3_ac_d_rm?ac_md=0-0-d2Vtbw%3D%3D-ac_d_rm&amp;cv_ct_cx=wemo&amp;keywords=wemo&amp;pd_rd_i=B01NBI0A6R&amp;pd_rd_r=bbd5c2e2-6eb9-40fe-9456-a7336162120f&amp;pd_rd_w=Ts0oB&amp;pd_rd_wg=K1Zyb&amp;pf_rd_p=de19e82a-2d83-4ae8-9f5c-212586b8b9a0&amp;pf_rd_r=8DGZDACCDVJ418KR7CNJ&amp;qid=1584141937&amp;th=1" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="D62" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
     <hyperlink ref="D7" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
     <hyperlink ref="D14" r:id="rId26" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
     <hyperlink ref="D27" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
@@ -5465,9 +5485,9 @@
     <hyperlink ref="D9" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
     <hyperlink ref="D8" r:id="rId32" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
     <hyperlink ref="D11" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="B60" r:id="rId34" display="https://www.adafruit.com/product/1461" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="D110" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="D60" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="B61" r:id="rId34" display="https://www.adafruit.com/product/1461" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="D111" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="D61" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
     <hyperlink ref="D3" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
     <hyperlink ref="D35" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
     <hyperlink ref="D34" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
@@ -5477,48 +5497,48 @@
     <hyperlink ref="D13" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
     <hyperlink ref="D26" r:id="rId44" display="https://www.amazon.com/dp/B07GD2BWPY/ref=sspa_dk_detail_2?psc=1&amp;pd_rd_i=B07GD2BWPY&amp;pd_rd_w=TqeWX&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=sNJWA&amp;pf_rd_r=ZXS16ECPMKD9XBVAS65W&amp;pd_rd_r=b5442918-7fb9-4962-af3b-9820970385cf&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyWTlUTDAyTTJDVElLJmVuY3J5cHRlZElkPUEwMjM2MDg0M0g1U1ZRS1hPNk0zMSZlbmNyeXB0ZWRBZElkPUEwNTczODQxM0JQVzgzUkcwMUVBNiZ3aWRnZXROYW1lPXNwX2RldGFpbCZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
     <hyperlink ref="D23" r:id="rId45" display="https://www.amazon.com/Qunqi-Sensor-Module-Arduino-Raspberry/dp/B07QBPGYBF/ref=pd_vtp_328_2/133-9447900-8990828?_encoding=UTF8&amp;pd_rd_i=B07QBPGYBF&amp;pd_rd_r=e7d105ef-e581-4e23-9137-ef46e7f59ac1&amp;pd_rd_w=4kywy&amp;pd_rd_wg=hamvp&amp;pf_rd_p=5946f538-3793-4aed-94d1-6882674b98f9&amp;pf_rd_r=V04NHSEY2AS5NV572E1P&amp;psc=1&amp;refRID=V04NHSEY2AS5NV572E1P" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="D65" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="D63" r:id="rId47" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="D108" r:id="rId48" display="https://www.amazon.com/Adafruit-NeoPixel-Ring-Integrated-Drivers/dp/B00KAE3R1U/ref=sxin_7_ac_d_rm?ac_md=1-1-bmVvcGl4ZWw%3D-ac_d_rm&amp;cv_ct_cx=neopixel+ring&amp;dchild=1&amp;keywords=neopixel+ring&amp;pd_rd_i=B00KAE3R1U&amp;pd_rd_r=f532ea9d-0030-44f0-832a-ce614c837962&amp;pd_rd_w=9bJ5n&amp;pd_rd_wg=0eBjE&amp;pf_rd_p=a0516f22-66df-4efd-8b9a-279a864d1512&amp;pf_rd_r=AYP2P98ZJBNCG2YYCT97&amp;psc=1&amp;qid=1590415826&amp;sr=1-2-12d4272d-8adb-4121-8624-135149aa9081" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="D111" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="D112" r:id="rId50" display="https://www.amazon.com/dp/B01CDTEKAG/ref=sspa_dk_detail_5?psc=1&amp;pd_rd_i=B01CDTEKAG&amp;pd_rd_w=xH4vG&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=OWknK&amp;pf_rd_r=4MWDRWVKFJB1AYRB3KT5&amp;pd_rd_r=1dfe850a-4ea2-46f2-b93c-46b84486f9d4&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzUThIV0Y2UjRSUjImZW5jcnlwdGVkSWQ9QTAzMjQ0ODUxSDdUU0E3UTlMWFlEJmVuY3J5cHRlZEFkSWQ9QTA5Nzg1MTUxVTM3VzVKSE44S1RCJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="D80" r:id="rId51" display="https://www.amazon.com/DFROBOT-Gravity-Analog-Sensor-Arduino/dp/B00R5CCH7U/ref=sr_1_2_sspa?dchild=1&amp;keywords=dfrobot&amp;qid=1590416675&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExRVhTUks4U1dYNjhSJmVuY3J5cHRlZElkPUEwNTY0MzYzUldBQ1A2SDlRVkRCJmVuY3J5cHRlZEFkSWQ9QTEwNDU4OTYzVjNDWEhNV0RPS1IzJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="D77" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="D78" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="D73" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="D71" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="D66" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="D64" r:id="rId47" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="D109" r:id="rId48" display="https://www.amazon.com/Adafruit-NeoPixel-Ring-Integrated-Drivers/dp/B00KAE3R1U/ref=sxin_7_ac_d_rm?ac_md=1-1-bmVvcGl4ZWw%3D-ac_d_rm&amp;cv_ct_cx=neopixel+ring&amp;dchild=1&amp;keywords=neopixel+ring&amp;pd_rd_i=B00KAE3R1U&amp;pd_rd_r=f532ea9d-0030-44f0-832a-ce614c837962&amp;pd_rd_w=9bJ5n&amp;pd_rd_wg=0eBjE&amp;pf_rd_p=a0516f22-66df-4efd-8b9a-279a864d1512&amp;pf_rd_r=AYP2P98ZJBNCG2YYCT97&amp;psc=1&amp;qid=1590415826&amp;sr=1-2-12d4272d-8adb-4121-8624-135149aa9081" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="D112" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="D113" r:id="rId50" display="https://www.amazon.com/dp/B01CDTEKAG/ref=sspa_dk_detail_5?psc=1&amp;pd_rd_i=B01CDTEKAG&amp;pd_rd_w=xH4vG&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=OWknK&amp;pf_rd_r=4MWDRWVKFJB1AYRB3KT5&amp;pd_rd_r=1dfe850a-4ea2-46f2-b93c-46b84486f9d4&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzUThIV0Y2UjRSUjImZW5jcnlwdGVkSWQ9QTAzMjQ0ODUxSDdUU0E3UTlMWFlEJmVuY3J5cHRlZEFkSWQ9QTA5Nzg1MTUxVTM3VzVKSE44S1RCJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="D81" r:id="rId51" display="https://www.amazon.com/DFROBOT-Gravity-Analog-Sensor-Arduino/dp/B00R5CCH7U/ref=sr_1_2_sspa?dchild=1&amp;keywords=dfrobot&amp;qid=1590416675&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExRVhTUks4U1dYNjhSJmVuY3J5cHRlZElkPUEwNTY0MzYzUldBQ1A2SDlRVkRCJmVuY3J5cHRlZEFkSWQ9QTEwNDU4OTYzVjNDWEhNV0RPS1IzJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="D78" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="D79" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="D74" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="D72" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
     <hyperlink ref="D38" r:id="rId56" display="https://www.lowes.com/pd/Tough-Box-16-Compartment-Plastic-Small-Parts-Organizer/1000365903?cm_mmc=shp-_-c-_-prd-_-tol-_-google-_-lia-_--_-toolstorage-_-1000365903-_-0&amp;store_code=2539&amp;placeholder=null&amp;gclid=EAIaIQobChMI2ICzhsX86QIVi4bACh0oNwjhEAQYASABEgLcgPD_BwE&amp;gclsrc=aw.ds" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="D81" r:id="rId57" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="D82" r:id="rId58" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="D83" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="D113" r:id="rId60" display="https://www.amazon.com/dp/B087B5NWY4/ref=sspa_dk_detail_0?psc=1&amp;pd_rd_i=B087B5NWY4&amp;pd_rd_w=qTl74&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=oJf3C&amp;pf_rd_r=BNJEBNTQ9WJFCK2T7NJG&amp;pd_rd_r=878dff4d-97fc-4ab7-b51d-f454e436af7d&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFSMFdOVFk0RUJCSjUmZW5jcnlwdGVkSWQ9QTA5OTM1MjYzSTlCWEhXN0xTU0RQJmVuY3J5cHRlZEFkSWQ9QTAxMzk3MzYzQktQVENFTUtJNzhJJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="D82" r:id="rId57" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="D83" r:id="rId58" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="D84" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="D114" r:id="rId60" display="https://www.amazon.com/dp/B087B5NWY4/ref=sspa_dk_detail_0?psc=1&amp;pd_rd_i=B087B5NWY4&amp;pd_rd_w=qTl74&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=oJf3C&amp;pf_rd_r=BNJEBNTQ9WJFCK2T7NJG&amp;pd_rd_r=878dff4d-97fc-4ab7-b51d-f454e436af7d&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFSMFdOVFk0RUJCSjUmZW5jcnlwdGVkSWQ9QTA5OTM1MjYzSTlCWEhXN0xTU0RQJmVuY3J5cHRlZEFkSWQ9QTAxMzk3MzYzQktQVENFTUtJNzhJJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
     <hyperlink ref="D39" r:id="rId61" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="D84" r:id="rId62" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="D85" r:id="rId63" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="D86" r:id="rId64" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="D114" r:id="rId65" display="https://www.amazon.com/dp/B07QKDSCSM/ref=sspa_dk_detail_0?spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFCNUFXNjBMUkhRNjgmZW5jcnlwdGVkSWQ9QTAzODUwNTVOR1NCNFFLMjRWR0ImZW5jcnlwdGVkQWRJZD1BMDM1MDc1NjNWSVJZSlg1Q0pDTUkmd2lkZ2V0TmFtZT1zcF9kZXRhaWwyJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ&amp;th=1" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="D90" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
-    <hyperlink ref="D91" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
-    <hyperlink ref="D116" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
-    <hyperlink ref="D115" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
-    <hyperlink ref="D92" r:id="rId70" display="https://www.digikey.com/product-detail/en/citizen-finedevice-co-ltd/CFS-20632768DZFB/300-1002-ND/283736?utm_adgroup=Crystals%20Oscillators&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search&amp;utm_term=&amp;utm_content=Crystals%20Oscillators&amp;gclid=EAIaIQobChMIrI-y8dvf6gIVgobACh05Cwq-EAAYASAAEgJ-LvD_BwE" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
-    <hyperlink ref="D72" r:id="rId71" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
-    <hyperlink ref="D74" r:id="rId72" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
-    <hyperlink ref="D75" r:id="rId73" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
-    <hyperlink ref="D76" r:id="rId74" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
-    <hyperlink ref="B70" r:id="rId75" display="https://store.ncd.io/product/feather-battery-i2c-shield-for-particle-and-feather-modules/" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="D70" r:id="rId76" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="D87" r:id="rId77" xr:uid="{CB9AA7F3-57D3-4035-9B10-D6E06BA90642}"/>
-    <hyperlink ref="D88" r:id="rId78" xr:uid="{CD5B5197-64EF-49EF-91BD-2559DCFA1A39}"/>
-    <hyperlink ref="D89" r:id="rId79" xr:uid="{6673B4F9-7D5C-42C3-A449-534270670C62}"/>
-    <hyperlink ref="D93" r:id="rId80" xr:uid="{7BEE6173-67BD-462D-93F3-8868348A9E43}"/>
-    <hyperlink ref="D95" r:id="rId81" display="https://www.amazon.com/Screwdriver-Flathead-Phillips-Pentalobe-Different/dp/B0872XMTKS/ref=sr_1_2_sspa?crid=33O94WILFA3IZ&amp;dchild=1&amp;keywords=mini+screwdriver+set&amp;qid=1598205307&amp;sprefix=mini+screw%2Caps%2C201&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExMEY2S0QwRE9XR01UJmVuY3J5cHRlZElkPUEwNzIwODY1MjVGV1BCNDNFNkowRyZlbmNyeXB0ZWRBZElkPUExMDAyMjM5NFpSMkVPTlBSN0ZDJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{19DAF842-E937-4DB9-89CA-2282F04D2AEA}"/>
+    <hyperlink ref="D85" r:id="rId62" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="D86" r:id="rId63" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="D87" r:id="rId64" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="D115" r:id="rId65" display="https://www.amazon.com/dp/B07QKDSCSM/ref=sspa_dk_detail_0?spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFCNUFXNjBMUkhRNjgmZW5jcnlwdGVkSWQ9QTAzODUwNTVOR1NCNFFLMjRWR0ImZW5jcnlwdGVkQWRJZD1BMDM1MDc1NjNWSVJZSlg1Q0pDTUkmd2lkZ2V0TmFtZT1zcF9kZXRhaWwyJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ&amp;th=1" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="D91" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="D92" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="D117" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="D116" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="D93" r:id="rId70" display="https://www.digikey.com/product-detail/en/citizen-finedevice-co-ltd/CFS-20632768DZFB/300-1002-ND/283736?utm_adgroup=Crystals%20Oscillators&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search&amp;utm_term=&amp;utm_content=Crystals%20Oscillators&amp;gclid=EAIaIQobChMIrI-y8dvf6gIVgobACh05Cwq-EAAYASAAEgJ-LvD_BwE" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="D73" r:id="rId71" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="D75" r:id="rId72" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="D76" r:id="rId73" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="D77" r:id="rId74" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="B71" r:id="rId75" display="https://store.ncd.io/product/feather-battery-i2c-shield-for-particle-and-feather-modules/" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="D71" r:id="rId76" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="D88" r:id="rId77" xr:uid="{CB9AA7F3-57D3-4035-9B10-D6E06BA90642}"/>
+    <hyperlink ref="D89" r:id="rId78" xr:uid="{CD5B5197-64EF-49EF-91BD-2559DCFA1A39}"/>
+    <hyperlink ref="D90" r:id="rId79" xr:uid="{6673B4F9-7D5C-42C3-A449-534270670C62}"/>
+    <hyperlink ref="D94" r:id="rId80" xr:uid="{7BEE6173-67BD-462D-93F3-8868348A9E43}"/>
+    <hyperlink ref="D96" r:id="rId81" display="https://www.amazon.com/Screwdriver-Flathead-Phillips-Pentalobe-Different/dp/B0872XMTKS/ref=sr_1_2_sspa?crid=33O94WILFA3IZ&amp;dchild=1&amp;keywords=mini+screwdriver+set&amp;qid=1598205307&amp;sprefix=mini+screw%2Caps%2C201&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExMEY2S0QwRE9XR01UJmVuY3J5cHRlZElkPUEwNzIwODY1MjVGV1BCNDNFNkowRyZlbmNyeXB0ZWRBZElkPUExMDAyMjM5NFpSMkVPTlBSN0ZDJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{19DAF842-E937-4DB9-89CA-2282F04D2AEA}"/>
     <hyperlink ref="D40" r:id="rId82" xr:uid="{B485A6B6-7307-4EAA-A186-31CAA890A0BC}"/>
-    <hyperlink ref="D107" r:id="rId83" xr:uid="{70F21853-AE4C-4BEC-9F14-C2DC1DDCC3B4}"/>
-    <hyperlink ref="D117" r:id="rId84" xr:uid="{23C2A1DE-EDE1-4FE6-90BB-24BA9B7A433E}"/>
+    <hyperlink ref="D108" r:id="rId83" xr:uid="{70F21853-AE4C-4BEC-9F14-C2DC1DDCC3B4}"/>
+    <hyperlink ref="D118" r:id="rId84" xr:uid="{23C2A1DE-EDE1-4FE6-90BB-24BA9B7A433E}"/>
     <hyperlink ref="D33" r:id="rId85" xr:uid="{AA5B840A-EAA7-438B-AC90-9BD9F369A790}"/>
-    <hyperlink ref="D109" r:id="rId86" xr:uid="{BFF0F66D-BAE5-409E-9D4D-2406089A97E9}"/>
-    <hyperlink ref="D45" r:id="rId87" xr:uid="{E22E05A0-7702-4DD5-A4C2-BD50049E3BED}"/>
+    <hyperlink ref="D110" r:id="rId86" xr:uid="{BFF0F66D-BAE5-409E-9D4D-2406089A97E9}"/>
+    <hyperlink ref="D46" r:id="rId87" xr:uid="{E22E05A0-7702-4DD5-A4C2-BD50049E3BED}"/>
   </hyperlinks>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5748,18 +5768,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5782,18 +5802,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58CD0F9C-796C-40DA-891C-7A92FF34C67A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{623B2E16-5227-4FB6-A3C3-1FFAD3C257CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58CD0F9C-796C-40DA-891C-7A92FF34C67A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/IoT_Parts.xlsx
+++ b/IoT_Parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IoT_Instructor\Documents\IoT\class_slides\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EE1435-4575-4EC2-BF02-B2E7B6DB5CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4EDA62-7D92-409D-804B-AF1BE1366DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="855" yWindow="-120" windowWidth="28065" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -359,13 +359,7 @@
     <t>3D print resin - draft</t>
   </si>
   <si>
-    <t>Draft Resin 1 L</t>
-  </si>
-  <si>
     <t>FormLabs</t>
-  </si>
-  <si>
-    <t>https://formlabs.com/store/form-2/materials/draft-resin/</t>
   </si>
   <si>
     <t>3D print resin - white</t>
@@ -664,21 +658,6 @@
     <t>https://www.amazon.com/MakerHawk-3-7-30V-Voltage-Multimeter-Voltmeter/dp/B07FMQZVW2/ref=sr_1_3?dchild=1&amp;keywords=usb+current+meter&amp;qid=1590970127&amp;s=hi&amp;sr=1-3</t>
   </si>
   <si>
-    <t>PLA Filament</t>
-  </si>
-  <si>
-    <t>Gizmo Dorks Silk PLA Filament for 3D Printers 2.85mm 200g, 4 Color Pack - Blue, Green, Red, White</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Gizmo-Dorks-Filament-Printers-2-85mm/dp/B07QBF3KFJ/ref=sr_1_16?dchild=1&amp;keywords=Gizmo+Dorks&amp;qid=1594226549&amp;sr=8-16</t>
-  </si>
-  <si>
-    <t>Ultimaker 3 NFC PLA Filament</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Ultimaker-NFC-PLA-Filament-White/dp/B06XC7L88G/ref=sr_1_3?crid=3LXDQ5C9UWXYI&amp;dchild=1&amp;keywords=ultimaker+filament&amp;qid=1594226747&amp;sprefix=ulitmaker%2Caps%2C183&amp;sr=8-3</t>
-  </si>
-  <si>
     <t>Variable Power Supplies</t>
   </si>
   <si>
@@ -961,12 +940,6 @@
     <t>Classroom</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Gikfun-AH3144E-Magnetic-Detector-Arduino/dp/B07QS6PN3B/ref=sr_1_4?dchild=1&amp;keywords=hall+effect&amp;qid=1627326252&amp;sr=8-4</t>
-  </si>
-  <si>
-    <t>Gikfun A3144/OH3144/44E/AH3144E Hall Effect Sensor Magnetic Detector for Arduino (Pack of 20pcs) EK1325</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/Smraza-Helicopter-Airplane-Control-Arduino/dp/B07L2SF3R4/ref=sr_1_2_sspa?dchild=1&amp;keywords=servo+motors&amp;qid=1627326343&amp;sr=8-2-spons&amp;psc=1&amp;smid=AMIHZKLK542FQ&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUE0T1dLTFVJNkJYSTkmZW5jcnlwdGVkSWQ9QTA1Mjc3MzhQMlkzQ0ZZV1ZNUlImZW5jcnlwdGVkQWRJZD1BMDIwNzMwN0dRSDFXTkhNVURFNCZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=</t>
   </si>
   <si>
@@ -1119,6 +1092,33 @@
   </si>
   <si>
     <t>Classroom Equipment and Midterm Extra Parts</t>
+  </si>
+  <si>
+    <t>Magnets</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/FINDMAG-Refrigerator-Magnets-Premium-Whiteboard/dp/B08M3GHMWN/ref=sr_1_5?dchild=1&amp;keywords=mini+magnets&amp;qid=1627402330&amp;sr=8-5</t>
+  </si>
+  <si>
+    <t>FINDMAG 100 PCS 5 x 2 mm Fridge Magnets, Multi-Use Premium Brushed Nickel Refrigerator Magnets, Magnets for Whiteboard, Small Magnets, Round Magnets, Mini Magnets, Neodymium Magnet, DIY Magnets</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Effect-Magnetic-Sensor-Arduino-MXRS/dp/B085KVV82D/ref=pd_bxgy_2/134-6156851-5388530?pd_rd_w=EWJdI&amp;pf_rd_p=c64372fa-c41c-422e-990d-9e034f73989b&amp;pf_rd_r=QRD8SVXVW60311GTZENQ&amp;pd_rd_r=739c806e-b511-44ff-aa29-2f345e8fc5bb&amp;pd_rd_wg=75Si7&amp;pd_rd_i=B085KVV82D&amp;psc=1</t>
+  </si>
+  <si>
+    <t>6pcs Hall Effect Magnetic Sensor Module 3144E A3144 Hall Effect Sensor KY-003 DC 5V for Arduino PIC AVR Smart Cars by MUZHI</t>
+  </si>
+  <si>
+    <t>https://www.matterhackers.com/store/l/ultimaker-pla-3d-printing-filament-285mm-075kg/sk/MQNGVXH4</t>
+  </si>
+  <si>
+    <t>Ultimaker Pearl White PLA Filament - 2.85mm (0.75kg)</t>
+  </si>
+  <si>
+    <t>https://formlabs.com/store/materials/draft-v2-resin/</t>
+  </si>
+  <si>
+    <t>Draft Resin (V2) 1 L</t>
   </si>
 </sst>
 </file>
@@ -1775,9 +1775,7 @@
   </sheetPr>
   <dimension ref="A1:O114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1800,7 +1798,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
@@ -1818,29 +1816,29 @@
         <v>4</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>167</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>169</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="6"/>
       <c r="L1" s="14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N1" s="39" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="O1" s="39" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -1866,7 +1864,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="19">
-        <f>F2*G2</f>
+        <f t="shared" ref="H2:H17" si="0">F2*G2</f>
         <v>39.979999999999997</v>
       </c>
       <c r="I2" s="19">
@@ -1877,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="6">
-        <f>J2*F2</f>
+        <f t="shared" ref="K2:K15" si="1">J2*F2</f>
         <v>19.989999999999998</v>
       </c>
       <c r="L2" s="17"/>
@@ -1890,16 +1888,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>176</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>178</v>
       </c>
       <c r="F3" s="17">
         <v>12.47</v>
@@ -1908,7 +1906,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="19">
-        <f>F3*G3</f>
+        <f t="shared" si="0"/>
         <v>199.52</v>
       </c>
       <c r="I3" s="19">
@@ -1919,7 +1917,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="6">
-        <f>J3*F3</f>
+        <f t="shared" si="1"/>
         <v>124.7</v>
       </c>
       <c r="L3" s="17"/>
@@ -1932,16 +1930,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="E4" s="21" t="s">
         <v>173</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>175</v>
       </c>
       <c r="F4" s="17">
         <v>5.98</v>
@@ -1950,7 +1948,7 @@
         <v>16</v>
       </c>
       <c r="H4" s="19">
-        <f>F4*G4</f>
+        <f t="shared" si="0"/>
         <v>95.68</v>
       </c>
       <c r="I4" s="19">
@@ -1961,7 +1959,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="6">
-        <f>J4*F4</f>
+        <f t="shared" si="1"/>
         <v>95.68</v>
       </c>
       <c r="L4" s="17"/>
@@ -1992,7 +1990,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="19">
-        <f>F5*G5</f>
+        <f t="shared" si="0"/>
         <v>478.26</v>
       </c>
       <c r="I5" s="19">
@@ -2003,7 +2001,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="6">
-        <f>J5*F5</f>
+        <f t="shared" si="1"/>
         <v>425.12</v>
       </c>
       <c r="L5" s="17"/>
@@ -2016,16 +2014,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="F6" s="17">
         <v>13.99</v>
@@ -2034,7 +2032,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="19">
-        <f>F6*G6</f>
+        <f t="shared" si="0"/>
         <v>55.96</v>
       </c>
       <c r="I6" s="19">
@@ -2045,7 +2043,7 @@
         <v>3</v>
       </c>
       <c r="K6" s="6">
-        <f>J6*F6</f>
+        <f t="shared" si="1"/>
         <v>41.97</v>
       </c>
       <c r="L6" s="17"/>
@@ -2076,7 +2074,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="19">
-        <f>F7*G7</f>
+        <f t="shared" si="0"/>
         <v>11.99</v>
       </c>
       <c r="I7" s="19">
@@ -2087,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="6">
-        <f>J7*F7</f>
+        <f t="shared" si="1"/>
         <v>11.99</v>
       </c>
       <c r="L7" s="17"/>
@@ -2118,7 +2116,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="19">
-        <f>F8*G8</f>
+        <f t="shared" si="0"/>
         <v>119.92</v>
       </c>
       <c r="I8" s="19">
@@ -2129,7 +2127,7 @@
         <v>8</v>
       </c>
       <c r="K8" s="6">
-        <f>J8*F8</f>
+        <f t="shared" si="1"/>
         <v>119.92</v>
       </c>
       <c r="L8" s="17"/>
@@ -2145,7 +2143,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>18</v>
@@ -2160,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="19">
-        <f>F9*G9</f>
+        <f t="shared" si="0"/>
         <v>47.44</v>
       </c>
       <c r="I9" s="19">
@@ -2171,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="6">
-        <f>J9*F9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L9" s="17"/>
@@ -2184,16 +2182,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>198</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>200</v>
       </c>
       <c r="F10" s="17">
         <v>21.98</v>
@@ -2202,7 +2200,7 @@
         <v>16</v>
       </c>
       <c r="H10" s="19">
-        <f>F10*G10</f>
+        <f t="shared" si="0"/>
         <v>351.68</v>
       </c>
       <c r="I10" s="19">
@@ -2213,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="6">
-        <f>J10*F10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L10" s="17"/>
@@ -2244,7 +2242,7 @@
         <v>8</v>
       </c>
       <c r="H11" s="19">
-        <f>F11*G11</f>
+        <f t="shared" si="0"/>
         <v>61.44</v>
       </c>
       <c r="I11" s="19">
@@ -2255,7 +2253,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="6">
-        <f>J11*F11</f>
+        <f t="shared" si="1"/>
         <v>15.36</v>
       </c>
       <c r="L11" s="17"/>
@@ -2286,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="19">
-        <f>F12*G12</f>
+        <f t="shared" si="0"/>
         <v>16.989999999999998</v>
       </c>
       <c r="I12" s="19">
@@ -2297,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="6">
-        <f>J12*F12</f>
+        <f t="shared" si="1"/>
         <v>16.989999999999998</v>
       </c>
       <c r="L12" s="17"/>
@@ -2310,16 +2308,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="E13" s="18" t="s">
         <v>121</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>123</v>
       </c>
       <c r="F13" s="17">
         <v>24.99</v>
@@ -2328,7 +2326,7 @@
         <v>18</v>
       </c>
       <c r="H13" s="19">
-        <f>F13*G13</f>
+        <f t="shared" si="0"/>
         <v>449.82</v>
       </c>
       <c r="I13" s="19">
@@ -2339,7 +2337,7 @@
         <v>16</v>
       </c>
       <c r="K13" s="6">
-        <f>J13*F13</f>
+        <f t="shared" si="1"/>
         <v>399.84</v>
       </c>
       <c r="L13" s="17"/>
@@ -2352,16 +2350,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F14" s="17">
         <v>7.95</v>
@@ -2370,7 +2368,7 @@
         <v>18</v>
       </c>
       <c r="H14" s="19">
-        <f>F14*G14</f>
+        <f t="shared" si="0"/>
         <v>143.1</v>
       </c>
       <c r="I14" s="17">
@@ -2381,7 +2379,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="6">
-        <f>J14*F14</f>
+        <f t="shared" si="1"/>
         <v>127.2</v>
       </c>
       <c r="L14" s="17"/>
@@ -2412,7 +2410,7 @@
         <v>18</v>
       </c>
       <c r="H15" s="19">
-        <f>F15*G15</f>
+        <f t="shared" si="0"/>
         <v>135</v>
       </c>
       <c r="I15" s="19">
@@ -2423,7 +2421,7 @@
         <v>15</v>
       </c>
       <c r="K15" s="6">
-        <f>J15*F15</f>
+        <f t="shared" si="1"/>
         <v>112.5</v>
       </c>
       <c r="L15" s="17"/>
@@ -2436,16 +2434,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F16" s="17">
         <v>9.99</v>
@@ -2454,7 +2452,7 @@
         <v>2</v>
       </c>
       <c r="H16" s="19">
-        <f>F16*G16</f>
+        <f t="shared" si="0"/>
         <v>19.98</v>
       </c>
       <c r="I16" s="19">
@@ -2473,16 +2471,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="F17" s="17">
         <v>7.99</v>
@@ -2491,7 +2489,7 @@
         <v>3</v>
       </c>
       <c r="H17" s="19">
-        <f>F17*G17</f>
+        <f t="shared" si="0"/>
         <v>23.97</v>
       </c>
       <c r="I17" s="19">
@@ -2510,16 +2508,16 @@
         <v>6</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="F18" s="17">
         <v>7.99</v>
@@ -2547,16 +2545,16 @@
         <v>6</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="F19" s="17">
         <v>7.99</v>
@@ -2584,16 +2582,16 @@
         <v>6</v>
       </c>
       <c r="B20" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>158</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>160</v>
       </c>
       <c r="F20" s="17">
         <v>2.95</v>
@@ -2602,11 +2600,11 @@
         <v>18</v>
       </c>
       <c r="H20" s="19">
-        <f>F20*G20</f>
+        <f t="shared" ref="H20:H44" si="2">F20*G20</f>
         <v>53.1</v>
       </c>
       <c r="I20" s="19">
-        <f>0.75*H20</f>
+        <f t="shared" ref="I20:I25" si="3">0.75*H20</f>
         <v>39.825000000000003</v>
       </c>
       <c r="J20" s="7">
@@ -2626,16 +2624,16 @@
         <v>6</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F21" s="17">
         <v>2.95</v>
@@ -2644,11 +2642,11 @@
         <v>18</v>
       </c>
       <c r="H21" s="19">
-        <f>F21*G21</f>
+        <f t="shared" si="2"/>
         <v>53.1</v>
       </c>
       <c r="I21" s="19">
-        <f>0.75*H21</f>
+        <f t="shared" si="3"/>
         <v>39.825000000000003</v>
       </c>
       <c r="J21" s="7">
@@ -2686,11 +2684,11 @@
         <v>18</v>
       </c>
       <c r="H22" s="19">
-        <f>F22*G22</f>
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="I22" s="19">
-        <f>0.75*H22</f>
+        <f t="shared" si="3"/>
         <v>101.25</v>
       </c>
       <c r="J22" s="7">
@@ -2710,7 +2708,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>37</v>
@@ -2728,11 +2726,11 @@
         <v>18</v>
       </c>
       <c r="H23" s="19">
-        <f>F23*G23</f>
+        <f t="shared" si="2"/>
         <v>98.100000000000009</v>
       </c>
       <c r="I23" s="19">
-        <f>0.75*H23</f>
+        <f t="shared" si="3"/>
         <v>73.575000000000003</v>
       </c>
       <c r="J23" s="7">
@@ -2770,11 +2768,11 @@
         <v>18</v>
       </c>
       <c r="H24" s="19">
-        <f>F24*G24</f>
+        <f t="shared" si="2"/>
         <v>296.82</v>
       </c>
       <c r="I24" s="19">
-        <f>0.75*H24</f>
+        <f t="shared" si="3"/>
         <v>222.61500000000001</v>
       </c>
       <c r="J24" s="7">
@@ -2794,16 +2792,16 @@
         <v>9</v>
       </c>
       <c r="B25" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="18" t="s">
         <v>295</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>304</v>
       </c>
       <c r="F25" s="17">
         <v>6.88</v>
@@ -2812,11 +2810,11 @@
         <v>4</v>
       </c>
       <c r="H25" s="19">
-        <f>F25*G25</f>
+        <f t="shared" si="2"/>
         <v>27.52</v>
       </c>
       <c r="I25" s="19">
-        <f>0.75*H25</f>
+        <f t="shared" si="3"/>
         <v>20.64</v>
       </c>
       <c r="J25" s="7"/>
@@ -2831,16 +2829,16 @@
         <v>9</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F26" s="17">
         <v>17.989999999999998</v>
@@ -2849,7 +2847,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="19">
-        <f>F26*G26</f>
+        <f t="shared" si="2"/>
         <v>35.979999999999997</v>
       </c>
       <c r="I26" s="19">
@@ -2886,7 +2884,7 @@
         <v>11</v>
       </c>
       <c r="H27" s="25">
-        <f>F27*G27</f>
+        <f t="shared" si="2"/>
         <v>142.89000000000001</v>
       </c>
       <c r="I27" s="25">
@@ -2928,7 +2926,7 @@
         <v>9</v>
       </c>
       <c r="H28" s="19">
-        <f>F28*G28</f>
+        <f t="shared" si="2"/>
         <v>179.91</v>
       </c>
       <c r="I28" s="19">
@@ -2952,16 +2950,16 @@
         <v>10</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F29" s="17">
         <v>0.16</v>
@@ -2970,7 +2968,7 @@
         <v>100</v>
       </c>
       <c r="H29" s="19">
-        <f>F29*G29</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I29" s="19">
@@ -3012,7 +3010,7 @@
         <v>18</v>
       </c>
       <c r="H30" s="19">
-        <f>F30*G30</f>
+        <f t="shared" si="2"/>
         <v>630</v>
       </c>
       <c r="I30" s="19">
@@ -3027,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="26" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="M30" s="17"/>
       <c r="N30" s="6"/>
@@ -3038,16 +3036,16 @@
         <v>12</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F31" s="17">
         <v>4.8899999999999997</v>
@@ -3056,7 +3054,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="19">
-        <f>F31*G31</f>
+        <f t="shared" si="2"/>
         <v>4.8899999999999997</v>
       </c>
       <c r="I31" s="19">
@@ -3075,16 +3073,16 @@
         <v>13</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F32" s="17">
         <v>8.99</v>
@@ -3093,7 +3091,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="19">
-        <f>F32*G32</f>
+        <f t="shared" si="2"/>
         <v>8.99</v>
       </c>
       <c r="I32" s="19">
@@ -3104,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="6">
-        <f>J32*F32</f>
+        <f t="shared" ref="K32:K38" si="4">J32*F32</f>
         <v>0</v>
       </c>
       <c r="L32" s="17"/>
@@ -3135,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="19">
-        <f>F33*G33</f>
+        <f t="shared" si="2"/>
         <v>17.95</v>
       </c>
       <c r="I33" s="19">
@@ -3146,7 +3144,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="6">
-        <f>J33*F33</f>
+        <f t="shared" si="4"/>
         <v>17.95</v>
       </c>
       <c r="L33" s="17"/>
@@ -3177,7 +3175,7 @@
         <v>4</v>
       </c>
       <c r="H34" s="19">
-        <f>F34*G34</f>
+        <f t="shared" si="2"/>
         <v>55.52</v>
       </c>
       <c r="I34" s="19">
@@ -3188,7 +3186,7 @@
         <v>3</v>
       </c>
       <c r="K34" s="6">
-        <f>J34*F34</f>
+        <f t="shared" si="4"/>
         <v>41.64</v>
       </c>
       <c r="L34" s="17"/>
@@ -3201,16 +3199,16 @@
         <v>14</v>
       </c>
       <c r="B35" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="E35" s="18" t="s">
         <v>148</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>150</v>
       </c>
       <c r="F35" s="17">
         <v>9.9</v>
@@ -3219,7 +3217,7 @@
         <v>18</v>
       </c>
       <c r="H35" s="19">
-        <f>F35*G35</f>
+        <f t="shared" si="2"/>
         <v>178.20000000000002</v>
       </c>
       <c r="I35" s="19">
@@ -3230,7 +3228,7 @@
         <v>10</v>
       </c>
       <c r="K35" s="6">
-        <f>J35*F35</f>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="L35" s="17"/>
@@ -3243,16 +3241,16 @@
         <v>14</v>
       </c>
       <c r="B36" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" s="18" t="s">
         <v>151</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>153</v>
       </c>
       <c r="F36" s="17">
         <v>11.5</v>
@@ -3261,7 +3259,7 @@
         <v>18</v>
       </c>
       <c r="H36" s="19">
-        <f>F36*G36</f>
+        <f t="shared" si="2"/>
         <v>207</v>
       </c>
       <c r="I36" s="19">
@@ -3272,7 +3270,7 @@
         <v>10</v>
       </c>
       <c r="K36" s="6">
-        <f>J36*F36</f>
+        <f t="shared" si="4"/>
         <v>115</v>
       </c>
       <c r="L36" s="17"/>
@@ -3303,7 +3301,7 @@
         <v>5</v>
       </c>
       <c r="H37" s="19">
-        <f>F37*G37</f>
+        <f t="shared" si="2"/>
         <v>129.94999999999999</v>
       </c>
       <c r="I37" s="19">
@@ -3314,7 +3312,7 @@
         <v>2</v>
       </c>
       <c r="K37" s="6">
-        <f>J37*F37</f>
+        <f t="shared" si="4"/>
         <v>51.98</v>
       </c>
       <c r="L37" s="17"/>
@@ -3345,7 +3343,7 @@
         <v>4</v>
       </c>
       <c r="H38" s="19">
-        <f>F38*G38</f>
+        <f t="shared" si="2"/>
         <v>47.96</v>
       </c>
       <c r="I38" s="19">
@@ -3356,7 +3354,7 @@
         <v>3</v>
       </c>
       <c r="K38" s="6">
-        <f>J38*F38</f>
+        <f t="shared" si="4"/>
         <v>35.97</v>
       </c>
       <c r="L38" s="17"/>
@@ -3364,35 +3362,35 @@
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
     </row>
-    <row r="39" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="165" x14ac:dyDescent="0.25">
       <c r="A39" s="38">
         <v>16</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>300</v>
+        <v>271</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>347</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="F39" s="17">
-        <v>7.28</v>
+        <v>5.49</v>
       </c>
       <c r="G39" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H39" s="19">
-        <f>F39*G39</f>
-        <v>7.28</v>
+        <f t="shared" si="2"/>
+        <v>16.47</v>
       </c>
       <c r="I39" s="19">
         <f>H39</f>
-        <v>7.28</v>
+        <v>16.47</v>
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="6"/>
@@ -3424,7 +3422,7 @@
         <v>18</v>
       </c>
       <c r="H40" s="19">
-        <f>F40*G40</f>
+        <f t="shared" si="2"/>
         <v>152.82</v>
       </c>
       <c r="I40" s="19">
@@ -3466,7 +3464,7 @@
         <v>4</v>
       </c>
       <c r="H41" s="19">
-        <f>F41*G41</f>
+        <f t="shared" si="2"/>
         <v>47.96</v>
       </c>
       <c r="I41" s="19">
@@ -3508,7 +3506,7 @@
         <v>4</v>
       </c>
       <c r="H42" s="19">
-        <f>F42*G42</f>
+        <f t="shared" si="2"/>
         <v>33.96</v>
       </c>
       <c r="I42" s="19">
@@ -3527,328 +3525,332 @@
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
     </row>
-    <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A43" s="38">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
+        <v>343</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>344</v>
+      </c>
       <c r="F43" s="17">
-        <v>25</v>
+        <v>6.95</v>
       </c>
       <c r="G43" s="17">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H43" s="19">
-        <f>F43*G43</f>
-        <v>400</v>
+        <f t="shared" si="2"/>
+        <v>6.95</v>
       </c>
       <c r="I43" s="19">
-        <f>0.75*H43</f>
-        <v>300</v>
-      </c>
-      <c r="J43" s="4">
-        <v>0</v>
-      </c>
-      <c r="K43" s="6">
-        <f>J43*F43</f>
-        <v>0</v>
-      </c>
+        <f>H43</f>
+        <v>6.95</v>
+      </c>
+      <c r="J43" s="7"/>
+      <c r="K43" s="6"/>
       <c r="L43" s="17"/>
       <c r="M43" s="17"/>
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="46">
-        <v>18</v>
-      </c>
-      <c r="B44" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52">
-        <f>SUM(I1:I43)/12</f>
-        <v>330.64270833333325</v>
-      </c>
-      <c r="J44" s="53"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="47"/>
+    <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="38">
+        <v>18</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17">
+        <v>25</v>
+      </c>
+      <c r="G44" s="17">
+        <v>16</v>
+      </c>
+      <c r="H44" s="19">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="I44" s="19">
+        <f>0.75*H44</f>
+        <v>300</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="6">
+        <f>J44*F44</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="41">
+      <c r="A45" s="46">
+        <v>18</v>
+      </c>
+      <c r="B45" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52">
+        <f>SUM(I1:I44)/12</f>
+        <v>331.98770833333322</v>
+      </c>
+      <c r="J45" s="53"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="41">
         <v>99</v>
       </c>
-      <c r="B45" s="42">
+      <c r="B46" s="42">
         <v>1</v>
       </c>
-      <c r="C45" s="49" t="s">
-        <v>316</v>
-      </c>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="50"/>
-      <c r="N45" s="50"/>
-      <c r="O45" s="51"/>
-    </row>
-    <row r="46" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="38">
-        <v>99</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C46" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="D46" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="E46" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="F46" s="58">
-        <v>149.99</v>
-      </c>
-      <c r="G46" s="58">
-        <v>1</v>
-      </c>
-      <c r="H46" s="59">
-        <f>F46*G46</f>
-        <v>149.99</v>
-      </c>
-      <c r="I46" s="59"/>
-      <c r="J46" s="54">
-        <v>1</v>
-      </c>
-      <c r="K46" s="44">
-        <f>J46*F46</f>
-        <v>149.99</v>
-      </c>
-      <c r="L46" s="43"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="44"/>
-      <c r="O46" s="45"/>
+      <c r="C46" s="49" t="s">
+        <v>307</v>
+      </c>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="51"/>
     </row>
     <row r="47" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="38">
         <v>99</v>
       </c>
-      <c r="B47" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" s="20" t="s">
+      <c r="B47" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="D47" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="F47" s="17">
+      <c r="E47" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47" s="58">
         <v>149.99</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G47" s="58">
         <v>1</v>
       </c>
-      <c r="H47" s="19">
-        <f>F47*G47</f>
+      <c r="H47" s="59">
+        <f t="shared" ref="H47:H57" si="5">F47*G47</f>
         <v>149.99</v>
       </c>
       <c r="I47" s="19">
         <f>H47</f>
         <v>149.99</v>
       </c>
-      <c r="J47" s="7">
-        <v>0</v>
-      </c>
-      <c r="K47" s="6">
-        <f>J47*F47</f>
-        <v>0</v>
-      </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
+      <c r="J47" s="54">
+        <v>1</v>
+      </c>
+      <c r="K47" s="44">
+        <f t="shared" ref="K47:K57" si="6">J47*F47</f>
+        <v>149.99</v>
+      </c>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="45"/>
     </row>
     <row r="48" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="38">
         <v>99</v>
       </c>
-      <c r="B48" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="F48" s="22">
+      <c r="B48" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="F48" s="17">
         <v>149.99</v>
       </c>
-      <c r="G48" s="22">
-        <v>2</v>
-      </c>
-      <c r="H48" s="25">
-        <f>F48*G48</f>
-        <v>299.98</v>
-      </c>
-      <c r="I48" s="25">
+      <c r="G48" s="17">
+        <v>1</v>
+      </c>
+      <c r="H48" s="19">
+        <f t="shared" si="5"/>
+        <v>149.99</v>
+      </c>
+      <c r="I48" s="19">
         <f>H48</f>
-        <v>299.98</v>
+        <v>149.99</v>
       </c>
       <c r="J48" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="6">
-        <f>J48*F48</f>
-        <v>149.99</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="L48" s="17"/>
       <c r="M48" s="17"/>
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
     </row>
-    <row r="49" spans="1:15" ht="300" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
         <v>99</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>237</v>
+        <v>108</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>236</v>
+        <v>107</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>110</v>
       </c>
       <c r="F49" s="22">
-        <v>118.9</v>
+        <v>149.99</v>
       </c>
       <c r="G49" s="22">
-        <v>1</v>
-      </c>
-      <c r="H49" s="19">
-        <f>F49*G49</f>
-        <v>118.9</v>
-      </c>
-      <c r="I49" s="19">
-        <f>G49*H49</f>
-        <v>118.9</v>
+        <v>2</v>
+      </c>
+      <c r="H49" s="25">
+        <f t="shared" si="5"/>
+        <v>299.98</v>
+      </c>
+      <c r="I49" s="25">
+        <f>H49</f>
+        <v>299.98</v>
       </c>
       <c r="J49" s="7">
         <v>1</v>
       </c>
       <c r="K49" s="6">
-        <f>J49*F49</f>
-        <v>118.9</v>
+        <f t="shared" si="6"/>
+        <v>149.99</v>
       </c>
       <c r="L49" s="17"/>
       <c r="M49" s="17"/>
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
     </row>
-    <row r="50" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="300" x14ac:dyDescent="0.25">
       <c r="A50" s="38">
         <v>99</v>
       </c>
-      <c r="B50" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="F50" s="17">
-        <v>18.989999999999998</v>
-      </c>
-      <c r="G50" s="17">
+      <c r="B50" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="F50" s="22">
+        <v>118.9</v>
+      </c>
+      <c r="G50" s="22">
         <v>1</v>
       </c>
       <c r="H50" s="19">
-        <f>F50*G50</f>
-        <v>18.989999999999998</v>
-      </c>
-      <c r="I50" s="17"/>
+        <f t="shared" si="5"/>
+        <v>118.9</v>
+      </c>
+      <c r="I50" s="19">
+        <f>G50*H50</f>
+        <v>118.9</v>
+      </c>
       <c r="J50" s="7">
         <v>1</v>
       </c>
-      <c r="K50" s="8">
-        <f>J50*F50</f>
-        <v>18.989999999999998</v>
+      <c r="K50" s="6">
+        <f t="shared" si="6"/>
+        <v>118.9</v>
       </c>
       <c r="L50" s="17"/>
       <c r="M50" s="17"/>
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
     </row>
-    <row r="51" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" s="38">
         <v>99</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>115</v>
+        <v>241</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>239</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>116</v>
+        <v>18</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>240</v>
       </c>
       <c r="F51" s="17">
-        <v>99.99</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="G51" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H51" s="19">
-        <f>F51*G51</f>
-        <v>399.96</v>
-      </c>
-      <c r="I51" s="17"/>
-      <c r="J51" s="5">
-        <v>0</v>
-      </c>
-      <c r="K51" s="6">
-        <f>J51*F51</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>18.989999999999998</v>
+      </c>
+      <c r="I51" s="19">
+        <f>H51</f>
+        <v>18.989999999999998</v>
+      </c>
+      <c r="J51" s="7">
+        <v>1</v>
+      </c>
+      <c r="K51" s="8">
+        <f t="shared" si="6"/>
+        <v>18.989999999999998</v>
       </c>
       <c r="L51" s="17"/>
       <c r="M51" s="17"/>
@@ -3866,27 +3868,30 @@
         <v>113</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E52" s="21" t="s">
         <v>114</v>
       </c>
       <c r="F52" s="17">
-        <v>149.99</v>
+        <v>99.99</v>
       </c>
       <c r="G52" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H52" s="19">
-        <f>F52*G52</f>
-        <v>599.96</v>
-      </c>
-      <c r="I52" s="17"/>
+        <f t="shared" si="5"/>
+        <v>299.96999999999997</v>
+      </c>
+      <c r="I52" s="19">
+        <f>H52</f>
+        <v>299.96999999999997</v>
+      </c>
       <c r="J52" s="5">
         <v>0</v>
       </c>
       <c r="K52" s="6">
-        <f>J52*F52</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L52" s="17"/>
@@ -3894,38 +3899,41 @@
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
     </row>
-    <row r="53" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="38">
         <v>99</v>
       </c>
-      <c r="B53" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="C53" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="F53" s="29">
-        <v>22.95</v>
+      <c r="B53" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" s="17">
+        <v>149.99</v>
       </c>
       <c r="G53" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H53" s="19">
-        <f>F53*G53</f>
-        <v>91.8</v>
-      </c>
-      <c r="I53" s="17"/>
+        <f t="shared" si="5"/>
+        <v>449.97</v>
+      </c>
+      <c r="I53" s="19">
+        <f>H53</f>
+        <v>449.97</v>
+      </c>
       <c r="J53" s="5">
         <v>0</v>
       </c>
       <c r="K53" s="6">
-        <f>J53*F53</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L53" s="17"/>
@@ -3933,21 +3941,21 @@
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
     </row>
-    <row r="54" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="38">
         <v>99</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>207</v>
+        <v>349</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>18</v>
+        <v>232</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>208</v>
+        <v>348</v>
       </c>
       <c r="F54" s="29">
         <v>49.95</v>
@@ -3956,17 +3964,15 @@
         <v>1</v>
       </c>
       <c r="H54" s="19">
-        <f>F54*G54</f>
+        <f t="shared" ref="H54" si="7">F54*G54</f>
         <v>49.95</v>
       </c>
-      <c r="I54" s="17"/>
-      <c r="J54" s="7">
-        <v>0</v>
-      </c>
-      <c r="K54" s="6">
-        <f>J54*F54</f>
-        <v>0</v>
-      </c>
+      <c r="I54" s="19">
+        <f>H54</f>
+        <v>49.95</v>
+      </c>
+      <c r="J54" s="7"/>
+      <c r="K54" s="6"/>
       <c r="L54" s="17"/>
       <c r="M54" s="17"/>
       <c r="N54" s="6"/>
@@ -3977,16 +3983,16 @@
         <v>99</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F55" s="29">
         <v>49.95</v>
@@ -3995,15 +4001,18 @@
         <v>1</v>
       </c>
       <c r="H55" s="19">
-        <f>F55*G55</f>
+        <f t="shared" si="5"/>
         <v>49.95</v>
       </c>
-      <c r="I55" s="17"/>
+      <c r="I55" s="19">
+        <f>H55</f>
+        <v>49.95</v>
+      </c>
       <c r="J55" s="7">
         <v>1</v>
       </c>
       <c r="K55" s="6">
-        <f>J55*F55</f>
+        <f t="shared" si="6"/>
         <v>49.95</v>
       </c>
       <c r="L55" s="17"/>
@@ -4016,16 +4025,16 @@
         <v>99</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F56" s="29">
         <v>49.95</v>
@@ -4034,15 +4043,18 @@
         <v>1</v>
       </c>
       <c r="H56" s="19">
-        <f>F56*G56</f>
+        <f t="shared" si="5"/>
         <v>49.95</v>
       </c>
-      <c r="I56" s="17"/>
+      <c r="I56" s="19">
+        <f>H56</f>
+        <v>49.95</v>
+      </c>
       <c r="J56" s="7">
         <v>1</v>
       </c>
       <c r="K56" s="6">
-        <f>J56*F56</f>
+        <f t="shared" si="6"/>
         <v>49.95</v>
       </c>
       <c r="L56" s="17"/>
@@ -4055,16 +4067,16 @@
         <v>99</v>
       </c>
       <c r="B57" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="C57" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="C57" s="29" t="s">
-        <v>245</v>
-      </c>
       <c r="D57" s="29" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F57" s="29">
         <v>49.95</v>
@@ -4073,15 +4085,18 @@
         <v>1</v>
       </c>
       <c r="H57" s="19">
-        <f>F57*G57</f>
+        <f t="shared" si="5"/>
         <v>49.95</v>
       </c>
-      <c r="I57" s="17"/>
+      <c r="I57" s="19">
+        <f>H57</f>
+        <v>49.95</v>
+      </c>
       <c r="J57" s="7">
         <v>1</v>
       </c>
       <c r="K57" s="6">
-        <f>J57*F57</f>
+        <f t="shared" si="6"/>
         <v>49.95</v>
       </c>
       <c r="L57" s="17"/>
@@ -4094,7 +4109,7 @@
         <v>99</v>
       </c>
       <c r="B58" s="47" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C58" s="47"/>
       <c r="D58" s="47"/>
@@ -4103,8 +4118,8 @@
       <c r="G58" s="47"/>
       <c r="H58" s="52"/>
       <c r="I58" s="52">
-        <f>SUM(I46:I57)/12</f>
-        <v>47.405833333333334</v>
+        <f>SUM(I47:I57)/12</f>
+        <v>140.63250000000002</v>
       </c>
       <c r="J58" s="53"/>
       <c r="K58" s="47"/>
@@ -4115,13 +4130,13 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="41" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B59" s="42">
         <v>1</v>
       </c>
       <c r="C59" s="60" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="D59" s="42"/>
       <c r="E59" s="42"/>
@@ -4138,7 +4153,7 @@
     </row>
     <row r="60" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A60" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B60" s="17" t="s">
         <v>79</v>
@@ -4177,19 +4192,19 @@
     </row>
     <row r="61" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D61" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F61" s="17">
         <v>6.99</v>
@@ -4211,19 +4226,19 @@
     </row>
     <row r="62" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D62" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="F62" s="17">
         <v>7.19</v>
@@ -4245,19 +4260,19 @@
     </row>
     <row r="63" spans="1:15" ht="195" x14ac:dyDescent="0.25">
       <c r="A63" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="B63" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="B63" s="17" t="s">
-        <v>307</v>
-      </c>
       <c r="C63" s="17" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="D63" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="F63" s="17">
         <v>10.89</v>
@@ -4279,19 +4294,19 @@
     </row>
     <row r="64" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A64" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F64" s="17">
         <v>36.99</v>
@@ -4300,7 +4315,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="19">
-        <f>F64*G64</f>
+        <f t="shared" ref="H64:H99" si="8">F64*G64</f>
         <v>36.99</v>
       </c>
       <c r="I64" s="19"/>
@@ -4313,7 +4328,7 @@
     </row>
     <row r="65" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B65" s="17" t="s">
         <v>88</v>
@@ -4334,7 +4349,7 @@
         <v>5</v>
       </c>
       <c r="H65" s="19">
-        <f>F65*G65</f>
+        <f t="shared" si="8"/>
         <v>289</v>
       </c>
       <c r="I65" s="17"/>
@@ -4352,19 +4367,19 @@
     </row>
     <row r="66" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="D66" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="F66" s="17">
         <v>9.99</v>
@@ -4373,7 +4388,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="19">
-        <f>F66*G66</f>
+        <f t="shared" si="8"/>
         <v>9.99</v>
       </c>
       <c r="I66" s="17"/>
@@ -4386,7 +4401,7 @@
     </row>
     <row r="67" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B67" s="17" t="s">
         <v>85</v>
@@ -4407,7 +4422,7 @@
         <v>4</v>
       </c>
       <c r="H67" s="19">
-        <f>F67*G67</f>
+        <f t="shared" si="8"/>
         <v>379.96</v>
       </c>
       <c r="I67" s="17"/>
@@ -4425,19 +4440,19 @@
     </row>
     <row r="68" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A68" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B68" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C68" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="D68" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="18" t="s">
         <v>195</v>
-      </c>
-      <c r="C68" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="D68" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="18" t="s">
-        <v>197</v>
       </c>
       <c r="F68" s="17">
         <v>89.99</v>
@@ -4446,7 +4461,7 @@
         <v>2</v>
       </c>
       <c r="H68" s="19">
-        <f>F68*G68</f>
+        <f t="shared" si="8"/>
         <v>179.98</v>
       </c>
       <c r="I68" s="17"/>
@@ -4464,7 +4479,7 @@
     </row>
     <row r="69" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B69" s="17" t="s">
         <v>73</v>
@@ -4485,7 +4500,7 @@
         <v>1</v>
       </c>
       <c r="H69" s="19">
-        <f>F69*G69</f>
+        <f t="shared" si="8"/>
         <v>172.77</v>
       </c>
       <c r="I69" s="17"/>
@@ -4503,7 +4518,7 @@
     </row>
     <row r="70" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A70" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B70" s="22" t="s">
         <v>70</v>
@@ -4524,7 +4539,7 @@
         <v>2</v>
       </c>
       <c r="H70" s="25">
-        <f>F70*G70</f>
+        <f t="shared" si="8"/>
         <v>11.58</v>
       </c>
       <c r="I70" s="25"/>
@@ -4542,19 +4557,19 @@
     </row>
     <row r="71" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A71" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D71" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F71" s="17">
         <v>8.59</v>
@@ -4563,7 +4578,7 @@
         <v>2</v>
       </c>
       <c r="H71" s="19">
-        <f>F71*G71</f>
+        <f t="shared" si="8"/>
         <v>17.18</v>
       </c>
       <c r="I71" s="17"/>
@@ -4576,19 +4591,19 @@
     </row>
     <row r="72" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D72" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="F72" s="17">
         <v>11.98</v>
@@ -4597,7 +4612,7 @@
         <v>1</v>
       </c>
       <c r="H72" s="19">
-        <f>F72*G72</f>
+        <f t="shared" si="8"/>
         <v>11.98</v>
       </c>
       <c r="I72" s="17"/>
@@ -4610,19 +4625,19 @@
     </row>
     <row r="73" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="D73" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="F73" s="17">
         <v>11.99</v>
@@ -4631,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="H73" s="19">
-        <f>F73*G73</f>
+        <f t="shared" si="8"/>
         <v>11.99</v>
       </c>
       <c r="I73" s="17"/>
@@ -4644,19 +4659,19 @@
     </row>
     <row r="74" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A74" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D74" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F74" s="17">
         <v>19.989999999999998</v>
@@ -4665,7 +4680,7 @@
         <v>1</v>
       </c>
       <c r="H74" s="19">
-        <f>F74*G74</f>
+        <f t="shared" si="8"/>
         <v>19.989999999999998</v>
       </c>
       <c r="I74" s="19"/>
@@ -4673,7 +4688,7 @@
         <v>1</v>
       </c>
       <c r="K74" s="6">
-        <f>J74*F74</f>
+        <f t="shared" ref="K74:K84" si="9">J74*F74</f>
         <v>19.989999999999998</v>
       </c>
       <c r="L74" s="17"/>
@@ -4683,19 +4698,19 @@
     </row>
     <row r="75" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B75" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E75" s="18" t="s">
         <v>134</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E75" s="18" t="s">
-        <v>136</v>
       </c>
       <c r="F75" s="17">
         <v>27.95</v>
@@ -4704,7 +4719,7 @@
         <v>5</v>
       </c>
       <c r="H75" s="19">
-        <f>F75*G75</f>
+        <f t="shared" si="8"/>
         <v>139.75</v>
       </c>
       <c r="I75" s="17"/>
@@ -4712,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="6">
-        <f>J75*F75</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L75" s="17"/>
@@ -4722,19 +4737,19 @@
     </row>
     <row r="76" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B76" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E76" s="18" t="s">
         <v>128</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E76" s="18" t="s">
-        <v>130</v>
       </c>
       <c r="F76" s="17">
         <v>110.9</v>
@@ -4743,7 +4758,7 @@
         <v>5</v>
       </c>
       <c r="H76" s="19">
-        <f>F76*G76</f>
+        <f t="shared" si="8"/>
         <v>554.5</v>
       </c>
       <c r="I76" s="17"/>
@@ -4751,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="K76" s="6">
-        <f>J76*F76</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L76" s="17"/>
@@ -4761,19 +4776,19 @@
     </row>
     <row r="77" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B77" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D77" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="E77" s="21" t="s">
         <v>125</v>
-      </c>
-      <c r="D77" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="E77" s="21" t="s">
-        <v>127</v>
       </c>
       <c r="F77" s="17">
         <v>15.95</v>
@@ -4782,7 +4797,7 @@
         <v>18</v>
       </c>
       <c r="H77" s="19">
-        <f>F77*G77</f>
+        <f t="shared" si="8"/>
         <v>287.09999999999997</v>
       </c>
       <c r="I77" s="17"/>
@@ -4790,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="6">
-        <f>J77*F77</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L77" s="17"/>
@@ -4800,19 +4815,19 @@
     </row>
     <row r="78" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A78" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B78" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E78" s="21" t="s">
         <v>185</v>
-      </c>
-      <c r="C78" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="D78" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="E78" s="21" t="s">
-        <v>187</v>
       </c>
       <c r="F78" s="17">
         <v>25.95</v>
@@ -4821,7 +4836,7 @@
         <v>5</v>
       </c>
       <c r="H78" s="19">
-        <f>F78*G78</f>
+        <f t="shared" si="8"/>
         <v>129.75</v>
       </c>
       <c r="I78" s="17"/>
@@ -4829,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="K78" s="6">
-        <f>J78*F78</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L78" s="17"/>
@@ -4839,19 +4854,19 @@
     </row>
     <row r="79" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B79" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E79" s="21" t="s">
         <v>137</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D79" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="E79" s="21" t="s">
-        <v>139</v>
       </c>
       <c r="F79" s="17">
         <v>42.95</v>
@@ -4860,7 +4875,7 @@
         <v>5</v>
       </c>
       <c r="H79" s="19">
-        <f>F79*G79</f>
+        <f t="shared" si="8"/>
         <v>214.75</v>
       </c>
       <c r="I79" s="17"/>
@@ -4868,7 +4883,7 @@
         <v>2</v>
       </c>
       <c r="K79" s="6">
-        <f>J79*F79</f>
+        <f t="shared" si="9"/>
         <v>85.9</v>
       </c>
       <c r="L79" s="17"/>
@@ -4878,19 +4893,19 @@
     </row>
     <row r="80" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B80" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E80" s="18" t="s">
         <v>137</v>
-      </c>
-      <c r="C80" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E80" s="18" t="s">
-        <v>139</v>
       </c>
       <c r="F80" s="17">
         <v>42.95</v>
@@ -4899,7 +4914,7 @@
         <v>5</v>
       </c>
       <c r="H80" s="19">
-        <f>F80*G80</f>
+        <f t="shared" si="8"/>
         <v>214.75</v>
       </c>
       <c r="I80" s="17"/>
@@ -4907,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="K80" s="6">
-        <f>J80*F80</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L80" s="17"/>
@@ -4917,19 +4932,19 @@
     </row>
     <row r="81" spans="1:15" ht="51" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B81" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E81" s="21" t="s">
         <v>131</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D81" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="E81" s="21" t="s">
-        <v>133</v>
       </c>
       <c r="F81" s="17">
         <v>52.95</v>
@@ -4938,7 +4953,7 @@
         <v>5</v>
       </c>
       <c r="H81" s="19">
-        <f>F81*G81</f>
+        <f t="shared" si="8"/>
         <v>264.75</v>
       </c>
       <c r="I81" s="17"/>
@@ -4946,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="K81" s="6">
-        <f>J81*F81</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L81" s="17"/>
@@ -4956,19 +4971,19 @@
     </row>
     <row r="82" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A82" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B82" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E82" s="21" t="s">
         <v>182</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="D82" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="E82" s="21" t="s">
-        <v>184</v>
       </c>
       <c r="F82" s="17">
         <v>57.95</v>
@@ -4977,7 +4992,7 @@
         <v>5</v>
       </c>
       <c r="H82" s="19">
-        <f>F82*G82</f>
+        <f t="shared" si="8"/>
         <v>289.75</v>
       </c>
       <c r="I82" s="17"/>
@@ -4985,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="K82" s="6">
-        <f>J82*F82</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L82" s="17"/>
@@ -4995,19 +5010,19 @@
     </row>
     <row r="83" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B83" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E83" s="18" t="s">
         <v>188</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E83" s="18" t="s">
-        <v>190</v>
       </c>
       <c r="F83" s="17">
         <v>22.95</v>
@@ -5016,7 +5031,7 @@
         <v>5</v>
       </c>
       <c r="H83" s="19">
-        <f>F83*G83</f>
+        <f t="shared" si="8"/>
         <v>114.75</v>
       </c>
       <c r="I83" s="17"/>
@@ -5024,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="6">
-        <f>J83*F83</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L83" s="17"/>
@@ -5034,7 +5049,7 @@
     </row>
     <row r="84" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B84" s="22" t="s">
         <v>13</v>
@@ -5055,7 +5070,7 @@
         <v>5</v>
       </c>
       <c r="H84" s="25">
-        <f>F84*G84</f>
+        <f t="shared" si="8"/>
         <v>124.75</v>
       </c>
       <c r="I84" s="22"/>
@@ -5063,7 +5078,7 @@
         <v>1</v>
       </c>
       <c r="K84" s="6">
-        <f>J84*F84</f>
+        <f t="shared" si="9"/>
         <v>24.95</v>
       </c>
       <c r="L84" s="17"/>
@@ -5073,19 +5088,19 @@
     </row>
     <row r="85" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D85" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="F85" s="17">
         <v>4.25</v>
@@ -5094,7 +5109,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="19">
-        <f>F85*G85</f>
+        <f t="shared" si="8"/>
         <v>4.25</v>
       </c>
       <c r="I85" s="17"/>
@@ -5107,19 +5122,19 @@
     </row>
     <row r="86" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B86" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D86" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="E86" s="18" t="s">
         <v>144</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E86" s="18" t="s">
-        <v>146</v>
       </c>
       <c r="F86" s="17">
         <v>29.9</v>
@@ -5128,7 +5143,7 @@
         <v>5</v>
       </c>
       <c r="H86" s="19">
-        <f>F86*G86</f>
+        <f t="shared" si="8"/>
         <v>149.5</v>
       </c>
       <c r="I86" s="17"/>
@@ -5146,19 +5161,19 @@
     </row>
     <row r="87" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C87" s="29" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D87" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F87" s="17">
         <v>9.99</v>
@@ -5167,7 +5182,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="19">
-        <f>F87*G87</f>
+        <f t="shared" si="8"/>
         <v>9.99</v>
       </c>
       <c r="I87" s="17"/>
@@ -5185,17 +5200,17 @@
     </row>
     <row r="88" spans="1:15" ht="255" x14ac:dyDescent="0.25">
       <c r="A88" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B88" s="28" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D88" s="17"/>
       <c r="E88" s="18" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F88" s="17">
         <v>9.8000000000000007</v>
@@ -5204,7 +5219,7 @@
         <v>2</v>
       </c>
       <c r="H88" s="19">
-        <f>F88*G88</f>
+        <f t="shared" si="8"/>
         <v>19.600000000000001</v>
       </c>
       <c r="I88" s="19"/>
@@ -5217,19 +5232,19 @@
     </row>
     <row r="89" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B89" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C89" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="C89" s="17" t="s">
-        <v>349</v>
-      </c>
       <c r="D89" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="F89" s="17">
         <v>8.99</v>
@@ -5238,7 +5253,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="19">
-        <f>F89*G89</f>
+        <f t="shared" si="8"/>
         <v>8.99</v>
       </c>
       <c r="I89" s="17"/>
@@ -5251,19 +5266,19 @@
     </row>
     <row r="90" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A90" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B90" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C90" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D90" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="C90" s="29" t="s">
+      <c r="E90" s="18" t="s">
         <v>192</v>
-      </c>
-      <c r="D90" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="E90" s="18" t="s">
-        <v>194</v>
       </c>
       <c r="F90" s="17">
         <v>259</v>
@@ -5272,7 +5287,7 @@
         <v>8</v>
       </c>
       <c r="H90" s="19">
-        <f>F90*G90</f>
+        <f t="shared" si="8"/>
         <v>2072</v>
       </c>
       <c r="I90" s="17"/>
@@ -5290,7 +5305,7 @@
     </row>
     <row r="91" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A91" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B91" s="17" t="s">
         <v>82</v>
@@ -5311,7 +5326,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="19">
-        <f>F91*G91</f>
+        <f t="shared" si="8"/>
         <v>11.98</v>
       </c>
       <c r="I91" s="17"/>
@@ -5329,19 +5344,19 @@
     </row>
     <row r="92" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="D92" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E92" s="21" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="F92" s="17">
         <v>13.39</v>
@@ -5350,7 +5365,7 @@
         <v>1</v>
       </c>
       <c r="H92" s="19">
-        <f>F92*G92</f>
+        <f t="shared" si="8"/>
         <v>13.39</v>
       </c>
       <c r="I92" s="17"/>
@@ -5363,19 +5378,19 @@
     </row>
     <row r="93" spans="1:15" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A93" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B93" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="C93" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="D93" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" s="18" t="s">
         <v>201</v>
-      </c>
-      <c r="C93" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="D93" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E93" s="18" t="s">
-        <v>203</v>
       </c>
       <c r="F93" s="29">
         <v>12.99</v>
@@ -5384,7 +5399,7 @@
         <v>5</v>
       </c>
       <c r="H93" s="19">
-        <f>F93*G93</f>
+        <f t="shared" si="8"/>
         <v>64.95</v>
       </c>
       <c r="I93" s="17"/>
@@ -5402,19 +5417,19 @@
     </row>
     <row r="94" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A94" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C94" s="29" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D94" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F94" s="17">
         <v>12.99</v>
@@ -5423,7 +5438,7 @@
         <v>4</v>
       </c>
       <c r="H94" s="19">
-        <f>F94*G94</f>
+        <f t="shared" si="8"/>
         <v>51.96</v>
       </c>
       <c r="I94" s="17"/>
@@ -5436,19 +5451,19 @@
     </row>
     <row r="95" spans="1:15" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A95" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C95" s="29" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D95" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F95" s="17">
         <v>16.5</v>
@@ -5457,7 +5472,7 @@
         <v>6</v>
       </c>
       <c r="H95" s="19">
-        <f>F95*G95</f>
+        <f t="shared" si="8"/>
         <v>99</v>
       </c>
       <c r="I95" s="17"/>
@@ -5475,19 +5490,19 @@
     </row>
     <row r="96" spans="1:15" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A96" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D96" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F96" s="17">
         <v>15.25</v>
@@ -5496,7 +5511,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="19">
-        <f>F96*G96</f>
+        <f t="shared" si="8"/>
         <v>15.25</v>
       </c>
       <c r="I96" s="19"/>
@@ -5509,19 +5524,19 @@
     </row>
     <row r="97" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A97" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C97" s="29" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D97" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E97" s="21" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F97" s="17">
         <v>12</v>
@@ -5530,7 +5545,7 @@
         <v>6</v>
       </c>
       <c r="H97" s="19">
-        <f>F97*G97</f>
+        <f t="shared" si="8"/>
         <v>72</v>
       </c>
       <c r="I97" s="17"/>
@@ -5548,7 +5563,7 @@
     </row>
     <row r="98" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A98" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B98" s="17" t="s">
         <v>76</v>
@@ -5569,7 +5584,7 @@
         <v>4</v>
       </c>
       <c r="H98" s="19">
-        <f>F98*G98</f>
+        <f t="shared" si="8"/>
         <v>71.92</v>
       </c>
       <c r="I98" s="17"/>
@@ -5587,19 +5602,19 @@
     </row>
     <row r="99" spans="1:15" ht="270" x14ac:dyDescent="0.25">
       <c r="A99" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D99" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F99" s="17">
         <v>15.96</v>
@@ -5608,7 +5623,7 @@
         <v>1</v>
       </c>
       <c r="H99" s="19">
-        <f>F99*G99</f>
+        <f t="shared" si="8"/>
         <v>15.96</v>
       </c>
       <c r="I99" s="19"/>
@@ -5621,13 +5636,13 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="41" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B100" s="42">
         <v>1</v>
       </c>
       <c r="C100" s="42" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D100" s="42"/>
       <c r="E100" s="42"/>
@@ -5644,19 +5659,19 @@
     </row>
     <row r="101" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="38" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B101" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E101" s="21" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F101" s="17">
         <v>4.95</v>
@@ -5668,7 +5683,7 @@
         <v>5</v>
       </c>
       <c r="K101" s="6">
-        <f>J101*F101</f>
+        <f t="shared" ref="K101:K113" si="10">J101*F101</f>
         <v>24.75</v>
       </c>
       <c r="L101" s="17"/>
@@ -5678,7 +5693,7 @@
     </row>
     <row r="102" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A102" s="38" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B102" s="17" t="s">
         <v>94</v>
@@ -5702,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="K102" s="6">
-        <f>J102*F102</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L102" s="17"/>
@@ -5712,19 +5727,19 @@
     </row>
     <row r="103" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="38" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B103" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D103" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C103" s="17" t="s">
+      <c r="E103" s="18" t="s">
         <v>155</v>
-      </c>
-      <c r="D103" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="E103" s="18" t="s">
-        <v>157</v>
       </c>
       <c r="F103" s="17">
         <v>3.5</v>
@@ -5736,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="K103" s="6">
-        <f>J103*F103</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L103" s="17"/>
@@ -5746,19 +5761,19 @@
     </row>
     <row r="104" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="38" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E104" s="21" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F104" s="17">
         <v>7.95</v>
@@ -5770,7 +5785,7 @@
         <v>16</v>
       </c>
       <c r="K104" s="6">
-        <f>J104*F104</f>
+        <f t="shared" si="10"/>
         <v>127.2</v>
       </c>
       <c r="L104" s="17"/>
@@ -5780,7 +5795,7 @@
     </row>
     <row r="105" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="38" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B105" s="17" t="s">
         <v>97</v>
@@ -5804,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="K105" s="6">
-        <f>J105*F105</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L105" s="17"/>
@@ -5814,19 +5829,19 @@
     </row>
     <row r="106" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="38" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C106" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E106" s="21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F106" s="17">
         <v>11.99</v>
@@ -5838,7 +5853,7 @@
         <v>0</v>
       </c>
       <c r="K106" s="6">
-        <f>J106*F106</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L106" s="17"/>
@@ -5848,19 +5863,19 @@
     </row>
     <row r="107" spans="1:15" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A107" s="38" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B107" s="29" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D107" s="29" t="s">
         <v>18</v>
       </c>
       <c r="E107" s="21" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F107" s="29">
         <v>12.99</v>
@@ -5872,7 +5887,7 @@
         <v>0</v>
       </c>
       <c r="K107" s="6">
-        <f>J107*F107</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L107" s="17"/>
@@ -5882,7 +5897,7 @@
     </row>
     <row r="108" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A108" s="38" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B108" s="17" t="s">
         <v>91</v>
@@ -5906,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="K108" s="6">
-        <f>J108*F108</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L108" s="17"/>
@@ -5916,19 +5931,19 @@
     </row>
     <row r="109" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="38" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B109" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D109" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="C109" s="17" t="s">
+      <c r="E109" s="18" t="s">
         <v>164</v>
-      </c>
-      <c r="D109" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="E109" s="18" t="s">
-        <v>166</v>
       </c>
       <c r="F109" s="17">
         <v>19.95</v>
@@ -5940,7 +5955,7 @@
         <v>10</v>
       </c>
       <c r="K109" s="6">
-        <f>J109*F109</f>
+        <f t="shared" si="10"/>
         <v>199.5</v>
       </c>
       <c r="L109" s="17"/>
@@ -5950,7 +5965,7 @@
     </row>
     <row r="110" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A110" s="38" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B110" s="17" t="s">
         <v>99</v>
@@ -5974,7 +5989,7 @@
         <v>0</v>
       </c>
       <c r="K110" s="6">
-        <f>J110*F110</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L110" s="17"/>
@@ -5984,19 +5999,19 @@
     </row>
     <row r="111" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A111" s="38" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D111" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F111" s="17">
         <v>12</v>
@@ -6008,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="K111" s="6">
-        <f>J111*F111</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L111" s="17"/>
@@ -6018,19 +6033,19 @@
     </row>
     <row r="112" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A112" s="38" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C112" s="29" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D112" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E112" s="18" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F112" s="17">
         <v>8.99</v>
@@ -6042,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="K112" s="6">
-        <f>J112*F112</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L112" s="17"/>
@@ -6052,19 +6067,19 @@
     </row>
     <row r="113" spans="1:15" ht="195" x14ac:dyDescent="0.25">
       <c r="A113" s="38" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C113" s="29" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D113" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E113" s="18" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F113" s="17">
         <v>5.69</v>
@@ -6076,11 +6091,11 @@
         <v>1</v>
       </c>
       <c r="K113" s="6">
-        <f>J113*F113</f>
+        <f t="shared" si="10"/>
         <v>5.69</v>
       </c>
       <c r="L113" s="35" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="M113" s="17"/>
       <c r="N113" s="6"/>
@@ -6108,100 +6123,96 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="E41" r:id="rId1" display="https://www.amazon.com/dp/B00LPK0E5A/ref=sspa_dk_detail_1?psc=1&amp;pd_rd_i=B00LPK0E5A&amp;pd_rd_w=0M9NZ&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=aD93W&amp;pf_rd_r=YPJBQXW796NSXR2VMXXF&amp;pd_rd_r=27b44396-0b27-4df5-a333-c9ae450119d1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzRjAzSlpTNDhOSDROJmVuY3J5cHRlZElkPUExMDI0NTg3UkZNOVI5WEJEMTBKJmVuY3J5cHRlZEFkSWQ9QTAwMTM0OTMxR1ZVVzZSMDhHUEYwJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E46" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E47" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
     <hyperlink ref="E67" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
     <hyperlink ref="E42" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
     <hyperlink ref="E38" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
     <hyperlink ref="E32" r:id="rId6" display="https://www.amazon.com/BOJACK-UA741General-Purpose-Operational-Amplifier/dp/B07WSB1VNH/ref=asc_df_B07WSB1VNH/?tag=hyprod-20&amp;linkCode=df0&amp;hvadid=416713541504&amp;hvpos=&amp;hvnetw=g&amp;hvrand=10187485487199424423&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9030447&amp;hvtargid=pla-870040127419&amp;psc=1&amp;tag=&amp;ref=&amp;adgrpid=93604203773&amp;hvpone=&amp;hvptwo=&amp;hvadid=416713541504&amp;hvpos=&amp;hvnetw=g&amp;hvrand=10187485487199424423&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9030447&amp;hvtargid=pla-870040127419" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
     <hyperlink ref="E33" r:id="rId7" display="https://www.amazon.com/LSR-Transistor-Assortment-Electronics-Electronic/dp/B07TV9FFFQ/ref=sr_1_1_sspa?dchild=1&amp;keywords=transistor+kit&amp;qid=1589997273&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyNjRQNjZTRkNTMDBEJmVuY3J5cHRlZElkPUEwMjA2MDgzMTJBUTZXT1pMR1VFSyZlbmNyeXB0ZWRBZElkPUEwMzg4NDY4MzgxSDlaRERQMUxMQSZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
     <hyperlink ref="E86" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="E51" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="E52" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="E49" r:id="rId11" display="https://www.amazon.com/Isopropyl-Alcohol-Grade-99-Anhydrous/dp/B01KK014F4/ref=asc_df_B01KK014F4/?tag=hyprod-20&amp;linkCode=df0&amp;hvadid=312416780110&amp;hvpos=&amp;hvnetw=g&amp;hvrand=17295135421118886149&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9030447&amp;hvtargid=pla-569571734125&amp;psc=1&amp;tag=&amp;ref=&amp;adgrpid=61555869549&amp;hvpone=&amp;hvptwo=&amp;hvadid=312416780110&amp;hvpos=&amp;hvnetw=g&amp;hvrand=17295135421118886149&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9030447&amp;hvtargid=pla-569571734125" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="E48" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="E47" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="E40" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="E109" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="E36" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="E35" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="E34" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="E37" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="E30" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="E102" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="E108" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="E98" r:id="rId23" display="https://www.amazon.com/Smart-Enabled-Google-Assistant-HomeKit/dp/B01NBI0A6R/ref=sxin_3_ac_d_rm?ac_md=0-0-d2Vtbw%3D%3D-ac_d_rm&amp;cv_ct_cx=wemo&amp;keywords=wemo&amp;pd_rd_i=B01NBI0A6R&amp;pd_rd_r=bbd5c2e2-6eb9-40fe-9456-a7336162120f&amp;pd_rd_w=Ts0oB&amp;pd_rd_wg=K1Zyb&amp;pf_rd_p=de19e82a-2d83-4ae8-9f5c-212586b8b9a0&amp;pf_rd_r=8DGZDACCDVJ418KR7CNJ&amp;qid=1584141937&amp;th=1" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="E69" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="E8" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="E27" r:id="rId26" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="E24" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="E22" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="E23" r:id="rId29" display="https://www.amazon.com/Sandisk-Ultra-Micro-UHS-I-Adapter/dp/B073K14CVB/ref=pd_cp_147_1/146-7771809-3852250?_encoding=UTF8&amp;pd_rd_i=B073K14CVB&amp;pd_rd_r=4112200d-8115-4486-873a-5b6f4679030c&amp;pd_rd_w=93orM&amp;pd_rd_wg=Ui7kb&amp;pf_rd_p=4853e837-f87a-46d4-be32-dcf86bff7a7c&amp;pf_rd_r=T8EPQ498AK70MBHNE8DM&amp;psc=1&amp;refRID=T8EPQ498AK70MBHNE8DM" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="E12" r:id="rId30" display="https://www.amazon.com/BOJACK-Variable-Resistor-Potentiometer-Assortment/dp/B07WGHCMZC/ref=sr_1_2_sspa?crid=10AZ3JHLXQXEC&amp;keywords=potentiometer+kit&amp;qid=1584133291&amp;sprefix=pote%2Caps%2C184&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFUNEhZWk1JUVdJTVkmZW5jcnlwdGVkSWQ9QTA3NzM2MzlGSTBRM00xQzhTNk8mZW5jcnlwdGVkQWRJZD1BMDYwOTI3NDE4R1M5SDdYTk5XTVcmd2lkZ2V0TmFtZT1zcF9hdGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="E7" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="E9" r:id="rId32" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="E11" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="C84" r:id="rId34" display="https://www.adafruit.com/product/1461" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="E103" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="E84" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="E15" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="E21" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="E20" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="E13" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="E2" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="E5" r:id="rId42" display="https://www.amazon.com/Teensy-3-2-with-pins/dp/B015QUPO5Y/ref=pd_cp_328_2/146-7771809-3852250?_encoding=UTF8&amp;pd_rd_i=B015QUPO5Y&amp;pd_rd_r=27b95a34-9f23-44f6-bbff-68008086ed57&amp;pd_rd_w=vzcu6&amp;pd_rd_wg=VmhTT&amp;pf_rd_p=4853e837-f87a-46d4-be32-dcf86bff7a7c&amp;pf_rd_r=DCM2BKEYA2PKP2EFR23Y&amp;psc=1&amp;refRID=DCM2BKEYA2PKP2EFR23Y" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="E28" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="E70" r:id="rId44" display="https://www.amazon.com/dp/B07GD2BWPY/ref=sspa_dk_detail_2?psc=1&amp;pd_rd_i=B07GD2BWPY&amp;pd_rd_w=TqeWX&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=sNJWA&amp;pf_rd_r=ZXS16ECPMKD9XBVAS65W&amp;pd_rd_r=b5442918-7fb9-4962-af3b-9820970385cf&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyWTlUTDAyTTJDVElLJmVuY3J5cHRlZElkPUEwMjM2MDg0M0g1U1ZRS1hPNk0zMSZlbmNyeXB0ZWRBZElkPUEwNTczODQxM0JQVzgzUkcwMUVBNiZ3aWRnZXROYW1lPXNwX2RldGFpbCZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="E91" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="E60" r:id="rId46" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="E105" r:id="rId47" display="https://www.amazon.com/Adafruit-NeoPixel-Ring-Integrated-Drivers/dp/B00KAE3R1U/ref=sxin_7_ac_d_rm?ac_md=1-1-bmVvcGl4ZWw%3D-ac_d_rm&amp;cv_ct_cx=neopixel+ring&amp;dchild=1&amp;keywords=neopixel+ring&amp;pd_rd_i=B00KAE3R1U&amp;pd_rd_r=f532ea9d-0030-44f0-832a-ce614c837962&amp;pd_rd_w=9bJ5n&amp;pd_rd_wg=0eBjE&amp;pf_rd_p=a0516f22-66df-4efd-8b9a-279a864d1512&amp;pf_rd_r=AYP2P98ZJBNCG2YYCT97&amp;psc=1&amp;qid=1590415826&amp;sr=1-2-12d4272d-8adb-4121-8624-135149aa9081" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="E106" r:id="rId48" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="E110" r:id="rId49" display="https://www.amazon.com/dp/B01CDTEKAG/ref=sspa_dk_detail_5?psc=1&amp;pd_rd_i=B01CDTEKAG&amp;pd_rd_w=xH4vG&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=OWknK&amp;pf_rd_r=4MWDRWVKFJB1AYRB3KT5&amp;pd_rd_r=1dfe850a-4ea2-46f2-b93c-46b84486f9d4&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzUThIV0Y2UjRSUjImZW5jcnlwdGVkSWQ9QTAzMjQ0ODUxSDdUU0E3UTlMWFlEJmVuY3J5cHRlZEFkSWQ9QTA5Nzg1MTUxVTM3VzVKSE44S1RCJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="E65" r:id="rId50" display="https://www.amazon.com/DFROBOT-Gravity-Analog-Sensor-Arduino/dp/B00R5CCH7U/ref=sr_1_2_sspa?dchild=1&amp;keywords=dfrobot&amp;qid=1590416675&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExRVhTUks4U1dYNjhSJmVuY3J5cHRlZElkPUEwNTY0MzYzUldBQ1A2SDlRVkRCJmVuY3J5cHRlZEFkSWQ9QTEwNDU4OTYzVjNDWEhNV0RPS1IzJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="E75" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="E80" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="E81" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="E76" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="E4" r:id="rId55" display="https://www.lowes.com/pd/Tough-Box-16-Compartment-Plastic-Small-Parts-Organizer/1000365903?cm_mmc=shp-_-c-_-prd-_-tol-_-google-_-lia-_--_-toolstorage-_-1000365903-_-0&amp;store_code=2539&amp;placeholder=null&amp;gclid=EAIaIQobChMI2ICzhsX86QIVi4bACh0oNwjhEAQYASABEgLcgPD_BwE&amp;gclsrc=aw.ds" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="E90" r:id="rId56" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="E68" r:id="rId57" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="E10" r:id="rId58" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="E107" r:id="rId59" display="https://www.amazon.com/dp/B087B5NWY4/ref=sspa_dk_detail_0?psc=1&amp;pd_rd_i=B087B5NWY4&amp;pd_rd_w=qTl74&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=oJf3C&amp;pf_rd_r=BNJEBNTQ9WJFCK2T7NJG&amp;pd_rd_r=878dff4d-97fc-4ab7-b51d-f454e436af7d&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFSMFdOVFk0RUJCSjUmZW5jcnlwdGVkSWQ9QTA5OTM1MjYzSTlCWEhXN0xTU0RQJmVuY3J5cHRlZEFkSWQ9QTAxMzk3MzYzQktQVENFTUtJNzhJJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="E3" r:id="rId60" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="E93" r:id="rId61" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="E53" r:id="rId62" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="E54" r:id="rId63" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="E113" r:id="rId64" display="https://www.amazon.com/dp/B07QKDSCSM/ref=sspa_dk_detail_0?spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFCNUFXNjBMUkhRNjgmZW5jcnlwdGVkSWQ9QTAzODUwNTVOR1NCNFFLMjRWR0ImZW5jcnlwdGVkQWRJZD1BMDM1MDc1NjNWSVJZSlg1Q0pDTUkmd2lkZ2V0TmFtZT1zcF9kZXRhaWwyJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ&amp;th=1" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="E95" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
-    <hyperlink ref="E97" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
-    <hyperlink ref="E112" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
-    <hyperlink ref="E111" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
-    <hyperlink ref="E29" r:id="rId69" display="https://www.digikey.com/product-detail/en/citizen-finedevice-co-ltd/CFS-20632768DZFB/300-1002-ND/283736?utm_adgroup=Crystals%20Oscillators&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search&amp;utm_term=&amp;utm_content=Crystals%20Oscillators&amp;gclid=EAIaIQobChMIrI-y8dvf6gIVgobACh05Cwq-EAAYASAAEgJ-LvD_BwE" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
-    <hyperlink ref="E82" r:id="rId70" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
-    <hyperlink ref="E79" r:id="rId71" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
-    <hyperlink ref="E78" r:id="rId72" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
-    <hyperlink ref="E83" r:id="rId73" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
-    <hyperlink ref="C77" r:id="rId74" display="https://store.ncd.io/product/feather-battery-i2c-shield-for-particle-and-feather-modules/" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="E77" r:id="rId75" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="E55" r:id="rId76" xr:uid="{CB9AA7F3-57D3-4035-9B10-D6E06BA90642}"/>
-    <hyperlink ref="E56" r:id="rId77" xr:uid="{CD5B5197-64EF-49EF-91BD-2559DCFA1A39}"/>
-    <hyperlink ref="E57" r:id="rId78" xr:uid="{6673B4F9-7D5C-42C3-A449-534270670C62}"/>
-    <hyperlink ref="E50" r:id="rId79" xr:uid="{7BEE6173-67BD-462D-93F3-8868348A9E43}"/>
-    <hyperlink ref="E87" r:id="rId80" display="https://www.amazon.com/Screwdriver-Flathead-Phillips-Pentalobe-Different/dp/B0872XMTKS/ref=sr_1_2_sspa?crid=33O94WILFA3IZ&amp;dchild=1&amp;keywords=mini+screwdriver+set&amp;qid=1598205307&amp;sprefix=mini+screw%2Caps%2C201&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExMEY2S0QwRE9XR01UJmVuY3J5cHRlZElkPUEwNzIwODY1MjVGV1BCNDNFNkowRyZlbmNyeXB0ZWRBZElkPUExMDAyMjM5NFpSMkVPTlBSN0ZDJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{19DAF842-E937-4DB9-89CA-2282F04D2AEA}"/>
-    <hyperlink ref="E6" r:id="rId81" xr:uid="{B485A6B6-7307-4EAA-A186-31CAA890A0BC}"/>
-    <hyperlink ref="E101" r:id="rId82" xr:uid="{70F21853-AE4C-4BEC-9F14-C2DC1DDCC3B4}"/>
-    <hyperlink ref="E74" r:id="rId83" xr:uid="{23C2A1DE-EDE1-4FE6-90BB-24BA9B7A433E}"/>
-    <hyperlink ref="E14" r:id="rId84" xr:uid="{AA5B840A-EAA7-438B-AC90-9BD9F369A790}"/>
-    <hyperlink ref="E104" r:id="rId85" xr:uid="{BFF0F66D-BAE5-409E-9D4D-2406089A97E9}"/>
-    <hyperlink ref="E64" r:id="rId86" xr:uid="{E22E05A0-7702-4DD5-A4C2-BD50049E3BED}"/>
-    <hyperlink ref="E39" r:id="rId87" xr:uid="{88862DC7-2E84-40B9-8A79-31C61425F3EC}"/>
-    <hyperlink ref="E26" r:id="rId88" display="https://www.amazon.com/Smraza-Helicopter-Airplane-Control-Arduino/dp/B07L2SF3R4/ref=sr_1_2_sspa?dchild=1&amp;keywords=servo+motors&amp;qid=1627326343&amp;sr=8-2-spons&amp;psc=1&amp;smid=AMIHZKLK542FQ&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUE0T1dLTFVJNkJYSTkmZW5jcnlwdGVkSWQ9QTA1Mjc3MzhQMlkzQ0ZZV1ZNUlImZW5jcnlwdGVkQWRJZD1BMDIwNzMwN0dRSDFXTkhNVURFNCZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=" xr:uid="{5F7D6829-E8F9-4418-B2CF-E737838DD2F0}"/>
-    <hyperlink ref="E25" r:id="rId89" display="https://www.amazon.com/Matrix-Membrane-Switch-Keyboard-Arduino/dp/B07THCLGCZ/ref=sr_1_1_sspa?crid=11VSDXYN2F69R&amp;dchild=1&amp;keywords=keypad+arduino&amp;qid=1627326563&amp;sprefix=key+pads+ar%2Caps%2C227&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUE3UzVCUzNCUU01SUcmZW5jcnlwdGVkSWQ9QTA5NTA5MDEyWVc0R0w5VVRDTlFTJmVuY3J5cHRlZEFkSWQ9QTAyMjI5MDgyTFJVQlpLUExKVTEzJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{C7C18D08-2962-4850-A7D4-1A2C548DEB0C}"/>
-    <hyperlink ref="E72" r:id="rId90" display="https://www.amazon.com/WOWOONE-Laser-Diode-30pcs-Diameter/dp/B08R9XBVM3/ref=pd_b2b_qd_subs_1/134-6156851-5388530?pd_rd_w=qcbyD&amp;pf_rd_p=96b0f924-31c1-4af6-b03c-4e4f775bb59f&amp;pf_rd_r=6B5YQX1QH83S137RP9CS&amp;pd_rd_r=d6edc9c0-9f8d-4f15-be09-461639b468bb&amp;pd_rd_wg=MUKdO&amp;pd_rd_i=B08R9XBVM3&amp;psc=1" xr:uid="{6D60E322-6434-4EBB-BD9E-3CE8910CF4D7}"/>
-    <hyperlink ref="E89" r:id="rId91" xr:uid="{B33FFFB3-AB65-4E96-B0B2-C5B323D825AB}"/>
+    <hyperlink ref="E52" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="E53" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="E50" r:id="rId11" display="https://www.amazon.com/Isopropyl-Alcohol-Grade-99-Anhydrous/dp/B01KK014F4/ref=asc_df_B01KK014F4/?tag=hyprod-20&amp;linkCode=df0&amp;hvadid=312416780110&amp;hvpos=&amp;hvnetw=g&amp;hvrand=17295135421118886149&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9030447&amp;hvtargid=pla-569571734125&amp;psc=1&amp;tag=&amp;ref=&amp;adgrpid=61555869549&amp;hvpone=&amp;hvptwo=&amp;hvadid=312416780110&amp;hvpos=&amp;hvnetw=g&amp;hvrand=17295135421118886149&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9030447&amp;hvtargid=pla-569571734125" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="E49" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="E40" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="E109" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="E36" r:id="rId15" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="E35" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="E34" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="E37" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="E30" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="E102" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="E108" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="E98" r:id="rId22" display="https://www.amazon.com/Smart-Enabled-Google-Assistant-HomeKit/dp/B01NBI0A6R/ref=sxin_3_ac_d_rm?ac_md=0-0-d2Vtbw%3D%3D-ac_d_rm&amp;cv_ct_cx=wemo&amp;keywords=wemo&amp;pd_rd_i=B01NBI0A6R&amp;pd_rd_r=bbd5c2e2-6eb9-40fe-9456-a7336162120f&amp;pd_rd_w=Ts0oB&amp;pd_rd_wg=K1Zyb&amp;pf_rd_p=de19e82a-2d83-4ae8-9f5c-212586b8b9a0&amp;pf_rd_r=8DGZDACCDVJ418KR7CNJ&amp;qid=1584141937&amp;th=1" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="E69" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="E8" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="E27" r:id="rId25" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="E24" r:id="rId26" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="E22" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="E23" r:id="rId28" display="https://www.amazon.com/Sandisk-Ultra-Micro-UHS-I-Adapter/dp/B073K14CVB/ref=pd_cp_147_1/146-7771809-3852250?_encoding=UTF8&amp;pd_rd_i=B073K14CVB&amp;pd_rd_r=4112200d-8115-4486-873a-5b6f4679030c&amp;pd_rd_w=93orM&amp;pd_rd_wg=Ui7kb&amp;pf_rd_p=4853e837-f87a-46d4-be32-dcf86bff7a7c&amp;pf_rd_r=T8EPQ498AK70MBHNE8DM&amp;psc=1&amp;refRID=T8EPQ498AK70MBHNE8DM" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="E12" r:id="rId29" display="https://www.amazon.com/BOJACK-Variable-Resistor-Potentiometer-Assortment/dp/B07WGHCMZC/ref=sr_1_2_sspa?crid=10AZ3JHLXQXEC&amp;keywords=potentiometer+kit&amp;qid=1584133291&amp;sprefix=pote%2Caps%2C184&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFUNEhZWk1JUVdJTVkmZW5jcnlwdGVkSWQ9QTA3NzM2MzlGSTBRM00xQzhTNk8mZW5jcnlwdGVkQWRJZD1BMDYwOTI3NDE4R1M5SDdYTk5XTVcmd2lkZ2V0TmFtZT1zcF9hdGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="E7" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="E9" r:id="rId31" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="E11" r:id="rId32" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="C84" r:id="rId33" display="https://www.adafruit.com/product/1461" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="E103" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="E84" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="E15" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="E21" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="E20" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="E13" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="E2" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="E5" r:id="rId41" display="https://www.amazon.com/Teensy-3-2-with-pins/dp/B015QUPO5Y/ref=pd_cp_328_2/146-7771809-3852250?_encoding=UTF8&amp;pd_rd_i=B015QUPO5Y&amp;pd_rd_r=27b95a34-9f23-44f6-bbff-68008086ed57&amp;pd_rd_w=vzcu6&amp;pd_rd_wg=VmhTT&amp;pf_rd_p=4853e837-f87a-46d4-be32-dcf86bff7a7c&amp;pf_rd_r=DCM2BKEYA2PKP2EFR23Y&amp;psc=1&amp;refRID=DCM2BKEYA2PKP2EFR23Y" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="E28" r:id="rId42" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="E70" r:id="rId43" display="https://www.amazon.com/dp/B07GD2BWPY/ref=sspa_dk_detail_2?psc=1&amp;pd_rd_i=B07GD2BWPY&amp;pd_rd_w=TqeWX&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=sNJWA&amp;pf_rd_r=ZXS16ECPMKD9XBVAS65W&amp;pd_rd_r=b5442918-7fb9-4962-af3b-9820970385cf&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyWTlUTDAyTTJDVElLJmVuY3J5cHRlZElkPUEwMjM2MDg0M0g1U1ZRS1hPNk0zMSZlbmNyeXB0ZWRBZElkPUEwNTczODQxM0JQVzgzUkcwMUVBNiZ3aWRnZXROYW1lPXNwX2RldGFpbCZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="E91" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="E60" r:id="rId45" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="E105" r:id="rId46" display="https://www.amazon.com/Adafruit-NeoPixel-Ring-Integrated-Drivers/dp/B00KAE3R1U/ref=sxin_7_ac_d_rm?ac_md=1-1-bmVvcGl4ZWw%3D-ac_d_rm&amp;cv_ct_cx=neopixel+ring&amp;dchild=1&amp;keywords=neopixel+ring&amp;pd_rd_i=B00KAE3R1U&amp;pd_rd_r=f532ea9d-0030-44f0-832a-ce614c837962&amp;pd_rd_w=9bJ5n&amp;pd_rd_wg=0eBjE&amp;pf_rd_p=a0516f22-66df-4efd-8b9a-279a864d1512&amp;pf_rd_r=AYP2P98ZJBNCG2YYCT97&amp;psc=1&amp;qid=1590415826&amp;sr=1-2-12d4272d-8adb-4121-8624-135149aa9081" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="E106" r:id="rId47" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="E110" r:id="rId48" display="https://www.amazon.com/dp/B01CDTEKAG/ref=sspa_dk_detail_5?psc=1&amp;pd_rd_i=B01CDTEKAG&amp;pd_rd_w=xH4vG&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=OWknK&amp;pf_rd_r=4MWDRWVKFJB1AYRB3KT5&amp;pd_rd_r=1dfe850a-4ea2-46f2-b93c-46b84486f9d4&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzUThIV0Y2UjRSUjImZW5jcnlwdGVkSWQ9QTAzMjQ0ODUxSDdUU0E3UTlMWFlEJmVuY3J5cHRlZEFkSWQ9QTA5Nzg1MTUxVTM3VzVKSE44S1RCJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="E65" r:id="rId49" display="https://www.amazon.com/DFROBOT-Gravity-Analog-Sensor-Arduino/dp/B00R5CCH7U/ref=sr_1_2_sspa?dchild=1&amp;keywords=dfrobot&amp;qid=1590416675&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExRVhTUks4U1dYNjhSJmVuY3J5cHRlZElkPUEwNTY0MzYzUldBQ1A2SDlRVkRCJmVuY3J5cHRlZEFkSWQ9QTEwNDU4OTYzVjNDWEhNV0RPS1IzJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="E75" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="E80" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="E81" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="E76" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="E4" r:id="rId54" display="https://www.lowes.com/pd/Tough-Box-16-Compartment-Plastic-Small-Parts-Organizer/1000365903?cm_mmc=shp-_-c-_-prd-_-tol-_-google-_-lia-_--_-toolstorage-_-1000365903-_-0&amp;store_code=2539&amp;placeholder=null&amp;gclid=EAIaIQobChMI2ICzhsX86QIVi4bACh0oNwjhEAQYASABEgLcgPD_BwE&amp;gclsrc=aw.ds" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="E90" r:id="rId55" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="E68" r:id="rId56" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="E10" r:id="rId57" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="E107" r:id="rId58" display="https://www.amazon.com/dp/B087B5NWY4/ref=sspa_dk_detail_0?psc=1&amp;pd_rd_i=B087B5NWY4&amp;pd_rd_w=qTl74&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=oJf3C&amp;pf_rd_r=BNJEBNTQ9WJFCK2T7NJG&amp;pd_rd_r=878dff4d-97fc-4ab7-b51d-f454e436af7d&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFSMFdOVFk0RUJCSjUmZW5jcnlwdGVkSWQ9QTA5OTM1MjYzSTlCWEhXN0xTU0RQJmVuY3J5cHRlZEFkSWQ9QTAxMzk3MzYzQktQVENFTUtJNzhJJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="E3" r:id="rId59" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="E93" r:id="rId60" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="E113" r:id="rId61" display="https://www.amazon.com/dp/B07QKDSCSM/ref=sspa_dk_detail_0?spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFCNUFXNjBMUkhRNjgmZW5jcnlwdGVkSWQ9QTAzODUwNTVOR1NCNFFLMjRWR0ImZW5jcnlwdGVkQWRJZD1BMDM1MDc1NjNWSVJZSlg1Q0pDTUkmd2lkZ2V0TmFtZT1zcF9kZXRhaWwyJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ&amp;th=1" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="E95" r:id="rId62" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="E97" r:id="rId63" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="E112" r:id="rId64" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="E111" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="E29" r:id="rId66" display="https://www.digikey.com/product-detail/en/citizen-finedevice-co-ltd/CFS-20632768DZFB/300-1002-ND/283736?utm_adgroup=Crystals%20Oscillators&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search&amp;utm_term=&amp;utm_content=Crystals%20Oscillators&amp;gclid=EAIaIQobChMIrI-y8dvf6gIVgobACh05Cwq-EAAYASAAEgJ-LvD_BwE" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="E82" r:id="rId67" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="E79" r:id="rId68" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="E78" r:id="rId69" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="E83" r:id="rId70" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="C77" r:id="rId71" display="https://store.ncd.io/product/feather-battery-i2c-shield-for-particle-and-feather-modules/" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="E77" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="E55" r:id="rId73" xr:uid="{CB9AA7F3-57D3-4035-9B10-D6E06BA90642}"/>
+    <hyperlink ref="E56" r:id="rId74" xr:uid="{CD5B5197-64EF-49EF-91BD-2559DCFA1A39}"/>
+    <hyperlink ref="E57" r:id="rId75" xr:uid="{6673B4F9-7D5C-42C3-A449-534270670C62}"/>
+    <hyperlink ref="E51" r:id="rId76" xr:uid="{7BEE6173-67BD-462D-93F3-8868348A9E43}"/>
+    <hyperlink ref="E87" r:id="rId77" display="https://www.amazon.com/Screwdriver-Flathead-Phillips-Pentalobe-Different/dp/B0872XMTKS/ref=sr_1_2_sspa?crid=33O94WILFA3IZ&amp;dchild=1&amp;keywords=mini+screwdriver+set&amp;qid=1598205307&amp;sprefix=mini+screw%2Caps%2C201&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExMEY2S0QwRE9XR01UJmVuY3J5cHRlZElkPUEwNzIwODY1MjVGV1BCNDNFNkowRyZlbmNyeXB0ZWRBZElkPUExMDAyMjM5NFpSMkVPTlBSN0ZDJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{19DAF842-E937-4DB9-89CA-2282F04D2AEA}"/>
+    <hyperlink ref="E6" r:id="rId78" xr:uid="{B485A6B6-7307-4EAA-A186-31CAA890A0BC}"/>
+    <hyperlink ref="E101" r:id="rId79" xr:uid="{70F21853-AE4C-4BEC-9F14-C2DC1DDCC3B4}"/>
+    <hyperlink ref="E74" r:id="rId80" xr:uid="{23C2A1DE-EDE1-4FE6-90BB-24BA9B7A433E}"/>
+    <hyperlink ref="E14" r:id="rId81" xr:uid="{AA5B840A-EAA7-438B-AC90-9BD9F369A790}"/>
+    <hyperlink ref="E104" r:id="rId82" xr:uid="{BFF0F66D-BAE5-409E-9D4D-2406089A97E9}"/>
+    <hyperlink ref="E64" r:id="rId83" xr:uid="{E22E05A0-7702-4DD5-A4C2-BD50049E3BED}"/>
+    <hyperlink ref="E26" r:id="rId84" display="https://www.amazon.com/Smraza-Helicopter-Airplane-Control-Arduino/dp/B07L2SF3R4/ref=sr_1_2_sspa?dchild=1&amp;keywords=servo+motors&amp;qid=1627326343&amp;sr=8-2-spons&amp;psc=1&amp;smid=AMIHZKLK542FQ&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUE0T1dLTFVJNkJYSTkmZW5jcnlwdGVkSWQ9QTA1Mjc3MzhQMlkzQ0ZZV1ZNUlImZW5jcnlwdGVkQWRJZD1BMDIwNzMwN0dRSDFXTkhNVURFNCZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=" xr:uid="{5F7D6829-E8F9-4418-B2CF-E737838DD2F0}"/>
+    <hyperlink ref="E25" r:id="rId85" display="https://www.amazon.com/Matrix-Membrane-Switch-Keyboard-Arduino/dp/B07THCLGCZ/ref=sr_1_1_sspa?crid=11VSDXYN2F69R&amp;dchild=1&amp;keywords=keypad+arduino&amp;qid=1627326563&amp;sprefix=key+pads+ar%2Caps%2C227&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUE3UzVCUzNCUU01SUcmZW5jcnlwdGVkSWQ9QTA5NTA5MDEyWVc0R0w5VVRDTlFTJmVuY3J5cHRlZEFkSWQ9QTAyMjI5MDgyTFJVQlpLUExKVTEzJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{C7C18D08-2962-4850-A7D4-1A2C548DEB0C}"/>
+    <hyperlink ref="E72" r:id="rId86" display="https://www.amazon.com/WOWOONE-Laser-Diode-30pcs-Diameter/dp/B08R9XBVM3/ref=pd_b2b_qd_subs_1/134-6156851-5388530?pd_rd_w=qcbyD&amp;pf_rd_p=96b0f924-31c1-4af6-b03c-4e4f775bb59f&amp;pf_rd_r=6B5YQX1QH83S137RP9CS&amp;pd_rd_r=d6edc9c0-9f8d-4f15-be09-461639b468bb&amp;pd_rd_wg=MUKdO&amp;pd_rd_i=B08R9XBVM3&amp;psc=1" xr:uid="{6D60E322-6434-4EBB-BD9E-3CE8910CF4D7}"/>
+    <hyperlink ref="E89" r:id="rId87" xr:uid="{B33FFFB3-AB65-4E96-B0B2-C5B323D825AB}"/>
   </hyperlinks>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="83" fitToHeight="0" orientation="landscape" r:id="rId92"/>
+  <pageSetup scale="83" fitToHeight="0" orientation="landscape" r:id="rId88"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;K000000IoT Parts Inventory</oddHeader>
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
@@ -6210,15 +6221,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002E75A16FF431314587A6EFE715708639" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3845378365f05132d6f717dccfddac90">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c68989fb-d827-4f0c-be61-ce0fb4a2ca35" xmlns:ns3="ceb5a5b3-a521-4149-a5a6-8f2ebd45356c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b457bb54ec30cf46f3fea67e83ae68c" ns2:_="" ns3:_="">
     <xsd:import namespace="c68989fb-d827-4f0c-be61-ce0fb4a2ca35"/>
@@ -6435,6 +6437,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6442,14 +6453,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58CD0F9C-796C-40DA-891C-7A92FF34C67A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA096413-5493-4E6F-BFCB-1B6A0AC20663}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6468,6 +6471,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58CD0F9C-796C-40DA-891C-7A92FF34C67A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{623B2E16-5227-4FB6-A3C3-1FFAD3C257CB}">
   <ds:schemaRefs>

--- a/IoT_Parts.xlsx
+++ b/IoT_Parts.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IoT_Instructor\Documents\IoT\class_slides\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4EDA62-7D92-409D-804B-AF1BE1366DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAFD01C-E40E-49F8-B3A2-1594DADCBB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="-120" windowWidth="28065" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$B$1:$K$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$B$1:$K$116</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="358">
   <si>
     <t>Part</t>
   </si>
@@ -273,15 +273,6 @@
   </si>
   <si>
     <t>https://www.amazon.com/Smart-Enabled-Google-Assistant-HomeKit/dp/B01NBI0A6R/ref=sxin_3_ac_d_rm?ac_md=0-0-d2Vtbw%3D%3D-ac_d_rm&amp;cv_ct_cx=wemo&amp;keywords=wemo&amp;pd_rd_i=B01NBI0A6R&amp;pd_rd_r=bbd5c2e2-6eb9-40fe-9456-a7336162120f&amp;pd_rd_w=Ts0oB&amp;pd_rd_wg=K1Zyb&amp;pf_rd_p=de19e82a-2d83-4ae8-9f5c-212586b8b9a0&amp;pf_rd_r=8DGZDACCDVJ418KR7CNJ&amp;qid=1584141937&amp;th=1</t>
-  </si>
-  <si>
-    <t>5V power supply</t>
-  </si>
-  <si>
-    <t>ALITOVE 5V 3A Power Supply Adapter Converter Cord 5.5mm x 2.5mm 2.1mm Plug AC 100V~240V to DC 5 Volt 3000mA 2500mA 15W for WS2812B WS2811 LED Pixel Light CCTV Camera USB-HUB Wireless Router (2 Pack)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/ALITOVE-100V-240V-Converter-5-5x2-1mm-Security/dp/B082D97W98/ref=sr_1_5?dchild=1&amp;keywords=5v%2Bpower%2Bsupply&amp;qid=1590113266&amp;sr=8-5&amp;th=1</t>
   </si>
   <si>
     <t>Terminal Strips</t>
@@ -1120,12 +1111,39 @@
   <si>
     <t>Draft Resin (V2) 1 L</t>
   </si>
+  <si>
+    <t>AC/DC Power Supply (multiple voltages)</t>
+  </si>
+  <si>
+    <t>SHNITPWR 3V ~ 24V 3A 72W Power Supply Adjustable DC 3V 5V 6V 9V 12V 15V 16V 18V 19V 20V 24V Variable Universal AC/DC Adapter 100V-240V AC to DC Converter with 14 Tips 5.5x2.5mm 4.0x1.7mm 3.5x1.35mm</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SHNITPWR-Adjustable-Universal-100V-240V-3-5x1-35mm/dp/B08BL4QMGM/ref=sr_1_4?dchild=1&amp;keywords=variable%2Bvoltage%2Bpower%2Bsupply&amp;qid=1628000879&amp;sr=8-4&amp;th=1</t>
+  </si>
+  <si>
+    <t>10 Pairs Male and Female 2.1x5.5mm DC Power Cable Jack Adapter Connector Plug for 12V LED Strip and Electronics (10 x Male + 10 x Female Screw-on)</t>
+  </si>
+  <si>
+    <t>DC Connector Jacks</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Female-2-1x5-5mm-Adapter-Connector-Electronics/dp/B06XC1BMBR/ref=asc_df_B06XC1BMBR/?tag=hyprod-20&amp;linkCode=df0&amp;hvadid=226601492573&amp;hvpos=&amp;hvnetw=g&amp;hvrand=7761363675393674516&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9030447&amp;hvtargid=pla-431199494287&amp;psc=1</t>
+  </si>
+  <si>
+    <t>ESP32 CAM</t>
+  </si>
+  <si>
+    <t>DORHEA ESP32 Cam WiFi Bluetooth Development Board with OV2640 Camera Module + Micro USB to Serial Port CH340C 4.75V-5.25V Nodemcu for Ardu ino Raspberry Pi - 3 Set</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/DORHEA-Bluetooth-Development-4-75V-5-25V-Raspberry/dp/B08ZS5YWCG/ref=sr_1_8?dchild=1&amp;keywords=esp32+cam&amp;qid=1628001311&amp;sr=8-8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1184,12 +1202,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF0F1111"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1314,7 +1326,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1393,17 +1405,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1773,13 +1779,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O114"/>
+  <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="30" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="29" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" style="1" customWidth="1"/>
@@ -1791,14 +1799,14 @@
     <col min="10" max="11" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="35.140625" style="11" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="22.5703125" style="40" customWidth="1"/>
-    <col min="15" max="15" width="27.28515625" style="40" customWidth="1"/>
+    <col min="14" max="14" width="22.5703125" style="38" customWidth="1"/>
+    <col min="15" max="15" width="27.28515625" style="38" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>289</v>
+      <c r="A1" s="35" t="s">
+        <v>286</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
@@ -1816,39 +1824,39 @@
         <v>4</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="6"/>
       <c r="L1" s="14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="N1" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="O1" s="39" t="s">
-        <v>297</v>
+        <v>166</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="38">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="20" t="s">
@@ -1864,7 +1872,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="19">
-        <f t="shared" ref="H2:H17" si="0">F2*G2</f>
+        <f>F2*G2</f>
         <v>39.979999999999997</v>
       </c>
       <c r="I2" s="19">
@@ -1875,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="6">
-        <f t="shared" ref="K2:K15" si="1">J2*F2</f>
+        <f>J2*F2</f>
         <v>19.989999999999998</v>
       </c>
       <c r="L2" s="17"/>
@@ -1884,20 +1892,20 @@
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="38">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="D3" s="29" t="s">
+      <c r="B3" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="28" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F3" s="17">
         <v>12.47</v>
@@ -1906,7 +1914,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="19">
-        <f t="shared" si="0"/>
+        <f>F3*G3</f>
         <v>199.52</v>
       </c>
       <c r="I3" s="19">
@@ -1917,7 +1925,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="6">
-        <f t="shared" si="1"/>
+        <f>J3*F3</f>
         <v>124.7</v>
       </c>
       <c r="L3" s="17"/>
@@ -1926,20 +1934,20 @@
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="38">
+      <c r="A4" s="36">
         <v>1</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>170</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>173</v>
       </c>
       <c r="F4" s="17">
         <v>5.98</v>
@@ -1948,7 +1956,7 @@
         <v>16</v>
       </c>
       <c r="H4" s="19">
-        <f t="shared" si="0"/>
+        <f>F4*G4</f>
         <v>95.68</v>
       </c>
       <c r="I4" s="19">
@@ -1959,7 +1967,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="6">
-        <f t="shared" si="1"/>
+        <f>J4*F4</f>
         <v>95.68</v>
       </c>
       <c r="L4" s="17"/>
@@ -1968,7 +1976,7 @@
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" ht="195" x14ac:dyDescent="0.25">
-      <c r="A5" s="38">
+      <c r="A5" s="36">
         <v>1</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -1990,7 +1998,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="19">
-        <f t="shared" si="0"/>
+        <f>F5*G5</f>
         <v>478.26</v>
       </c>
       <c r="I5" s="19">
@@ -2001,7 +2009,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="6">
-        <f t="shared" si="1"/>
+        <f>J5*F5</f>
         <v>425.12</v>
       </c>
       <c r="L5" s="17"/>
@@ -2010,20 +2018,20 @@
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15" ht="126" x14ac:dyDescent="0.25">
-      <c r="A6" s="38">
+      <c r="A6" s="36">
         <v>1</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>247</v>
+      <c r="B6" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>244</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F6" s="17">
         <v>13.99</v>
@@ -2032,7 +2040,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="19">
-        <f t="shared" si="0"/>
+        <f>F6*G6</f>
         <v>55.96</v>
       </c>
       <c r="I6" s="19">
@@ -2043,7 +2051,7 @@
         <v>3</v>
       </c>
       <c r="K6" s="6">
-        <f t="shared" si="1"/>
+        <f>J6*F6</f>
         <v>41.97</v>
       </c>
       <c r="L6" s="17"/>
@@ -2052,7 +2060,7 @@
       <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="38">
+      <c r="A7" s="36">
         <v>2</v>
       </c>
       <c r="B7" s="17" t="s">
@@ -2074,7 +2082,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="19">
-        <f t="shared" si="0"/>
+        <f>F7*G7</f>
         <v>11.99</v>
       </c>
       <c r="I7" s="19">
@@ -2085,7 +2093,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="6">
-        <f t="shared" si="1"/>
+        <f>J7*F7</f>
         <v>11.99</v>
       </c>
       <c r="L7" s="17"/>
@@ -2094,7 +2102,7 @@
       <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="38">
+      <c r="A8" s="36">
         <v>2</v>
       </c>
       <c r="B8" s="17" t="s">
@@ -2116,7 +2124,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="19">
-        <f t="shared" si="0"/>
+        <f>F8*G8</f>
         <v>119.92</v>
       </c>
       <c r="I8" s="19">
@@ -2127,7 +2135,7 @@
         <v>8</v>
       </c>
       <c r="K8" s="6">
-        <f t="shared" si="1"/>
+        <f>J8*F8</f>
         <v>119.92</v>
       </c>
       <c r="L8" s="17"/>
@@ -2136,14 +2144,14 @@
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" ht="210" x14ac:dyDescent="0.25">
-      <c r="A9" s="38">
+      <c r="A9" s="36">
         <v>2</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>18</v>
@@ -2158,7 +2166,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="19">
-        <f t="shared" si="0"/>
+        <f>F9*G9</f>
         <v>47.44</v>
       </c>
       <c r="I9" s="19">
@@ -2169,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="6">
-        <f t="shared" si="1"/>
+        <f>J9*F9</f>
         <v>0</v>
       </c>
       <c r="L9" s="17"/>
@@ -2178,20 +2186,20 @@
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" ht="126" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
+      <c r="A10" s="36">
         <v>2</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="D10" s="29" t="s">
+      <c r="B10" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="28" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F10" s="17">
         <v>21.98</v>
@@ -2200,7 +2208,7 @@
         <v>16</v>
       </c>
       <c r="H10" s="19">
-        <f t="shared" si="0"/>
+        <f>F10*G10</f>
         <v>351.68</v>
       </c>
       <c r="I10" s="19">
@@ -2211,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="6">
-        <f t="shared" si="1"/>
+        <f>J10*F10</f>
         <v>0</v>
       </c>
       <c r="L10" s="17"/>
@@ -2220,7 +2228,7 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
+      <c r="A11" s="36">
         <v>3</v>
       </c>
       <c r="B11" s="17" t="s">
@@ -2242,7 +2250,7 @@
         <v>8</v>
       </c>
       <c r="H11" s="19">
-        <f t="shared" si="0"/>
+        <f>F11*G11</f>
         <v>61.44</v>
       </c>
       <c r="I11" s="19">
@@ -2253,7 +2261,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="6">
-        <f t="shared" si="1"/>
+        <f>J11*F11</f>
         <v>15.36</v>
       </c>
       <c r="L11" s="17"/>
@@ -2262,7 +2270,7 @@
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" ht="270" x14ac:dyDescent="0.25">
-      <c r="A12" s="38">
+      <c r="A12" s="36">
         <v>3</v>
       </c>
       <c r="B12" s="17" t="s">
@@ -2284,7 +2292,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="19">
-        <f t="shared" si="0"/>
+        <f>F12*G12</f>
         <v>16.989999999999998</v>
       </c>
       <c r="I12" s="19">
@@ -2295,7 +2303,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="6">
-        <f t="shared" si="1"/>
+        <f>J12*F12</f>
         <v>16.989999999999998</v>
       </c>
       <c r="L12" s="17"/>
@@ -2304,20 +2312,20 @@
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
+      <c r="A13" s="36">
         <v>5</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>118</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>121</v>
       </c>
       <c r="F13" s="17">
         <v>24.99</v>
@@ -2326,7 +2334,7 @@
         <v>18</v>
       </c>
       <c r="H13" s="19">
-        <f t="shared" si="0"/>
+        <f>F13*G13</f>
         <v>449.82</v>
       </c>
       <c r="I13" s="19">
@@ -2337,7 +2345,7 @@
         <v>16</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" si="1"/>
+        <f>J13*F13</f>
         <v>399.84</v>
       </c>
       <c r="L13" s="17"/>
@@ -2346,20 +2354,20 @@
       <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
+      <c r="A14" s="36">
         <v>5</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F14" s="17">
         <v>7.95</v>
@@ -2368,7 +2376,7 @@
         <v>18</v>
       </c>
       <c r="H14" s="19">
-        <f t="shared" si="0"/>
+        <f>F14*G14</f>
         <v>143.1</v>
       </c>
       <c r="I14" s="17">
@@ -2379,7 +2387,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="6">
-        <f t="shared" si="1"/>
+        <f>J14*F14</f>
         <v>127.2</v>
       </c>
       <c r="L14" s="17"/>
@@ -2388,7 +2396,7 @@
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
+      <c r="A15" s="36">
         <v>5</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -2410,7 +2418,7 @@
         <v>18</v>
       </c>
       <c r="H15" s="19">
-        <f t="shared" si="0"/>
+        <f>F15*G15</f>
         <v>135</v>
       </c>
       <c r="I15" s="19">
@@ -2421,7 +2429,7 @@
         <v>15</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" si="1"/>
+        <f>J15*F15</f>
         <v>112.5</v>
       </c>
       <c r="L15" s="17"/>
@@ -2430,20 +2438,20 @@
       <c r="O15" s="6"/>
     </row>
     <row r="16" spans="1:15" ht="195" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
+      <c r="A16" s="36">
         <v>5</v>
       </c>
-      <c r="B16" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>274</v>
+      <c r="B16" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>271</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F16" s="17">
         <v>9.99</v>
@@ -2452,7 +2460,7 @@
         <v>2</v>
       </c>
       <c r="H16" s="19">
-        <f t="shared" si="0"/>
+        <f>F16*G16</f>
         <v>19.98</v>
       </c>
       <c r="I16" s="19">
@@ -2467,20 +2475,20 @@
       <c r="O16" s="6"/>
     </row>
     <row r="17" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
+      <c r="A17" s="36">
         <v>5</v>
       </c>
-      <c r="B17" s="28" t="s">
-        <v>257</v>
+      <c r="B17" s="17" t="s">
+        <v>254</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F17" s="17">
         <v>7.99</v>
@@ -2489,7 +2497,7 @@
         <v>3</v>
       </c>
       <c r="H17" s="19">
-        <f t="shared" si="0"/>
+        <f>F17*G17</f>
         <v>23.97</v>
       </c>
       <c r="I17" s="19">
@@ -2504,20 +2512,20 @@
       <c r="O17" s="6"/>
     </row>
     <row r="18" spans="1:15" ht="165" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
+      <c r="A18" s="36">
         <v>6</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F18" s="17">
         <v>7.99</v>
@@ -2541,20 +2549,20 @@
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" ht="165" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
+      <c r="A19" s="36">
         <v>6</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F19" s="17">
         <v>7.99</v>
@@ -2578,20 +2586,20 @@
       <c r="O19" s="6"/>
     </row>
     <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="38">
+      <c r="A20" s="36">
         <v>6</v>
       </c>
-      <c r="B20" s="28" t="s">
-        <v>156</v>
+      <c r="B20" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F20" s="17">
         <v>2.95</v>
@@ -2600,11 +2608,11 @@
         <v>18</v>
       </c>
       <c r="H20" s="19">
-        <f t="shared" ref="H20:H44" si="2">F20*G20</f>
+        <f>F20*G20</f>
         <v>53.1</v>
       </c>
       <c r="I20" s="19">
-        <f t="shared" ref="I20:I25" si="3">0.75*H20</f>
+        <f>0.75*H20</f>
         <v>39.825000000000003</v>
       </c>
       <c r="J20" s="7">
@@ -2620,20 +2628,20 @@
       <c r="O20" s="6"/>
     </row>
     <row r="21" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="38">
+      <c r="A21" s="36">
         <v>6</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>159</v>
-      </c>
       <c r="D21" s="17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F21" s="17">
         <v>2.95</v>
@@ -2642,11 +2650,11 @@
         <v>18</v>
       </c>
       <c r="H21" s="19">
-        <f t="shared" si="2"/>
+        <f>F21*G21</f>
         <v>53.1</v>
       </c>
       <c r="I21" s="19">
-        <f t="shared" si="3"/>
+        <f>0.75*H21</f>
         <v>39.825000000000003</v>
       </c>
       <c r="J21" s="7">
@@ -2662,7 +2670,7 @@
       <c r="O21" s="6"/>
     </row>
     <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="38">
+      <c r="A22" s="36">
         <v>7</v>
       </c>
       <c r="B22" s="17" t="s">
@@ -2684,11 +2692,11 @@
         <v>18</v>
       </c>
       <c r="H22" s="19">
-        <f t="shared" si="2"/>
+        <f>F22*G22</f>
         <v>135</v>
       </c>
       <c r="I22" s="19">
-        <f t="shared" si="3"/>
+        <f>0.75*H22</f>
         <v>101.25</v>
       </c>
       <c r="J22" s="7">
@@ -2704,11 +2712,11 @@
       <c r="O22" s="6"/>
     </row>
     <row r="23" spans="1:15" ht="195" x14ac:dyDescent="0.25">
-      <c r="A23" s="38">
+      <c r="A23" s="36">
         <v>7</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>37</v>
@@ -2726,11 +2734,11 @@
         <v>18</v>
       </c>
       <c r="H23" s="19">
-        <f t="shared" si="2"/>
+        <f>F23*G23</f>
         <v>98.100000000000009</v>
       </c>
       <c r="I23" s="19">
-        <f t="shared" si="3"/>
+        <f>0.75*H23</f>
         <v>73.575000000000003</v>
       </c>
       <c r="J23" s="7">
@@ -2746,20 +2754,20 @@
       <c r="O23" s="6"/>
     </row>
     <row r="24" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="38">
+      <c r="A24" s="36">
         <v>8</v>
       </c>
       <c r="B24" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="18" t="s">
         <v>102</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>105</v>
       </c>
       <c r="F24" s="17">
         <v>16.489999999999998</v>
@@ -2768,11 +2776,11 @@
         <v>18</v>
       </c>
       <c r="H24" s="19">
-        <f t="shared" si="2"/>
+        <f>F24*G24</f>
         <v>296.82</v>
       </c>
       <c r="I24" s="19">
-        <f t="shared" si="3"/>
+        <f>0.75*H24</f>
         <v>222.61500000000001</v>
       </c>
       <c r="J24" s="7">
@@ -2788,20 +2796,20 @@
       <c r="O24" s="6"/>
     </row>
     <row r="25" spans="1:15" ht="285" x14ac:dyDescent="0.25">
-      <c r="A25" s="38">
+      <c r="A25" s="36">
         <v>9</v>
       </c>
-      <c r="B25" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>294</v>
+      <c r="B25" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>291</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F25" s="17">
         <v>6.88</v>
@@ -2810,11 +2818,11 @@
         <v>4</v>
       </c>
       <c r="H25" s="19">
-        <f t="shared" si="2"/>
+        <f>F25*G25</f>
         <v>27.52</v>
       </c>
       <c r="I25" s="19">
-        <f t="shared" si="3"/>
+        <f>0.75*H25</f>
         <v>20.64</v>
       </c>
       <c r="J25" s="7"/>
@@ -2825,20 +2833,20 @@
       <c r="O25" s="6"/>
     </row>
     <row r="26" spans="1:15" ht="270" x14ac:dyDescent="0.25">
-      <c r="A26" s="38">
+      <c r="A26" s="36">
         <v>9</v>
       </c>
-      <c r="B26" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>293</v>
+      <c r="B26" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>290</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F26" s="17">
         <v>17.989999999999998</v>
@@ -2847,7 +2855,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="19">
-        <f t="shared" si="2"/>
+        <f>F26*G26</f>
         <v>35.979999999999997</v>
       </c>
       <c r="I26" s="19">
@@ -2862,7 +2870,7 @@
       <c r="O26" s="6"/>
     </row>
     <row r="27" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="38">
+      <c r="A27" s="36">
         <v>10</v>
       </c>
       <c r="B27" s="22" t="s">
@@ -2884,7 +2892,7 @@
         <v>11</v>
       </c>
       <c r="H27" s="25">
-        <f t="shared" si="2"/>
+        <f>F27*G27</f>
         <v>142.89000000000001</v>
       </c>
       <c r="I27" s="25">
@@ -2904,7 +2912,7 @@
       <c r="O27" s="6"/>
     </row>
     <row r="28" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="38">
+      <c r="A28" s="36">
         <v>10</v>
       </c>
       <c r="B28" s="17" t="s">
@@ -2926,7 +2934,7 @@
         <v>9</v>
       </c>
       <c r="H28" s="19">
-        <f t="shared" si="2"/>
+        <f>F28*G28</f>
         <v>179.91</v>
       </c>
       <c r="I28" s="19">
@@ -2946,20 +2954,20 @@
       <c r="O28" s="6"/>
     </row>
     <row r="29" spans="1:15" ht="195" x14ac:dyDescent="0.25">
-      <c r="A29" s="38">
+      <c r="A29" s="36">
         <v>10</v>
       </c>
       <c r="B29" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E29" s="18" t="s">
         <v>208</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>211</v>
       </c>
       <c r="F29" s="17">
         <v>0.16</v>
@@ -2968,7 +2976,7 @@
         <v>100</v>
       </c>
       <c r="H29" s="19">
-        <f t="shared" si="2"/>
+        <f>F29*G29</f>
         <v>16</v>
       </c>
       <c r="I29" s="19">
@@ -2988,7 +2996,7 @@
       <c r="O29" s="6"/>
     </row>
     <row r="30" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A30" s="38">
+      <c r="A30" s="36">
         <v>12</v>
       </c>
       <c r="B30" s="17" t="s">
@@ -3010,7 +3018,7 @@
         <v>18</v>
       </c>
       <c r="H30" s="19">
-        <f t="shared" si="2"/>
+        <f>F30*G30</f>
         <v>630</v>
       </c>
       <c r="I30" s="19">
@@ -3025,27 +3033,27 @@
         <v>0</v>
       </c>
       <c r="L30" s="26" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M30" s="17"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
     </row>
     <row r="31" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="38">
+      <c r="A31" s="36">
         <v>12</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>319</v>
+        <v>315</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>316</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F31" s="17">
         <v>4.8899999999999997</v>
@@ -3054,7 +3062,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="19">
-        <f t="shared" si="2"/>
+        <f>F31*G31</f>
         <v>4.8899999999999997</v>
       </c>
       <c r="I31" s="19">
@@ -3069,20 +3077,20 @@
       <c r="O31" s="6"/>
     </row>
     <row r="32" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A32" s="38">
+      <c r="A32" s="36">
         <v>13</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F32" s="17">
         <v>8.99</v>
@@ -3091,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="19">
-        <f t="shared" si="2"/>
+        <f>F32*G32</f>
         <v>8.99</v>
       </c>
       <c r="I32" s="19">
@@ -3102,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="6">
-        <f t="shared" ref="K32:K38" si="4">J32*F32</f>
+        <f>J32*F32</f>
         <v>0</v>
       </c>
       <c r="L32" s="17"/>
@@ -3111,7 +3119,7 @@
       <c r="O32" s="6"/>
     </row>
     <row r="33" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="38">
+      <c r="A33" s="36">
         <v>13</v>
       </c>
       <c r="B33" s="17" t="s">
@@ -3133,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="19">
-        <f t="shared" si="2"/>
+        <f>F33*G33</f>
         <v>17.95</v>
       </c>
       <c r="I33" s="19">
@@ -3144,7 +3152,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="6">
-        <f t="shared" si="4"/>
+        <f>J33*F33</f>
         <v>17.95</v>
       </c>
       <c r="L33" s="17"/>
@@ -3153,7 +3161,7 @@
       <c r="O33" s="6"/>
     </row>
     <row r="34" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A34" s="38">
+      <c r="A34" s="36">
         <v>14</v>
       </c>
       <c r="B34" s="17" t="s">
@@ -3175,7 +3183,7 @@
         <v>4</v>
       </c>
       <c r="H34" s="19">
-        <f t="shared" si="2"/>
+        <f>F34*G34</f>
         <v>55.52</v>
       </c>
       <c r="I34" s="19">
@@ -3186,7 +3194,7 @@
         <v>3</v>
       </c>
       <c r="K34" s="6">
-        <f t="shared" si="4"/>
+        <f>J34*F34</f>
         <v>41.64</v>
       </c>
       <c r="L34" s="17"/>
@@ -3195,20 +3203,20 @@
       <c r="O34" s="6"/>
     </row>
     <row r="35" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="38">
+      <c r="A35" s="36">
         <v>14</v>
       </c>
       <c r="B35" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>148</v>
       </c>
       <c r="F35" s="17">
         <v>9.9</v>
@@ -3217,7 +3225,7 @@
         <v>18</v>
       </c>
       <c r="H35" s="19">
-        <f t="shared" si="2"/>
+        <f>F35*G35</f>
         <v>178.20000000000002</v>
       </c>
       <c r="I35" s="19">
@@ -3228,7 +3236,7 @@
         <v>10</v>
       </c>
       <c r="K35" s="6">
-        <f t="shared" si="4"/>
+        <f>J35*F35</f>
         <v>99</v>
       </c>
       <c r="L35" s="17"/>
@@ -3237,20 +3245,20 @@
       <c r="O35" s="6"/>
     </row>
     <row r="36" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="38">
+      <c r="A36" s="36">
         <v>14</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F36" s="17">
         <v>11.5</v>
@@ -3259,7 +3267,7 @@
         <v>18</v>
       </c>
       <c r="H36" s="19">
-        <f t="shared" si="2"/>
+        <f>F36*G36</f>
         <v>207</v>
       </c>
       <c r="I36" s="19">
@@ -3270,7 +3278,7 @@
         <v>10</v>
       </c>
       <c r="K36" s="6">
-        <f t="shared" si="4"/>
+        <f>J36*F36</f>
         <v>115</v>
       </c>
       <c r="L36" s="17"/>
@@ -3279,7 +3287,7 @@
       <c r="O36" s="6"/>
     </row>
     <row r="37" spans="1:15" ht="102" x14ac:dyDescent="0.25">
-      <c r="A37" s="38">
+      <c r="A37" s="36">
         <v>14</v>
       </c>
       <c r="B37" s="17" t="s">
@@ -3301,7 +3309,7 @@
         <v>5</v>
       </c>
       <c r="H37" s="19">
-        <f t="shared" si="2"/>
+        <f>F37*G37</f>
         <v>129.94999999999999</v>
       </c>
       <c r="I37" s="19">
@@ -3312,7 +3320,7 @@
         <v>2</v>
       </c>
       <c r="K37" s="6">
-        <f t="shared" si="4"/>
+        <f>J37*F37</f>
         <v>51.98</v>
       </c>
       <c r="L37" s="17"/>
@@ -3321,7 +3329,7 @@
       <c r="O37" s="6"/>
     </row>
     <row r="38" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="38">
+      <c r="A38" s="36">
         <v>16</v>
       </c>
       <c r="B38" s="17" t="s">
@@ -3343,7 +3351,7 @@
         <v>4</v>
       </c>
       <c r="H38" s="19">
-        <f t="shared" si="2"/>
+        <f>F38*G38</f>
         <v>47.96</v>
       </c>
       <c r="I38" s="19">
@@ -3354,7 +3362,7 @@
         <v>3</v>
       </c>
       <c r="K38" s="6">
-        <f t="shared" si="4"/>
+        <f>J38*F38</f>
         <v>35.97</v>
       </c>
       <c r="L38" s="17"/>
@@ -3363,20 +3371,20 @@
       <c r="O38" s="6"/>
     </row>
     <row r="39" spans="1:15" ht="165" x14ac:dyDescent="0.25">
-      <c r="A39" s="38">
+      <c r="A39" s="36">
         <v>16</v>
       </c>
-      <c r="B39" s="28" t="s">
-        <v>271</v>
+      <c r="B39" s="17" t="s">
+        <v>268</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F39" s="17">
         <v>5.49</v>
@@ -3385,7 +3393,7 @@
         <v>3</v>
       </c>
       <c r="H39" s="19">
-        <f t="shared" si="2"/>
+        <f>F39*G39</f>
         <v>16.47</v>
       </c>
       <c r="I39" s="19">
@@ -3400,7 +3408,7 @@
       <c r="O39" s="6"/>
     </row>
     <row r="40" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A40" s="38">
+      <c r="A40" s="36">
         <v>16</v>
       </c>
       <c r="B40" s="17" t="s">
@@ -3422,7 +3430,7 @@
         <v>18</v>
       </c>
       <c r="H40" s="19">
-        <f t="shared" si="2"/>
+        <f>F40*G40</f>
         <v>152.82</v>
       </c>
       <c r="I40" s="19">
@@ -3441,136 +3449,136 @@
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
     </row>
-    <row r="41" spans="1:15" ht="285" x14ac:dyDescent="0.25">
-      <c r="A41" s="38">
+    <row r="41" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="36">
         <v>16</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>66</v>
+        <v>340</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>67</v>
+        <v>342</v>
       </c>
       <c r="D41" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="18" t="s">
-        <v>68</v>
+      <c r="E41" s="21" t="s">
+        <v>341</v>
       </c>
       <c r="F41" s="17">
-        <v>11.99</v>
+        <v>6.95</v>
       </c>
       <c r="G41" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H41" s="19">
-        <f t="shared" si="2"/>
-        <v>47.96</v>
+        <f>F41*G41</f>
+        <v>6.95</v>
       </c>
       <c r="I41" s="19">
-        <f>0.75*H41</f>
-        <v>35.97</v>
-      </c>
-      <c r="J41" s="7">
-        <v>0</v>
-      </c>
-      <c r="K41" s="6">
-        <f>J41*F41</f>
-        <v>0</v>
-      </c>
+        <f>H41</f>
+        <v>6.95</v>
+      </c>
+      <c r="J41" s="7"/>
+      <c r="K41" s="6"/>
       <c r="L41" s="17"/>
       <c r="M41" s="17"/>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
     </row>
-    <row r="42" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A42" s="38">
+    <row r="42" spans="1:15" ht="285" x14ac:dyDescent="0.25">
+      <c r="A42" s="36">
         <v>16</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="21" t="s">
-        <v>65</v>
+      <c r="E42" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="F42" s="17">
-        <v>8.49</v>
+        <v>11.99</v>
       </c>
       <c r="G42" s="17">
         <v>4</v>
       </c>
       <c r="H42" s="19">
-        <f t="shared" si="2"/>
-        <v>33.96</v>
+        <f>F42*G42</f>
+        <v>47.96</v>
       </c>
       <c r="I42" s="19">
         <f>0.75*H42</f>
-        <v>25.47</v>
+        <v>35.97</v>
       </c>
       <c r="J42" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K42" s="6">
         <f>J42*F42</f>
-        <v>25.47</v>
+        <v>0</v>
       </c>
       <c r="L42" s="17"/>
       <c r="M42" s="17"/>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
     </row>
-    <row r="43" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="38">
+    <row r="43" spans="1:15" ht="51" x14ac:dyDescent="0.25">
+      <c r="A43" s="36">
         <v>16</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>343</v>
+        <v>63</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>345</v>
+        <v>64</v>
       </c>
       <c r="D43" s="20" t="s">
         <v>18</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>344</v>
+        <v>65</v>
       </c>
       <c r="F43" s="17">
-        <v>6.95</v>
+        <v>8.49</v>
       </c>
       <c r="G43" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H43" s="19">
-        <f t="shared" si="2"/>
-        <v>6.95</v>
+        <f>F43*G43</f>
+        <v>33.96</v>
       </c>
       <c r="I43" s="19">
-        <f>H43</f>
-        <v>6.95</v>
-      </c>
-      <c r="J43" s="7"/>
-      <c r="K43" s="6"/>
+        <f>0.75*H43</f>
+        <v>25.47</v>
+      </c>
+      <c r="J43" s="7">
+        <v>3</v>
+      </c>
+      <c r="K43" s="6">
+        <f>J43*F43</f>
+        <v>25.47</v>
+      </c>
       <c r="L43" s="17"/>
       <c r="M43" s="17"/>
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
     </row>
     <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="38">
+      <c r="A44" s="36">
         <v>18</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
@@ -3581,7 +3589,7 @@
         <v>16</v>
       </c>
       <c r="H44" s="19">
-        <f t="shared" si="2"/>
+        <f>F44*G44</f>
         <v>400</v>
       </c>
       <c r="I44" s="19">
@@ -3601,109 +3609,109 @@
       <c r="O44" s="6"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="46">
-        <v>18</v>
-      </c>
-      <c r="B45" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52">
+      <c r="A45" s="44">
+        <v>18</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50">
         <f>SUM(I1:I44)/12</f>
         <v>331.98770833333322</v>
       </c>
-      <c r="J45" s="53"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="47"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="45"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="41">
+      <c r="A46" s="39">
         <v>99</v>
       </c>
-      <c r="B46" s="42">
+      <c r="B46" s="40">
         <v>1</v>
       </c>
-      <c r="C46" s="49" t="s">
-        <v>307</v>
-      </c>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="50"/>
-      <c r="M46" s="50"/>
-      <c r="N46" s="50"/>
-      <c r="O46" s="51"/>
+      <c r="C46" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="49"/>
     </row>
     <row r="47" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="38">
+      <c r="A47" s="36">
         <v>99</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C47" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="D47" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="E47" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="F47" s="58">
+        <v>112</v>
+      </c>
+      <c r="C47" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="F47" s="56">
         <v>149.99</v>
       </c>
-      <c r="G47" s="58">
+      <c r="G47" s="56">
         <v>1</v>
       </c>
-      <c r="H47" s="59">
-        <f t="shared" ref="H47:H57" si="5">F47*G47</f>
+      <c r="H47" s="57">
+        <f>F47*G47</f>
         <v>149.99</v>
       </c>
       <c r="I47" s="19">
         <f>H47</f>
         <v>149.99</v>
       </c>
-      <c r="J47" s="54">
+      <c r="J47" s="52">
         <v>1</v>
       </c>
-      <c r="K47" s="44">
-        <f t="shared" ref="K47:K57" si="6">J47*F47</f>
+      <c r="K47" s="42">
+        <f>J47*F47</f>
         <v>149.99</v>
       </c>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="44"/>
-      <c r="O47" s="45"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="43"/>
     </row>
     <row r="48" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="38">
+      <c r="A48" s="36">
         <v>99</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F48" s="17">
         <v>149.99</v>
@@ -3712,7 +3720,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="19">
-        <f t="shared" si="5"/>
+        <f>F48*G48</f>
         <v>149.99</v>
       </c>
       <c r="I48" s="19">
@@ -3723,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="6">
-        <f t="shared" si="6"/>
+        <f>J48*F48</f>
         <v>0</v>
       </c>
       <c r="L48" s="17"/>
@@ -3732,20 +3740,20 @@
       <c r="O48" s="6"/>
     </row>
     <row r="49" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="38">
+      <c r="A49" s="36">
         <v>99</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D49" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="27" t="s">
         <v>107</v>
-      </c>
-      <c r="E49" s="27" t="s">
-        <v>110</v>
       </c>
       <c r="F49" s="22">
         <v>149.99</v>
@@ -3754,7 +3762,7 @@
         <v>2</v>
       </c>
       <c r="H49" s="25">
-        <f t="shared" si="5"/>
+        <f>F49*G49</f>
         <v>299.98</v>
       </c>
       <c r="I49" s="25">
@@ -3765,7 +3773,7 @@
         <v>1</v>
       </c>
       <c r="K49" s="6">
-        <f t="shared" si="6"/>
+        <f>J49*F49</f>
         <v>149.99</v>
       </c>
       <c r="L49" s="17"/>
@@ -3774,20 +3782,20 @@
       <c r="O49" s="6"/>
     </row>
     <row r="50" spans="1:15" ht="300" x14ac:dyDescent="0.25">
-      <c r="A50" s="38">
+      <c r="A50" s="36">
         <v>99</v>
       </c>
       <c r="B50" s="22" t="s">
         <v>69</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D50" s="23" t="s">
         <v>18</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F50" s="22">
         <v>118.9</v>
@@ -3796,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="19">
-        <f t="shared" si="5"/>
+        <f>F50*G50</f>
         <v>118.9</v>
       </c>
       <c r="I50" s="19">
@@ -3807,7 +3815,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="6">
-        <f t="shared" si="6"/>
+        <f>J50*F50</f>
         <v>118.9</v>
       </c>
       <c r="L50" s="17"/>
@@ -3816,20 +3824,20 @@
       <c r="O50" s="6"/>
     </row>
     <row r="51" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A51" s="38">
+      <c r="A51" s="36">
         <v>99</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="C51" s="29" t="s">
-        <v>239</v>
+        <v>238</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>236</v>
       </c>
       <c r="D51" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F51" s="17">
         <v>18.989999999999998</v>
@@ -3838,7 +3846,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="19">
-        <f t="shared" si="5"/>
+        <f>F51*G51</f>
         <v>18.989999999999998</v>
       </c>
       <c r="I51" s="19">
@@ -3849,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="8">
-        <f t="shared" si="6"/>
+        <f>J51*F51</f>
         <v>18.989999999999998</v>
       </c>
       <c r="L51" s="17"/>
@@ -3858,20 +3866,20 @@
       <c r="O51" s="6"/>
     </row>
     <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="38">
+      <c r="A52" s="36">
         <v>99</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F52" s="17">
         <v>99.99</v>
@@ -3880,7 +3888,7 @@
         <v>3</v>
       </c>
       <c r="H52" s="19">
-        <f t="shared" si="5"/>
+        <f>F52*G52</f>
         <v>299.96999999999997</v>
       </c>
       <c r="I52" s="19">
@@ -3891,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="6">
-        <f t="shared" si="6"/>
+        <f>J52*F52</f>
         <v>0</v>
       </c>
       <c r="L52" s="17"/>
@@ -3900,20 +3908,20 @@
       <c r="O52" s="6"/>
     </row>
     <row r="53" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="38">
+      <c r="A53" s="36">
         <v>99</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F53" s="17">
         <v>149.99</v>
@@ -3922,7 +3930,7 @@
         <v>3</v>
       </c>
       <c r="H53" s="19">
-        <f t="shared" si="5"/>
+        <f>F53*G53</f>
         <v>449.97</v>
       </c>
       <c r="I53" s="19">
@@ -3933,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="6">
-        <f t="shared" si="6"/>
+        <f>J53*F53</f>
         <v>0</v>
       </c>
       <c r="L53" s="17"/>
@@ -3942,29 +3950,29 @@
       <c r="O53" s="6"/>
     </row>
     <row r="54" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="38">
+      <c r="A54" s="36">
         <v>99</v>
       </c>
-      <c r="B54" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="C54" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="D54" s="29" t="s">
-        <v>232</v>
+      <c r="B54" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>229</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="F54" s="29">
+        <v>345</v>
+      </c>
+      <c r="F54" s="28">
         <v>49.95</v>
       </c>
       <c r="G54" s="17">
         <v>1</v>
       </c>
       <c r="H54" s="19">
-        <f t="shared" ref="H54" si="7">F54*G54</f>
+        <f>F54*G54</f>
         <v>49.95</v>
       </c>
       <c r="I54" s="19">
@@ -3979,29 +3987,29 @@
       <c r="O54" s="6"/>
     </row>
     <row r="55" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="38">
+      <c r="A55" s="36">
         <v>99</v>
       </c>
-      <c r="B55" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="C55" s="29" t="s">
+      <c r="B55" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="E55" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="D55" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="F55" s="29">
+      <c r="F55" s="28">
         <v>49.95</v>
       </c>
       <c r="G55" s="17">
         <v>1</v>
       </c>
       <c r="H55" s="19">
-        <f t="shared" si="5"/>
+        <f>F55*G55</f>
         <v>49.95</v>
       </c>
       <c r="I55" s="19">
@@ -4012,7 +4020,7 @@
         <v>1</v>
       </c>
       <c r="K55" s="6">
-        <f t="shared" si="6"/>
+        <f>J55*F55</f>
         <v>49.95</v>
       </c>
       <c r="L55" s="17"/>
@@ -4021,29 +4029,29 @@
       <c r="O55" s="6"/>
     </row>
     <row r="56" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="38">
+      <c r="A56" s="36">
         <v>99</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="C56" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="C56" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="D56" s="29" t="s">
+      <c r="D56" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="E56" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="E56" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="F56" s="29">
+      <c r="F56" s="28">
         <v>49.95</v>
       </c>
       <c r="G56" s="17">
         <v>1</v>
       </c>
       <c r="H56" s="19">
-        <f t="shared" si="5"/>
+        <f>F56*G56</f>
         <v>49.95</v>
       </c>
       <c r="I56" s="19">
@@ -4054,7 +4062,7 @@
         <v>1</v>
       </c>
       <c r="K56" s="6">
-        <f t="shared" si="6"/>
+        <f>J56*F56</f>
         <v>49.95</v>
       </c>
       <c r="L56" s="17"/>
@@ -4063,29 +4071,29 @@
       <c r="O56" s="6"/>
     </row>
     <row r="57" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="38">
+      <c r="A57" s="36">
         <v>99</v>
       </c>
-      <c r="B57" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="C57" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="D57" s="29" t="s">
-        <v>232</v>
+      <c r="B57" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>229</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="F57" s="29">
+        <v>234</v>
+      </c>
+      <c r="F57" s="28">
         <v>49.95</v>
       </c>
       <c r="G57" s="17">
         <v>1</v>
       </c>
       <c r="H57" s="19">
-        <f t="shared" si="5"/>
+        <f>F57*G57</f>
         <v>49.95</v>
       </c>
       <c r="I57" s="19">
@@ -4096,7 +4104,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="6">
-        <f t="shared" si="6"/>
+        <f>J57*F57</f>
         <v>49.95</v>
       </c>
       <c r="L57" s="17"/>
@@ -4105,106 +4113,101 @@
       <c r="O57" s="6"/>
     </row>
     <row r="58" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="46">
+      <c r="A58" s="44">
         <v>99</v>
       </c>
-      <c r="B58" s="47" t="s">
-        <v>317</v>
-      </c>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52">
+      <c r="B58" s="45" t="s">
+        <v>314</v>
+      </c>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50">
         <f>SUM(I47:I57)/12</f>
         <v>140.63250000000002</v>
       </c>
-      <c r="J58" s="53"/>
-      <c r="K58" s="47"/>
-      <c r="L58" s="47"/>
-      <c r="M58" s="47"/>
-      <c r="N58" s="47"/>
-      <c r="O58" s="47"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="45"/>
+      <c r="M58" s="45"/>
+      <c r="N58" s="45"/>
+      <c r="O58" s="45"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="41" t="s">
-        <v>291</v>
-      </c>
-      <c r="B59" s="42">
+      <c r="A59" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="B59" s="40">
         <v>1</v>
       </c>
-      <c r="C59" s="60" t="s">
-        <v>342</v>
-      </c>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="42"/>
-      <c r="L59" s="42"/>
-      <c r="M59" s="42"/>
-      <c r="N59" s="42"/>
-      <c r="O59" s="42"/>
+      <c r="C59" s="58" t="s">
+        <v>339</v>
+      </c>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="40"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="40"/>
     </row>
     <row r="60" spans="1:15" ht="120" x14ac:dyDescent="0.25">
-      <c r="A60" s="38" t="s">
-        <v>291</v>
+      <c r="A60" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>79</v>
+        <v>349</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="D60" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="21" t="s">
-        <v>81</v>
+      <c r="E60" s="18" t="s">
+        <v>351</v>
       </c>
       <c r="F60" s="17">
-        <v>15.99</v>
+        <v>22.88</v>
       </c>
       <c r="G60" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H60" s="19">
         <f>F60*G60</f>
-        <v>47.97</v>
+        <v>114.39999999999999</v>
       </c>
       <c r="I60" s="17"/>
-      <c r="J60" s="5">
-        <v>0</v>
-      </c>
-      <c r="K60" s="6">
-        <f>J60*F60</f>
-        <v>0</v>
-      </c>
+      <c r="J60" s="5"/>
+      <c r="K60" s="6"/>
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
     </row>
     <row r="61" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="38" t="s">
-        <v>291</v>
+      <c r="A61" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="B61" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="C61" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="C61" s="17" t="s">
-        <v>333</v>
-      </c>
       <c r="D61" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F61" s="17">
         <v>6.99</v>
@@ -4225,20 +4228,20 @@
       <c r="O61" s="6"/>
     </row>
     <row r="62" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A62" s="38" t="s">
-        <v>291</v>
+      <c r="A62" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D62" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F62" s="17">
         <v>7.19</v>
@@ -4259,20 +4262,20 @@
       <c r="O62" s="6"/>
     </row>
     <row r="63" spans="1:15" ht="195" x14ac:dyDescent="0.25">
-      <c r="A63" s="38" t="s">
-        <v>291</v>
+      <c r="A63" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D63" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F63" s="17">
         <v>10.89</v>
@@ -4293,20 +4296,20 @@
       <c r="O63" s="6"/>
     </row>
     <row r="64" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A64" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="B64" s="28" t="s">
+      <c r="A64" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C64" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="C64" s="29" t="s">
-        <v>282</v>
-      </c>
       <c r="D64" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F64" s="17">
         <v>36.99</v>
@@ -4315,7 +4318,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="19">
-        <f t="shared" ref="H64:H99" si="8">F64*G64</f>
+        <f>F64*G64</f>
         <v>36.99</v>
       </c>
       <c r="I64" s="19"/>
@@ -4327,20 +4330,20 @@
       <c r="O64" s="6"/>
     </row>
     <row r="65" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="38" t="s">
-        <v>291</v>
+      <c r="A65" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D65" s="20" t="s">
         <v>18</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F65" s="17">
         <v>57.8</v>
@@ -4349,7 +4352,7 @@
         <v>5</v>
       </c>
       <c r="H65" s="19">
-        <f t="shared" si="8"/>
+        <f>F65*G65</f>
         <v>289</v>
       </c>
       <c r="I65" s="17"/>
@@ -4365,31 +4368,31 @@
       <c r="N65" s="6"/>
       <c r="O65" s="6"/>
     </row>
-    <row r="66" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="38" t="s">
-        <v>291</v>
+    <row r="66" spans="1:15" ht="195" x14ac:dyDescent="0.25">
+      <c r="A66" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="D66" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="21" t="s">
-        <v>338</v>
+      <c r="E66" s="18" t="s">
+        <v>354</v>
       </c>
       <c r="F66" s="17">
-        <v>9.99</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="G66" s="17">
         <v>1</v>
       </c>
       <c r="H66" s="19">
-        <f t="shared" si="8"/>
-        <v>9.99</v>
+        <f>F66*G66</f>
+        <v>4.3600000000000003</v>
       </c>
       <c r="I66" s="17"/>
       <c r="J66" s="5"/>
@@ -4399,109 +4402,99 @@
       <c r="N66" s="6"/>
       <c r="O66" s="6"/>
     </row>
-    <row r="67" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="38" t="s">
-        <v>291</v>
+    <row r="67" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A67" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="21" t="s">
-        <v>87</v>
+        <v>355</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>357</v>
       </c>
       <c r="F67" s="17">
-        <v>94.99</v>
+        <v>29.95</v>
       </c>
       <c r="G67" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H67" s="19">
-        <f t="shared" si="8"/>
-        <v>379.96</v>
+        <f>F67*G67</f>
+        <v>59.9</v>
       </c>
       <c r="I67" s="17"/>
-      <c r="J67" s="5">
-        <v>0</v>
-      </c>
-      <c r="K67" s="6">
-        <f>J67*F67</f>
-        <v>0</v>
-      </c>
+      <c r="J67" s="5"/>
+      <c r="K67" s="6"/>
       <c r="L67" s="17"/>
       <c r="M67" s="17"/>
       <c r="N67" s="6"/>
       <c r="O67" s="6"/>
     </row>
-    <row r="68" spans="1:15" ht="135" x14ac:dyDescent="0.25">
-      <c r="A68" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="B68" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="C68" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="D68" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="18" t="s">
-        <v>195</v>
+    <row r="68" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>335</v>
       </c>
       <c r="F68" s="17">
-        <v>89.99</v>
+        <v>9.99</v>
       </c>
       <c r="G68" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" s="19">
-        <f t="shared" si="8"/>
-        <v>179.98</v>
+        <f>F68*G68</f>
+        <v>9.99</v>
       </c>
       <c r="I68" s="17"/>
-      <c r="J68" s="5">
-        <v>0</v>
-      </c>
-      <c r="K68" s="6">
-        <f>J68*F68</f>
-        <v>0</v>
-      </c>
+      <c r="J68" s="5"/>
+      <c r="K68" s="6"/>
       <c r="L68" s="17"/>
       <c r="M68" s="17"/>
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
     </row>
-    <row r="69" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="38" t="s">
-        <v>291</v>
+    <row r="69" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A69" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D69" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D69" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F69" s="17">
-        <v>172.77</v>
+        <v>94.99</v>
       </c>
       <c r="G69" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H69" s="19">
-        <f t="shared" si="8"/>
-        <v>172.77</v>
+        <f>F69*G69</f>
+        <v>379.96</v>
       </c>
       <c r="I69" s="17"/>
       <c r="J69" s="5">
@@ -4516,296 +4509,296 @@
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
     </row>
-    <row r="70" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="B70" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C70" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D70" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E70" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="F70" s="22">
-        <v>5.79</v>
-      </c>
-      <c r="G70" s="22">
+    <row r="70" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+      <c r="A70" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C70" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="F70" s="17">
+        <v>89.99</v>
+      </c>
+      <c r="G70" s="17">
         <v>2</v>
       </c>
-      <c r="H70" s="25">
-        <f t="shared" si="8"/>
-        <v>11.58</v>
-      </c>
-      <c r="I70" s="25"/>
-      <c r="J70" s="7">
-        <v>2</v>
+      <c r="H70" s="19">
+        <f>F70*G70</f>
+        <v>179.98</v>
+      </c>
+      <c r="I70" s="17"/>
+      <c r="J70" s="5">
+        <v>0</v>
       </c>
       <c r="K70" s="6">
         <f>J70*F70</f>
-        <v>11.58</v>
+        <v>0</v>
       </c>
       <c r="L70" s="17"/>
       <c r="M70" s="17"/>
       <c r="N70" s="6"/>
       <c r="O70" s="6"/>
     </row>
-    <row r="71" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A71" s="38" t="s">
-        <v>291</v>
+    <row r="71" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="C71" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E71" s="18" t="s">
-        <v>261</v>
+        <v>73</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="21" t="s">
+        <v>75</v>
       </c>
       <c r="F71" s="17">
-        <v>8.59</v>
+        <v>172.77</v>
       </c>
       <c r="G71" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" s="19">
-        <f t="shared" si="8"/>
-        <v>17.18</v>
+        <f>F71*G71</f>
+        <v>172.77</v>
       </c>
       <c r="I71" s="17"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="8"/>
+      <c r="J71" s="5">
+        <v>0</v>
+      </c>
+      <c r="K71" s="6">
+        <f>J71*F71</f>
+        <v>0</v>
+      </c>
       <c r="L71" s="17"/>
       <c r="M71" s="17"/>
       <c r="N71" s="6"/>
       <c r="O71" s="6"/>
     </row>
-    <row r="72" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A72" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E72" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="F72" s="17">
-        <v>11.98</v>
-      </c>
-      <c r="G72" s="17">
-        <v>1</v>
-      </c>
-      <c r="H72" s="19">
-        <f t="shared" si="8"/>
-        <v>11.98</v>
-      </c>
-      <c r="I72" s="17"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="6"/>
+    <row r="72" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F72" s="22">
+        <v>5.79</v>
+      </c>
+      <c r="G72" s="22">
+        <v>2</v>
+      </c>
+      <c r="H72" s="25">
+        <f>F72*G72</f>
+        <v>11.58</v>
+      </c>
+      <c r="I72" s="25"/>
+      <c r="J72" s="7">
+        <v>2</v>
+      </c>
+      <c r="K72" s="6">
+        <f>J72*F72</f>
+        <v>11.58</v>
+      </c>
       <c r="L72" s="17"/>
       <c r="M72" s="17"/>
       <c r="N72" s="6"/>
       <c r="O72" s="6"/>
     </row>
-    <row r="73" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A73" s="38" t="s">
-        <v>291</v>
+    <row r="73" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A73" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>336</v>
+        <v>257</v>
+      </c>
+      <c r="C73" s="28" t="s">
+        <v>259</v>
       </c>
       <c r="D73" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E73" s="21" t="s">
-        <v>337</v>
+      <c r="E73" s="18" t="s">
+        <v>258</v>
       </c>
       <c r="F73" s="17">
-        <v>11.99</v>
+        <v>8.59</v>
       </c>
       <c r="G73" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73" s="19">
-        <f t="shared" si="8"/>
-        <v>11.99</v>
+        <f>F73*G73</f>
+        <v>17.18</v>
       </c>
       <c r="I73" s="17"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="6"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="8"/>
       <c r="L73" s="17"/>
       <c r="M73" s="17"/>
       <c r="N73" s="6"/>
       <c r="O73" s="6"/>
     </row>
-    <row r="74" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A74" s="38" t="s">
-        <v>291</v>
+    <row r="74" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A74" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="C74" s="29" t="s">
-        <v>250</v>
+        <v>321</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>322</v>
       </c>
       <c r="D74" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="18" t="s">
-        <v>252</v>
+      <c r="E74" s="21" t="s">
+        <v>323</v>
       </c>
       <c r="F74" s="17">
-        <v>19.989999999999998</v>
+        <v>11.98</v>
       </c>
       <c r="G74" s="17">
         <v>1</v>
       </c>
       <c r="H74" s="19">
-        <f t="shared" si="8"/>
-        <v>19.989999999999998</v>
-      </c>
-      <c r="I74" s="19"/>
-      <c r="J74" s="17">
-        <v>1</v>
-      </c>
-      <c r="K74" s="6">
-        <f t="shared" ref="K74:K84" si="9">J74*F74</f>
-        <v>19.989999999999998</v>
-      </c>
+        <f>F74*G74</f>
+        <v>11.98</v>
+      </c>
+      <c r="I74" s="17"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="6"/>
       <c r="L74" s="17"/>
       <c r="M74" s="17"/>
       <c r="N74" s="6"/>
       <c r="O74" s="6"/>
     </row>
-    <row r="75" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A75" s="38" t="s">
-        <v>291</v>
+    <row r="75" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>133</v>
+        <v>332</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>333</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E75" s="18" t="s">
-        <v>134</v>
+        <v>18</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>334</v>
       </c>
       <c r="F75" s="17">
-        <v>27.95</v>
+        <v>11.99</v>
       </c>
       <c r="G75" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H75" s="19">
-        <f t="shared" si="8"/>
-        <v>139.75</v>
+        <f>F75*G75</f>
+        <v>11.99</v>
       </c>
       <c r="I75" s="17"/>
-      <c r="J75" s="5">
-        <v>0</v>
-      </c>
-      <c r="K75" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="J75" s="5"/>
+      <c r="K75" s="6"/>
       <c r="L75" s="17"/>
       <c r="M75" s="17"/>
       <c r="N75" s="6"/>
       <c r="O75" s="6"/>
     </row>
-    <row r="76" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A76" s="38" t="s">
-        <v>291</v>
+    <row r="76" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A76" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>127</v>
+        <v>248</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>247</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>128</v>
+        <v>249</v>
       </c>
       <c r="F76" s="17">
-        <v>110.9</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="G76" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H76" s="19">
-        <f t="shared" si="8"/>
-        <v>554.5</v>
-      </c>
-      <c r="I76" s="17"/>
-      <c r="J76" s="5">
-        <v>0</v>
+        <f>F76*G76</f>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I76" s="19"/>
+      <c r="J76" s="17">
+        <v>1</v>
       </c>
       <c r="K76" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>J76*F76</f>
+        <v>19.989999999999998</v>
       </c>
       <c r="L76" s="17"/>
       <c r="M76" s="17"/>
       <c r="N76" s="6"/>
       <c r="O76" s="6"/>
     </row>
-    <row r="77" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="38" t="s">
-        <v>291</v>
+    <row r="77" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A77" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D77" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="E77" s="21" t="s">
-        <v>125</v>
+        <v>130</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>131</v>
       </c>
       <c r="F77" s="17">
-        <v>15.95</v>
+        <v>27.95</v>
       </c>
       <c r="G77" s="17">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H77" s="19">
-        <f t="shared" si="8"/>
-        <v>287.09999999999997</v>
+        <f>F77*G77</f>
+        <v>139.75</v>
       </c>
       <c r="I77" s="17"/>
       <c r="J77" s="5">
         <v>0</v>
       </c>
       <c r="K77" s="6">
-        <f t="shared" si="9"/>
+        <f>J77*F77</f>
         <v>0</v>
       </c>
       <c r="L77" s="17"/>
@@ -4813,38 +4806,38 @@
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
     </row>
-    <row r="78" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="38" t="s">
-        <v>291</v>
+    <row r="78" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A78" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="C78" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="D78" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C78" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="E78" s="21" t="s">
-        <v>185</v>
+      <c r="D78" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>125</v>
       </c>
       <c r="F78" s="17">
-        <v>25.95</v>
+        <v>110.9</v>
       </c>
       <c r="G78" s="17">
         <v>5</v>
       </c>
       <c r="H78" s="19">
-        <f t="shared" si="8"/>
-        <v>129.75</v>
+        <f>F78*G78</f>
+        <v>554.5</v>
       </c>
       <c r="I78" s="17"/>
       <c r="J78" s="5">
         <v>0</v>
       </c>
       <c r="K78" s="6">
-        <f t="shared" si="9"/>
+        <f>J78*F78</f>
         <v>0</v>
       </c>
       <c r="L78" s="17"/>
@@ -4852,77 +4845,77 @@
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
     </row>
-    <row r="79" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="38" t="s">
-        <v>291</v>
+    <row r="79" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E79" s="21" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="F79" s="17">
-        <v>42.95</v>
+        <v>15.95</v>
       </c>
       <c r="G79" s="17">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H79" s="19">
-        <f t="shared" si="8"/>
-        <v>214.75</v>
+        <f>F79*G79</f>
+        <v>287.09999999999997</v>
       </c>
       <c r="I79" s="17"/>
       <c r="J79" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K79" s="6">
-        <f t="shared" si="9"/>
-        <v>85.9</v>
+        <f>J79*F79</f>
+        <v>0</v>
       </c>
       <c r="L79" s="17"/>
       <c r="M79" s="17"/>
       <c r="N79" s="6"/>
       <c r="O79" s="6"/>
     </row>
-    <row r="80" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A80" s="38" t="s">
-        <v>291</v>
+    <row r="80" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A80" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E80" s="18" t="s">
-        <v>137</v>
+        <v>181</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>182</v>
       </c>
       <c r="F80" s="17">
-        <v>42.95</v>
+        <v>25.95</v>
       </c>
       <c r="G80" s="17">
         <v>5</v>
       </c>
       <c r="H80" s="19">
-        <f t="shared" si="8"/>
-        <v>214.75</v>
+        <f>F80*G80</f>
+        <v>129.75</v>
       </c>
       <c r="I80" s="17"/>
       <c r="J80" s="5">
         <v>0</v>
       </c>
       <c r="K80" s="6">
-        <f t="shared" si="9"/>
+        <f>J80*F80</f>
         <v>0</v>
       </c>
       <c r="L80" s="17"/>
@@ -4930,77 +4923,77 @@
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
     </row>
-    <row r="81" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A81" s="38" t="s">
-        <v>291</v>
+    <row r="81" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A81" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F81" s="17">
-        <v>52.95</v>
+        <v>42.95</v>
       </c>
       <c r="G81" s="17">
         <v>5</v>
       </c>
       <c r="H81" s="19">
-        <f t="shared" si="8"/>
-        <v>264.75</v>
+        <f>F81*G81</f>
+        <v>214.75</v>
       </c>
       <c r="I81" s="17"/>
       <c r="J81" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K81" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>J81*F81</f>
+        <v>85.9</v>
       </c>
       <c r="L81" s="17"/>
       <c r="M81" s="17"/>
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
     </row>
-    <row r="82" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="38" t="s">
-        <v>291</v>
+    <row r="82" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="D82" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="E82" s="21" t="s">
-        <v>182</v>
+        <v>133</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>134</v>
       </c>
       <c r="F82" s="17">
-        <v>57.95</v>
+        <v>42.95</v>
       </c>
       <c r="G82" s="17">
         <v>5</v>
       </c>
       <c r="H82" s="19">
-        <f t="shared" si="8"/>
-        <v>289.75</v>
+        <f>F82*G82</f>
+        <v>214.75</v>
       </c>
       <c r="I82" s="17"/>
       <c r="J82" s="5">
         <v>0</v>
       </c>
       <c r="K82" s="6">
-        <f t="shared" si="9"/>
+        <f>J82*F82</f>
         <v>0</v>
       </c>
       <c r="L82" s="17"/>
@@ -5008,38 +5001,38 @@
       <c r="N82" s="6"/>
       <c r="O82" s="6"/>
     </row>
-    <row r="83" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A83" s="38" t="s">
-        <v>291</v>
+    <row r="83" spans="1:15" ht="51" x14ac:dyDescent="0.25">
+      <c r="A83" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E83" s="18" t="s">
-        <v>188</v>
+        <v>126</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E83" s="21" t="s">
+        <v>128</v>
       </c>
       <c r="F83" s="17">
-        <v>22.95</v>
+        <v>52.95</v>
       </c>
       <c r="G83" s="17">
         <v>5</v>
       </c>
       <c r="H83" s="19">
-        <f t="shared" si="8"/>
-        <v>114.75</v>
+        <f>F83*G83</f>
+        <v>264.75</v>
       </c>
       <c r="I83" s="17"/>
       <c r="J83" s="5">
         <v>0</v>
       </c>
       <c r="K83" s="6">
-        <f t="shared" si="9"/>
+        <f>J83*F83</f>
         <v>0</v>
       </c>
       <c r="L83" s="17"/>
@@ -5047,39 +5040,39 @@
       <c r="N83" s="6"/>
       <c r="O83" s="6"/>
     </row>
-    <row r="84" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="B84" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C84" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F84" s="22">
-        <v>24.95</v>
-      </c>
-      <c r="G84" s="22">
+    <row r="84" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A84" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="F84" s="17">
+        <v>57.95</v>
+      </c>
+      <c r="G84" s="17">
         <v>5</v>
       </c>
-      <c r="H84" s="25">
-        <f t="shared" si="8"/>
-        <v>124.75</v>
-      </c>
-      <c r="I84" s="22"/>
+      <c r="H84" s="19">
+        <f>F84*G84</f>
+        <v>289.75</v>
+      </c>
+      <c r="I84" s="17"/>
       <c r="J84" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" s="6">
-        <f t="shared" si="9"/>
-        <v>24.95</v>
+        <f>J84*F84</f>
+        <v>0</v>
       </c>
       <c r="L84" s="17"/>
       <c r="M84" s="17"/>
@@ -5087,320 +5080,325 @@
       <c r="O84" s="6"/>
     </row>
     <row r="85" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A85" s="38" t="s">
-        <v>291</v>
+      <c r="A85" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>322</v>
+        <v>183</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>321</v>
+        <v>184</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E85" s="21" t="s">
-        <v>323</v>
+        <v>121</v>
+      </c>
+      <c r="E85" s="18" t="s">
+        <v>185</v>
       </c>
       <c r="F85" s="17">
-        <v>4.25</v>
+        <v>22.95</v>
       </c>
       <c r="G85" s="17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H85" s="19">
-        <f t="shared" si="8"/>
-        <v>4.25</v>
+        <f>F85*G85</f>
+        <v>114.75</v>
       </c>
       <c r="I85" s="17"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="6"/>
+      <c r="J85" s="5">
+        <v>0</v>
+      </c>
+      <c r="K85" s="6">
+        <f>J85*F85</f>
+        <v>0</v>
+      </c>
       <c r="L85" s="17"/>
       <c r="M85" s="17"/>
       <c r="N85" s="6"/>
       <c r="O85" s="6"/>
     </row>
-    <row r="86" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="B86" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="E86" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="F86" s="17">
-        <v>29.9</v>
-      </c>
-      <c r="G86" s="17">
+    <row r="86" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" s="22">
+        <v>24.95</v>
+      </c>
+      <c r="G86" s="22">
         <v>5</v>
       </c>
-      <c r="H86" s="19">
-        <f t="shared" si="8"/>
-        <v>149.5</v>
-      </c>
-      <c r="I86" s="17"/>
+      <c r="H86" s="25">
+        <f>F86*G86</f>
+        <v>124.75</v>
+      </c>
+      <c r="I86" s="22"/>
       <c r="J86" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K86" s="6">
         <f>J86*F86</f>
-        <v>59.8</v>
+        <v>24.95</v>
       </c>
       <c r="L86" s="17"/>
       <c r="M86" s="17"/>
       <c r="N86" s="6"/>
       <c r="O86" s="6"/>
     </row>
-    <row r="87" spans="1:15" ht="285" x14ac:dyDescent="0.25">
-      <c r="A87" s="38" t="s">
-        <v>291</v>
+    <row r="87" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A87" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="C87" s="29" t="s">
-        <v>243</v>
+        <v>319</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>318</v>
       </c>
       <c r="D87" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E87" s="18" t="s">
-        <v>242</v>
+      <c r="E87" s="21" t="s">
+        <v>320</v>
       </c>
       <c r="F87" s="17">
-        <v>9.99</v>
+        <v>4.25</v>
       </c>
       <c r="G87" s="17">
         <v>1</v>
       </c>
       <c r="H87" s="19">
-        <f t="shared" si="8"/>
-        <v>9.99</v>
+        <f>F87*G87</f>
+        <v>4.25</v>
       </c>
       <c r="I87" s="17"/>
-      <c r="J87" s="7">
-        <v>1</v>
-      </c>
-      <c r="K87" s="8">
-        <f>J87*F87</f>
-        <v>9.99</v>
-      </c>
+      <c r="J87" s="5"/>
+      <c r="K87" s="6"/>
       <c r="L87" s="17"/>
       <c r="M87" s="17"/>
       <c r="N87" s="6"/>
       <c r="O87" s="6"/>
     </row>
-    <row r="88" spans="1:15" ht="255" x14ac:dyDescent="0.25">
-      <c r="A88" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="B88" s="28" t="s">
-        <v>264</v>
+    <row r="88" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>138</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="D88" s="17"/>
+        <v>139</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>140</v>
+      </c>
       <c r="E88" s="18" t="s">
-        <v>263</v>
+        <v>141</v>
       </c>
       <c r="F88" s="17">
-        <v>9.8000000000000007</v>
+        <v>29.9</v>
       </c>
       <c r="G88" s="17">
+        <v>5</v>
+      </c>
+      <c r="H88" s="19">
+        <f>F88*G88</f>
+        <v>149.5</v>
+      </c>
+      <c r="I88" s="17"/>
+      <c r="J88" s="5">
         <v>2</v>
       </c>
-      <c r="H88" s="19">
-        <f t="shared" si="8"/>
-        <v>19.600000000000001</v>
-      </c>
-      <c r="I88" s="19"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="6"/>
+      <c r="K88" s="6">
+        <f>J88*F88</f>
+        <v>59.8</v>
+      </c>
       <c r="L88" s="17"/>
       <c r="M88" s="17"/>
       <c r="N88" s="6"/>
       <c r="O88" s="6"/>
     </row>
-    <row r="89" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A89" s="38" t="s">
-        <v>291</v>
+    <row r="89" spans="1:15" ht="285" x14ac:dyDescent="0.25">
+      <c r="A89" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>340</v>
+        <v>241</v>
+      </c>
+      <c r="C89" s="28" t="s">
+        <v>240</v>
       </c>
       <c r="D89" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E89" s="21" t="s">
-        <v>341</v>
+      <c r="E89" s="18" t="s">
+        <v>239</v>
       </c>
       <c r="F89" s="17">
-        <v>8.99</v>
+        <v>9.99</v>
       </c>
       <c r="G89" s="17">
         <v>1</v>
       </c>
       <c r="H89" s="19">
-        <f t="shared" si="8"/>
-        <v>8.99</v>
+        <f>F89*G89</f>
+        <v>9.99</v>
       </c>
       <c r="I89" s="17"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="6"/>
+      <c r="J89" s="7">
+        <v>1</v>
+      </c>
+      <c r="K89" s="8">
+        <f>J89*F89</f>
+        <v>9.99</v>
+      </c>
       <c r="L89" s="17"/>
       <c r="M89" s="17"/>
       <c r="N89" s="6"/>
       <c r="O89" s="6"/>
     </row>
-    <row r="90" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A90" s="38" t="s">
-        <v>291</v>
+    <row r="90" spans="1:15" ht="255" x14ac:dyDescent="0.25">
+      <c r="A90" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="C90" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="D90" s="20" t="s">
-        <v>191</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="D90" s="17"/>
       <c r="E90" s="18" t="s">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c r="F90" s="17">
-        <v>259</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="G90" s="17">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H90" s="19">
-        <f t="shared" si="8"/>
-        <v>2072</v>
-      </c>
-      <c r="I90" s="17"/>
-      <c r="J90" s="5">
-        <v>0</v>
-      </c>
-      <c r="K90" s="6">
-        <f>J90*F90</f>
-        <v>0</v>
-      </c>
+        <f>F90*G90</f>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="I90" s="19"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="6"/>
       <c r="L90" s="17"/>
       <c r="M90" s="17"/>
       <c r="N90" s="6"/>
       <c r="O90" s="6"/>
     </row>
-    <row r="91" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A91" s="38" t="s">
-        <v>291</v>
+    <row r="91" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A91" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>82</v>
+        <v>328</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>83</v>
+        <v>337</v>
       </c>
       <c r="D91" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E91" s="18" t="s">
-        <v>84</v>
+      <c r="E91" s="21" t="s">
+        <v>338</v>
       </c>
       <c r="F91" s="17">
-        <v>11.98</v>
+        <v>8.99</v>
       </c>
       <c r="G91" s="17">
         <v>1</v>
       </c>
       <c r="H91" s="19">
-        <f t="shared" si="8"/>
-        <v>11.98</v>
+        <f>F91*G91</f>
+        <v>8.99</v>
       </c>
       <c r="I91" s="17"/>
-      <c r="J91" s="5">
-        <v>0</v>
-      </c>
-      <c r="K91" s="6">
-        <f>J91*F91</f>
-        <v>0</v>
-      </c>
+      <c r="J91" s="5"/>
+      <c r="K91" s="6"/>
       <c r="L91" s="17"/>
       <c r="M91" s="17"/>
       <c r="N91" s="6"/>
       <c r="O91" s="6"/>
     </row>
-    <row r="92" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A92" s="38" t="s">
-        <v>291</v>
+    <row r="92" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A92" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E92" s="21" t="s">
-        <v>328</v>
+        <v>186</v>
+      </c>
+      <c r="C92" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D92" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="E92" s="18" t="s">
+        <v>189</v>
       </c>
       <c r="F92" s="17">
-        <v>13.39</v>
+        <v>259</v>
       </c>
       <c r="G92" s="17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H92" s="19">
-        <f t="shared" si="8"/>
-        <v>13.39</v>
+        <f>F92*G92</f>
+        <v>2072</v>
       </c>
       <c r="I92" s="17"/>
-      <c r="J92" s="5"/>
-      <c r="K92" s="6"/>
+      <c r="J92" s="5">
+        <v>0</v>
+      </c>
+      <c r="K92" s="6">
+        <f>J92*F92</f>
+        <v>0</v>
+      </c>
       <c r="L92" s="17"/>
       <c r="M92" s="17"/>
       <c r="N92" s="6"/>
       <c r="O92" s="6"/>
     </row>
-    <row r="93" spans="1:15" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A93" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="B93" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="C93" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="D93" s="29" t="s">
+    <row r="93" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A93" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D93" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="F93" s="29">
-        <v>12.99</v>
+        <v>81</v>
+      </c>
+      <c r="F93" s="17">
+        <v>11.98</v>
       </c>
       <c r="G93" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H93" s="19">
-        <f t="shared" si="8"/>
-        <v>64.95</v>
+        <f>F93*G93</f>
+        <v>11.98</v>
       </c>
       <c r="I93" s="17"/>
       <c r="J93" s="5">
@@ -5415,68 +5413,68 @@
       <c r="N93" s="6"/>
       <c r="O93" s="6"/>
     </row>
-    <row r="94" spans="1:15" ht="285" x14ac:dyDescent="0.25">
-      <c r="A94" s="38" t="s">
-        <v>291</v>
+    <row r="94" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A94" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="C94" s="29" t="s">
-        <v>268</v>
+        <v>326</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>324</v>
       </c>
       <c r="D94" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E94" s="18" t="s">
-        <v>266</v>
+      <c r="E94" s="21" t="s">
+        <v>325</v>
       </c>
       <c r="F94" s="17">
-        <v>12.99</v>
+        <v>13.39</v>
       </c>
       <c r="G94" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H94" s="19">
-        <f t="shared" si="8"/>
-        <v>51.96</v>
+        <f>F94*G94</f>
+        <v>13.39</v>
       </c>
       <c r="I94" s="17"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="8"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="6"/>
       <c r="L94" s="17"/>
       <c r="M94" s="17"/>
       <c r="N94" s="6"/>
       <c r="O94" s="6"/>
     </row>
     <row r="95" spans="1:15" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A95" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="B95" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="C95" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="D95" s="17" t="s">
+      <c r="A95" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="B95" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C95" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="D95" s="28" t="s">
         <v>18</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="F95" s="17">
-        <v>16.5</v>
+        <v>198</v>
+      </c>
+      <c r="F95" s="28">
+        <v>12.99</v>
       </c>
       <c r="G95" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H95" s="19">
-        <f t="shared" si="8"/>
-        <v>99</v>
+        <f>F95*G95</f>
+        <v>64.95</v>
       </c>
       <c r="I95" s="17"/>
-      <c r="J95" s="7">
+      <c r="J95" s="5">
         <v>0</v>
       </c>
       <c r="K95" s="6">
@@ -5488,65 +5486,65 @@
       <c r="N95" s="6"/>
       <c r="O95" s="6"/>
     </row>
-    <row r="96" spans="1:15" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="B96" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="C96" s="29" t="s">
-        <v>285</v>
+    <row r="96" spans="1:15" ht="285" x14ac:dyDescent="0.25">
+      <c r="A96" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C96" s="28" t="s">
+        <v>265</v>
       </c>
       <c r="D96" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="F96" s="17">
-        <v>15.25</v>
+        <v>12.99</v>
       </c>
       <c r="G96" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H96" s="19">
-        <f t="shared" si="8"/>
-        <v>15.25</v>
-      </c>
-      <c r="I96" s="19"/>
+        <f>F96*G96</f>
+        <v>51.96</v>
+      </c>
+      <c r="I96" s="17"/>
       <c r="J96" s="7"/>
-      <c r="K96" s="6"/>
+      <c r="K96" s="8"/>
       <c r="L96" s="17"/>
       <c r="M96" s="17"/>
       <c r="N96" s="6"/>
       <c r="O96" s="6"/>
     </row>
-    <row r="97" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A97" s="38" t="s">
-        <v>291</v>
+    <row r="97" spans="1:15" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A97" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="C97" s="29" t="s">
-        <v>206</v>
+        <v>199</v>
+      </c>
+      <c r="C97" s="28" t="s">
+        <v>200</v>
       </c>
       <c r="D97" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E97" s="21" t="s">
-        <v>207</v>
+      <c r="E97" s="18" t="s">
+        <v>201</v>
       </c>
       <c r="F97" s="17">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="G97" s="17">
         <v>6</v>
       </c>
       <c r="H97" s="19">
-        <f t="shared" si="8"/>
-        <v>72</v>
+        <f>F97*G97</f>
+        <v>99</v>
       </c>
       <c r="I97" s="17"/>
       <c r="J97" s="7">
@@ -5561,265 +5559,270 @@
       <c r="N97" s="6"/>
       <c r="O97" s="6"/>
     </row>
-    <row r="98" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="38" t="s">
-        <v>291</v>
+    <row r="98" spans="1:15" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D98" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E98" s="21" t="s">
-        <v>78</v>
+        <v>284</v>
+      </c>
+      <c r="C98" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" s="18" t="s">
+        <v>283</v>
       </c>
       <c r="F98" s="17">
-        <v>17.98</v>
+        <v>15.25</v>
       </c>
       <c r="G98" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H98" s="19">
-        <f t="shared" si="8"/>
-        <v>71.92</v>
-      </c>
-      <c r="I98" s="17"/>
-      <c r="J98" s="5">
-        <v>0</v>
-      </c>
-      <c r="K98" s="6">
-        <f>J98*F98</f>
-        <v>0</v>
-      </c>
+        <f>F98*G98</f>
+        <v>15.25</v>
+      </c>
+      <c r="I98" s="19"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="6"/>
       <c r="L98" s="17"/>
       <c r="M98" s="17"/>
       <c r="N98" s="6"/>
       <c r="O98" s="6"/>
     </row>
-    <row r="99" spans="1:15" ht="270" x14ac:dyDescent="0.25">
-      <c r="A99" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="B99" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="C99" s="29" t="s">
-        <v>283</v>
+    <row r="99" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+      <c r="A99" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C99" s="28" t="s">
+        <v>203</v>
       </c>
       <c r="D99" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E99" s="18" t="s">
-        <v>284</v>
+      <c r="E99" s="21" t="s">
+        <v>204</v>
       </c>
       <c r="F99" s="17">
-        <v>15.96</v>
+        <v>12</v>
       </c>
       <c r="G99" s="17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H99" s="19">
-        <f t="shared" si="8"/>
-        <v>15.96</v>
-      </c>
-      <c r="I99" s="19"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="6"/>
+        <f>F99*G99</f>
+        <v>72</v>
+      </c>
+      <c r="I99" s="17"/>
+      <c r="J99" s="7">
+        <v>0</v>
+      </c>
+      <c r="K99" s="6">
+        <f>J99*F99</f>
+        <v>0</v>
+      </c>
       <c r="L99" s="17"/>
       <c r="M99" s="17"/>
       <c r="N99" s="6"/>
       <c r="O99" s="6"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100" s="41" t="s">
-        <v>309</v>
-      </c>
-      <c r="B100" s="42">
+    <row r="100" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D100" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F100" s="17">
+        <v>17.98</v>
+      </c>
+      <c r="G100" s="17">
+        <v>4</v>
+      </c>
+      <c r="H100" s="19">
+        <f>F100*G100</f>
+        <v>71.92</v>
+      </c>
+      <c r="I100" s="17"/>
+      <c r="J100" s="5">
+        <v>0</v>
+      </c>
+      <c r="K100" s="6">
+        <f>J100*F100</f>
+        <v>0</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="6"/>
+      <c r="O100" s="6"/>
+    </row>
+    <row r="101" spans="1:15" ht="270" x14ac:dyDescent="0.25">
+      <c r="A101" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C101" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="F101" s="17">
+        <v>15.96</v>
+      </c>
+      <c r="G101" s="17">
         <v>1</v>
       </c>
-      <c r="C100" s="42" t="s">
-        <v>308</v>
-      </c>
-      <c r="D100" s="42"/>
-      <c r="E100" s="42"/>
-      <c r="F100" s="42"/>
-      <c r="G100" s="42"/>
-      <c r="H100" s="42"/>
-      <c r="I100" s="42"/>
-      <c r="J100" s="42"/>
-      <c r="K100" s="42"/>
-      <c r="L100" s="42"/>
-      <c r="M100" s="42"/>
-      <c r="N100" s="42"/>
-      <c r="O100" s="42"/>
-    </row>
-    <row r="101" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="38" t="s">
-        <v>310</v>
-      </c>
-      <c r="B101" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C101" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="E101" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="F101" s="17">
-        <v>4.95</v>
-      </c>
-      <c r="G101" s="15"/>
-      <c r="H101" s="48"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="5">
-        <v>5</v>
-      </c>
-      <c r="K101" s="6">
-        <f t="shared" ref="K101:K113" si="10">J101*F101</f>
-        <v>24.75</v>
-      </c>
+      <c r="H101" s="19">
+        <f>F101*G101</f>
+        <v>15.96</v>
+      </c>
+      <c r="I101" s="19"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="6"/>
       <c r="L101" s="17"/>
       <c r="M101" s="17"/>
       <c r="N101" s="6"/>
       <c r="O101" s="6"/>
     </row>
-    <row r="102" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A102" s="38" t="s">
-        <v>311</v>
-      </c>
-      <c r="B102" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C102" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D102" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E102" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="F102" s="17">
-        <v>15.99</v>
-      </c>
-      <c r="G102" s="15"/>
-      <c r="H102" s="48"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="5">
-        <v>0</v>
-      </c>
-      <c r="K102" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="6"/>
-      <c r="O102" s="6"/>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="B102" s="40">
+        <v>1</v>
+      </c>
+      <c r="C102" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="D102" s="40"/>
+      <c r="E102" s="40"/>
+      <c r="F102" s="40"/>
+      <c r="G102" s="40"/>
+      <c r="H102" s="40"/>
+      <c r="I102" s="40"/>
+      <c r="J102" s="40"/>
+      <c r="K102" s="40"/>
+      <c r="L102" s="40"/>
+      <c r="M102" s="40"/>
+      <c r="N102" s="40"/>
+      <c r="O102" s="40"/>
     </row>
     <row r="103" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="38" t="s">
-        <v>312</v>
+      <c r="A103" s="36" t="s">
+        <v>307</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>153</v>
+        <v>246</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="E103" s="18" t="s">
-        <v>155</v>
+        <v>160</v>
+      </c>
+      <c r="E103" s="21" t="s">
+        <v>245</v>
       </c>
       <c r="F103" s="17">
-        <v>3.5</v>
+        <v>4.95</v>
       </c>
       <c r="G103" s="15"/>
-      <c r="H103" s="48"/>
-      <c r="I103" s="48"/>
-      <c r="J103" s="7">
-        <v>0</v>
+      <c r="H103" s="46"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="5">
+        <v>5</v>
       </c>
       <c r="K103" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>J103*F103</f>
+        <v>24.75</v>
       </c>
       <c r="L103" s="17"/>
       <c r="M103" s="17"/>
       <c r="N103" s="6"/>
       <c r="O103" s="6"/>
     </row>
-    <row r="104" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="38" t="s">
-        <v>312</v>
+    <row r="104" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A104" s="36" t="s">
+        <v>308</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>212</v>
+        <v>91</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>213</v>
+        <v>92</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="E104" s="21" t="s">
-        <v>215</v>
+        <v>18</v>
+      </c>
+      <c r="E104" s="18" t="s">
+        <v>93</v>
       </c>
       <c r="F104" s="17">
-        <v>7.95</v>
+        <v>15.99</v>
       </c>
       <c r="G104" s="15"/>
-      <c r="H104" s="48"/>
+      <c r="H104" s="46"/>
       <c r="I104" s="15"/>
       <c r="J104" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K104" s="6">
-        <f t="shared" si="10"/>
-        <v>127.2</v>
+        <f>J104*F104</f>
+        <v>0</v>
       </c>
       <c r="L104" s="17"/>
       <c r="M104" s="17"/>
       <c r="N104" s="6"/>
       <c r="O104" s="6"/>
     </row>
-    <row r="105" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="38" t="s">
-        <v>312</v>
+    <row r="105" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E105" s="21" t="s">
-        <v>98</v>
+        <v>151</v>
+      </c>
+      <c r="E105" s="18" t="s">
+        <v>152</v>
       </c>
       <c r="F105" s="17">
-        <v>10.98</v>
+        <v>3.5</v>
       </c>
       <c r="G105" s="15"/>
-      <c r="H105" s="48"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="5">
+      <c r="H105" s="46"/>
+      <c r="I105" s="46"/>
+      <c r="J105" s="7">
         <v>0</v>
       </c>
       <c r="K105" s="6">
-        <f t="shared" si="10"/>
+        <f>J105*F105</f>
         <v>0</v>
       </c>
       <c r="L105" s="17"/>
@@ -5828,66 +5831,66 @@
       <c r="O105" s="6"/>
     </row>
     <row r="106" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="38" t="s">
-        <v>313</v>
+      <c r="A106" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>138</v>
+        <v>209</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>139</v>
+        <v>211</v>
       </c>
       <c r="E106" s="21" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="F106" s="17">
-        <v>11.99</v>
+        <v>7.95</v>
       </c>
       <c r="G106" s="15"/>
-      <c r="H106" s="48"/>
+      <c r="H106" s="46"/>
       <c r="I106" s="15"/>
       <c r="J106" s="5">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K106" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>J106*F106</f>
+        <v>127.2</v>
       </c>
       <c r="L106" s="17"/>
       <c r="M106" s="17"/>
       <c r="N106" s="6"/>
       <c r="O106" s="6"/>
     </row>
-    <row r="107" spans="1:15" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A107" s="38" t="s">
-        <v>315</v>
-      </c>
-      <c r="B107" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="C107" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="D107" s="29" t="s">
+    <row r="107" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A107" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E107" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="F107" s="29">
-        <v>12.99</v>
+        <v>95</v>
+      </c>
+      <c r="F107" s="17">
+        <v>10.98</v>
       </c>
       <c r="G107" s="15"/>
-      <c r="H107" s="48"/>
-      <c r="I107" s="48"/>
-      <c r="J107" s="17">
+      <c r="H107" s="46"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="5">
         <v>0</v>
       </c>
       <c r="K107" s="6">
-        <f t="shared" si="10"/>
+        <f>J107*F107</f>
         <v>0</v>
       </c>
       <c r="L107" s="17"/>
@@ -5895,33 +5898,33 @@
       <c r="N107" s="6"/>
       <c r="O107" s="6"/>
     </row>
-    <row r="108" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A108" s="38" t="s">
-        <v>314</v>
+    <row r="108" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="36" t="s">
+        <v>310</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C108" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D108" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E108" s="18" t="s">
-        <v>93</v>
+        <v>135</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E108" s="21" t="s">
+        <v>137</v>
       </c>
       <c r="F108" s="17">
-        <v>23.95</v>
+        <v>11.99</v>
       </c>
       <c r="G108" s="15"/>
-      <c r="H108" s="48"/>
+      <c r="H108" s="46"/>
       <c r="I108" s="15"/>
       <c r="J108" s="5">
         <v>0</v>
       </c>
       <c r="K108" s="6">
-        <f t="shared" si="10"/>
+        <f>J108*F108</f>
         <v>0</v>
       </c>
       <c r="L108" s="17"/>
@@ -5929,67 +5932,67 @@
       <c r="N108" s="6"/>
       <c r="O108" s="6"/>
     </row>
-    <row r="109" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="B109" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="D109" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="E109" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="F109" s="17">
-        <v>19.95</v>
+    <row r="109" spans="1:15" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A109" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="B109" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C109" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="D109" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E109" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="F109" s="28">
+        <v>12.99</v>
       </c>
       <c r="G109" s="15"/>
-      <c r="H109" s="48"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="5">
-        <v>10</v>
+      <c r="H109" s="46"/>
+      <c r="I109" s="46"/>
+      <c r="J109" s="17">
+        <v>0</v>
       </c>
       <c r="K109" s="6">
-        <f t="shared" si="10"/>
-        <v>199.5</v>
+        <f>J109*F109</f>
+        <v>0</v>
       </c>
       <c r="L109" s="17"/>
       <c r="M109" s="17"/>
       <c r="N109" s="6"/>
       <c r="O109" s="6"/>
     </row>
-    <row r="110" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A110" s="38" t="s">
-        <v>316</v>
+    <row r="110" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A110" s="36" t="s">
+        <v>311</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E110" s="21" t="s">
-        <v>101</v>
+        <v>88</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D110" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110" s="18" t="s">
+        <v>90</v>
       </c>
       <c r="F110" s="17">
-        <v>32.880000000000003</v>
+        <v>23.95</v>
       </c>
       <c r="G110" s="15"/>
-      <c r="H110" s="48"/>
+      <c r="H110" s="46"/>
       <c r="I110" s="15"/>
       <c r="J110" s="5">
         <v>0</v>
       </c>
       <c r="K110" s="6">
-        <f t="shared" si="10"/>
+        <f>J110*F110</f>
         <v>0</v>
       </c>
       <c r="L110" s="17"/>
@@ -5997,34 +6000,34 @@
       <c r="N110" s="6"/>
       <c r="O110" s="6"/>
     </row>
-    <row r="111" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A111" s="38" t="s">
-        <v>316</v>
+    <row r="111" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="36" t="s">
+        <v>311</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>222</v>
+        <v>158</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>223</v>
+        <v>159</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>224</v>
+        <v>161</v>
       </c>
       <c r="F111" s="17">
-        <v>12</v>
+        <v>19.95</v>
       </c>
       <c r="G111" s="15"/>
-      <c r="H111" s="48"/>
-      <c r="I111" s="48"/>
-      <c r="J111" s="17">
-        <v>0</v>
+      <c r="H111" s="46"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="5">
+        <v>10</v>
       </c>
       <c r="K111" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>J111*F111</f>
+        <v>199.5</v>
       </c>
       <c r="L111" s="17"/>
       <c r="M111" s="17"/>
@@ -6032,32 +6035,32 @@
       <c r="O111" s="6"/>
     </row>
     <row r="112" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A112" s="38" t="s">
-        <v>316</v>
+      <c r="A112" s="36" t="s">
+        <v>313</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="C112" s="29" t="s">
-        <v>226</v>
+        <v>96</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>97</v>
       </c>
       <c r="D112" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E112" s="18" t="s">
-        <v>227</v>
+      <c r="E112" s="21" t="s">
+        <v>98</v>
       </c>
       <c r="F112" s="17">
-        <v>8.99</v>
+        <v>32.880000000000003</v>
       </c>
       <c r="G112" s="15"/>
-      <c r="H112" s="48"/>
-      <c r="I112" s="48"/>
-      <c r="J112" s="17">
+      <c r="H112" s="46"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="5">
         <v>0</v>
       </c>
       <c r="K112" s="6">
-        <f t="shared" si="10"/>
+        <f>J112*F112</f>
         <v>0</v>
       </c>
       <c r="L112" s="17"/>
@@ -6065,14 +6068,14 @@
       <c r="N112" s="6"/>
       <c r="O112" s="6"/>
     </row>
-    <row r="113" spans="1:15" ht="195" x14ac:dyDescent="0.25">
-      <c r="A113" s="38" t="s">
-        <v>316</v>
+    <row r="113" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A113" s="36" t="s">
+        <v>313</v>
       </c>
       <c r="B113" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="C113" s="29" t="s">
+      <c r="C113" s="17" t="s">
         <v>220</v>
       </c>
       <c r="D113" s="17" t="s">
@@ -6082,69 +6085,137 @@
         <v>221</v>
       </c>
       <c r="F113" s="17">
-        <v>5.69</v>
+        <v>12</v>
       </c>
       <c r="G113" s="15"/>
-      <c r="H113" s="48"/>
-      <c r="I113" s="48"/>
+      <c r="H113" s="46"/>
+      <c r="I113" s="46"/>
       <c r="J113" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113" s="6">
-        <f t="shared" si="10"/>
-        <v>5.69</v>
-      </c>
-      <c r="L113" s="35" t="s">
-        <v>253</v>
-      </c>
+        <f>J113*F113</f>
+        <v>0</v>
+      </c>
+      <c r="L113" s="17"/>
       <c r="M113" s="17"/>
       <c r="N113" s="6"/>
       <c r="O113" s="6"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B114" s="32"/>
-      <c r="C114" s="32"/>
-      <c r="D114" s="32"/>
-      <c r="E114" s="32"/>
-      <c r="F114" s="32"/>
-      <c r="G114" s="32"/>
-      <c r="H114" s="34"/>
-      <c r="I114" s="34"/>
-      <c r="J114" s="10"/>
-      <c r="K114" s="36"/>
-      <c r="L114" s="32"/>
-      <c r="M114" s="32"/>
+    <row r="114" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A114" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C114" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E114" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" s="17">
+        <v>8.99</v>
+      </c>
+      <c r="G114" s="15"/>
+      <c r="H114" s="46"/>
+      <c r="I114" s="46"/>
+      <c r="J114" s="17">
+        <v>0</v>
+      </c>
+      <c r="K114" s="6">
+        <f>J114*F114</f>
+        <v>0</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="6"/>
+      <c r="O114" s="6"/>
+    </row>
+    <row r="115" spans="1:15" ht="195" x14ac:dyDescent="0.25">
+      <c r="A115" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C115" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E115" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="F115" s="17">
+        <v>5.69</v>
+      </c>
+      <c r="G115" s="15"/>
+      <c r="H115" s="46"/>
+      <c r="I115" s="46"/>
+      <c r="J115" s="17">
+        <v>1</v>
+      </c>
+      <c r="K115" s="6">
+        <f>J115*F115</f>
+        <v>5.69</v>
+      </c>
+      <c r="L115" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="M115" s="17"/>
+      <c r="N115" s="6"/>
+      <c r="O115" s="6"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B116" s="30"/>
+      <c r="C116" s="30"/>
+      <c r="D116" s="30"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="30"/>
+      <c r="G116" s="30"/>
+      <c r="H116" s="32"/>
+      <c r="I116" s="32"/>
+      <c r="J116" s="10"/>
+      <c r="K116" s="34"/>
+      <c r="L116" s="30"/>
+      <c r="M116" s="30"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:K114" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O114">
-    <sortCondition ref="A2:A114"/>
-    <sortCondition ref="B2:B114"/>
+  <autoFilter ref="B1:K116" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O118">
+    <sortCondition ref="A2:A118"/>
+    <sortCondition ref="B2:B118"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E41" r:id="rId1" display="https://www.amazon.com/dp/B00LPK0E5A/ref=sspa_dk_detail_1?psc=1&amp;pd_rd_i=B00LPK0E5A&amp;pd_rd_w=0M9NZ&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=aD93W&amp;pf_rd_r=YPJBQXW796NSXR2VMXXF&amp;pd_rd_r=27b44396-0b27-4df5-a333-c9ae450119d1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzRjAzSlpTNDhOSDROJmVuY3J5cHRlZElkPUExMDI0NTg3UkZNOVI5WEJEMTBKJmVuY3J5cHRlZEFkSWQ9QTAwMTM0OTMxR1ZVVzZSMDhHUEYwJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E42" r:id="rId1" display="https://www.amazon.com/dp/B00LPK0E5A/ref=sspa_dk_detail_1?psc=1&amp;pd_rd_i=B00LPK0E5A&amp;pd_rd_w=0M9NZ&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=aD93W&amp;pf_rd_r=YPJBQXW796NSXR2VMXXF&amp;pd_rd_r=27b44396-0b27-4df5-a333-c9ae450119d1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzRjAzSlpTNDhOSDROJmVuY3J5cHRlZElkPUExMDI0NTg3UkZNOVI5WEJEMTBKJmVuY3J5cHRlZEFkSWQ9QTAwMTM0OTMxR1ZVVzZSMDhHUEYwJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="E47" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="E67" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="E42" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="E69" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="E43" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
     <hyperlink ref="E38" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
     <hyperlink ref="E32" r:id="rId6" display="https://www.amazon.com/BOJACK-UA741General-Purpose-Operational-Amplifier/dp/B07WSB1VNH/ref=asc_df_B07WSB1VNH/?tag=hyprod-20&amp;linkCode=df0&amp;hvadid=416713541504&amp;hvpos=&amp;hvnetw=g&amp;hvrand=10187485487199424423&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9030447&amp;hvtargid=pla-870040127419&amp;psc=1&amp;tag=&amp;ref=&amp;adgrpid=93604203773&amp;hvpone=&amp;hvptwo=&amp;hvadid=416713541504&amp;hvpos=&amp;hvnetw=g&amp;hvrand=10187485487199424423&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9030447&amp;hvtargid=pla-870040127419" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
     <hyperlink ref="E33" r:id="rId7" display="https://www.amazon.com/LSR-Transistor-Assortment-Electronics-Electronic/dp/B07TV9FFFQ/ref=sr_1_1_sspa?dchild=1&amp;keywords=transistor+kit&amp;qid=1589997273&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyNjRQNjZTRkNTMDBEJmVuY3J5cHRlZElkPUEwMjA2MDgzMTJBUTZXT1pMR1VFSyZlbmNyeXB0ZWRBZElkPUEwMzg4NDY4MzgxSDlaRERQMUxMQSZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="E86" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="E88" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
     <hyperlink ref="E52" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
     <hyperlink ref="E53" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
     <hyperlink ref="E50" r:id="rId11" display="https://www.amazon.com/Isopropyl-Alcohol-Grade-99-Anhydrous/dp/B01KK014F4/ref=asc_df_B01KK014F4/?tag=hyprod-20&amp;linkCode=df0&amp;hvadid=312416780110&amp;hvpos=&amp;hvnetw=g&amp;hvrand=17295135421118886149&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9030447&amp;hvtargid=pla-569571734125&amp;psc=1&amp;tag=&amp;ref=&amp;adgrpid=61555869549&amp;hvpone=&amp;hvptwo=&amp;hvadid=312416780110&amp;hvpos=&amp;hvnetw=g&amp;hvrand=17295135421118886149&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9030447&amp;hvtargid=pla-569571734125" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
     <hyperlink ref="E49" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
     <hyperlink ref="E40" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="E109" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="E111" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
     <hyperlink ref="E36" r:id="rId15" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
     <hyperlink ref="E35" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
     <hyperlink ref="E34" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
     <hyperlink ref="E37" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
     <hyperlink ref="E30" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="E102" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="E108" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="E98" r:id="rId22" display="https://www.amazon.com/Smart-Enabled-Google-Assistant-HomeKit/dp/B01NBI0A6R/ref=sxin_3_ac_d_rm?ac_md=0-0-d2Vtbw%3D%3D-ac_d_rm&amp;cv_ct_cx=wemo&amp;keywords=wemo&amp;pd_rd_i=B01NBI0A6R&amp;pd_rd_r=bbd5c2e2-6eb9-40fe-9456-a7336162120f&amp;pd_rd_w=Ts0oB&amp;pd_rd_wg=K1Zyb&amp;pf_rd_p=de19e82a-2d83-4ae8-9f5c-212586b8b9a0&amp;pf_rd_r=8DGZDACCDVJ418KR7CNJ&amp;qid=1584141937&amp;th=1" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="E69" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="E104" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="E110" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="E100" r:id="rId22" display="https://www.amazon.com/Smart-Enabled-Google-Assistant-HomeKit/dp/B01NBI0A6R/ref=sxin_3_ac_d_rm?ac_md=0-0-d2Vtbw%3D%3D-ac_d_rm&amp;cv_ct_cx=wemo&amp;keywords=wemo&amp;pd_rd_i=B01NBI0A6R&amp;pd_rd_r=bbd5c2e2-6eb9-40fe-9456-a7336162120f&amp;pd_rd_w=Ts0oB&amp;pd_rd_wg=K1Zyb&amp;pf_rd_p=de19e82a-2d83-4ae8-9f5c-212586b8b9a0&amp;pf_rd_r=8DGZDACCDVJ418KR7CNJ&amp;qid=1584141937&amp;th=1" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="E71" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
     <hyperlink ref="E8" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
     <hyperlink ref="E27" r:id="rId25" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
     <hyperlink ref="E24" r:id="rId26" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
@@ -6154,9 +6225,9 @@
     <hyperlink ref="E7" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
     <hyperlink ref="E9" r:id="rId31" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
     <hyperlink ref="E11" r:id="rId32" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="C84" r:id="rId33" display="https://www.adafruit.com/product/1461" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="E103" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="E84" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="C86" r:id="rId33" display="https://www.adafruit.com/product/1461" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="E105" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="E86" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
     <hyperlink ref="E15" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
     <hyperlink ref="E21" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
     <hyperlink ref="E20" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
@@ -6164,55 +6235,54 @@
     <hyperlink ref="E2" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
     <hyperlink ref="E5" r:id="rId41" display="https://www.amazon.com/Teensy-3-2-with-pins/dp/B015QUPO5Y/ref=pd_cp_328_2/146-7771809-3852250?_encoding=UTF8&amp;pd_rd_i=B015QUPO5Y&amp;pd_rd_r=27b95a34-9f23-44f6-bbff-68008086ed57&amp;pd_rd_w=vzcu6&amp;pd_rd_wg=VmhTT&amp;pf_rd_p=4853e837-f87a-46d4-be32-dcf86bff7a7c&amp;pf_rd_r=DCM2BKEYA2PKP2EFR23Y&amp;psc=1&amp;refRID=DCM2BKEYA2PKP2EFR23Y" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
     <hyperlink ref="E28" r:id="rId42" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="E70" r:id="rId43" display="https://www.amazon.com/dp/B07GD2BWPY/ref=sspa_dk_detail_2?psc=1&amp;pd_rd_i=B07GD2BWPY&amp;pd_rd_w=TqeWX&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=sNJWA&amp;pf_rd_r=ZXS16ECPMKD9XBVAS65W&amp;pd_rd_r=b5442918-7fb9-4962-af3b-9820970385cf&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyWTlUTDAyTTJDVElLJmVuY3J5cHRlZElkPUEwMjM2MDg0M0g1U1ZRS1hPNk0zMSZlbmNyeXB0ZWRBZElkPUEwNTczODQxM0JQVzgzUkcwMUVBNiZ3aWRnZXROYW1lPXNwX2RldGFpbCZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="E91" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="E60" r:id="rId45" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="E105" r:id="rId46" display="https://www.amazon.com/Adafruit-NeoPixel-Ring-Integrated-Drivers/dp/B00KAE3R1U/ref=sxin_7_ac_d_rm?ac_md=1-1-bmVvcGl4ZWw%3D-ac_d_rm&amp;cv_ct_cx=neopixel+ring&amp;dchild=1&amp;keywords=neopixel+ring&amp;pd_rd_i=B00KAE3R1U&amp;pd_rd_r=f532ea9d-0030-44f0-832a-ce614c837962&amp;pd_rd_w=9bJ5n&amp;pd_rd_wg=0eBjE&amp;pf_rd_p=a0516f22-66df-4efd-8b9a-279a864d1512&amp;pf_rd_r=AYP2P98ZJBNCG2YYCT97&amp;psc=1&amp;qid=1590415826&amp;sr=1-2-12d4272d-8adb-4121-8624-135149aa9081" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="E106" r:id="rId47" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="E110" r:id="rId48" display="https://www.amazon.com/dp/B01CDTEKAG/ref=sspa_dk_detail_5?psc=1&amp;pd_rd_i=B01CDTEKAG&amp;pd_rd_w=xH4vG&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=OWknK&amp;pf_rd_r=4MWDRWVKFJB1AYRB3KT5&amp;pd_rd_r=1dfe850a-4ea2-46f2-b93c-46b84486f9d4&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzUThIV0Y2UjRSUjImZW5jcnlwdGVkSWQ9QTAzMjQ0ODUxSDdUU0E3UTlMWFlEJmVuY3J5cHRlZEFkSWQ9QTA5Nzg1MTUxVTM3VzVKSE44S1RCJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="E65" r:id="rId49" display="https://www.amazon.com/DFROBOT-Gravity-Analog-Sensor-Arduino/dp/B00R5CCH7U/ref=sr_1_2_sspa?dchild=1&amp;keywords=dfrobot&amp;qid=1590416675&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExRVhTUks4U1dYNjhSJmVuY3J5cHRlZElkPUEwNTY0MzYzUldBQ1A2SDlRVkRCJmVuY3J5cHRlZEFkSWQ9QTEwNDU4OTYzVjNDWEhNV0RPS1IzJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="E75" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="E80" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="E81" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="E76" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="E4" r:id="rId54" display="https://www.lowes.com/pd/Tough-Box-16-Compartment-Plastic-Small-Parts-Organizer/1000365903?cm_mmc=shp-_-c-_-prd-_-tol-_-google-_-lia-_--_-toolstorage-_-1000365903-_-0&amp;store_code=2539&amp;placeholder=null&amp;gclid=EAIaIQobChMI2ICzhsX86QIVi4bACh0oNwjhEAQYASABEgLcgPD_BwE&amp;gclsrc=aw.ds" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="E90" r:id="rId55" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="E68" r:id="rId56" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="E10" r:id="rId57" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="E107" r:id="rId58" display="https://www.amazon.com/dp/B087B5NWY4/ref=sspa_dk_detail_0?psc=1&amp;pd_rd_i=B087B5NWY4&amp;pd_rd_w=qTl74&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=oJf3C&amp;pf_rd_r=BNJEBNTQ9WJFCK2T7NJG&amp;pd_rd_r=878dff4d-97fc-4ab7-b51d-f454e436af7d&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFSMFdOVFk0RUJCSjUmZW5jcnlwdGVkSWQ9QTA5OTM1MjYzSTlCWEhXN0xTU0RQJmVuY3J5cHRlZEFkSWQ9QTAxMzk3MzYzQktQVENFTUtJNzhJJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="E3" r:id="rId59" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="E93" r:id="rId60" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="E113" r:id="rId61" display="https://www.amazon.com/dp/B07QKDSCSM/ref=sspa_dk_detail_0?spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFCNUFXNjBMUkhRNjgmZW5jcnlwdGVkSWQ9QTAzODUwNTVOR1NCNFFLMjRWR0ImZW5jcnlwdGVkQWRJZD1BMDM1MDc1NjNWSVJZSlg1Q0pDTUkmd2lkZ2V0TmFtZT1zcF9kZXRhaWwyJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ&amp;th=1" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="E95" r:id="rId62" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
-    <hyperlink ref="E97" r:id="rId63" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
-    <hyperlink ref="E112" r:id="rId64" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
-    <hyperlink ref="E111" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
-    <hyperlink ref="E29" r:id="rId66" display="https://www.digikey.com/product-detail/en/citizen-finedevice-co-ltd/CFS-20632768DZFB/300-1002-ND/283736?utm_adgroup=Crystals%20Oscillators&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search&amp;utm_term=&amp;utm_content=Crystals%20Oscillators&amp;gclid=EAIaIQobChMIrI-y8dvf6gIVgobACh05Cwq-EAAYASAAEgJ-LvD_BwE" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
-    <hyperlink ref="E82" r:id="rId67" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
-    <hyperlink ref="E79" r:id="rId68" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
-    <hyperlink ref="E78" r:id="rId69" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
-    <hyperlink ref="E83" r:id="rId70" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
-    <hyperlink ref="C77" r:id="rId71" display="https://store.ncd.io/product/feather-battery-i2c-shield-for-particle-and-feather-modules/" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="E77" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="E55" r:id="rId73" xr:uid="{CB9AA7F3-57D3-4035-9B10-D6E06BA90642}"/>
-    <hyperlink ref="E56" r:id="rId74" xr:uid="{CD5B5197-64EF-49EF-91BD-2559DCFA1A39}"/>
-    <hyperlink ref="E57" r:id="rId75" xr:uid="{6673B4F9-7D5C-42C3-A449-534270670C62}"/>
-    <hyperlink ref="E51" r:id="rId76" xr:uid="{7BEE6173-67BD-462D-93F3-8868348A9E43}"/>
-    <hyperlink ref="E87" r:id="rId77" display="https://www.amazon.com/Screwdriver-Flathead-Phillips-Pentalobe-Different/dp/B0872XMTKS/ref=sr_1_2_sspa?crid=33O94WILFA3IZ&amp;dchild=1&amp;keywords=mini+screwdriver+set&amp;qid=1598205307&amp;sprefix=mini+screw%2Caps%2C201&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExMEY2S0QwRE9XR01UJmVuY3J5cHRlZElkPUEwNzIwODY1MjVGV1BCNDNFNkowRyZlbmNyeXB0ZWRBZElkPUExMDAyMjM5NFpSMkVPTlBSN0ZDJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{19DAF842-E937-4DB9-89CA-2282F04D2AEA}"/>
-    <hyperlink ref="E6" r:id="rId78" xr:uid="{B485A6B6-7307-4EAA-A186-31CAA890A0BC}"/>
-    <hyperlink ref="E101" r:id="rId79" xr:uid="{70F21853-AE4C-4BEC-9F14-C2DC1DDCC3B4}"/>
-    <hyperlink ref="E74" r:id="rId80" xr:uid="{23C2A1DE-EDE1-4FE6-90BB-24BA9B7A433E}"/>
-    <hyperlink ref="E14" r:id="rId81" xr:uid="{AA5B840A-EAA7-438B-AC90-9BD9F369A790}"/>
-    <hyperlink ref="E104" r:id="rId82" xr:uid="{BFF0F66D-BAE5-409E-9D4D-2406089A97E9}"/>
-    <hyperlink ref="E64" r:id="rId83" xr:uid="{E22E05A0-7702-4DD5-A4C2-BD50049E3BED}"/>
-    <hyperlink ref="E26" r:id="rId84" display="https://www.amazon.com/Smraza-Helicopter-Airplane-Control-Arduino/dp/B07L2SF3R4/ref=sr_1_2_sspa?dchild=1&amp;keywords=servo+motors&amp;qid=1627326343&amp;sr=8-2-spons&amp;psc=1&amp;smid=AMIHZKLK542FQ&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUE0T1dLTFVJNkJYSTkmZW5jcnlwdGVkSWQ9QTA1Mjc3MzhQMlkzQ0ZZV1ZNUlImZW5jcnlwdGVkQWRJZD1BMDIwNzMwN0dRSDFXTkhNVURFNCZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=" xr:uid="{5F7D6829-E8F9-4418-B2CF-E737838DD2F0}"/>
-    <hyperlink ref="E25" r:id="rId85" display="https://www.amazon.com/Matrix-Membrane-Switch-Keyboard-Arduino/dp/B07THCLGCZ/ref=sr_1_1_sspa?crid=11VSDXYN2F69R&amp;dchild=1&amp;keywords=keypad+arduino&amp;qid=1627326563&amp;sprefix=key+pads+ar%2Caps%2C227&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUE3UzVCUzNCUU01SUcmZW5jcnlwdGVkSWQ9QTA5NTA5MDEyWVc0R0w5VVRDTlFTJmVuY3J5cHRlZEFkSWQ9QTAyMjI5MDgyTFJVQlpLUExKVTEzJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{C7C18D08-2962-4850-A7D4-1A2C548DEB0C}"/>
-    <hyperlink ref="E72" r:id="rId86" display="https://www.amazon.com/WOWOONE-Laser-Diode-30pcs-Diameter/dp/B08R9XBVM3/ref=pd_b2b_qd_subs_1/134-6156851-5388530?pd_rd_w=qcbyD&amp;pf_rd_p=96b0f924-31c1-4af6-b03c-4e4f775bb59f&amp;pf_rd_r=6B5YQX1QH83S137RP9CS&amp;pd_rd_r=d6edc9c0-9f8d-4f15-be09-461639b468bb&amp;pd_rd_wg=MUKdO&amp;pd_rd_i=B08R9XBVM3&amp;psc=1" xr:uid="{6D60E322-6434-4EBB-BD9E-3CE8910CF4D7}"/>
-    <hyperlink ref="E89" r:id="rId87" xr:uid="{B33FFFB3-AB65-4E96-B0B2-C5B323D825AB}"/>
+    <hyperlink ref="E72" r:id="rId43" display="https://www.amazon.com/dp/B07GD2BWPY/ref=sspa_dk_detail_2?psc=1&amp;pd_rd_i=B07GD2BWPY&amp;pd_rd_w=TqeWX&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=sNJWA&amp;pf_rd_r=ZXS16ECPMKD9XBVAS65W&amp;pd_rd_r=b5442918-7fb9-4962-af3b-9820970385cf&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyWTlUTDAyTTJDVElLJmVuY3J5cHRlZElkPUEwMjM2MDg0M0g1U1ZRS1hPNk0zMSZlbmNyeXB0ZWRBZElkPUEwNTczODQxM0JQVzgzUkcwMUVBNiZ3aWRnZXROYW1lPXNwX2RldGFpbCZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="E93" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="E107" r:id="rId45" display="https://www.amazon.com/Adafruit-NeoPixel-Ring-Integrated-Drivers/dp/B00KAE3R1U/ref=sxin_7_ac_d_rm?ac_md=1-1-bmVvcGl4ZWw%3D-ac_d_rm&amp;cv_ct_cx=neopixel+ring&amp;dchild=1&amp;keywords=neopixel+ring&amp;pd_rd_i=B00KAE3R1U&amp;pd_rd_r=f532ea9d-0030-44f0-832a-ce614c837962&amp;pd_rd_w=9bJ5n&amp;pd_rd_wg=0eBjE&amp;pf_rd_p=a0516f22-66df-4efd-8b9a-279a864d1512&amp;pf_rd_r=AYP2P98ZJBNCG2YYCT97&amp;psc=1&amp;qid=1590415826&amp;sr=1-2-12d4272d-8adb-4121-8624-135149aa9081" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="E108" r:id="rId46" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="E112" r:id="rId47" display="https://www.amazon.com/dp/B01CDTEKAG/ref=sspa_dk_detail_5?psc=1&amp;pd_rd_i=B01CDTEKAG&amp;pd_rd_w=xH4vG&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=OWknK&amp;pf_rd_r=4MWDRWVKFJB1AYRB3KT5&amp;pd_rd_r=1dfe850a-4ea2-46f2-b93c-46b84486f9d4&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzUThIV0Y2UjRSUjImZW5jcnlwdGVkSWQ9QTAzMjQ0ODUxSDdUU0E3UTlMWFlEJmVuY3J5cHRlZEFkSWQ9QTA5Nzg1MTUxVTM3VzVKSE44S1RCJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="E65" r:id="rId48" display="https://www.amazon.com/DFROBOT-Gravity-Analog-Sensor-Arduino/dp/B00R5CCH7U/ref=sr_1_2_sspa?dchild=1&amp;keywords=dfrobot&amp;qid=1590416675&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExRVhTUks4U1dYNjhSJmVuY3J5cHRlZElkPUEwNTY0MzYzUldBQ1A2SDlRVkRCJmVuY3J5cHRlZEFkSWQ9QTEwNDU4OTYzVjNDWEhNV0RPS1IzJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="E77" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="E82" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="E83" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="E78" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="E4" r:id="rId53" display="https://www.lowes.com/pd/Tough-Box-16-Compartment-Plastic-Small-Parts-Organizer/1000365903?cm_mmc=shp-_-c-_-prd-_-tol-_-google-_-lia-_--_-toolstorage-_-1000365903-_-0&amp;store_code=2539&amp;placeholder=null&amp;gclid=EAIaIQobChMI2ICzhsX86QIVi4bACh0oNwjhEAQYASABEgLcgPD_BwE&amp;gclsrc=aw.ds" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="E92" r:id="rId54" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="E70" r:id="rId55" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="E10" r:id="rId56" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="E109" r:id="rId57" display="https://www.amazon.com/dp/B087B5NWY4/ref=sspa_dk_detail_0?psc=1&amp;pd_rd_i=B087B5NWY4&amp;pd_rd_w=qTl74&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=oJf3C&amp;pf_rd_r=BNJEBNTQ9WJFCK2T7NJG&amp;pd_rd_r=878dff4d-97fc-4ab7-b51d-f454e436af7d&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFSMFdOVFk0RUJCSjUmZW5jcnlwdGVkSWQ9QTA5OTM1MjYzSTlCWEhXN0xTU0RQJmVuY3J5cHRlZEFkSWQ9QTAxMzk3MzYzQktQVENFTUtJNzhJJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="E3" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="E95" r:id="rId59" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="E115" r:id="rId60" display="https://www.amazon.com/dp/B07QKDSCSM/ref=sspa_dk_detail_0?spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFCNUFXNjBMUkhRNjgmZW5jcnlwdGVkSWQ9QTAzODUwNTVOR1NCNFFLMjRWR0ImZW5jcnlwdGVkQWRJZD1BMDM1MDc1NjNWSVJZSlg1Q0pDTUkmd2lkZ2V0TmFtZT1zcF9kZXRhaWwyJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ&amp;th=1" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="E97" r:id="rId61" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="E99" r:id="rId62" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="E114" r:id="rId63" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="E113" r:id="rId64" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="E29" r:id="rId65" display="https://www.digikey.com/product-detail/en/citizen-finedevice-co-ltd/CFS-20632768DZFB/300-1002-ND/283736?utm_adgroup=Crystals%20Oscillators&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search&amp;utm_term=&amp;utm_content=Crystals%20Oscillators&amp;gclid=EAIaIQobChMIrI-y8dvf6gIVgobACh05Cwq-EAAYASAAEgJ-LvD_BwE" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="E84" r:id="rId66" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="E81" r:id="rId67" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="E80" r:id="rId68" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="E85" r:id="rId69" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="C79" r:id="rId70" display="https://store.ncd.io/product/feather-battery-i2c-shield-for-particle-and-feather-modules/" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="E79" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="E55" r:id="rId72" xr:uid="{CB9AA7F3-57D3-4035-9B10-D6E06BA90642}"/>
+    <hyperlink ref="E56" r:id="rId73" xr:uid="{CD5B5197-64EF-49EF-91BD-2559DCFA1A39}"/>
+    <hyperlink ref="E57" r:id="rId74" xr:uid="{6673B4F9-7D5C-42C3-A449-534270670C62}"/>
+    <hyperlink ref="E51" r:id="rId75" xr:uid="{7BEE6173-67BD-462D-93F3-8868348A9E43}"/>
+    <hyperlink ref="E89" r:id="rId76" display="https://www.amazon.com/Screwdriver-Flathead-Phillips-Pentalobe-Different/dp/B0872XMTKS/ref=sr_1_2_sspa?crid=33O94WILFA3IZ&amp;dchild=1&amp;keywords=mini+screwdriver+set&amp;qid=1598205307&amp;sprefix=mini+screw%2Caps%2C201&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExMEY2S0QwRE9XR01UJmVuY3J5cHRlZElkPUEwNzIwODY1MjVGV1BCNDNFNkowRyZlbmNyeXB0ZWRBZElkPUExMDAyMjM5NFpSMkVPTlBSN0ZDJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{19DAF842-E937-4DB9-89CA-2282F04D2AEA}"/>
+    <hyperlink ref="E6" r:id="rId77" xr:uid="{B485A6B6-7307-4EAA-A186-31CAA890A0BC}"/>
+    <hyperlink ref="E103" r:id="rId78" xr:uid="{70F21853-AE4C-4BEC-9F14-C2DC1DDCC3B4}"/>
+    <hyperlink ref="E76" r:id="rId79" xr:uid="{23C2A1DE-EDE1-4FE6-90BB-24BA9B7A433E}"/>
+    <hyperlink ref="E14" r:id="rId80" xr:uid="{AA5B840A-EAA7-438B-AC90-9BD9F369A790}"/>
+    <hyperlink ref="E106" r:id="rId81" xr:uid="{BFF0F66D-BAE5-409E-9D4D-2406089A97E9}"/>
+    <hyperlink ref="E64" r:id="rId82" xr:uid="{E22E05A0-7702-4DD5-A4C2-BD50049E3BED}"/>
+    <hyperlink ref="E26" r:id="rId83" display="https://www.amazon.com/Smraza-Helicopter-Airplane-Control-Arduino/dp/B07L2SF3R4/ref=sr_1_2_sspa?dchild=1&amp;keywords=servo+motors&amp;qid=1627326343&amp;sr=8-2-spons&amp;psc=1&amp;smid=AMIHZKLK542FQ&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUE0T1dLTFVJNkJYSTkmZW5jcnlwdGVkSWQ9QTA1Mjc3MzhQMlkzQ0ZZV1ZNUlImZW5jcnlwdGVkQWRJZD1BMDIwNzMwN0dRSDFXTkhNVURFNCZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=" xr:uid="{5F7D6829-E8F9-4418-B2CF-E737838DD2F0}"/>
+    <hyperlink ref="E25" r:id="rId84" display="https://www.amazon.com/Matrix-Membrane-Switch-Keyboard-Arduino/dp/B07THCLGCZ/ref=sr_1_1_sspa?crid=11VSDXYN2F69R&amp;dchild=1&amp;keywords=keypad+arduino&amp;qid=1627326563&amp;sprefix=key+pads+ar%2Caps%2C227&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUE3UzVCUzNCUU01SUcmZW5jcnlwdGVkSWQ9QTA5NTA5MDEyWVc0R0w5VVRDTlFTJmVuY3J5cHRlZEFkSWQ9QTAyMjI5MDgyTFJVQlpLUExKVTEzJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{C7C18D08-2962-4850-A7D4-1A2C548DEB0C}"/>
+    <hyperlink ref="E74" r:id="rId85" display="https://www.amazon.com/WOWOONE-Laser-Diode-30pcs-Diameter/dp/B08R9XBVM3/ref=pd_b2b_qd_subs_1/134-6156851-5388530?pd_rd_w=qcbyD&amp;pf_rd_p=96b0f924-31c1-4af6-b03c-4e4f775bb59f&amp;pf_rd_r=6B5YQX1QH83S137RP9CS&amp;pd_rd_r=d6edc9c0-9f8d-4f15-be09-461639b468bb&amp;pd_rd_wg=MUKdO&amp;pd_rd_i=B08R9XBVM3&amp;psc=1" xr:uid="{6D60E322-6434-4EBB-BD9E-3CE8910CF4D7}"/>
+    <hyperlink ref="E91" r:id="rId86" xr:uid="{B33FFFB3-AB65-4E96-B0B2-C5B323D825AB}"/>
   </hyperlinks>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="83" fitToHeight="0" orientation="landscape" r:id="rId88"/>
+  <pageSetup scale="83" fitToHeight="0" orientation="landscape" r:id="rId87"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;K000000IoT Parts Inventory</oddHeader>
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
@@ -6221,6 +6291,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002E75A16FF431314587A6EFE715708639" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3845378365f05132d6f717dccfddac90">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c68989fb-d827-4f0c-be61-ce0fb4a2ca35" xmlns:ns3="ceb5a5b3-a521-4149-a5a6-8f2ebd45356c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b457bb54ec30cf46f3fea67e83ae68c" ns2:_="" ns3:_="">
     <xsd:import namespace="c68989fb-d827-4f0c-be61-ce0fb4a2ca35"/>
@@ -6437,15 +6516,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6453,6 +6523,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58CD0F9C-796C-40DA-891C-7A92FF34C67A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA096413-5493-4E6F-BFCB-1B6A0AC20663}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6471,14 +6549,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58CD0F9C-796C-40DA-891C-7A92FF34C67A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{623B2E16-5227-4FB6-A3C3-1FFAD3C257CB}">
   <ds:schemaRefs>

--- a/IoT_Parts.xlsx
+++ b/IoT_Parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IoT_Instructor\Documents\IoT\class_slides\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAFD01C-E40E-49F8-B3A2-1594DADCBB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DEE7F4-3269-476A-9E3B-05EE4DF612E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Master" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$B$1:$K$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$B$1:$K$118</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="364">
   <si>
     <t>Part</t>
   </si>
@@ -1137,6 +1137,24 @@
   </si>
   <si>
     <t>https://www.amazon.com/DORHEA-Bluetooth-Development-4-75V-5-25V-Raspberry/dp/B08ZS5YWCG/ref=sr_1_8?dchild=1&amp;keywords=esp32+cam&amp;qid=1628001311&amp;sr=8-8</t>
+  </si>
+  <si>
+    <t>Glarks 120Pcs 2.54mm Straight Single Row PCB Board Female Pin Header Socket Connector Strip Assortment Kit for Arduino Prototype Shield(Single Row)</t>
+  </si>
+  <si>
+    <t>Header Sockets</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Glarks-Straight-Connector-Assortment-Prototype/dp/B076GZXW3Z/ref=sr_1_1?crid=2XVLOBDCIVJ7I&amp;dchild=1&amp;keywords=2.54mm+straight+single+row+pcb+board+female+pin+header+socket&amp;qid=1628008565&amp;sprefix=2.54mm+straight+%2Ctools%2C197&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>Gikfun Solder-able Breadboard Gold Plated Finish Proto Board PCB DIY Kit for Arduino (Pack of 5PCS) GK1007</t>
+  </si>
+  <si>
+    <t>PCB Boards</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Gikfun-Solder-able-Breadboard-Plated-Arduino/dp/B071R3BFNL/ref=pd_bxgy_img_2/134-6156851-5388530?pd_rd_w=ij8qN&amp;pf_rd_p=c64372fa-c41c-422e-990d-9e034f73989b&amp;pf_rd_r=ZDJE0BQX324GPFD2Q9A9&amp;pd_rd_r=ab01f573-ba25-4e86-8f33-4248ddbe6ce4&amp;pd_rd_wg=eWKII&amp;pd_rd_i=B071R3BFNL&amp;psc=1</t>
   </si>
 </sst>
 </file>
@@ -1779,10 +1797,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O116"/>
+  <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,177 +4566,177 @@
       <c r="N70" s="6"/>
       <c r="O70" s="6"/>
     </row>
-    <row r="71" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A71" s="36" t="s">
         <v>288</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>73</v>
+        <v>359</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>74</v>
+        <v>358</v>
       </c>
       <c r="D71" s="20" t="s">
         <v>18</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>75</v>
+        <v>360</v>
       </c>
       <c r="F71" s="17">
-        <v>172.77</v>
+        <v>12.85</v>
       </c>
       <c r="G71" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" s="19">
         <f>F71*G71</f>
-        <v>172.77</v>
+        <v>25.7</v>
       </c>
       <c r="I71" s="17"/>
-      <c r="J71" s="5">
-        <v>0</v>
-      </c>
-      <c r="K71" s="6">
-        <f>J71*F71</f>
-        <v>0</v>
-      </c>
+      <c r="J71" s="5"/>
+      <c r="K71" s="6"/>
       <c r="L71" s="17"/>
       <c r="M71" s="17"/>
       <c r="N71" s="6"/>
       <c r="O71" s="6"/>
     </row>
-    <row r="72" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="36" t="s">
         <v>288</v>
       </c>
-      <c r="B72" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D72" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E72" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="F72" s="22">
-        <v>5.79</v>
-      </c>
-      <c r="G72" s="22">
-        <v>2</v>
-      </c>
-      <c r="H72" s="25">
+      <c r="B72" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F72" s="17">
+        <v>172.77</v>
+      </c>
+      <c r="G72" s="17">
+        <v>1</v>
+      </c>
+      <c r="H72" s="19">
         <f>F72*G72</f>
-        <v>11.58</v>
-      </c>
-      <c r="I72" s="25"/>
-      <c r="J72" s="7">
-        <v>2</v>
+        <v>172.77</v>
+      </c>
+      <c r="I72" s="17"/>
+      <c r="J72" s="5">
+        <v>0</v>
       </c>
       <c r="K72" s="6">
         <f>J72*F72</f>
-        <v>11.58</v>
+        <v>0</v>
       </c>
       <c r="L72" s="17"/>
       <c r="M72" s="17"/>
       <c r="N72" s="6"/>
       <c r="O72" s="6"/>
     </row>
-    <row r="73" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A73" s="36" t="s">
         <v>288</v>
       </c>
-      <c r="B73" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="C73" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="F73" s="17">
-        <v>8.59</v>
-      </c>
-      <c r="G73" s="17">
+      <c r="B73" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F73" s="22">
+        <v>5.79</v>
+      </c>
+      <c r="G73" s="22">
         <v>2</v>
       </c>
-      <c r="H73" s="19">
+      <c r="H73" s="25">
         <f>F73*G73</f>
-        <v>17.18</v>
-      </c>
-      <c r="I73" s="17"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="8"/>
+        <v>11.58</v>
+      </c>
+      <c r="I73" s="25"/>
+      <c r="J73" s="7">
+        <v>2</v>
+      </c>
+      <c r="K73" s="6">
+        <f>J73*F73</f>
+        <v>11.58</v>
+      </c>
       <c r="L73" s="17"/>
       <c r="M73" s="17"/>
       <c r="N73" s="6"/>
       <c r="O73" s="6"/>
     </row>
-    <row r="74" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A74" s="36" t="s">
         <v>288</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>322</v>
+        <v>257</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>259</v>
       </c>
       <c r="D74" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="21" t="s">
-        <v>323</v>
+      <c r="E74" s="18" t="s">
+        <v>258</v>
       </c>
       <c r="F74" s="17">
-        <v>11.98</v>
+        <v>8.59</v>
       </c>
       <c r="G74" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H74" s="19">
         <f>F74*G74</f>
-        <v>11.98</v>
+        <v>17.18</v>
       </c>
       <c r="I74" s="17"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="6"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="8"/>
       <c r="L74" s="17"/>
       <c r="M74" s="17"/>
       <c r="N74" s="6"/>
       <c r="O74" s="6"/>
     </row>
-    <row r="75" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="36" t="s">
         <v>288</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="D75" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="F75" s="17">
-        <v>11.99</v>
+        <v>11.98</v>
       </c>
       <c r="G75" s="17">
         <v>1</v>
       </c>
       <c r="H75" s="19">
         <f>F75*G75</f>
-        <v>11.99</v>
+        <v>11.98</v>
       </c>
       <c r="I75" s="17"/>
       <c r="J75" s="5"/>
@@ -4728,78 +4746,73 @@
       <c r="N75" s="6"/>
       <c r="O75" s="6"/>
     </row>
-    <row r="76" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="36" t="s">
         <v>288</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="C76" s="28" t="s">
-        <v>247</v>
+        <v>332</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>333</v>
       </c>
       <c r="D76" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="18" t="s">
-        <v>249</v>
+      <c r="E76" s="21" t="s">
+        <v>334</v>
       </c>
       <c r="F76" s="17">
-        <v>19.989999999999998</v>
+        <v>11.99</v>
       </c>
       <c r="G76" s="17">
         <v>1</v>
       </c>
       <c r="H76" s="19">
         <f>F76*G76</f>
-        <v>19.989999999999998</v>
-      </c>
-      <c r="I76" s="19"/>
-      <c r="J76" s="17">
-        <v>1</v>
-      </c>
-      <c r="K76" s="6">
-        <f>J76*F76</f>
-        <v>19.989999999999998</v>
-      </c>
+        <v>11.99</v>
+      </c>
+      <c r="I76" s="17"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="6"/>
       <c r="L76" s="17"/>
       <c r="M76" s="17"/>
       <c r="N76" s="6"/>
       <c r="O76" s="6"/>
     </row>
-    <row r="77" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A77" s="36" t="s">
         <v>288</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="C77" s="20" t="s">
-        <v>130</v>
+        <v>248</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>247</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>131</v>
+        <v>249</v>
       </c>
       <c r="F77" s="17">
-        <v>27.95</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="G77" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H77" s="19">
         <f>F77*G77</f>
-        <v>139.75</v>
-      </c>
-      <c r="I77" s="17"/>
-      <c r="J77" s="5">
-        <v>0</v>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I77" s="19"/>
+      <c r="J77" s="17">
+        <v>1</v>
       </c>
       <c r="K77" s="6">
         <f>J77*F77</f>
-        <v>0</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="L77" s="17"/>
       <c r="M77" s="17"/>
@@ -4811,26 +4824,26 @@
         <v>288</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>124</v>
+        <v>129</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>130</v>
       </c>
       <c r="D78" s="17" t="s">
         <v>121</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F78" s="17">
-        <v>110.9</v>
+        <v>27.95</v>
       </c>
       <c r="G78" s="17">
         <v>5</v>
       </c>
       <c r="H78" s="19">
         <f>F78*G78</f>
-        <v>554.5</v>
+        <v>139.75</v>
       </c>
       <c r="I78" s="17"/>
       <c r="J78" s="5">
@@ -4845,31 +4858,31 @@
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
     </row>
-    <row r="79" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" s="36" t="s">
         <v>288</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D79" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D79" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="E79" s="21" t="s">
-        <v>122</v>
+      <c r="E79" s="18" t="s">
+        <v>125</v>
       </c>
       <c r="F79" s="17">
-        <v>15.95</v>
+        <v>110.9</v>
       </c>
       <c r="G79" s="17">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H79" s="19">
         <f>F79*G79</f>
-        <v>287.09999999999997</v>
+        <v>554.5</v>
       </c>
       <c r="I79" s="17"/>
       <c r="J79" s="5">
@@ -4884,31 +4897,31 @@
       <c r="N79" s="6"/>
       <c r="O79" s="6"/>
     </row>
-    <row r="80" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="36" t="s">
         <v>288</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="D80" s="20" t="s">
         <v>121</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="F80" s="17">
-        <v>25.95</v>
+        <v>15.95</v>
       </c>
       <c r="G80" s="17">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H80" s="19">
         <f>F80*G80</f>
-        <v>129.75</v>
+        <v>287.09999999999997</v>
       </c>
       <c r="I80" s="17"/>
       <c r="J80" s="5">
@@ -4928,41 +4941,41 @@
         <v>288</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="D81" s="20" t="s">
         <v>121</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="F81" s="17">
-        <v>42.95</v>
+        <v>25.95</v>
       </c>
       <c r="G81" s="17">
         <v>5</v>
       </c>
       <c r="H81" s="19">
         <f>F81*G81</f>
-        <v>214.75</v>
+        <v>129.75</v>
       </c>
       <c r="I81" s="17"/>
       <c r="J81" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K81" s="6">
         <f>J81*F81</f>
-        <v>85.9</v>
+        <v>0</v>
       </c>
       <c r="L81" s="17"/>
       <c r="M81" s="17"/>
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
     </row>
-    <row r="82" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A82" s="36" t="s">
         <v>288</v>
       </c>
@@ -4972,10 +4985,10 @@
       <c r="C82" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="D82" s="17" t="s">
+      <c r="D82" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="E82" s="18" t="s">
+      <c r="E82" s="21" t="s">
         <v>134</v>
       </c>
       <c r="F82" s="17">
@@ -4990,42 +5003,42 @@
       </c>
       <c r="I82" s="17"/>
       <c r="J82" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K82" s="6">
         <f>J82*F82</f>
-        <v>0</v>
+        <v>85.9</v>
       </c>
       <c r="L82" s="17"/>
       <c r="M82" s="17"/>
       <c r="N82" s="6"/>
       <c r="O82" s="6"/>
     </row>
-    <row r="83" spans="1:15" ht="51" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="36" t="s">
         <v>288</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D83" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D83" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="E83" s="21" t="s">
-        <v>128</v>
+      <c r="E83" s="18" t="s">
+        <v>134</v>
       </c>
       <c r="F83" s="17">
-        <v>52.95</v>
+        <v>42.95</v>
       </c>
       <c r="G83" s="17">
         <v>5</v>
       </c>
       <c r="H83" s="19">
         <f>F83*G83</f>
-        <v>264.75</v>
+        <v>214.75</v>
       </c>
       <c r="I83" s="17"/>
       <c r="J83" s="5">
@@ -5040,31 +5053,31 @@
       <c r="N83" s="6"/>
       <c r="O83" s="6"/>
     </row>
-    <row r="84" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="51" x14ac:dyDescent="0.25">
       <c r="A84" s="36" t="s">
         <v>288</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="D84" s="20" t="s">
         <v>121</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="F84" s="17">
-        <v>57.95</v>
+        <v>52.95</v>
       </c>
       <c r="G84" s="17">
         <v>5</v>
       </c>
       <c r="H84" s="19">
         <f>F84*G84</f>
-        <v>289.75</v>
+        <v>264.75</v>
       </c>
       <c r="I84" s="17"/>
       <c r="J84" s="5">
@@ -5079,31 +5092,31 @@
       <c r="N84" s="6"/>
       <c r="O84" s="6"/>
     </row>
-    <row r="85" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A85" s="36" t="s">
         <v>288</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="D85" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D85" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="E85" s="18" t="s">
-        <v>185</v>
+      <c r="E85" s="21" t="s">
+        <v>179</v>
       </c>
       <c r="F85" s="17">
-        <v>22.95</v>
+        <v>57.95</v>
       </c>
       <c r="G85" s="17">
         <v>5</v>
       </c>
       <c r="H85" s="19">
         <f>F85*G85</f>
-        <v>114.75</v>
+        <v>289.75</v>
       </c>
       <c r="I85" s="17"/>
       <c r="J85" s="5">
@@ -5118,360 +5131,360 @@
       <c r="N85" s="6"/>
       <c r="O85" s="6"/>
     </row>
-    <row r="86" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="36" t="s">
         <v>288</v>
       </c>
-      <c r="B86" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C86" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F86" s="22">
-        <v>24.95</v>
-      </c>
-      <c r="G86" s="22">
+      <c r="B86" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E86" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="F86" s="17">
+        <v>22.95</v>
+      </c>
+      <c r="G86" s="17">
         <v>5</v>
       </c>
-      <c r="H86" s="25">
+      <c r="H86" s="19">
         <f>F86*G86</f>
-        <v>124.75</v>
-      </c>
-      <c r="I86" s="22"/>
+        <v>114.75</v>
+      </c>
+      <c r="I86" s="17"/>
       <c r="J86" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" s="6">
         <f>J86*F86</f>
-        <v>24.95</v>
+        <v>0</v>
       </c>
       <c r="L86" s="17"/>
       <c r="M86" s="17"/>
       <c r="N86" s="6"/>
       <c r="O86" s="6"/>
     </row>
-    <row r="87" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="36" t="s">
         <v>288</v>
       </c>
-      <c r="B87" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E87" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="F87" s="17">
-        <v>4.25</v>
-      </c>
-      <c r="G87" s="17">
+      <c r="B87" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" s="22">
+        <v>24.95</v>
+      </c>
+      <c r="G87" s="22">
+        <v>5</v>
+      </c>
+      <c r="H87" s="25">
+        <f>F87*G87</f>
+        <v>124.75</v>
+      </c>
+      <c r="I87" s="22"/>
+      <c r="J87" s="5">
         <v>1</v>
       </c>
-      <c r="H87" s="19">
-        <f>F87*G87</f>
-        <v>4.25</v>
-      </c>
-      <c r="I87" s="17"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="6"/>
+      <c r="K87" s="6">
+        <f>J87*F87</f>
+        <v>24.95</v>
+      </c>
       <c r="L87" s="17"/>
       <c r="M87" s="17"/>
       <c r="N87" s="6"/>
       <c r="O87" s="6"/>
     </row>
-    <row r="88" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="51" x14ac:dyDescent="0.25">
       <c r="A88" s="36" t="s">
         <v>288</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="E88" s="18" t="s">
-        <v>141</v>
+        <v>362</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>363</v>
       </c>
       <c r="F88" s="17">
-        <v>29.9</v>
+        <v>10.98</v>
       </c>
       <c r="G88" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H88" s="19">
         <f>F88*G88</f>
-        <v>149.5</v>
+        <v>43.92</v>
       </c>
       <c r="I88" s="17"/>
-      <c r="J88" s="5">
-        <v>2</v>
-      </c>
-      <c r="K88" s="6">
-        <f>J88*F88</f>
-        <v>59.8</v>
-      </c>
+      <c r="J88" s="5"/>
+      <c r="K88" s="6"/>
       <c r="L88" s="17"/>
       <c r="M88" s="17"/>
       <c r="N88" s="6"/>
       <c r="O88" s="6"/>
     </row>
-    <row r="89" spans="1:15" ht="285" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="36" t="s">
         <v>288</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="C89" s="28" t="s">
-        <v>240</v>
+        <v>319</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>318</v>
       </c>
       <c r="D89" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E89" s="18" t="s">
-        <v>239</v>
+      <c r="E89" s="21" t="s">
+        <v>320</v>
       </c>
       <c r="F89" s="17">
-        <v>9.99</v>
+        <v>4.25</v>
       </c>
       <c r="G89" s="17">
         <v>1</v>
       </c>
       <c r="H89" s="19">
         <f>F89*G89</f>
-        <v>9.99</v>
+        <v>4.25</v>
       </c>
       <c r="I89" s="17"/>
-      <c r="J89" s="7">
-        <v>1</v>
-      </c>
-      <c r="K89" s="8">
-        <f>J89*F89</f>
-        <v>9.99</v>
-      </c>
+      <c r="J89" s="5"/>
+      <c r="K89" s="6"/>
       <c r="L89" s="17"/>
       <c r="M89" s="17"/>
       <c r="N89" s="6"/>
       <c r="O89" s="6"/>
     </row>
-    <row r="90" spans="1:15" ht="255" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="36" t="s">
         <v>288</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>261</v>
+        <v>138</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="D90" s="17"/>
+        <v>139</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>140</v>
+      </c>
       <c r="E90" s="18" t="s">
-        <v>260</v>
+        <v>141</v>
       </c>
       <c r="F90" s="17">
-        <v>9.8000000000000007</v>
+        <v>29.9</v>
       </c>
       <c r="G90" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H90" s="19">
         <f>F90*G90</f>
-        <v>19.600000000000001</v>
-      </c>
-      <c r="I90" s="19"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="6"/>
+        <v>149.5</v>
+      </c>
+      <c r="I90" s="17"/>
+      <c r="J90" s="5">
+        <v>2</v>
+      </c>
+      <c r="K90" s="6">
+        <f>J90*F90</f>
+        <v>59.8</v>
+      </c>
       <c r="L90" s="17"/>
       <c r="M90" s="17"/>
       <c r="N90" s="6"/>
       <c r="O90" s="6"/>
     </row>
-    <row r="91" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A91" s="36" t="s">
         <v>288</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>337</v>
+        <v>241</v>
+      </c>
+      <c r="C91" s="28" t="s">
+        <v>240</v>
       </c>
       <c r="D91" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E91" s="21" t="s">
-        <v>338</v>
+      <c r="E91" s="18" t="s">
+        <v>239</v>
       </c>
       <c r="F91" s="17">
-        <v>8.99</v>
+        <v>9.99</v>
       </c>
       <c r="G91" s="17">
         <v>1</v>
       </c>
       <c r="H91" s="19">
         <f>F91*G91</f>
-        <v>8.99</v>
+        <v>9.99</v>
       </c>
       <c r="I91" s="17"/>
-      <c r="J91" s="5"/>
-      <c r="K91" s="6"/>
+      <c r="J91" s="7">
+        <v>1</v>
+      </c>
+      <c r="K91" s="8">
+        <f>J91*F91</f>
+        <v>9.99</v>
+      </c>
       <c r="L91" s="17"/>
       <c r="M91" s="17"/>
       <c r="N91" s="6"/>
       <c r="O91" s="6"/>
     </row>
-    <row r="92" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="255" x14ac:dyDescent="0.25">
       <c r="A92" s="36" t="s">
         <v>288</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="C92" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="D92" s="20" t="s">
-        <v>188</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="D92" s="17"/>
       <c r="E92" s="18" t="s">
-        <v>189</v>
+        <v>260</v>
       </c>
       <c r="F92" s="17">
-        <v>259</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="G92" s="17">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H92" s="19">
         <f>F92*G92</f>
-        <v>2072</v>
-      </c>
-      <c r="I92" s="17"/>
-      <c r="J92" s="5">
-        <v>0</v>
-      </c>
-      <c r="K92" s="6">
-        <f>J92*F92</f>
-        <v>0</v>
-      </c>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="I92" s="19"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="6"/>
       <c r="L92" s="17"/>
       <c r="M92" s="17"/>
       <c r="N92" s="6"/>
       <c r="O92" s="6"/>
     </row>
-    <row r="93" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="36" t="s">
         <v>288</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>79</v>
+        <v>328</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>80</v>
+        <v>337</v>
       </c>
       <c r="D93" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E93" s="18" t="s">
-        <v>81</v>
+      <c r="E93" s="21" t="s">
+        <v>338</v>
       </c>
       <c r="F93" s="17">
-        <v>11.98</v>
+        <v>8.99</v>
       </c>
       <c r="G93" s="17">
         <v>1</v>
       </c>
       <c r="H93" s="19">
         <f>F93*G93</f>
-        <v>11.98</v>
+        <v>8.99</v>
       </c>
       <c r="I93" s="17"/>
-      <c r="J93" s="5">
-        <v>0</v>
-      </c>
-      <c r="K93" s="6">
-        <f>J93*F93</f>
-        <v>0</v>
-      </c>
+      <c r="J93" s="5"/>
+      <c r="K93" s="6"/>
       <c r="L93" s="17"/>
       <c r="M93" s="17"/>
       <c r="N93" s="6"/>
       <c r="O93" s="6"/>
     </row>
-    <row r="94" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A94" s="36" t="s">
         <v>288</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E94" s="21" t="s">
-        <v>325</v>
+        <v>186</v>
+      </c>
+      <c r="C94" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>189</v>
       </c>
       <c r="F94" s="17">
-        <v>13.39</v>
+        <v>259</v>
       </c>
       <c r="G94" s="17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H94" s="19">
         <f>F94*G94</f>
-        <v>13.39</v>
+        <v>2072</v>
       </c>
       <c r="I94" s="17"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="6"/>
+      <c r="J94" s="5">
+        <v>0</v>
+      </c>
+      <c r="K94" s="6">
+        <f>J94*F94</f>
+        <v>0</v>
+      </c>
       <c r="L94" s="17"/>
       <c r="M94" s="17"/>
       <c r="N94" s="6"/>
       <c r="O94" s="6"/>
     </row>
-    <row r="95" spans="1:15" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A95" s="36" t="s">
         <v>288</v>
       </c>
-      <c r="B95" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="C95" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D95" s="28" t="s">
+      <c r="B95" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D95" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="F95" s="28">
-        <v>12.99</v>
+        <v>81</v>
+      </c>
+      <c r="F95" s="17">
+        <v>11.98</v>
       </c>
       <c r="G95" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H95" s="19">
         <f>F95*G95</f>
-        <v>64.95</v>
+        <v>11.98</v>
       </c>
       <c r="I95" s="17"/>
       <c r="J95" s="5">
@@ -5486,35 +5499,35 @@
       <c r="N95" s="6"/>
       <c r="O95" s="6"/>
     </row>
-    <row r="96" spans="1:15" ht="285" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="36" t="s">
         <v>288</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="C96" s="28" t="s">
-        <v>265</v>
+        <v>326</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>324</v>
       </c>
       <c r="D96" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E96" s="18" t="s">
-        <v>263</v>
+      <c r="E96" s="21" t="s">
+        <v>325</v>
       </c>
       <c r="F96" s="17">
-        <v>12.99</v>
+        <v>13.39</v>
       </c>
       <c r="G96" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H96" s="19">
         <f>F96*G96</f>
-        <v>51.96</v>
+        <v>13.39</v>
       </c>
       <c r="I96" s="17"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="8"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="6"/>
       <c r="L96" s="17"/>
       <c r="M96" s="17"/>
       <c r="N96" s="6"/>
@@ -5524,30 +5537,30 @@
       <c r="A97" s="36" t="s">
         <v>288</v>
       </c>
-      <c r="B97" s="17" t="s">
-        <v>199</v>
+      <c r="B97" s="28" t="s">
+        <v>196</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="D97" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D97" s="28" t="s">
         <v>18</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="F97" s="17">
-        <v>16.5</v>
+        <v>198</v>
+      </c>
+      <c r="F97" s="28">
+        <v>12.99</v>
       </c>
       <c r="G97" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H97" s="19">
         <f>F97*G97</f>
-        <v>99</v>
+        <v>64.95</v>
       </c>
       <c r="I97" s="17"/>
-      <c r="J97" s="7">
+      <c r="J97" s="5">
         <v>0</v>
       </c>
       <c r="K97" s="6">
@@ -5559,65 +5572,65 @@
       <c r="N97" s="6"/>
       <c r="O97" s="6"/>
     </row>
-    <row r="98" spans="1:15" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A98" s="36" t="s">
         <v>288</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="D98" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="F98" s="17">
-        <v>15.25</v>
+        <v>12.99</v>
       </c>
       <c r="G98" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H98" s="19">
         <f>F98*G98</f>
-        <v>15.25</v>
-      </c>
-      <c r="I98" s="19"/>
+        <v>51.96</v>
+      </c>
+      <c r="I98" s="17"/>
       <c r="J98" s="7"/>
-      <c r="K98" s="6"/>
+      <c r="K98" s="8"/>
       <c r="L98" s="17"/>
       <c r="M98" s="17"/>
       <c r="N98" s="6"/>
       <c r="O98" s="6"/>
     </row>
-    <row r="99" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A99" s="36" t="s">
         <v>288</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D99" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E99" s="21" t="s">
-        <v>204</v>
+      <c r="E99" s="18" t="s">
+        <v>201</v>
       </c>
       <c r="F99" s="17">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="G99" s="17">
         <v>6</v>
       </c>
       <c r="H99" s="19">
         <f>F99*G99</f>
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="I99" s="17"/>
       <c r="J99" s="7">
@@ -5632,261 +5645,266 @@
       <c r="N99" s="6"/>
       <c r="O99" s="6"/>
     </row>
-    <row r="100" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A100" s="36" t="s">
         <v>288</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C100" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D100" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" s="21" t="s">
-        <v>78</v>
+        <v>284</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="18" t="s">
+        <v>283</v>
       </c>
       <c r="F100" s="17">
-        <v>17.98</v>
+        <v>15.25</v>
       </c>
       <c r="G100" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H100" s="19">
         <f>F100*G100</f>
-        <v>71.92</v>
-      </c>
-      <c r="I100" s="17"/>
-      <c r="J100" s="5">
-        <v>0</v>
-      </c>
-      <c r="K100" s="6">
-        <f>J100*F100</f>
-        <v>0</v>
-      </c>
+        <v>15.25</v>
+      </c>
+      <c r="I100" s="19"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="6"/>
       <c r="L100" s="17"/>
       <c r="M100" s="17"/>
       <c r="N100" s="6"/>
       <c r="O100" s="6"/>
     </row>
-    <row r="101" spans="1:15" ht="270" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A101" s="36" t="s">
         <v>288</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>277</v>
+        <v>202</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>280</v>
+        <v>203</v>
       </c>
       <c r="D101" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E101" s="18" t="s">
-        <v>281</v>
+      <c r="E101" s="21" t="s">
+        <v>204</v>
       </c>
       <c r="F101" s="17">
-        <v>15.96</v>
+        <v>12</v>
       </c>
       <c r="G101" s="17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H101" s="19">
         <f>F101*G101</f>
-        <v>15.96</v>
-      </c>
-      <c r="I101" s="19"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="6"/>
+        <v>72</v>
+      </c>
+      <c r="I101" s="17"/>
+      <c r="J101" s="7">
+        <v>0</v>
+      </c>
+      <c r="K101" s="6">
+        <f>J101*F101</f>
+        <v>0</v>
+      </c>
       <c r="L101" s="17"/>
       <c r="M101" s="17"/>
       <c r="N101" s="6"/>
       <c r="O101" s="6"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A102" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="B102" s="40">
+    <row r="102" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D102" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F102" s="17">
+        <v>17.98</v>
+      </c>
+      <c r="G102" s="17">
+        <v>4</v>
+      </c>
+      <c r="H102" s="19">
+        <f>F102*G102</f>
+        <v>71.92</v>
+      </c>
+      <c r="I102" s="17"/>
+      <c r="J102" s="5">
+        <v>0</v>
+      </c>
+      <c r="K102" s="6">
+        <f>J102*F102</f>
+        <v>0</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="6"/>
+      <c r="O102" s="6"/>
+    </row>
+    <row r="103" spans="1:15" ht="270" x14ac:dyDescent="0.25">
+      <c r="A103" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C103" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="F103" s="17">
+        <v>15.96</v>
+      </c>
+      <c r="G103" s="17">
         <v>1</v>
       </c>
-      <c r="C102" s="40" t="s">
-        <v>305</v>
-      </c>
-      <c r="D102" s="40"/>
-      <c r="E102" s="40"/>
-      <c r="F102" s="40"/>
-      <c r="G102" s="40"/>
-      <c r="H102" s="40"/>
-      <c r="I102" s="40"/>
-      <c r="J102" s="40"/>
-      <c r="K102" s="40"/>
-      <c r="L102" s="40"/>
-      <c r="M102" s="40"/>
-      <c r="N102" s="40"/>
-      <c r="O102" s="40"/>
-    </row>
-    <row r="103" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="36" t="s">
-        <v>307</v>
-      </c>
-      <c r="B103" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="D103" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="E103" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="F103" s="17">
-        <v>4.95</v>
-      </c>
-      <c r="G103" s="15"/>
-      <c r="H103" s="46"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="5">
-        <v>5</v>
-      </c>
-      <c r="K103" s="6">
-        <f>J103*F103</f>
-        <v>24.75</v>
-      </c>
+      <c r="H103" s="19">
+        <f>F103*G103</f>
+        <v>15.96</v>
+      </c>
+      <c r="I103" s="19"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="6"/>
       <c r="L103" s="17"/>
       <c r="M103" s="17"/>
       <c r="N103" s="6"/>
       <c r="O103" s="6"/>
     </row>
-    <row r="104" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A104" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="B104" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C104" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D104" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E104" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="F104" s="17">
-        <v>15.99</v>
-      </c>
-      <c r="G104" s="15"/>
-      <c r="H104" s="46"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="5">
-        <v>0</v>
-      </c>
-      <c r="K104" s="6">
-        <f>J104*F104</f>
-        <v>0</v>
-      </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="6"/>
-      <c r="O104" s="6"/>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="B104" s="40">
+        <v>1</v>
+      </c>
+      <c r="C104" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="D104" s="40"/>
+      <c r="E104" s="40"/>
+      <c r="F104" s="40"/>
+      <c r="G104" s="40"/>
+      <c r="H104" s="40"/>
+      <c r="I104" s="40"/>
+      <c r="J104" s="40"/>
+      <c r="K104" s="40"/>
+      <c r="L104" s="40"/>
+      <c r="M104" s="40"/>
+      <c r="N104" s="40"/>
+      <c r="O104" s="40"/>
     </row>
     <row r="105" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="36" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>150</v>
+        <v>246</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="E105" s="18" t="s">
-        <v>152</v>
+        <v>160</v>
+      </c>
+      <c r="E105" s="21" t="s">
+        <v>245</v>
       </c>
       <c r="F105" s="17">
-        <v>3.5</v>
+        <v>4.95</v>
       </c>
       <c r="G105" s="15"/>
       <c r="H105" s="46"/>
-      <c r="I105" s="46"/>
-      <c r="J105" s="7">
-        <v>0</v>
+      <c r="I105" s="15"/>
+      <c r="J105" s="5">
+        <v>5</v>
       </c>
       <c r="K105" s="6">
         <f>J105*F105</f>
-        <v>0</v>
+        <v>24.75</v>
       </c>
       <c r="L105" s="17"/>
       <c r="M105" s="17"/>
       <c r="N105" s="6"/>
       <c r="O105" s="6"/>
     </row>
-    <row r="106" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A106" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>209</v>
+        <v>91</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>210</v>
+        <v>92</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="E106" s="21" t="s">
-        <v>212</v>
+        <v>18</v>
+      </c>
+      <c r="E106" s="18" t="s">
+        <v>93</v>
       </c>
       <c r="F106" s="17">
-        <v>7.95</v>
+        <v>15.99</v>
       </c>
       <c r="G106" s="15"/>
       <c r="H106" s="46"/>
       <c r="I106" s="15"/>
       <c r="J106" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K106" s="6">
         <f>J106*F106</f>
-        <v>127.2</v>
+        <v>0</v>
       </c>
       <c r="L106" s="17"/>
       <c r="M106" s="17"/>
       <c r="N106" s="6"/>
       <c r="O106" s="6"/>
     </row>
-    <row r="107" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="36" t="s">
         <v>309</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E107" s="21" t="s">
-        <v>95</v>
+        <v>151</v>
+      </c>
+      <c r="E107" s="18" t="s">
+        <v>152</v>
       </c>
       <c r="F107" s="17">
-        <v>10.98</v>
+        <v>3.5</v>
       </c>
       <c r="G107" s="15"/>
       <c r="H107" s="46"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="5">
+      <c r="I107" s="46"/>
+      <c r="J107" s="7">
         <v>0</v>
       </c>
       <c r="K107" s="6">
@@ -5900,61 +5918,61 @@
     </row>
     <row r="108" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="36" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>136</v>
+        <v>211</v>
       </c>
       <c r="E108" s="21" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="F108" s="17">
-        <v>11.99</v>
+        <v>7.95</v>
       </c>
       <c r="G108" s="15"/>
       <c r="H108" s="46"/>
       <c r="I108" s="15"/>
       <c r="J108" s="5">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K108" s="6">
         <f>J108*F108</f>
-        <v>0</v>
+        <v>127.2</v>
       </c>
       <c r="L108" s="17"/>
       <c r="M108" s="17"/>
       <c r="N108" s="6"/>
       <c r="O108" s="6"/>
     </row>
-    <row r="109" spans="1:15" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="36" t="s">
-        <v>312</v>
-      </c>
-      <c r="B109" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="C109" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="D109" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E109" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="F109" s="28">
-        <v>12.99</v>
+        <v>95</v>
+      </c>
+      <c r="F109" s="17">
+        <v>10.98</v>
       </c>
       <c r="G109" s="15"/>
       <c r="H109" s="46"/>
-      <c r="I109" s="46"/>
-      <c r="J109" s="17">
+      <c r="I109" s="15"/>
+      <c r="J109" s="5">
         <v>0</v>
       </c>
       <c r="K109" s="6">
@@ -5966,24 +5984,24 @@
       <c r="N109" s="6"/>
       <c r="O109" s="6"/>
     </row>
-    <row r="110" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C110" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D110" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E110" s="18" t="s">
-        <v>90</v>
+        <v>135</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E110" s="21" t="s">
+        <v>137</v>
       </c>
       <c r="F110" s="17">
-        <v>23.95</v>
+        <v>11.99</v>
       </c>
       <c r="G110" s="15"/>
       <c r="H110" s="46"/>
@@ -6000,58 +6018,58 @@
       <c r="N110" s="6"/>
       <c r="O110" s="6"/>
     </row>
-    <row r="111" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A111" s="36" t="s">
-        <v>311</v>
-      </c>
-      <c r="B111" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="E111" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="F111" s="17">
-        <v>19.95</v>
+        <v>312</v>
+      </c>
+      <c r="B111" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C111" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="D111" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="F111" s="28">
+        <v>12.99</v>
       </c>
       <c r="G111" s="15"/>
       <c r="H111" s="46"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="5">
-        <v>10</v>
+      <c r="I111" s="46"/>
+      <c r="J111" s="17">
+        <v>0</v>
       </c>
       <c r="K111" s="6">
         <f>J111*F111</f>
-        <v>199.5</v>
+        <v>0</v>
       </c>
       <c r="L111" s="17"/>
       <c r="M111" s="17"/>
       <c r="N111" s="6"/>
       <c r="O111" s="6"/>
     </row>
-    <row r="112" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A112" s="36" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C112" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D112" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" s="21" t="s">
-        <v>98</v>
+        <v>88</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D112" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="18" t="s">
+        <v>90</v>
       </c>
       <c r="F112" s="17">
-        <v>32.880000000000003</v>
+        <v>23.95</v>
       </c>
       <c r="G112" s="15"/>
       <c r="H112" s="46"/>
@@ -6068,34 +6086,34 @@
       <c r="N112" s="6"/>
       <c r="O112" s="6"/>
     </row>
-    <row r="113" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="36" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>220</v>
+        <v>159</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="E113" s="18" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="F113" s="17">
-        <v>12</v>
+        <v>19.95</v>
       </c>
       <c r="G113" s="15"/>
       <c r="H113" s="46"/>
-      <c r="I113" s="46"/>
-      <c r="J113" s="17">
-        <v>0</v>
+      <c r="I113" s="15"/>
+      <c r="J113" s="5">
+        <v>10</v>
       </c>
       <c r="K113" s="6">
         <f>J113*F113</f>
-        <v>0</v>
+        <v>199.5</v>
       </c>
       <c r="L113" s="17"/>
       <c r="M113" s="17"/>
@@ -6107,24 +6125,24 @@
         <v>313</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="C114" s="28" t="s">
-        <v>223</v>
+        <v>96</v>
+      </c>
+      <c r="C114" s="17" t="s">
+        <v>97</v>
       </c>
       <c r="D114" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E114" s="18" t="s">
-        <v>224</v>
+      <c r="E114" s="21" t="s">
+        <v>98</v>
       </c>
       <c r="F114" s="17">
-        <v>8.99</v>
+        <v>32.880000000000003</v>
       </c>
       <c r="G114" s="15"/>
       <c r="H114" s="46"/>
-      <c r="I114" s="46"/>
-      <c r="J114" s="17">
+      <c r="I114" s="15"/>
+      <c r="J114" s="5">
         <v>0</v>
       </c>
       <c r="K114" s="6">
@@ -6136,58 +6154,126 @@
       <c r="N114" s="6"/>
       <c r="O114" s="6"/>
     </row>
-    <row r="115" spans="1:15" ht="195" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A115" s="36" t="s">
         <v>313</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="C115" s="28" t="s">
-        <v>217</v>
+        <v>219</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>220</v>
       </c>
       <c r="D115" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E115" s="18" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F115" s="17">
-        <v>5.69</v>
+        <v>12</v>
       </c>
       <c r="G115" s="15"/>
       <c r="H115" s="46"/>
       <c r="I115" s="46"/>
       <c r="J115" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K115" s="6">
         <f>J115*F115</f>
-        <v>5.69</v>
-      </c>
-      <c r="L115" s="33" t="s">
-        <v>250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L115" s="17"/>
       <c r="M115" s="17"/>
       <c r="N115" s="6"/>
       <c r="O115" s="6"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B116" s="30"/>
-      <c r="C116" s="30"/>
-      <c r="D116" s="30"/>
-      <c r="E116" s="30"/>
-      <c r="F116" s="30"/>
-      <c r="G116" s="30"/>
-      <c r="H116" s="32"/>
-      <c r="I116" s="32"/>
-      <c r="J116" s="10"/>
-      <c r="K116" s="34"/>
-      <c r="L116" s="30"/>
-      <c r="M116" s="30"/>
+    <row r="116" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A116" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C116" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" s="17">
+        <v>8.99</v>
+      </c>
+      <c r="G116" s="15"/>
+      <c r="H116" s="46"/>
+      <c r="I116" s="46"/>
+      <c r="J116" s="17">
+        <v>0</v>
+      </c>
+      <c r="K116" s="6">
+        <f>J116*F116</f>
+        <v>0</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="6"/>
+      <c r="O116" s="6"/>
+    </row>
+    <row r="117" spans="1:15" ht="195" x14ac:dyDescent="0.25">
+      <c r="A117" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="B117" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C117" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E117" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="F117" s="17">
+        <v>5.69</v>
+      </c>
+      <c r="G117" s="15"/>
+      <c r="H117" s="46"/>
+      <c r="I117" s="46"/>
+      <c r="J117" s="17">
+        <v>1</v>
+      </c>
+      <c r="K117" s="6">
+        <f>J117*F117</f>
+        <v>5.69</v>
+      </c>
+      <c r="L117" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="M117" s="17"/>
+      <c r="N117" s="6"/>
+      <c r="O117" s="6"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B118" s="30"/>
+      <c r="C118" s="30"/>
+      <c r="D118" s="30"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="30"/>
+      <c r="G118" s="30"/>
+      <c r="H118" s="32"/>
+      <c r="I118" s="32"/>
+      <c r="J118" s="10"/>
+      <c r="K118" s="34"/>
+      <c r="L118" s="30"/>
+      <c r="M118" s="30"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:K116" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="B1:K118" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O118">
     <sortCondition ref="A2:A118"/>
     <sortCondition ref="B2:B118"/>
@@ -6200,22 +6286,22 @@
     <hyperlink ref="E38" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
     <hyperlink ref="E32" r:id="rId6" display="https://www.amazon.com/BOJACK-UA741General-Purpose-Operational-Amplifier/dp/B07WSB1VNH/ref=asc_df_B07WSB1VNH/?tag=hyprod-20&amp;linkCode=df0&amp;hvadid=416713541504&amp;hvpos=&amp;hvnetw=g&amp;hvrand=10187485487199424423&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9030447&amp;hvtargid=pla-870040127419&amp;psc=1&amp;tag=&amp;ref=&amp;adgrpid=93604203773&amp;hvpone=&amp;hvptwo=&amp;hvadid=416713541504&amp;hvpos=&amp;hvnetw=g&amp;hvrand=10187485487199424423&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9030447&amp;hvtargid=pla-870040127419" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
     <hyperlink ref="E33" r:id="rId7" display="https://www.amazon.com/LSR-Transistor-Assortment-Electronics-Electronic/dp/B07TV9FFFQ/ref=sr_1_1_sspa?dchild=1&amp;keywords=transistor+kit&amp;qid=1589997273&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyNjRQNjZTRkNTMDBEJmVuY3J5cHRlZElkPUEwMjA2MDgzMTJBUTZXT1pMR1VFSyZlbmNyeXB0ZWRBZElkPUEwMzg4NDY4MzgxSDlaRERQMUxMQSZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="E88" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="E90" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
     <hyperlink ref="E52" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
     <hyperlink ref="E53" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
     <hyperlink ref="E50" r:id="rId11" display="https://www.amazon.com/Isopropyl-Alcohol-Grade-99-Anhydrous/dp/B01KK014F4/ref=asc_df_B01KK014F4/?tag=hyprod-20&amp;linkCode=df0&amp;hvadid=312416780110&amp;hvpos=&amp;hvnetw=g&amp;hvrand=17295135421118886149&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9030447&amp;hvtargid=pla-569571734125&amp;psc=1&amp;tag=&amp;ref=&amp;adgrpid=61555869549&amp;hvpone=&amp;hvptwo=&amp;hvadid=312416780110&amp;hvpos=&amp;hvnetw=g&amp;hvrand=17295135421118886149&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9030447&amp;hvtargid=pla-569571734125" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
     <hyperlink ref="E49" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
     <hyperlink ref="E40" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="E111" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="E113" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
     <hyperlink ref="E36" r:id="rId15" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
     <hyperlink ref="E35" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
     <hyperlink ref="E34" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
     <hyperlink ref="E37" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
     <hyperlink ref="E30" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="E104" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="E110" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="E100" r:id="rId22" display="https://www.amazon.com/Smart-Enabled-Google-Assistant-HomeKit/dp/B01NBI0A6R/ref=sxin_3_ac_d_rm?ac_md=0-0-d2Vtbw%3D%3D-ac_d_rm&amp;cv_ct_cx=wemo&amp;keywords=wemo&amp;pd_rd_i=B01NBI0A6R&amp;pd_rd_r=bbd5c2e2-6eb9-40fe-9456-a7336162120f&amp;pd_rd_w=Ts0oB&amp;pd_rd_wg=K1Zyb&amp;pf_rd_p=de19e82a-2d83-4ae8-9f5c-212586b8b9a0&amp;pf_rd_r=8DGZDACCDVJ418KR7CNJ&amp;qid=1584141937&amp;th=1" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="E71" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="E106" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="E112" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="E102" r:id="rId22" display="https://www.amazon.com/Smart-Enabled-Google-Assistant-HomeKit/dp/B01NBI0A6R/ref=sxin_3_ac_d_rm?ac_md=0-0-d2Vtbw%3D%3D-ac_d_rm&amp;cv_ct_cx=wemo&amp;keywords=wemo&amp;pd_rd_i=B01NBI0A6R&amp;pd_rd_r=bbd5c2e2-6eb9-40fe-9456-a7336162120f&amp;pd_rd_w=Ts0oB&amp;pd_rd_wg=K1Zyb&amp;pf_rd_p=de19e82a-2d83-4ae8-9f5c-212586b8b9a0&amp;pf_rd_r=8DGZDACCDVJ418KR7CNJ&amp;qid=1584141937&amp;th=1" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="E72" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
     <hyperlink ref="E8" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
     <hyperlink ref="E27" r:id="rId25" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
     <hyperlink ref="E24" r:id="rId26" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
@@ -6225,9 +6311,9 @@
     <hyperlink ref="E7" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
     <hyperlink ref="E9" r:id="rId31" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
     <hyperlink ref="E11" r:id="rId32" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="C86" r:id="rId33" display="https://www.adafruit.com/product/1461" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="E105" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="E86" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="C87" r:id="rId33" display="https://www.adafruit.com/product/1461" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="E107" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="E87" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
     <hyperlink ref="E15" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
     <hyperlink ref="E21" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
     <hyperlink ref="E20" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
@@ -6235,50 +6321,50 @@
     <hyperlink ref="E2" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
     <hyperlink ref="E5" r:id="rId41" display="https://www.amazon.com/Teensy-3-2-with-pins/dp/B015QUPO5Y/ref=pd_cp_328_2/146-7771809-3852250?_encoding=UTF8&amp;pd_rd_i=B015QUPO5Y&amp;pd_rd_r=27b95a34-9f23-44f6-bbff-68008086ed57&amp;pd_rd_w=vzcu6&amp;pd_rd_wg=VmhTT&amp;pf_rd_p=4853e837-f87a-46d4-be32-dcf86bff7a7c&amp;pf_rd_r=DCM2BKEYA2PKP2EFR23Y&amp;psc=1&amp;refRID=DCM2BKEYA2PKP2EFR23Y" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
     <hyperlink ref="E28" r:id="rId42" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="E72" r:id="rId43" display="https://www.amazon.com/dp/B07GD2BWPY/ref=sspa_dk_detail_2?psc=1&amp;pd_rd_i=B07GD2BWPY&amp;pd_rd_w=TqeWX&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=sNJWA&amp;pf_rd_r=ZXS16ECPMKD9XBVAS65W&amp;pd_rd_r=b5442918-7fb9-4962-af3b-9820970385cf&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyWTlUTDAyTTJDVElLJmVuY3J5cHRlZElkPUEwMjM2MDg0M0g1U1ZRS1hPNk0zMSZlbmNyeXB0ZWRBZElkPUEwNTczODQxM0JQVzgzUkcwMUVBNiZ3aWRnZXROYW1lPXNwX2RldGFpbCZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="E93" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="E107" r:id="rId45" display="https://www.amazon.com/Adafruit-NeoPixel-Ring-Integrated-Drivers/dp/B00KAE3R1U/ref=sxin_7_ac_d_rm?ac_md=1-1-bmVvcGl4ZWw%3D-ac_d_rm&amp;cv_ct_cx=neopixel+ring&amp;dchild=1&amp;keywords=neopixel+ring&amp;pd_rd_i=B00KAE3R1U&amp;pd_rd_r=f532ea9d-0030-44f0-832a-ce614c837962&amp;pd_rd_w=9bJ5n&amp;pd_rd_wg=0eBjE&amp;pf_rd_p=a0516f22-66df-4efd-8b9a-279a864d1512&amp;pf_rd_r=AYP2P98ZJBNCG2YYCT97&amp;psc=1&amp;qid=1590415826&amp;sr=1-2-12d4272d-8adb-4121-8624-135149aa9081" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="E108" r:id="rId46" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="E112" r:id="rId47" display="https://www.amazon.com/dp/B01CDTEKAG/ref=sspa_dk_detail_5?psc=1&amp;pd_rd_i=B01CDTEKAG&amp;pd_rd_w=xH4vG&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=OWknK&amp;pf_rd_r=4MWDRWVKFJB1AYRB3KT5&amp;pd_rd_r=1dfe850a-4ea2-46f2-b93c-46b84486f9d4&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzUThIV0Y2UjRSUjImZW5jcnlwdGVkSWQ9QTAzMjQ0ODUxSDdUU0E3UTlMWFlEJmVuY3J5cHRlZEFkSWQ9QTA5Nzg1MTUxVTM3VzVKSE44S1RCJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="E73" r:id="rId43" display="https://www.amazon.com/dp/B07GD2BWPY/ref=sspa_dk_detail_2?psc=1&amp;pd_rd_i=B07GD2BWPY&amp;pd_rd_w=TqeWX&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=sNJWA&amp;pf_rd_r=ZXS16ECPMKD9XBVAS65W&amp;pd_rd_r=b5442918-7fb9-4962-af3b-9820970385cf&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyWTlUTDAyTTJDVElLJmVuY3J5cHRlZElkPUEwMjM2MDg0M0g1U1ZRS1hPNk0zMSZlbmNyeXB0ZWRBZElkPUEwNTczODQxM0JQVzgzUkcwMUVBNiZ3aWRnZXROYW1lPXNwX2RldGFpbCZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="E95" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="E109" r:id="rId45" display="https://www.amazon.com/Adafruit-NeoPixel-Ring-Integrated-Drivers/dp/B00KAE3R1U/ref=sxin_7_ac_d_rm?ac_md=1-1-bmVvcGl4ZWw%3D-ac_d_rm&amp;cv_ct_cx=neopixel+ring&amp;dchild=1&amp;keywords=neopixel+ring&amp;pd_rd_i=B00KAE3R1U&amp;pd_rd_r=f532ea9d-0030-44f0-832a-ce614c837962&amp;pd_rd_w=9bJ5n&amp;pd_rd_wg=0eBjE&amp;pf_rd_p=a0516f22-66df-4efd-8b9a-279a864d1512&amp;pf_rd_r=AYP2P98ZJBNCG2YYCT97&amp;psc=1&amp;qid=1590415826&amp;sr=1-2-12d4272d-8adb-4121-8624-135149aa9081" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="E110" r:id="rId46" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="E114" r:id="rId47" display="https://www.amazon.com/dp/B01CDTEKAG/ref=sspa_dk_detail_5?psc=1&amp;pd_rd_i=B01CDTEKAG&amp;pd_rd_w=xH4vG&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=OWknK&amp;pf_rd_r=4MWDRWVKFJB1AYRB3KT5&amp;pd_rd_r=1dfe850a-4ea2-46f2-b93c-46b84486f9d4&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzUThIV0Y2UjRSUjImZW5jcnlwdGVkSWQ9QTAzMjQ0ODUxSDdUU0E3UTlMWFlEJmVuY3J5cHRlZEFkSWQ9QTA5Nzg1MTUxVTM3VzVKSE44S1RCJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
     <hyperlink ref="E65" r:id="rId48" display="https://www.amazon.com/DFROBOT-Gravity-Analog-Sensor-Arduino/dp/B00R5CCH7U/ref=sr_1_2_sspa?dchild=1&amp;keywords=dfrobot&amp;qid=1590416675&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExRVhTUks4U1dYNjhSJmVuY3J5cHRlZElkPUEwNTY0MzYzUldBQ1A2SDlRVkRCJmVuY3J5cHRlZEFkSWQ9QTEwNDU4OTYzVjNDWEhNV0RPS1IzJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="E77" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="E82" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="E83" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="E78" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="E78" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="E83" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="E84" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="E79" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
     <hyperlink ref="E4" r:id="rId53" display="https://www.lowes.com/pd/Tough-Box-16-Compartment-Plastic-Small-Parts-Organizer/1000365903?cm_mmc=shp-_-c-_-prd-_-tol-_-google-_-lia-_--_-toolstorage-_-1000365903-_-0&amp;store_code=2539&amp;placeholder=null&amp;gclid=EAIaIQobChMI2ICzhsX86QIVi4bACh0oNwjhEAQYASABEgLcgPD_BwE&amp;gclsrc=aw.ds" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="E92" r:id="rId54" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="E94" r:id="rId54" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
     <hyperlink ref="E70" r:id="rId55" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
     <hyperlink ref="E10" r:id="rId56" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="E109" r:id="rId57" display="https://www.amazon.com/dp/B087B5NWY4/ref=sspa_dk_detail_0?psc=1&amp;pd_rd_i=B087B5NWY4&amp;pd_rd_w=qTl74&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=oJf3C&amp;pf_rd_r=BNJEBNTQ9WJFCK2T7NJG&amp;pd_rd_r=878dff4d-97fc-4ab7-b51d-f454e436af7d&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFSMFdOVFk0RUJCSjUmZW5jcnlwdGVkSWQ9QTA5OTM1MjYzSTlCWEhXN0xTU0RQJmVuY3J5cHRlZEFkSWQ9QTAxMzk3MzYzQktQVENFTUtJNzhJJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="E111" r:id="rId57" display="https://www.amazon.com/dp/B087B5NWY4/ref=sspa_dk_detail_0?psc=1&amp;pd_rd_i=B087B5NWY4&amp;pd_rd_w=qTl74&amp;pf_rd_p=48d372c1-f7e1-4b8b-9d02-4bd86f5158c5&amp;pd_rd_wg=oJf3C&amp;pf_rd_r=BNJEBNTQ9WJFCK2T7NJG&amp;pd_rd_r=878dff4d-97fc-4ab7-b51d-f454e436af7d&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFSMFdOVFk0RUJCSjUmZW5jcnlwdGVkSWQ9QTA5OTM1MjYzSTlCWEhXN0xTU0RQJmVuY3J5cHRlZEFkSWQ9QTAxMzk3MzYzQktQVENFTUtJNzhJJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
     <hyperlink ref="E3" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="E95" r:id="rId59" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="E115" r:id="rId60" display="https://www.amazon.com/dp/B07QKDSCSM/ref=sspa_dk_detail_0?spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFCNUFXNjBMUkhRNjgmZW5jcnlwdGVkSWQ9QTAzODUwNTVOR1NCNFFLMjRWR0ImZW5jcnlwdGVkQWRJZD1BMDM1MDc1NjNWSVJZSlg1Q0pDTUkmd2lkZ2V0TmFtZT1zcF9kZXRhaWwyJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ&amp;th=1" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="E97" r:id="rId61" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
-    <hyperlink ref="E99" r:id="rId62" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
-    <hyperlink ref="E114" r:id="rId63" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
-    <hyperlink ref="E113" r:id="rId64" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="E97" r:id="rId59" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="E117" r:id="rId60" display="https://www.amazon.com/dp/B07QKDSCSM/ref=sspa_dk_detail_0?spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFCNUFXNjBMUkhRNjgmZW5jcnlwdGVkSWQ9QTAzODUwNTVOR1NCNFFLMjRWR0ImZW5jcnlwdGVkQWRJZD1BMDM1MDc1NjNWSVJZSlg1Q0pDTUkmd2lkZ2V0TmFtZT1zcF9kZXRhaWwyJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ&amp;th=1" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="E99" r:id="rId61" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="E101" r:id="rId62" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="E116" r:id="rId63" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="E115" r:id="rId64" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
     <hyperlink ref="E29" r:id="rId65" display="https://www.digikey.com/product-detail/en/citizen-finedevice-co-ltd/CFS-20632768DZFB/300-1002-ND/283736?utm_adgroup=Crystals%20Oscillators&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search&amp;utm_term=&amp;utm_content=Crystals%20Oscillators&amp;gclid=EAIaIQobChMIrI-y8dvf6gIVgobACh05Cwq-EAAYASAAEgJ-LvD_BwE" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
-    <hyperlink ref="E84" r:id="rId66" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
-    <hyperlink ref="E81" r:id="rId67" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
-    <hyperlink ref="E80" r:id="rId68" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
-    <hyperlink ref="E85" r:id="rId69" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
-    <hyperlink ref="C79" r:id="rId70" display="https://store.ncd.io/product/feather-battery-i2c-shield-for-particle-and-feather-modules/" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="E79" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="E85" r:id="rId66" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="E82" r:id="rId67" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="E81" r:id="rId68" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="E86" r:id="rId69" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="C80" r:id="rId70" display="https://store.ncd.io/product/feather-battery-i2c-shield-for-particle-and-feather-modules/" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="E80" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
     <hyperlink ref="E55" r:id="rId72" xr:uid="{CB9AA7F3-57D3-4035-9B10-D6E06BA90642}"/>
     <hyperlink ref="E56" r:id="rId73" xr:uid="{CD5B5197-64EF-49EF-91BD-2559DCFA1A39}"/>
     <hyperlink ref="E57" r:id="rId74" xr:uid="{6673B4F9-7D5C-42C3-A449-534270670C62}"/>
     <hyperlink ref="E51" r:id="rId75" xr:uid="{7BEE6173-67BD-462D-93F3-8868348A9E43}"/>
-    <hyperlink ref="E89" r:id="rId76" display="https://www.amazon.com/Screwdriver-Flathead-Phillips-Pentalobe-Different/dp/B0872XMTKS/ref=sr_1_2_sspa?crid=33O94WILFA3IZ&amp;dchild=1&amp;keywords=mini+screwdriver+set&amp;qid=1598205307&amp;sprefix=mini+screw%2Caps%2C201&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExMEY2S0QwRE9XR01UJmVuY3J5cHRlZElkPUEwNzIwODY1MjVGV1BCNDNFNkowRyZlbmNyeXB0ZWRBZElkPUExMDAyMjM5NFpSMkVPTlBSN0ZDJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{19DAF842-E937-4DB9-89CA-2282F04D2AEA}"/>
+    <hyperlink ref="E91" r:id="rId76" display="https://www.amazon.com/Screwdriver-Flathead-Phillips-Pentalobe-Different/dp/B0872XMTKS/ref=sr_1_2_sspa?crid=33O94WILFA3IZ&amp;dchild=1&amp;keywords=mini+screwdriver+set&amp;qid=1598205307&amp;sprefix=mini+screw%2Caps%2C201&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExMEY2S0QwRE9XR01UJmVuY3J5cHRlZElkPUEwNzIwODY1MjVGV1BCNDNFNkowRyZlbmNyeXB0ZWRBZElkPUExMDAyMjM5NFpSMkVPTlBSN0ZDJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{19DAF842-E937-4DB9-89CA-2282F04D2AEA}"/>
     <hyperlink ref="E6" r:id="rId77" xr:uid="{B485A6B6-7307-4EAA-A186-31CAA890A0BC}"/>
-    <hyperlink ref="E103" r:id="rId78" xr:uid="{70F21853-AE4C-4BEC-9F14-C2DC1DDCC3B4}"/>
-    <hyperlink ref="E76" r:id="rId79" xr:uid="{23C2A1DE-EDE1-4FE6-90BB-24BA9B7A433E}"/>
+    <hyperlink ref="E105" r:id="rId78" xr:uid="{70F21853-AE4C-4BEC-9F14-C2DC1DDCC3B4}"/>
+    <hyperlink ref="E77" r:id="rId79" xr:uid="{23C2A1DE-EDE1-4FE6-90BB-24BA9B7A433E}"/>
     <hyperlink ref="E14" r:id="rId80" xr:uid="{AA5B840A-EAA7-438B-AC90-9BD9F369A790}"/>
-    <hyperlink ref="E106" r:id="rId81" xr:uid="{BFF0F66D-BAE5-409E-9D4D-2406089A97E9}"/>
+    <hyperlink ref="E108" r:id="rId81" xr:uid="{BFF0F66D-BAE5-409E-9D4D-2406089A97E9}"/>
     <hyperlink ref="E64" r:id="rId82" xr:uid="{E22E05A0-7702-4DD5-A4C2-BD50049E3BED}"/>
     <hyperlink ref="E26" r:id="rId83" display="https://www.amazon.com/Smraza-Helicopter-Airplane-Control-Arduino/dp/B07L2SF3R4/ref=sr_1_2_sspa?dchild=1&amp;keywords=servo+motors&amp;qid=1627326343&amp;sr=8-2-spons&amp;psc=1&amp;smid=AMIHZKLK542FQ&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUE0T1dLTFVJNkJYSTkmZW5jcnlwdGVkSWQ9QTA1Mjc3MzhQMlkzQ0ZZV1ZNUlImZW5jcnlwdGVkQWRJZD1BMDIwNzMwN0dRSDFXTkhNVURFNCZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=" xr:uid="{5F7D6829-E8F9-4418-B2CF-E737838DD2F0}"/>
     <hyperlink ref="E25" r:id="rId84" display="https://www.amazon.com/Matrix-Membrane-Switch-Keyboard-Arduino/dp/B07THCLGCZ/ref=sr_1_1_sspa?crid=11VSDXYN2F69R&amp;dchild=1&amp;keywords=keypad+arduino&amp;qid=1627326563&amp;sprefix=key+pads+ar%2Caps%2C227&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUE3UzVCUzNCUU01SUcmZW5jcnlwdGVkSWQ9QTA5NTA5MDEyWVc0R0w5VVRDTlFTJmVuY3J5cHRlZEFkSWQ9QTAyMjI5MDgyTFJVQlpLUExKVTEzJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{C7C18D08-2962-4850-A7D4-1A2C548DEB0C}"/>
-    <hyperlink ref="E74" r:id="rId85" display="https://www.amazon.com/WOWOONE-Laser-Diode-30pcs-Diameter/dp/B08R9XBVM3/ref=pd_b2b_qd_subs_1/134-6156851-5388530?pd_rd_w=qcbyD&amp;pf_rd_p=96b0f924-31c1-4af6-b03c-4e4f775bb59f&amp;pf_rd_r=6B5YQX1QH83S137RP9CS&amp;pd_rd_r=d6edc9c0-9f8d-4f15-be09-461639b468bb&amp;pd_rd_wg=MUKdO&amp;pd_rd_i=B08R9XBVM3&amp;psc=1" xr:uid="{6D60E322-6434-4EBB-BD9E-3CE8910CF4D7}"/>
-    <hyperlink ref="E91" r:id="rId86" xr:uid="{B33FFFB3-AB65-4E96-B0B2-C5B323D825AB}"/>
+    <hyperlink ref="E75" r:id="rId85" display="https://www.amazon.com/WOWOONE-Laser-Diode-30pcs-Diameter/dp/B08R9XBVM3/ref=pd_b2b_qd_subs_1/134-6156851-5388530?pd_rd_w=qcbyD&amp;pf_rd_p=96b0f924-31c1-4af6-b03c-4e4f775bb59f&amp;pf_rd_r=6B5YQX1QH83S137RP9CS&amp;pd_rd_r=d6edc9c0-9f8d-4f15-be09-461639b468bb&amp;pd_rd_wg=MUKdO&amp;pd_rd_i=B08R9XBVM3&amp;psc=1" xr:uid="{6D60E322-6434-4EBB-BD9E-3CE8910CF4D7}"/>
+    <hyperlink ref="E93" r:id="rId86" xr:uid="{B33FFFB3-AB65-4E96-B0B2-C5B323D825AB}"/>
   </hyperlinks>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6291,15 +6377,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002E75A16FF431314587A6EFE715708639" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3845378365f05132d6f717dccfddac90">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c68989fb-d827-4f0c-be61-ce0fb4a2ca35" xmlns:ns3="ceb5a5b3-a521-4149-a5a6-8f2ebd45356c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b457bb54ec30cf46f3fea67e83ae68c" ns2:_="" ns3:_="">
     <xsd:import namespace="c68989fb-d827-4f0c-be61-ce0fb4a2ca35"/>
@@ -6516,6 +6593,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6523,14 +6609,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58CD0F9C-796C-40DA-891C-7A92FF34C67A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA096413-5493-4E6F-BFCB-1B6A0AC20663}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6549,6 +6627,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58CD0F9C-796C-40DA-891C-7A92FF34C67A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{623B2E16-5227-4FB6-A3C3-1FFAD3C257CB}">
   <ds:schemaRefs>

--- a/IoT_Parts.xlsx
+++ b/IoT_Parts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IoT_Instructor\Documents\IoT\class_slides\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IoTPa\Documents\IoT\class_slides\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAFD01C-E40E-49F8-B3A2-1594DADCBB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B771ECEB-1974-49E8-981C-006CAD84679E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="-120" windowWidth="37245" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -1781,8 +1781,8 @@
   </sheetPr>
   <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1790,12 +1790,12 @@
     <col min="1" max="1" width="13.5703125" style="29" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="28" style="3" hidden="1" customWidth="1"/>
     <col min="10" max="11" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="35.140625" style="11" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="1" hidden="1" customWidth="1"/>
@@ -1872,7 +1872,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="19">
-        <f>F2*G2</f>
+        <f t="shared" ref="H2:H17" si="0">F2*G2</f>
         <v>39.979999999999997</v>
       </c>
       <c r="I2" s="19">
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="6">
-        <f>J2*F2</f>
+        <f t="shared" ref="K2:K15" si="1">J2*F2</f>
         <v>19.989999999999998</v>
       </c>
       <c r="L2" s="17"/>
@@ -1914,7 +1914,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="19">
-        <f>F3*G3</f>
+        <f t="shared" si="0"/>
         <v>199.52</v>
       </c>
       <c r="I3" s="19">
@@ -1925,7 +1925,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="6">
-        <f>J3*F3</f>
+        <f t="shared" si="1"/>
         <v>124.7</v>
       </c>
       <c r="L3" s="17"/>
@@ -1956,7 +1956,7 @@
         <v>16</v>
       </c>
       <c r="H4" s="19">
-        <f>F4*G4</f>
+        <f t="shared" si="0"/>
         <v>95.68</v>
       </c>
       <c r="I4" s="19">
@@ -1967,7 +1967,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="6">
-        <f>J4*F4</f>
+        <f t="shared" si="1"/>
         <v>95.68</v>
       </c>
       <c r="L4" s="17"/>
@@ -1998,7 +1998,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="19">
-        <f>F5*G5</f>
+        <f t="shared" si="0"/>
         <v>478.26</v>
       </c>
       <c r="I5" s="19">
@@ -2009,7 +2009,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="6">
-        <f>J5*F5</f>
+        <f t="shared" si="1"/>
         <v>425.12</v>
       </c>
       <c r="L5" s="17"/>
@@ -2040,7 +2040,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="19">
-        <f>F6*G6</f>
+        <f t="shared" si="0"/>
         <v>55.96</v>
       </c>
       <c r="I6" s="19">
@@ -2051,7 +2051,7 @@
         <v>3</v>
       </c>
       <c r="K6" s="6">
-        <f>J6*F6</f>
+        <f t="shared" si="1"/>
         <v>41.97</v>
       </c>
       <c r="L6" s="17"/>
@@ -2082,7 +2082,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="19">
-        <f>F7*G7</f>
+        <f t="shared" si="0"/>
         <v>11.99</v>
       </c>
       <c r="I7" s="19">
@@ -2093,7 +2093,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="6">
-        <f>J7*F7</f>
+        <f t="shared" si="1"/>
         <v>11.99</v>
       </c>
       <c r="L7" s="17"/>
@@ -2124,7 +2124,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="19">
-        <f>F8*G8</f>
+        <f t="shared" si="0"/>
         <v>119.92</v>
       </c>
       <c r="I8" s="19">
@@ -2135,7 +2135,7 @@
         <v>8</v>
       </c>
       <c r="K8" s="6">
-        <f>J8*F8</f>
+        <f t="shared" si="1"/>
         <v>119.92</v>
       </c>
       <c r="L8" s="17"/>
@@ -2166,7 +2166,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="19">
-        <f>F9*G9</f>
+        <f t="shared" si="0"/>
         <v>47.44</v>
       </c>
       <c r="I9" s="19">
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="6">
-        <f>J9*F9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L9" s="17"/>
@@ -2208,7 +2208,7 @@
         <v>16</v>
       </c>
       <c r="H10" s="19">
-        <f>F10*G10</f>
+        <f t="shared" si="0"/>
         <v>351.68</v>
       </c>
       <c r="I10" s="19">
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="6">
-        <f>J10*F10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L10" s="17"/>
@@ -2250,7 +2250,7 @@
         <v>8</v>
       </c>
       <c r="H11" s="19">
-        <f>F11*G11</f>
+        <f t="shared" si="0"/>
         <v>61.44</v>
       </c>
       <c r="I11" s="19">
@@ -2261,7 +2261,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="6">
-        <f>J11*F11</f>
+        <f t="shared" si="1"/>
         <v>15.36</v>
       </c>
       <c r="L11" s="17"/>
@@ -2292,7 +2292,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="19">
-        <f>F12*G12</f>
+        <f t="shared" si="0"/>
         <v>16.989999999999998</v>
       </c>
       <c r="I12" s="19">
@@ -2303,7 +2303,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="6">
-        <f>J12*F12</f>
+        <f t="shared" si="1"/>
         <v>16.989999999999998</v>
       </c>
       <c r="L12" s="17"/>
@@ -2334,7 +2334,7 @@
         <v>18</v>
       </c>
       <c r="H13" s="19">
-        <f>F13*G13</f>
+        <f t="shared" si="0"/>
         <v>449.82</v>
       </c>
       <c r="I13" s="19">
@@ -2345,7 +2345,7 @@
         <v>16</v>
       </c>
       <c r="K13" s="6">
-        <f>J13*F13</f>
+        <f t="shared" si="1"/>
         <v>399.84</v>
       </c>
       <c r="L13" s="17"/>
@@ -2376,7 +2376,7 @@
         <v>18</v>
       </c>
       <c r="H14" s="19">
-        <f>F14*G14</f>
+        <f t="shared" si="0"/>
         <v>143.1</v>
       </c>
       <c r="I14" s="17">
@@ -2387,7 +2387,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="6">
-        <f>J14*F14</f>
+        <f t="shared" si="1"/>
         <v>127.2</v>
       </c>
       <c r="L14" s="17"/>
@@ -2418,7 +2418,7 @@
         <v>18</v>
       </c>
       <c r="H15" s="19">
-        <f>F15*G15</f>
+        <f t="shared" si="0"/>
         <v>135</v>
       </c>
       <c r="I15" s="19">
@@ -2429,7 +2429,7 @@
         <v>15</v>
       </c>
       <c r="K15" s="6">
-        <f>J15*F15</f>
+        <f t="shared" si="1"/>
         <v>112.5</v>
       </c>
       <c r="L15" s="17"/>
@@ -2460,7 +2460,7 @@
         <v>2</v>
       </c>
       <c r="H16" s="19">
-        <f>F16*G16</f>
+        <f t="shared" si="0"/>
         <v>19.98</v>
       </c>
       <c r="I16" s="19">
@@ -2497,7 +2497,7 @@
         <v>3</v>
       </c>
       <c r="H17" s="19">
-        <f>F17*G17</f>
+        <f t="shared" si="0"/>
         <v>23.97</v>
       </c>
       <c r="I17" s="19">
@@ -2608,11 +2608,11 @@
         <v>18</v>
       </c>
       <c r="H20" s="19">
-        <f>F20*G20</f>
+        <f t="shared" ref="H20:H44" si="2">F20*G20</f>
         <v>53.1</v>
       </c>
       <c r="I20" s="19">
-        <f>0.75*H20</f>
+        <f t="shared" ref="I20:I25" si="3">0.75*H20</f>
         <v>39.825000000000003</v>
       </c>
       <c r="J20" s="7">
@@ -2650,11 +2650,11 @@
         <v>18</v>
       </c>
       <c r="H21" s="19">
-        <f>F21*G21</f>
+        <f t="shared" si="2"/>
         <v>53.1</v>
       </c>
       <c r="I21" s="19">
-        <f>0.75*H21</f>
+        <f t="shared" si="3"/>
         <v>39.825000000000003</v>
       </c>
       <c r="J21" s="7">
@@ -2692,11 +2692,11 @@
         <v>18</v>
       </c>
       <c r="H22" s="19">
-        <f>F22*G22</f>
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="I22" s="19">
-        <f>0.75*H22</f>
+        <f t="shared" si="3"/>
         <v>101.25</v>
       </c>
       <c r="J22" s="7">
@@ -2734,11 +2734,11 @@
         <v>18</v>
       </c>
       <c r="H23" s="19">
-        <f>F23*G23</f>
+        <f t="shared" si="2"/>
         <v>98.100000000000009</v>
       </c>
       <c r="I23" s="19">
-        <f>0.75*H23</f>
+        <f t="shared" si="3"/>
         <v>73.575000000000003</v>
       </c>
       <c r="J23" s="7">
@@ -2776,11 +2776,11 @@
         <v>18</v>
       </c>
       <c r="H24" s="19">
-        <f>F24*G24</f>
+        <f t="shared" si="2"/>
         <v>296.82</v>
       </c>
       <c r="I24" s="19">
-        <f>0.75*H24</f>
+        <f t="shared" si="3"/>
         <v>222.61500000000001</v>
       </c>
       <c r="J24" s="7">
@@ -2818,11 +2818,11 @@
         <v>4</v>
       </c>
       <c r="H25" s="19">
-        <f>F25*G25</f>
+        <f t="shared" si="2"/>
         <v>27.52</v>
       </c>
       <c r="I25" s="19">
-        <f>0.75*H25</f>
+        <f t="shared" si="3"/>
         <v>20.64</v>
       </c>
       <c r="J25" s="7"/>
@@ -2855,7 +2855,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="19">
-        <f>F26*G26</f>
+        <f t="shared" si="2"/>
         <v>35.979999999999997</v>
       </c>
       <c r="I26" s="19">
@@ -2892,7 +2892,7 @@
         <v>11</v>
       </c>
       <c r="H27" s="25">
-        <f>F27*G27</f>
+        <f t="shared" si="2"/>
         <v>142.89000000000001</v>
       </c>
       <c r="I27" s="25">
@@ -2934,7 +2934,7 @@
         <v>9</v>
       </c>
       <c r="H28" s="19">
-        <f>F28*G28</f>
+        <f t="shared" si="2"/>
         <v>179.91</v>
       </c>
       <c r="I28" s="19">
@@ -2976,7 +2976,7 @@
         <v>100</v>
       </c>
       <c r="H29" s="19">
-        <f>F29*G29</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I29" s="19">
@@ -3018,7 +3018,7 @@
         <v>18</v>
       </c>
       <c r="H30" s="19">
-        <f>F30*G30</f>
+        <f t="shared" si="2"/>
         <v>630</v>
       </c>
       <c r="I30" s="19">
@@ -3062,7 +3062,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="19">
-        <f>F31*G31</f>
+        <f t="shared" si="2"/>
         <v>4.8899999999999997</v>
       </c>
       <c r="I31" s="19">
@@ -3099,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="19">
-        <f>F32*G32</f>
+        <f t="shared" si="2"/>
         <v>8.99</v>
       </c>
       <c r="I32" s="19">
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="6">
-        <f>J32*F32</f>
+        <f t="shared" ref="K32:K38" si="4">J32*F32</f>
         <v>0</v>
       </c>
       <c r="L32" s="17"/>
@@ -3141,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="19">
-        <f>F33*G33</f>
+        <f t="shared" si="2"/>
         <v>17.95</v>
       </c>
       <c r="I33" s="19">
@@ -3152,7 +3152,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="6">
-        <f>J33*F33</f>
+        <f t="shared" si="4"/>
         <v>17.95</v>
       </c>
       <c r="L33" s="17"/>
@@ -3183,7 +3183,7 @@
         <v>4</v>
       </c>
       <c r="H34" s="19">
-        <f>F34*G34</f>
+        <f t="shared" si="2"/>
         <v>55.52</v>
       </c>
       <c r="I34" s="19">
@@ -3194,7 +3194,7 @@
         <v>3</v>
       </c>
       <c r="K34" s="6">
-        <f>J34*F34</f>
+        <f t="shared" si="4"/>
         <v>41.64</v>
       </c>
       <c r="L34" s="17"/>
@@ -3225,7 +3225,7 @@
         <v>18</v>
       </c>
       <c r="H35" s="19">
-        <f>F35*G35</f>
+        <f t="shared" si="2"/>
         <v>178.20000000000002</v>
       </c>
       <c r="I35" s="19">
@@ -3236,7 +3236,7 @@
         <v>10</v>
       </c>
       <c r="K35" s="6">
-        <f>J35*F35</f>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="L35" s="17"/>
@@ -3267,7 +3267,7 @@
         <v>18</v>
       </c>
       <c r="H36" s="19">
-        <f>F36*G36</f>
+        <f t="shared" si="2"/>
         <v>207</v>
       </c>
       <c r="I36" s="19">
@@ -3278,7 +3278,7 @@
         <v>10</v>
       </c>
       <c r="K36" s="6">
-        <f>J36*F36</f>
+        <f t="shared" si="4"/>
         <v>115</v>
       </c>
       <c r="L36" s="17"/>
@@ -3309,7 +3309,7 @@
         <v>5</v>
       </c>
       <c r="H37" s="19">
-        <f>F37*G37</f>
+        <f t="shared" si="2"/>
         <v>129.94999999999999</v>
       </c>
       <c r="I37" s="19">
@@ -3320,7 +3320,7 @@
         <v>2</v>
       </c>
       <c r="K37" s="6">
-        <f>J37*F37</f>
+        <f t="shared" si="4"/>
         <v>51.98</v>
       </c>
       <c r="L37" s="17"/>
@@ -3351,7 +3351,7 @@
         <v>4</v>
       </c>
       <c r="H38" s="19">
-        <f>F38*G38</f>
+        <f t="shared" si="2"/>
         <v>47.96</v>
       </c>
       <c r="I38" s="19">
@@ -3362,7 +3362,7 @@
         <v>3</v>
       </c>
       <c r="K38" s="6">
-        <f>J38*F38</f>
+        <f t="shared" si="4"/>
         <v>35.97</v>
       </c>
       <c r="L38" s="17"/>
@@ -3393,7 +3393,7 @@
         <v>3</v>
       </c>
       <c r="H39" s="19">
-        <f>F39*G39</f>
+        <f t="shared" si="2"/>
         <v>16.47</v>
       </c>
       <c r="I39" s="19">
@@ -3430,7 +3430,7 @@
         <v>18</v>
       </c>
       <c r="H40" s="19">
-        <f>F40*G40</f>
+        <f t="shared" si="2"/>
         <v>152.82</v>
       </c>
       <c r="I40" s="19">
@@ -3472,7 +3472,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="19">
-        <f>F41*G41</f>
+        <f t="shared" si="2"/>
         <v>6.95</v>
       </c>
       <c r="I41" s="19">
@@ -3509,7 +3509,7 @@
         <v>4</v>
       </c>
       <c r="H42" s="19">
-        <f>F42*G42</f>
+        <f t="shared" si="2"/>
         <v>47.96</v>
       </c>
       <c r="I42" s="19">
@@ -3551,7 +3551,7 @@
         <v>4</v>
       </c>
       <c r="H43" s="19">
-        <f>F43*G43</f>
+        <f t="shared" si="2"/>
         <v>33.96</v>
       </c>
       <c r="I43" s="19">
@@ -3589,7 +3589,7 @@
         <v>16</v>
       </c>
       <c r="H44" s="19">
-        <f>F44*G44</f>
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
       <c r="I44" s="19">
@@ -3678,7 +3678,7 @@
         <v>1</v>
       </c>
       <c r="H47" s="57">
-        <f>F47*G47</f>
+        <f t="shared" ref="H47:H57" si="5">F47*G47</f>
         <v>149.99</v>
       </c>
       <c r="I47" s="19">
@@ -3689,7 +3689,7 @@
         <v>1</v>
       </c>
       <c r="K47" s="42">
-        <f>J47*F47</f>
+        <f t="shared" ref="K47:K53" si="6">J47*F47</f>
         <v>149.99</v>
       </c>
       <c r="L47" s="41"/>
@@ -3720,7 +3720,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="19">
-        <f>F48*G48</f>
+        <f t="shared" si="5"/>
         <v>149.99</v>
       </c>
       <c r="I48" s="19">
@@ -3731,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="6">
-        <f>J48*F48</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L48" s="17"/>
@@ -3762,7 +3762,7 @@
         <v>2</v>
       </c>
       <c r="H49" s="25">
-        <f>F49*G49</f>
+        <f t="shared" si="5"/>
         <v>299.98</v>
       </c>
       <c r="I49" s="25">
@@ -3773,7 +3773,7 @@
         <v>1</v>
       </c>
       <c r="K49" s="6">
-        <f>J49*F49</f>
+        <f t="shared" si="6"/>
         <v>149.99</v>
       </c>
       <c r="L49" s="17"/>
@@ -3804,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="19">
-        <f>F50*G50</f>
+        <f t="shared" si="5"/>
         <v>118.9</v>
       </c>
       <c r="I50" s="19">
@@ -3815,7 +3815,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="6">
-        <f>J50*F50</f>
+        <f t="shared" si="6"/>
         <v>118.9</v>
       </c>
       <c r="L50" s="17"/>
@@ -3846,18 +3846,18 @@
         <v>1</v>
       </c>
       <c r="H51" s="19">
-        <f>F51*G51</f>
+        <f t="shared" si="5"/>
         <v>18.989999999999998</v>
       </c>
       <c r="I51" s="19">
-        <f>H51</f>
+        <f t="shared" ref="I51:I57" si="7">H51</f>
         <v>18.989999999999998</v>
       </c>
       <c r="J51" s="7">
         <v>1</v>
       </c>
       <c r="K51" s="8">
-        <f>J51*F51</f>
+        <f t="shared" si="6"/>
         <v>18.989999999999998</v>
       </c>
       <c r="L51" s="17"/>
@@ -3888,18 +3888,18 @@
         <v>3</v>
       </c>
       <c r="H52" s="19">
-        <f>F52*G52</f>
+        <f t="shared" si="5"/>
         <v>299.96999999999997</v>
       </c>
       <c r="I52" s="19">
-        <f>H52</f>
+        <f t="shared" si="7"/>
         <v>299.96999999999997</v>
       </c>
       <c r="J52" s="5">
         <v>0</v>
       </c>
       <c r="K52" s="6">
-        <f>J52*F52</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L52" s="17"/>
@@ -3930,18 +3930,18 @@
         <v>3</v>
       </c>
       <c r="H53" s="19">
-        <f>F53*G53</f>
+        <f t="shared" si="5"/>
         <v>449.97</v>
       </c>
       <c r="I53" s="19">
-        <f>H53</f>
+        <f t="shared" si="7"/>
         <v>449.97</v>
       </c>
       <c r="J53" s="5">
         <v>0</v>
       </c>
       <c r="K53" s="6">
-        <f>J53*F53</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L53" s="17"/>
@@ -3972,11 +3972,11 @@
         <v>1</v>
       </c>
       <c r="H54" s="19">
-        <f>F54*G54</f>
+        <f t="shared" si="5"/>
         <v>49.95</v>
       </c>
       <c r="I54" s="19">
-        <f>H54</f>
+        <f t="shared" si="7"/>
         <v>49.95</v>
       </c>
       <c r="J54" s="7"/>
@@ -4009,11 +4009,11 @@
         <v>1</v>
       </c>
       <c r="H55" s="19">
-        <f>F55*G55</f>
+        <f t="shared" si="5"/>
         <v>49.95</v>
       </c>
       <c r="I55" s="19">
-        <f>H55</f>
+        <f t="shared" si="7"/>
         <v>49.95</v>
       </c>
       <c r="J55" s="7">
@@ -4051,11 +4051,11 @@
         <v>1</v>
       </c>
       <c r="H56" s="19">
-        <f>F56*G56</f>
+        <f t="shared" si="5"/>
         <v>49.95</v>
       </c>
       <c r="I56" s="19">
-        <f>H56</f>
+        <f t="shared" si="7"/>
         <v>49.95</v>
       </c>
       <c r="J56" s="7">
@@ -4093,11 +4093,11 @@
         <v>1</v>
       </c>
       <c r="H57" s="19">
-        <f>F57*G57</f>
+        <f t="shared" si="5"/>
         <v>49.95</v>
       </c>
       <c r="I57" s="19">
-        <f>H57</f>
+        <f t="shared" si="7"/>
         <v>49.95</v>
       </c>
       <c r="J57" s="7">
@@ -4318,7 +4318,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="19">
-        <f>F64*G64</f>
+        <f t="shared" ref="H64:H101" si="8">F64*G64</f>
         <v>36.99</v>
       </c>
       <c r="I64" s="19"/>
@@ -4352,7 +4352,7 @@
         <v>5</v>
       </c>
       <c r="H65" s="19">
-        <f>F65*G65</f>
+        <f t="shared" si="8"/>
         <v>289</v>
       </c>
       <c r="I65" s="17"/>
@@ -4391,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="19">
-        <f>F66*G66</f>
+        <f t="shared" si="8"/>
         <v>4.3600000000000003</v>
       </c>
       <c r="I66" s="17"/>
@@ -4425,7 +4425,7 @@
         <v>2</v>
       </c>
       <c r="H67" s="19">
-        <f>F67*G67</f>
+        <f t="shared" si="8"/>
         <v>59.9</v>
       </c>
       <c r="I67" s="17"/>
@@ -4459,7 +4459,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="19">
-        <f>F68*G68</f>
+        <f t="shared" si="8"/>
         <v>9.99</v>
       </c>
       <c r="I68" s="17"/>
@@ -4493,7 +4493,7 @@
         <v>4</v>
       </c>
       <c r="H69" s="19">
-        <f>F69*G69</f>
+        <f t="shared" si="8"/>
         <v>379.96</v>
       </c>
       <c r="I69" s="17"/>
@@ -4532,7 +4532,7 @@
         <v>2</v>
       </c>
       <c r="H70" s="19">
-        <f>F70*G70</f>
+        <f t="shared" si="8"/>
         <v>179.98</v>
       </c>
       <c r="I70" s="17"/>
@@ -4571,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="H71" s="19">
-        <f>F71*G71</f>
+        <f t="shared" si="8"/>
         <v>172.77</v>
       </c>
       <c r="I71" s="17"/>
@@ -4610,7 +4610,7 @@
         <v>2</v>
       </c>
       <c r="H72" s="25">
-        <f>F72*G72</f>
+        <f t="shared" si="8"/>
         <v>11.58</v>
       </c>
       <c r="I72" s="25"/>
@@ -4649,7 +4649,7 @@
         <v>2</v>
       </c>
       <c r="H73" s="19">
-        <f>F73*G73</f>
+        <f t="shared" si="8"/>
         <v>17.18</v>
       </c>
       <c r="I73" s="17"/>
@@ -4683,7 +4683,7 @@
         <v>1</v>
       </c>
       <c r="H74" s="19">
-        <f>F74*G74</f>
+        <f t="shared" si="8"/>
         <v>11.98</v>
       </c>
       <c r="I74" s="17"/>
@@ -4717,7 +4717,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="19">
-        <f>F75*G75</f>
+        <f t="shared" si="8"/>
         <v>11.99</v>
       </c>
       <c r="I75" s="17"/>
@@ -4751,7 +4751,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="19">
-        <f>F76*G76</f>
+        <f t="shared" si="8"/>
         <v>19.989999999999998</v>
       </c>
       <c r="I76" s="19"/>
@@ -4759,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="K76" s="6">
-        <f>J76*F76</f>
+        <f t="shared" ref="K76:K86" si="9">J76*F76</f>
         <v>19.989999999999998</v>
       </c>
       <c r="L76" s="17"/>
@@ -4790,7 +4790,7 @@
         <v>5</v>
       </c>
       <c r="H77" s="19">
-        <f>F77*G77</f>
+        <f t="shared" si="8"/>
         <v>139.75</v>
       </c>
       <c r="I77" s="17"/>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="6">
-        <f>J77*F77</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L77" s="17"/>
@@ -4829,7 +4829,7 @@
         <v>5</v>
       </c>
       <c r="H78" s="19">
-        <f>F78*G78</f>
+        <f t="shared" si="8"/>
         <v>554.5</v>
       </c>
       <c r="I78" s="17"/>
@@ -4837,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="K78" s="6">
-        <f>J78*F78</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L78" s="17"/>
@@ -4868,7 +4868,7 @@
         <v>18</v>
       </c>
       <c r="H79" s="19">
-        <f>F79*G79</f>
+        <f t="shared" si="8"/>
         <v>287.09999999999997</v>
       </c>
       <c r="I79" s="17"/>
@@ -4876,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="K79" s="6">
-        <f>J79*F79</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L79" s="17"/>
@@ -4907,7 +4907,7 @@
         <v>5</v>
       </c>
       <c r="H80" s="19">
-        <f>F80*G80</f>
+        <f t="shared" si="8"/>
         <v>129.75</v>
       </c>
       <c r="I80" s="17"/>
@@ -4915,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="K80" s="6">
-        <f>J80*F80</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L80" s="17"/>
@@ -4946,7 +4946,7 @@
         <v>5</v>
       </c>
       <c r="H81" s="19">
-        <f>F81*G81</f>
+        <f t="shared" si="8"/>
         <v>214.75</v>
       </c>
       <c r="I81" s="17"/>
@@ -4954,7 +4954,7 @@
         <v>2</v>
       </c>
       <c r="K81" s="6">
-        <f>J81*F81</f>
+        <f t="shared" si="9"/>
         <v>85.9</v>
       </c>
       <c r="L81" s="17"/>
@@ -4985,7 +4985,7 @@
         <v>5</v>
       </c>
       <c r="H82" s="19">
-        <f>F82*G82</f>
+        <f t="shared" si="8"/>
         <v>214.75</v>
       </c>
       <c r="I82" s="17"/>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="K82" s="6">
-        <f>J82*F82</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L82" s="17"/>
@@ -5024,7 +5024,7 @@
         <v>5</v>
       </c>
       <c r="H83" s="19">
-        <f>F83*G83</f>
+        <f t="shared" si="8"/>
         <v>264.75</v>
       </c>
       <c r="I83" s="17"/>
@@ -5032,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="6">
-        <f>J83*F83</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L83" s="17"/>
@@ -5063,7 +5063,7 @@
         <v>5</v>
       </c>
       <c r="H84" s="19">
-        <f>F84*G84</f>
+        <f t="shared" si="8"/>
         <v>289.75</v>
       </c>
       <c r="I84" s="17"/>
@@ -5071,7 +5071,7 @@
         <v>0</v>
       </c>
       <c r="K84" s="6">
-        <f>J84*F84</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L84" s="17"/>
@@ -5102,7 +5102,7 @@
         <v>5</v>
       </c>
       <c r="H85" s="19">
-        <f>F85*G85</f>
+        <f t="shared" si="8"/>
         <v>114.75</v>
       </c>
       <c r="I85" s="17"/>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="K85" s="6">
-        <f>J85*F85</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L85" s="17"/>
@@ -5141,7 +5141,7 @@
         <v>5</v>
       </c>
       <c r="H86" s="25">
-        <f>F86*G86</f>
+        <f t="shared" si="8"/>
         <v>124.75</v>
       </c>
       <c r="I86" s="22"/>
@@ -5149,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="K86" s="6">
-        <f>J86*F86</f>
+        <f t="shared" si="9"/>
         <v>24.95</v>
       </c>
       <c r="L86" s="17"/>
@@ -5180,7 +5180,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="19">
-        <f>F87*G87</f>
+        <f t="shared" si="8"/>
         <v>4.25</v>
       </c>
       <c r="I87" s="17"/>
@@ -5214,7 +5214,7 @@
         <v>5</v>
       </c>
       <c r="H88" s="19">
-        <f>F88*G88</f>
+        <f t="shared" si="8"/>
         <v>149.5</v>
       </c>
       <c r="I88" s="17"/>
@@ -5253,7 +5253,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="19">
-        <f>F89*G89</f>
+        <f t="shared" si="8"/>
         <v>9.99</v>
       </c>
       <c r="I89" s="17"/>
@@ -5290,7 +5290,7 @@
         <v>2</v>
       </c>
       <c r="H90" s="19">
-        <f>F90*G90</f>
+        <f t="shared" si="8"/>
         <v>19.600000000000001</v>
       </c>
       <c r="I90" s="19"/>
@@ -5324,7 +5324,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="19">
-        <f>F91*G91</f>
+        <f t="shared" si="8"/>
         <v>8.99</v>
       </c>
       <c r="I91" s="17"/>
@@ -5358,7 +5358,7 @@
         <v>8</v>
       </c>
       <c r="H92" s="19">
-        <f>F92*G92</f>
+        <f t="shared" si="8"/>
         <v>2072</v>
       </c>
       <c r="I92" s="17"/>
@@ -5397,7 +5397,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="19">
-        <f>F93*G93</f>
+        <f t="shared" si="8"/>
         <v>11.98</v>
       </c>
       <c r="I93" s="17"/>
@@ -5436,7 +5436,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="19">
-        <f>F94*G94</f>
+        <f t="shared" si="8"/>
         <v>13.39</v>
       </c>
       <c r="I94" s="17"/>
@@ -5470,7 +5470,7 @@
         <v>5</v>
       </c>
       <c r="H95" s="19">
-        <f>F95*G95</f>
+        <f t="shared" si="8"/>
         <v>64.95</v>
       </c>
       <c r="I95" s="17"/>
@@ -5509,7 +5509,7 @@
         <v>4</v>
       </c>
       <c r="H96" s="19">
-        <f>F96*G96</f>
+        <f t="shared" si="8"/>
         <v>51.96</v>
       </c>
       <c r="I96" s="17"/>
@@ -5543,7 +5543,7 @@
         <v>6</v>
       </c>
       <c r="H97" s="19">
-        <f>F97*G97</f>
+        <f t="shared" si="8"/>
         <v>99</v>
       </c>
       <c r="I97" s="17"/>
@@ -5582,7 +5582,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="19">
-        <f>F98*G98</f>
+        <f t="shared" si="8"/>
         <v>15.25</v>
       </c>
       <c r="I98" s="19"/>
@@ -5616,7 +5616,7 @@
         <v>6</v>
       </c>
       <c r="H99" s="19">
-        <f>F99*G99</f>
+        <f t="shared" si="8"/>
         <v>72</v>
       </c>
       <c r="I99" s="17"/>
@@ -5655,7 +5655,7 @@
         <v>4</v>
       </c>
       <c r="H100" s="19">
-        <f>F100*G100</f>
+        <f t="shared" si="8"/>
         <v>71.92</v>
       </c>
       <c r="I100" s="17"/>
@@ -5694,7 +5694,7 @@
         <v>1</v>
       </c>
       <c r="H101" s="19">
-        <f>F101*G101</f>
+        <f t="shared" si="8"/>
         <v>15.96</v>
       </c>
       <c r="I101" s="19"/>
@@ -5754,7 +5754,7 @@
         <v>5</v>
       </c>
       <c r="K103" s="6">
-        <f>J103*F103</f>
+        <f t="shared" ref="K103:K115" si="10">J103*F103</f>
         <v>24.75</v>
       </c>
       <c r="L103" s="17"/>
@@ -5788,7 +5788,7 @@
         <v>0</v>
       </c>
       <c r="K104" s="6">
-        <f>J104*F104</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L104" s="17"/>
@@ -5822,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="K105" s="6">
-        <f>J105*F105</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L105" s="17"/>
@@ -5856,7 +5856,7 @@
         <v>16</v>
       </c>
       <c r="K106" s="6">
-        <f>J106*F106</f>
+        <f t="shared" si="10"/>
         <v>127.2</v>
       </c>
       <c r="L106" s="17"/>
@@ -5890,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="K107" s="6">
-        <f>J107*F107</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L107" s="17"/>
@@ -5924,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="K108" s="6">
-        <f>J108*F108</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L108" s="17"/>
@@ -5958,7 +5958,7 @@
         <v>0</v>
       </c>
       <c r="K109" s="6">
-        <f>J109*F109</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L109" s="17"/>
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="K110" s="6">
-        <f>J110*F110</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L110" s="17"/>
@@ -6026,7 +6026,7 @@
         <v>10</v>
       </c>
       <c r="K111" s="6">
-        <f>J111*F111</f>
+        <f t="shared" si="10"/>
         <v>199.5</v>
       </c>
       <c r="L111" s="17"/>
@@ -6060,7 +6060,7 @@
         <v>0</v>
       </c>
       <c r="K112" s="6">
-        <f>J112*F112</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L112" s="17"/>
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="K113" s="6">
-        <f>J113*F113</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L113" s="17"/>
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="K114" s="6">
-        <f>J114*F114</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L114" s="17"/>
@@ -6162,7 +6162,7 @@
         <v>1</v>
       </c>
       <c r="K115" s="6">
-        <f>J115*F115</f>
+        <f t="shared" si="10"/>
         <v>5.69</v>
       </c>
       <c r="L115" s="33" t="s">
@@ -6282,7 +6282,7 @@
   </hyperlinks>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="83" fitToHeight="0" orientation="landscape" r:id="rId87"/>
+  <pageSetup scale="79" fitToHeight="0" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId87"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;K000000IoT Parts Inventory</oddHeader>
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
@@ -6291,15 +6291,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002E75A16FF431314587A6EFE715708639" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3845378365f05132d6f717dccfddac90">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c68989fb-d827-4f0c-be61-ce0fb4a2ca35" xmlns:ns3="ceb5a5b3-a521-4149-a5a6-8f2ebd45356c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b457bb54ec30cf46f3fea67e83ae68c" ns2:_="" ns3:_="">
     <xsd:import namespace="c68989fb-d827-4f0c-be61-ce0fb4a2ca35"/>
@@ -6516,6 +6507,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6523,14 +6523,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58CD0F9C-796C-40DA-891C-7A92FF34C67A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA096413-5493-4E6F-BFCB-1B6A0AC20663}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6549,6 +6541,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58CD0F9C-796C-40DA-891C-7A92FF34C67A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{623B2E16-5227-4FB6-A3C3-1FFAD3C257CB}">
   <ds:schemaRefs>
